--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
     <sheet name="1917" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="1919" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -385,7 +385,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,8 +409,8 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ")"</f>
-        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -425,8 +425,8 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ")"</f>
-        <v>insert into game (matchid, matchdate, game_type) values (1, '1916-07-02', 1)</v>
+        <f t="shared" ref="G2:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (1, '1916-07-02', 1);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -442,7 +442,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (2, '1916-07-06', 1)</v>
+        <v>insert into game (matchid, matchdate, game_type) values (2, '1916-07-06', 1);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (3, '1916-07-08', 1)</v>
+        <v>insert into game (matchid, matchdate, game_type) values (3, '1916-07-08', 1);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,7 +474,7 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (4, '1916-07-10', 1)</v>
+        <v>insert into game (matchid, matchdate, game_type) values (4, '1916-07-10', 1);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -490,7 +490,7 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (5, '1916-07-12', 1)</v>
+        <v>insert into game (matchid, matchdate, game_type) values (5, '1916-07-12', 1);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -506,7 +506,7 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (6, '1916-07-16', 1)</v>
+        <v>insert into game (matchid, matchdate, game_type) values (6, '1916-07-16', 1);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -529,8 +529,8 @@
         <v>5</v>
       </c>
       <c r="G9" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ") "</f>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type) </v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -553,8 +553,8 @@
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ") "</f>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (1, 1, 598, 4, 2, 2) </v>
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1, 1, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -579,8 +579,8 @@
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ref="G11:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A11 &amp; ", " &amp; B11 &amp; ", " &amp; C11 &amp; ", " &amp; D11 &amp; ", " &amp; E11 &amp; ", " &amp; F11 &amp; ") "</f>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (2, 1, 598, 1, 0, 1) </v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (2, 1, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -606,7 +606,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (3, 1, 56, 0, 0, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (3, 1, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,7 +632,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (4, 1, 56, 0, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (4, 1, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,7 +658,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (5, 2, 54, 6, 2, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (5, 2, 54, 6, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (6, 2, 54, 1, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (6, 2, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,7 +710,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (7, 2, 56, 1, 0, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (7, 2, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (8, 2, 56, 1, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (8, 2, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -762,7 +762,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (9, 3, 56, 1, 1, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (9, 3, 56, 1, 1, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -788,7 +788,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (10, 3, 56, 0, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (10, 3, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (11, 3, 55, 1, 1, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (11, 3, 55, 1, 1, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -840,7 +840,7 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (12, 3, 55, 1, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (12, 3, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (13, 4, 54, 1, 1, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (13, 4, 54, 1, 1, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -892,7 +892,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (14, 4, 54, 1, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (14, 4, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,7 +918,7 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (15, 4, 55, 1, 1, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (15, 4, 55, 1, 1, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -944,7 +944,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (16, 4, 55, 1, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (16, 4, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (17, 5, 598, 2, 2, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (17, 5, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -996,7 +996,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (18, 5, 598, 0, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (18, 5, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (19, 5, 55, 1, 0, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (19, 5, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (20, 5, 55, 0, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (20, 5, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (21, 6, 54, 0, 1, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (21, 6, 54, 0, 1, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (22, 6, 54, 0, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (22, 6, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (23, 6, 598, 0, 1, 2) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (23, 6, 598, 0, 1, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (24, 6, 598, 0, 0, 1) </v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (24, 6, 598, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>
@@ -1164,8 +1164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,8 +1190,8 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ")"</f>
-        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,8 +1206,8 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ")"</f>
-        <v>insert into game (matchid, matchdate, game_type) values (7, '1917-09-30', 1)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (7, '1917-09-30', 1);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,8 +1222,8 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (8, '1917-10-03', 1)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A3 &amp; ", '" &amp; B3 &amp; "', " &amp;C3 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (8, '1917-10-03', 1);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,8 +1238,8 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (9, '1917-10-06', 1)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A4 &amp; ", '" &amp; B4 &amp; "', " &amp;C4 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (9, '1917-10-06', 1);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1254,8 +1254,8 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (10, '1917-10-07', 1)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A5 &amp; ", '" &amp; B5 &amp; "', " &amp;C5 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (10, '1917-10-07', 1);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1270,8 +1270,8 @@
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (11, '1917-10-12', 1)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A6 &amp; ", '" &amp; B6 &amp; "', " &amp;C6 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (11, '1917-10-12', 1);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1286,8 +1286,8 @@
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (12, '1917-10-14', 1)</v>
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A7 &amp; ", '" &amp; B7 &amp; "', " &amp;C7 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (12, '1917-10-14', 1);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1310,8 +1310,8 @@
         <v>5</v>
       </c>
       <c r="G9" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ") "</f>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type) </v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1334,8 +1334,8 @@
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ") "</f>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (25, 7, 598, 4, 2, 2) </v>
+        <f t="shared" ref="G10:G33" si="0">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (25, 7, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1360,13 +1360,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (26, 7, 598, 2, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (26, 7, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <f t="shared" ref="A12:A33" si="1">A11+1</f>
         <v>27</v>
       </c>
       <c r="B12">
@@ -1386,13 +1386,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (27, 7, 56, 0, 0, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (27, 7, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B13">
@@ -1412,13 +1412,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (28, 7, 56, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (28, 7, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B14">
@@ -1438,13 +1438,13 @@
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (29, 8, 54, 4, 2, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (29, 8, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B15">
@@ -1464,13 +1464,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (30, 8, 54, 1, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (30, 8, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B16">
@@ -1490,13 +1490,13 @@
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (31, 8, 55, 2, 0, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (31, 8, 55, 2, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="B17">
@@ -1516,17 +1516,17 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (32, 8, 55, 2, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (32, 8, 55, 2, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18" si="3">B14+1</f>
+        <f t="shared" ref="B18" si="2">B14+1</f>
         <v>9</v>
       </c>
       <c r="C18">
@@ -1542,17 +1542,17 @@
         <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (33, 9, 54, 1, 2, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (33, 9, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19" si="4">B18</f>
+        <f t="shared" ref="B19" si="3">B18</f>
         <v>9</v>
       </c>
       <c r="C19">
@@ -1568,17 +1568,17 @@
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (34, 9, 54, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (34, 9, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="5">B18</f>
+        <f t="shared" ref="B20" si="4">B18</f>
         <v>9</v>
       </c>
       <c r="C20">
@@ -1594,17 +1594,17 @@
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (35, 9, 56, 0, 0, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (35, 9, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21" si="6">B18</f>
+        <f t="shared" ref="B21" si="5">B18</f>
         <v>9</v>
       </c>
       <c r="C21">
@@ -1620,17 +1620,17 @@
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (36, 9, 56, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (36, 9, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="7">B18+1</f>
+        <f t="shared" ref="B22" si="6">B18+1</f>
         <v>10</v>
       </c>
       <c r="C22">
@@ -1646,17 +1646,17 @@
         <v>2</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (37, 10, 598, 4, 2, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (37, 10, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="8">B22</f>
+        <f t="shared" ref="B23" si="7">B22</f>
         <v>10</v>
       </c>
       <c r="C23">
@@ -1672,17 +1672,17 @@
         <v>1</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (38, 10, 598, 2, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (38, 10, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="9">B22</f>
+        <f t="shared" ref="B24" si="8">B22</f>
         <v>10</v>
       </c>
       <c r="C24">
@@ -1698,17 +1698,17 @@
         <v>2</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (39, 10, 55, 0, 0, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (39, 10, 55, 0, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="10">B22</f>
+        <f t="shared" ref="B25" si="9">B22</f>
         <v>10</v>
       </c>
       <c r="C25">
@@ -1724,17 +1724,17 @@
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (40, 10, 55, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (40, 10, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="11">B22+1</f>
+        <f t="shared" ref="B26" si="10">B22+1</f>
         <v>11</v>
       </c>
       <c r="C26">
@@ -1750,17 +1750,17 @@
         <v>2</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (41, 11, 55, 5, 2, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (41, 11, 55, 5, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="12">B26</f>
+        <f t="shared" ref="B27" si="11">B26</f>
         <v>11</v>
       </c>
       <c r="C27">
@@ -1776,17 +1776,17 @@
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (42, 11, 55, 4, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (42, 11, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="13">B26</f>
+        <f t="shared" ref="B28" si="12">B26</f>
         <v>11</v>
       </c>
       <c r="C28">
@@ -1802,17 +1802,17 @@
         <v>2</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (43, 11, 56, 0, 0, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (43, 11, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="14">B26</f>
+        <f t="shared" ref="B29" si="13">B26</f>
         <v>11</v>
       </c>
       <c r="C29">
@@ -1828,17 +1828,17 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (44, 11, 56, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (44, 11, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="15">B26+1</f>
+        <f t="shared" ref="B30" si="14">B26+1</f>
         <v>12</v>
       </c>
       <c r="C30">
@@ -1854,17 +1854,17 @@
         <v>2</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (45, 12, 598, 1, 2, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (45, 12, 598, 1, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="16">B30</f>
+        <f t="shared" ref="B31" si="15">B30</f>
         <v>12</v>
       </c>
       <c r="C31">
@@ -1880,17 +1880,17 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (46, 12, 598, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (46, 12, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="17">B30</f>
+        <f t="shared" ref="B32" si="16">B30</f>
         <v>12</v>
       </c>
       <c r="C32">
@@ -1906,17 +1906,17 @@
         <v>2</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (47, 12, 54, 0, 0, 2) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (47, 12, 54, 0, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="18">B30</f>
+        <f t="shared" ref="B33" si="17">B30</f>
         <v>12</v>
       </c>
       <c r="C33">
@@ -1932,8 +1932,8 @@
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">insert into game_score (id, matchid, squad, goals, points, time_type) values (48, 12, 54, 0, 0, 1) </v>
+        <f t="shared" si="0"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (48, 12, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>
@@ -1943,12 +1943,1003 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1919-05-11"</f>
+        <v>1919-05-11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G8" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (13, '1919-05-11', 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1919-05-13"</f>
+        <v>1919-05-13</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (14, '1919-05-13', 1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1919-05-17"</f>
+        <v>1919-05-17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (15, '1919-05-17', 1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1919-05-18"</f>
+        <v>1919-05-18</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (16, '1919-05-18', 1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1919-05-22"</f>
+        <v>1919-05-22</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (17, '1919-05-22', 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1919-05-26"</f>
+        <v>1919-05-26</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (18, '1919-05-26', 1);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1919-05-29"</f>
+        <v>1919-05-29</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (19, '1919-05-29', 7);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11:G42" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A11 &amp; ", " &amp; B11 &amp; ", " &amp; C11 &amp; ", " &amp; D11 &amp; ", " &amp; E11 &amp; ", " &amp; F11 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (49, 13, 55, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>A11+1</f>
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <f>B11</f>
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (50, 13, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" ref="A13:A42" si="2">A12+1</f>
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <f>B11</f>
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (51, 13, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <f>B11</f>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (52, 13, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <f>B11+1</f>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>598</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (53, 14, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <f>B15</f>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>598</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (54, 14, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <f>B15</f>
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>54</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (55, 14, 54, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="B18">
+        <f>B15</f>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (56, 14, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="3">B15+1</f>
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (57, 15, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="4">B19</f>
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>598</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (58, 15, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="5">B19</f>
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (59, 15, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="6">B19</f>
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (60, 15, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="7">B19+1</f>
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (61, 16, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="8">B23</f>
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (62, 16, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="9">B23</f>
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (63, 16, 54, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="10">B23</f>
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (64, 16, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="11">B23+1</f>
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (65, 17, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="12">B27</f>
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (66, 17, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="13">B27</f>
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (67, 17, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="14">B27</f>
+        <v>17</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (68, 17, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="15">B27+1</f>
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (69, 18, 55, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="16">B31</f>
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (70, 18, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="17">B31</f>
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>598</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (71, 18, 598, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="18">B31</f>
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (72, 18, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="19">B31+1</f>
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (73, 19, 55, 0, 0, 4);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:B42" si="20">B35</f>
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (74, 19, 55, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>598</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (75, 19, 598, 0, 0, 4);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>598</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (76, 19, 598, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (77, 19, 55, 1, 2, 6);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (78, 19, 55, 0, 0, 5);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>598</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (79, 19, 598, 0, 0, 6);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>598</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (80, 19, 598, 0, 0, 5);</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
     <sheet name="1917" sheetId="2" r:id="rId2"/>
     <sheet name="1919" sheetId="4" r:id="rId3"/>
+    <sheet name="1920" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -384,9 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1164,9 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1190,7 +1187,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
@@ -1206,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type) values (7, '1917-09-30', 1);</v>
       </c>
     </row>
@@ -1222,7 +1219,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A3 &amp; ", '" &amp; B3 &amp; "', " &amp;C3 &amp; ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type) values (8, '1917-10-03', 1);</v>
       </c>
     </row>
@@ -1238,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A4 &amp; ", '" &amp; B4 &amp; "', " &amp;C4 &amp; ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type) values (9, '1917-10-06', 1);</v>
       </c>
     </row>
@@ -1254,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A5 &amp; ", '" &amp; B5 &amp; "', " &amp;C5 &amp; ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type) values (10, '1917-10-07', 1);</v>
       </c>
     </row>
@@ -1270,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A6 &amp; ", '" &amp; B6 &amp; "', " &amp;C6 &amp; ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type) values (11, '1917-10-12', 1);</v>
       </c>
     </row>
@@ -1286,7 +1283,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f>"insert into game (matchid, matchdate, game_type) values (" &amp; A7 &amp; ", '" &amp; B7 &amp; "', " &amp;C7 &amp; ");"</f>
+        <f t="shared" si="0"/>
         <v>insert into game (matchid, matchdate, game_type) values (12, '1917-10-14', 1);</v>
       </c>
     </row>
@@ -1334,7 +1331,7 @@
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G33" si="0">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (25, 7, 598, 4, 2, 2);</v>
       </c>
     </row>
@@ -1360,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (26, 7, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A33" si="1">A11+1</f>
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
         <v>27</v>
       </c>
       <c r="B12">
@@ -1386,13 +1383,13 @@
         <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (27, 7, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B13">
@@ -1412,13 +1409,13 @@
         <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (28, 7, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B14">
@@ -1438,13 +1435,13 @@
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (29, 8, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B15">
@@ -1464,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (30, 8, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B16">
@@ -1490,13 +1487,13 @@
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (31, 8, 55, 2, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B17">
@@ -1516,17 +1513,17 @@
         <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (32, 8, 55, 2, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18" si="2">B14+1</f>
+        <f t="shared" ref="B18" si="3">B14+1</f>
         <v>9</v>
       </c>
       <c r="C18">
@@ -1542,17 +1539,17 @@
         <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (33, 9, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19" si="3">B18</f>
+        <f t="shared" ref="B19" si="4">B18</f>
         <v>9</v>
       </c>
       <c r="C19">
@@ -1568,17 +1565,17 @@
         <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (34, 9, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="4">B18</f>
+        <f t="shared" ref="B20" si="5">B18</f>
         <v>9</v>
       </c>
       <c r="C20">
@@ -1594,17 +1591,17 @@
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (35, 9, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21" si="5">B18</f>
+        <f t="shared" ref="B21" si="6">B18</f>
         <v>9</v>
       </c>
       <c r="C21">
@@ -1620,17 +1617,17 @@
         <v>1</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (36, 9, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="6">B18+1</f>
+        <f t="shared" ref="B22" si="7">B18+1</f>
         <v>10</v>
       </c>
       <c r="C22">
@@ -1646,17 +1643,17 @@
         <v>2</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (37, 10, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="7">B22</f>
+        <f t="shared" ref="B23" si="8">B22</f>
         <v>10</v>
       </c>
       <c r="C23">
@@ -1672,17 +1669,17 @@
         <v>1</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (38, 10, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="8">B22</f>
+        <f t="shared" ref="B24" si="9">B22</f>
         <v>10</v>
       </c>
       <c r="C24">
@@ -1698,17 +1695,17 @@
         <v>2</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (39, 10, 55, 0, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="9">B22</f>
+        <f t="shared" ref="B25" si="10">B22</f>
         <v>10</v>
       </c>
       <c r="C25">
@@ -1724,17 +1721,17 @@
         <v>1</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (40, 10, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="10">B22+1</f>
+        <f t="shared" ref="B26" si="11">B22+1</f>
         <v>11</v>
       </c>
       <c r="C26">
@@ -1750,17 +1747,17 @@
         <v>2</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (41, 11, 55, 5, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="11">B26</f>
+        <f t="shared" ref="B27" si="12">B26</f>
         <v>11</v>
       </c>
       <c r="C27">
@@ -1776,17 +1773,17 @@
         <v>1</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (42, 11, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="12">B26</f>
+        <f t="shared" ref="B28" si="13">B26</f>
         <v>11</v>
       </c>
       <c r="C28">
@@ -1802,17 +1799,17 @@
         <v>2</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (43, 11, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="13">B26</f>
+        <f t="shared" ref="B29" si="14">B26</f>
         <v>11</v>
       </c>
       <c r="C29">
@@ -1828,17 +1825,17 @@
         <v>1</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (44, 11, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="14">B26+1</f>
+        <f t="shared" ref="B30" si="15">B26+1</f>
         <v>12</v>
       </c>
       <c r="C30">
@@ -1854,17 +1851,17 @@
         <v>2</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (45, 12, 598, 1, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="15">B30</f>
+        <f t="shared" ref="B31" si="16">B30</f>
         <v>12</v>
       </c>
       <c r="C31">
@@ -1880,17 +1877,17 @@
         <v>1</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (46, 12, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="16">B30</f>
+        <f t="shared" ref="B32" si="17">B30</f>
         <v>12</v>
       </c>
       <c r="C32">
@@ -1906,17 +1903,17 @@
         <v>2</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (47, 12, 54, 0, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="17">B30</f>
+        <f t="shared" ref="B33" si="18">B30</f>
         <v>12</v>
       </c>
       <c r="C33">
@@ -1932,7 +1929,7 @@
         <v>1</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (48, 12, 54, 0, 0, 1);</v>
       </c>
     </row>
@@ -1945,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2942,4 +2939,783 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1920-09-11"</f>
+        <v>1920-09-11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (20, '1920-09-11', 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1920-09-12"</f>
+        <v>1920-09-12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (21, '1920-09-12', 1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1920-09-18"</f>
+        <v>1920-09-18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (22, '1920-09-18', 1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1920-09-20"</f>
+        <v>1920-09-20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (23, '1920-09-20', 1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1920-09-25"</f>
+        <v>1920-09-25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (24, '1920-09-25', 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1920-10-03"</f>
+        <v>1920-10-03</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (25, '1920-10-03', 1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 20, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 20, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 20, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 20, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 21, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 21, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>598</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 21, 598, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>598</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 21, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>598</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 22, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 22, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 22, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 22, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 23, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 23, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 23, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 23, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 24, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 24, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 24, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 24, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>598</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 25, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 25, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 25, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 25, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
     <sheet name="1917" sheetId="2" r:id="rId2"/>
     <sheet name="1919" sheetId="4" r:id="rId3"/>
     <sheet name="1920" sheetId="5" r:id="rId4"/>
+    <sheet name="1921" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -2945,6 +2946,787 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1920-09-11"</f>
+        <v>1920-09-11</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (20, '1920-09-11', 1);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1920-09-12"</f>
+        <v>1920-09-12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (21, '1920-09-12', 1);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1920-09-18"</f>
+        <v>1920-09-18</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (22, '1920-09-18', 1);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1920-09-20"</f>
+        <v>1920-09-20</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (23, '1920-09-20', 1);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1920-09-25"</f>
+        <v>1920-09-25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (24, '1920-09-25', 1);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1920-10-03"</f>
+        <v>1920-10-03</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (25, '1920-10-03', 1);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>81</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 20, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 20, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>83</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 20, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 20, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 21, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 21, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>598</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 21, 598, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>598</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 21, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>598</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 22, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 22, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 22, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 22, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 23, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 23, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 23, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 23, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 24, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 24, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 24, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 24, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>598</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 25, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 25, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 25, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 25, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2975,98 +3757,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1920-09-11"</f>
-        <v>1920-09-11</v>
+        <f>"1921-10-02"</f>
+        <v>1921-10-02</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (20, '1920-09-11', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (26, '1921-10-02', 1);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1920-09-12"</f>
-        <v>1920-09-12</v>
+        <f>"1921-10-09"</f>
+        <v>1921-10-09</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (21, '1920-09-12', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (27, '1921-10-09', 1);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1920-09-18"</f>
-        <v>1920-09-18</v>
+        <f>"1921-10-12"</f>
+        <v>1921-10-12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (22, '1920-09-18', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (28, '1921-10-12', 1);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1920-09-20"</f>
-        <v>1920-09-20</v>
+        <f>"1921-10-16"</f>
+        <v>1921-10-16</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (23, '1920-09-20', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (29, '1921-10-16', 1);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1920-09-25"</f>
-        <v>1920-09-25</v>
+        <f>"1921-10-23"</f>
+        <v>1921-10-23</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (24, '1920-09-25', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (30, '1921-10-23', 1);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1920-10-03"</f>
-        <v>1920-10-03</v>
+        <f>"1921-10-30"</f>
+        <v>1921-10-30</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (25, '1920-10-03', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (31, '1921-10-30', 1);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3095,13 +3877,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3114,20 +3896,20 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (81, 20, 55, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 26, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <f>B10</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -3140,20 +3922,20 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (82, 20, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 26, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A33" si="2">A11+1</f>
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B12">
         <f>B10</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -3166,20 +3948,20 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (83, 20, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 26, 55, 0, 0, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B13">
         <f>B10</f>
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -3192,49 +3974,49 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (84, 20, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 26, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <f>B10+1</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (85, 21, 54, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 27, 595, 2, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B15">
         <f>B14</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3244,17 +4026,17 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (86, 21, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 27, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B16">
         <f>B14</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>598</v>
@@ -3263,30 +4045,30 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (87, 21, 598, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 27, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B17">
         <f>B14</f>
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>598</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -3296,49 +4078,49 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (88, 21, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 27, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18" si="3">B14+1</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C18">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (89, 22, 598, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 28, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19" si="4">B18</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C19">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3348,49 +4130,49 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (90, 22, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 28, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20" si="5">B18</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>55</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (91, 22, 55, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 28, 55, 3, 2, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21" si="6">B18</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C21">
         <v>55</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -3400,46 +4182,46 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (92, 22, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 28, 55, 2, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22" si="7">B18+1</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (93, 23, 56, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 29, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23" si="8">B22</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3452,49 +4234,49 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (94, 23, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 29, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24" si="9">B22</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (95, 23, 54, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 29, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="10">B22</f>
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3504,20 +4286,20 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (96, 23, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 29, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="11">B22+1</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -3530,20 +4312,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (97, 24, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 30, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="12">B26</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3556,23 +4338,23 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (98, 24, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 30, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="13">B26</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>55</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3582,17 +4364,17 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (99, 24, 55, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 30, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="14">B26</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C29">
         <v>55</v>
@@ -3608,23 +4390,23 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (100, 24, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 30, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="15">B26+1</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C30">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -3634,23 +4416,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (101, 25, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 31, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="16">B30</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C31">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3660,23 +4442,23 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (102, 25, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 31, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="17">B30</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3686,20 +4468,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (103, 25, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 31, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="18">B30</f>
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3712,7 +4494,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (104, 25, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 31, 598, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="1919" sheetId="4" r:id="rId3"/>
     <sheet name="1920" sheetId="5" r:id="rId4"/>
     <sheet name="1921" sheetId="6" r:id="rId5"/>
+    <sheet name="1922" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -422,11 +423,11 @@
         <v>1916-07-02</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ");"</f>
-        <v>insert into game (matchid, matchdate, game_type) values (1, '1916-07-02', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (1, '1916-07-02', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -438,11 +439,11 @@
         <v>1916-07-06</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (2, '1916-07-06', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (2, '1916-07-06', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -454,11 +455,11 @@
         <v>1916-07-08</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (3, '1916-07-08', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (3, '1916-07-08', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -470,11 +471,11 @@
         <v>1916-07-10</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (4, '1916-07-10', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (4, '1916-07-10', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -486,11 +487,11 @@
         <v>1916-07-12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (5, '1916-07-12', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (5, '1916-07-12', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -502,11 +503,11 @@
         <v>1916-07-16</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (6, '1916-07-16', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (6, '1916-07-16', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1201,11 +1202,11 @@
         <v>1917-09-30</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (7, '1917-09-30', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (7, '1917-09-30', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1217,11 +1218,11 @@
         <v>1917-10-03</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (8, '1917-10-03', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (8, '1917-10-03', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1233,11 +1234,11 @@
         <v>1917-10-06</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (9, '1917-10-06', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (9, '1917-10-06', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,11 +1250,11 @@
         <v>1917-10-07</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (10, '1917-10-07', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (10, '1917-10-07', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1265,11 +1266,11 @@
         <v>1917-10-12</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (11, '1917-10-12', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (11, '1917-10-12', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1281,11 +1282,11 @@
         <v>1917-10-14</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (12, '1917-10-14', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (12, '1917-10-14', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1980,11 +1981,11 @@
         <v>1919-05-11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" ref="G2:G8" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A2 &amp; ", '" &amp; B2 &amp; "', " &amp;C2 &amp; ");"</f>
-        <v>insert into game (matchid, matchdate, game_type) values (13, '1919-05-11', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (13, '1919-05-11', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1996,11 +1997,11 @@
         <v>1919-05-13</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (14, '1919-05-13', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (14, '1919-05-13', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2012,11 +2013,11 @@
         <v>1919-05-17</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (15, '1919-05-17', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (15, '1919-05-17', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2028,11 +2029,11 @@
         <v>1919-05-18</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (16, '1919-05-18', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (16, '1919-05-18', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,11 +2045,11 @@
         <v>1919-05-22</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (17, '1919-05-22', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (17, '1919-05-22', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2060,11 +2061,11 @@
         <v>1919-05-26</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (18, '1919-05-26', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (18, '1919-05-26', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2946,9 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2985,11 +2984,11 @@
         <v>1920-09-11</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (20, '1920-09-11', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (20, '1920-09-11', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -3001,11 +3000,11 @@
         <v>1920-09-12</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (21, '1920-09-12', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (21, '1920-09-12', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3017,11 +3016,11 @@
         <v>1920-09-18</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (22, '1920-09-18', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (22, '1920-09-18', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3033,11 +3032,11 @@
         <v>1920-09-20</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (23, '1920-09-20', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (23, '1920-09-20', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3049,11 +3048,11 @@
         <v>1920-09-25</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (24, '1920-09-25', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (24, '1920-09-25', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3065,11 +3064,11 @@
         <v>1920-10-03</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (25, '1920-10-03', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (25, '1920-10-03', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3726,6 +3725,785 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1921-10-02"</f>
+        <v>1921-10-02</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (26, '1921-10-02', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1921-10-09"</f>
+        <v>1921-10-09</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (27, '1921-10-09', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1921-10-12"</f>
+        <v>1921-10-12</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (28, '1921-10-12', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1921-10-16"</f>
+        <v>1921-10-16</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (29, '1921-10-16', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1921-10-23"</f>
+        <v>1921-10-23</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (30, '1921-10-23', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1921-10-30"</f>
+        <v>1921-10-30</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (31, '1921-10-30', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 26, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>106</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 26, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>26</v>
+      </c>
+      <c r="C12">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 26, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 26, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>595</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 27, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>595</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 27, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>598</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 27, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>598</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 27, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>595</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 28, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>595</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 28, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 28, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 28, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>29</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 29, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>29</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 29, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>595</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 29, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>595</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 29, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>598</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 30, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>598</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 30, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 30, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 30, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>125</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 31, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 31, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>598</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 31, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>128</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>598</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 31, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -3751,295 +4529,245 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G12" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1921-10-02"</f>
-        <v>1921-10-02</v>
+        <f>"1922-09-17"</f>
+        <v>1922-09-17</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (26, '1921-10-02', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (32, '1922-09-17', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1921-10-09"</f>
-        <v>1921-10-09</v>
+        <f>"1922-09-23"</f>
+        <v>1922-09-23</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (27, '1921-10-09', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (33, '1922-09-23', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1921-10-12"</f>
-        <v>1921-10-12</v>
+        <f>"1922-09-24"</f>
+        <v>1922-09-24</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (28, '1921-10-12', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (34, '1922-09-24', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1921-10-16"</f>
-        <v>1921-10-16</v>
+        <f>"1922-09-28"</f>
+        <v>1922-09-28</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (29, '1921-10-16', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (35, '1922-09-28', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1921-10-23"</f>
-        <v>1921-10-23</v>
+        <f>"1922-10-01"</f>
+        <v>1922-10-01</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (30, '1921-10-23', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (36, '1922-10-01', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1921-10-30"</f>
-        <v>1921-10-30</v>
+        <f>"1922-10-05"</f>
+        <v>1922-10-05</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (31, '1921-10-30', 1);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (37, '1922-10-05', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1922-10-08"</f>
+        <v>1922-10-08</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (38, '1922-10-08', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1922-10-12"</f>
+        <v>1922-10-12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="G9" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (39, '1922-10-12', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>105</v>
-      </c>
-      <c r="B10">
-        <v>26</v>
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1922-10-15"</f>
+        <v>1922-10-15</v>
       </c>
       <c r="C10">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (105, 26, 54, 1, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (40, '1922-10-15', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
-        <v>106</v>
-      </c>
-      <c r="B11">
-        <f>B10</f>
-        <v>26</v>
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1922-10-18"</f>
+        <v>1922-10-18</v>
       </c>
       <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (106, 26, 54, 0, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (41, '1922-10-18', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A33" si="2">A11+1</f>
-        <v>107</v>
-      </c>
-      <c r="B12">
-        <f>B10</f>
-        <v>26</v>
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1922-10-22"</f>
+        <v>1922-10-22</v>
       </c>
       <c r="C12">
-        <v>55</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (107, 26, 55, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="2"/>
-        <v>108</v>
-      </c>
-      <c r="B13">
-        <f>B10</f>
-        <v>26</v>
-      </c>
-      <c r="C13">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (108, 26, 55, 0, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (42, '1922-10-22', 6);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="2"/>
-        <v>109</v>
-      </c>
-      <c r="B14">
-        <f>B10+1</f>
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>595</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (109, 27, 595, 2, 2, 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B15">
-        <f>B14</f>
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C15">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (110, 27, 595, 1, 0, 1);</v>
+        <f t="shared" ref="G15:G58" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 32, 55, 1, 1, 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
-        <v>111</v>
+        <f>A15+1</f>
+        <v>130</v>
       </c>
       <c r="B16">
-        <f>B14</f>
-        <v>27</v>
+        <f>B15</f>
+        <v>32</v>
       </c>
       <c r="C16">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -4048,206 +4776,206 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (111, 27, 598, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 32, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>112</v>
+        <f t="shared" ref="A17:A59" si="2">A16+1</f>
+        <v>131</v>
       </c>
       <c r="B17">
-        <f>B14</f>
-        <v>27</v>
+        <f>B15</f>
+        <v>32</v>
       </c>
       <c r="C17">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (112, 27, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 32, 56, 1, 1, 2);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18" si="3">B14+1</f>
-        <v>28</v>
+        <f>B15</f>
+        <v>32</v>
       </c>
       <c r="C18">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (113, 28, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 32, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="B19">
-        <f t="shared" ref="B19" si="4">B18</f>
-        <v>28</v>
+        <f>B15+1</f>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (114, 28, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 33, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="5">B18</f>
-        <v>28</v>
+        <f>B19</f>
+        <v>33</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>598</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (115, 28, 55, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 33, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21" si="6">B18</f>
-        <v>28</v>
+        <f>B19</f>
+        <v>33</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (116, 28, 55, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 33, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="7">B18+1</f>
-        <v>29</v>
+        <f>B19</f>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (117, 29, 54, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 33, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="8">B22</f>
-        <v>29</v>
+        <f t="shared" ref="B23" si="3">B19+1</f>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (118, 29, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 34, 55, 1, 1, 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="9">B22</f>
-        <v>29</v>
+        <f t="shared" ref="B24" si="4">B23</f>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4256,128 +4984,128 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (119, 29, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 34, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="10">B22</f>
-        <v>29</v>
+        <f t="shared" ref="B25" si="5">B23</f>
+        <v>34</v>
       </c>
       <c r="C25">
         <v>595</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (120, 29, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 34, 595, 1, 1, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="11">B22+1</f>
-        <v>30</v>
+        <f t="shared" ref="B26" si="6">B23</f>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (121, 30, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 34, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="12">B26</f>
-        <v>30</v>
+        <f t="shared" ref="B27" si="7">B23+1</f>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (122, 30, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 35, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="13">B26</f>
-        <v>30</v>
+        <f t="shared" ref="B28" si="8">B27</f>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (123, 30, 55, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 35, 54, 3, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="14">B26</f>
-        <v>30</v>
+        <f t="shared" ref="B29" si="9">B27</f>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4386,76 +5114,76 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (124, 30, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 35, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="15">B26+1</f>
-        <v>31</v>
+        <f t="shared" ref="B30" si="10">B27</f>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (125, 31, 54, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 35, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="16">B30</f>
-        <v>31</v>
+        <f t="shared" ref="B31" si="11">B27+1</f>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (126, 31, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 36, 55, 0, 1, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="17">B30</f>
-        <v>31</v>
+        <f t="shared" ref="B32" si="12">B31</f>
+        <v>36</v>
       </c>
       <c r="C32">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4464,21 +5192,21 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (127, 31, 598, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 36, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="18">B30</f>
-        <v>31</v>
+        <f t="shared" ref="B33" si="13">B31</f>
+        <v>36</v>
       </c>
       <c r="C33">
         <v>598</v>
@@ -4487,14 +5215,664 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (128, 31, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 36, 598, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="14">B31</f>
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 36, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="15">B31+1</f>
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>595</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 37, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="16">B35</f>
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>595</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 37, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="17">B35</f>
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 37, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="18">B35</f>
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 37, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="19">B35+1</f>
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>598</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 38, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="20">B39</f>
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>598</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 38, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="21">B39</f>
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 38, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="22">B39</f>
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 38, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="23">B39+1</f>
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>595</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 39, 595, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="24">B43</f>
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>595</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 39, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="25">B43</f>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 39, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="26">B43</f>
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 39, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="27">B43+1</f>
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 40, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="28">B47</f>
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 40, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="29">B47</f>
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 40, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="30">B47</f>
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 40, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="31">B47+1</f>
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 41, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="32">B51</f>
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 41, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="33">B51</f>
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>595</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 41, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="34">B51</f>
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>595</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 41, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="35">B51+1</f>
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 42, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="36">B55</f>
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 42, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="37">B55</f>
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>595</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 42, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="38">B55</f>
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>595</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 42, 595, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="1920" sheetId="5" r:id="rId4"/>
     <sheet name="1921" sheetId="6" r:id="rId5"/>
     <sheet name="1922" sheetId="7" r:id="rId6"/>
+    <sheet name="1923" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -4505,6 +4506,1387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G12" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1922-09-17"</f>
+        <v>1922-09-17</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (32, '1922-09-17', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1922-09-23"</f>
+        <v>1922-09-23</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (33, '1922-09-23', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>34</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1922-09-24"</f>
+        <v>1922-09-24</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (34, '1922-09-24', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1922-09-28"</f>
+        <v>1922-09-28</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (35, '1922-09-28', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1922-10-01"</f>
+        <v>1922-10-01</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (36, '1922-10-01', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1922-10-05"</f>
+        <v>1922-10-05</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (37, '1922-10-05', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1922-10-08"</f>
+        <v>1922-10-08</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (38, '1922-10-08', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1922-10-12"</f>
+        <v>1922-10-12</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (39, '1922-10-12', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1922-10-15"</f>
+        <v>1922-10-15</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (40, '1922-10-15', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>41</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1922-10-18"</f>
+        <v>1922-10-18</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (41, '1922-10-18', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>42</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1922-10-22"</f>
+        <v>1922-10-22</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (42, '1922-10-22', 6);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>129</v>
+      </c>
+      <c r="B15">
+        <v>32</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" ref="G15:G58" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 32, 55, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>A15+1</f>
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <f>B15</f>
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>55</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 32, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" ref="A17:A58" si="2">A16+1</f>
+        <v>131</v>
+      </c>
+      <c r="B17">
+        <f>B15</f>
+        <v>32</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 32, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="B18">
+        <f>B15</f>
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 32, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="B19">
+        <f>B15+1</f>
+        <v>33</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 33, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="B20">
+        <f>B19</f>
+        <v>33</v>
+      </c>
+      <c r="C20">
+        <v>598</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 33, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="B21">
+        <f>B19</f>
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 33, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="B22">
+        <f>B19</f>
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 33, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="3">B19+1</f>
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 34, 55, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="4">B23</f>
+        <v>34</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 34, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="5">B23</f>
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>595</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 34, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="6">B23</f>
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>595</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 34, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="7">B23+1</f>
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 35, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="8">B27</f>
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 35, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="9">B27</f>
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 35, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="10">B27</f>
+        <v>35</v>
+      </c>
+      <c r="C30">
+        <v>56</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 35, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="11">B27+1</f>
+        <v>36</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 36, 55, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="12">B31</f>
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 36, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="13">B31</f>
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>598</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 36, 598, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="14">B31</f>
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 36, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="15">B31+1</f>
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>595</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 37, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="16">B35</f>
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>595</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 37, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>151</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="17">B35</f>
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 37, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="18">B35</f>
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 37, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>153</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="19">B35+1</f>
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>598</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 38, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>154</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="20">B39</f>
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>598</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 38, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="21">B39</f>
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 38, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="22">B39</f>
+        <v>38</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 38, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>157</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="23">B39+1</f>
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>595</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 39, 595, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>158</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="24">B43</f>
+        <v>39</v>
+      </c>
+      <c r="C44">
+        <v>595</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 39, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>159</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="25">B43</f>
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 39, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="26">B43</f>
+        <v>39</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 39, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="27">B43+1</f>
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>55</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 40, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>162</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="28">B47</f>
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 40, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>163</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="29">B47</f>
+        <v>40</v>
+      </c>
+      <c r="C49">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 40, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="30">B47</f>
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 40, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="31">B47+1</f>
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 41, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="32">B51</f>
+        <v>41</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 41, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>167</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="33">B51</f>
+        <v>41</v>
+      </c>
+      <c r="C53">
+        <v>595</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 41, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="34">B51</f>
+        <v>41</v>
+      </c>
+      <c r="C54">
+        <v>595</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 41, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>169</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="35">B51+1</f>
+        <v>42</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 42, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="36">B55</f>
+        <v>42</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 42, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="37">B55</f>
+        <v>42</v>
+      </c>
+      <c r="C57">
+        <v>595</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 42, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>172</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="38">B55</f>
+        <v>42</v>
+      </c>
+      <c r="C58">
+        <v>595</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 42, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4529,375 +5911,425 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G12" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1922-09-17"</f>
-        <v>1922-09-17</v>
+        <f>"1923-10-29"</f>
+        <v>1923-10-29</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (32, '1922-09-17', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (43, '1923-10-29', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1922-09-23"</f>
-        <v>1922-09-23</v>
+        <f>"1923-11-04"</f>
+        <v>1923-11-04</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (33, '1922-09-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (44, '1923-11-04', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1922-09-24"</f>
-        <v>1922-09-24</v>
+        <f>"1923-11-11"</f>
+        <v>1923-11-11</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (34, '1922-09-24', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (45, '1923-11-11', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1922-09-28"</f>
-        <v>1922-09-28</v>
+        <f>"1923-11-18"</f>
+        <v>1923-11-18</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (35, '1922-09-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (46, '1923-11-18', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1922-10-01"</f>
-        <v>1922-10-01</v>
+        <f>"1923-11-25"</f>
+        <v>1923-11-25</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (36, '1922-10-01', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (47, '1923-11-25', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1922-10-05"</f>
-        <v>1922-10-05</v>
+        <f>"1923-12-02"</f>
+        <v>1923-12-02</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (37, '1922-10-05', 2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>"1922-10-08"</f>
-        <v>1922-10-08</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (38, '1922-10-08', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (48, '1923-12-02', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>39</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>"1922-10-12"</f>
-        <v>1922-10-12</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (39, '1922-10-12', 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>40</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>"1922-10-15"</f>
-        <v>1922-10-15</v>
+        <v>173</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
       </c>
       <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (40, '1922-10-15', 2);</v>
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 43, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>"1922-10-18"</f>
-        <v>1922-10-18</v>
+        <f>A10+1</f>
+        <v>174</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>43</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (41, '1922-10-18', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 43, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>"1922-10-22"</f>
-        <v>1922-10-22</v>
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>43</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>595</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (42, '1922-10-22', 6);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 43, 595, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>595</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 43, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>598</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 44, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>129</v>
+        <f t="shared" si="2"/>
+        <v>178</v>
       </c>
       <c r="B15">
-        <v>32</v>
+        <f>B14</f>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>598</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ref="G15:G58" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A15 &amp; ", " &amp; B15 &amp; ", " &amp; C15 &amp; ", " &amp; D15 &amp; ", " &amp; E15 &amp; ", " &amp; F15 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (129, 32, 55, 1, 1, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 44, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15+1</f>
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>179</v>
       </c>
       <c r="B16">
-        <f>B15</f>
-        <v>32</v>
+        <f>B14</f>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (130, 32, 55, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 44, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ref="A17:A59" si="2">A16+1</f>
-        <v>131</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="B17">
-        <f>B15</f>
-        <v>32</v>
+        <f>B14</f>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (131, 32, 56, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 44, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B18">
-        <f>B15</f>
-        <v>32</v>
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>45</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (132, 32, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 45, 595, 1, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="B19">
-        <f>B15+1</f>
-        <v>33</v>
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (133, 33, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 45, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="B20">
-        <f>B19</f>
-        <v>33</v>
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (134, 33, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 45, 55, 0, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="B21">
-        <f>B19</f>
-        <v>33</v>
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -4906,206 +6338,206 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (135, 33, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 45, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="B22">
-        <f>B19</f>
-        <v>33</v>
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (136, 33, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 46, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="3">B19+1</f>
-        <v>34</v>
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>46</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (137, 34, 55, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 46, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="4">B23</f>
-        <v>34</v>
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>46</v>
       </c>
       <c r="C24">
         <v>55</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (138, 34, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 46, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>188</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="5">B23</f>
-        <v>34</v>
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>46</v>
       </c>
       <c r="C25">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (139, 34, 595, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 46, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="6">B23</f>
-        <v>34</v>
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>47</v>
       </c>
       <c r="C26">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (140, 34, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 47, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>141</v>
+        <v>190</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="7">B23+1</f>
-        <v>35</v>
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>47</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (141, 35, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 47, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>142</v>
+        <v>191</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="8">B27</f>
-        <v>35</v>
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>47</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (142, 35, 54, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 47, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="9">B27</f>
-        <v>35</v>
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>47</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5114,76 +6546,76 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (143, 35, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 47, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="10">B27</f>
-        <v>35</v>
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>48</v>
       </c>
       <c r="C30">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (144, 35, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 48, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="11">B27+1</f>
-        <v>36</v>
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>48</v>
       </c>
       <c r="C31">
-        <v>55</v>
+        <v>598</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (145, 36, 55, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 48, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="12">B31</f>
-        <v>36</v>
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>48</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -5192,687 +6624,37 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (146, 36, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 48, 54, 0, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="13">B31</f>
-        <v>36</v>
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>48</v>
       </c>
       <c r="C33">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (147, 36, 598, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>148</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34" si="14">B31</f>
-        <v>36</v>
-      </c>
-      <c r="C34">
-        <v>598</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (148, 36, 598, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="2"/>
-        <v>149</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35" si="15">B31+1</f>
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>595</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (149, 37, 595, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36" si="16">B35</f>
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>595</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (150, 37, 595, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>151</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ref="B37" si="17">B35</f>
-        <v>37</v>
-      </c>
-      <c r="C37">
-        <v>56</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (151, 37, 56, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>152</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ref="B38" si="18">B35</f>
-        <v>37</v>
-      </c>
-      <c r="C38">
-        <v>56</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (152, 37, 56, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>153</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ref="B39" si="19">B35+1</f>
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>598</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>2</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (153, 38, 598, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>154</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ref="B40" si="20">B39</f>
-        <v>38</v>
-      </c>
-      <c r="C40">
-        <v>598</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (154, 38, 598, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>155</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ref="B41" si="21">B39</f>
-        <v>38</v>
-      </c>
-      <c r="C41">
-        <v>54</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (155, 38, 54, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>156</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42" si="22">B39</f>
-        <v>38</v>
-      </c>
-      <c r="C42">
-        <v>54</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (156, 38, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>157</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ref="B43" si="23">B39+1</f>
-        <v>39</v>
-      </c>
-      <c r="C43">
-        <v>595</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
-      <c r="F43">
-        <v>2</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (157, 39, 595, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>158</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44" si="24">B43</f>
-        <v>39</v>
-      </c>
-      <c r="C44">
-        <v>595</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (158, 39, 595, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="2"/>
-        <v>159</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ref="B45" si="25">B43</f>
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>598</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (159, 39, 598, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="2"/>
-        <v>160</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ref="B46" si="26">B43</f>
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>598</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (160, 39, 598, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="2"/>
-        <v>161</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ref="B47" si="27">B43+1</f>
-        <v>40</v>
-      </c>
-      <c r="C47">
-        <v>55</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47">
-        <v>2</v>
-      </c>
-      <c r="F47">
-        <v>2</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (161, 40, 55, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="2"/>
-        <v>162</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ref="B48" si="28">B47</f>
-        <v>40</v>
-      </c>
-      <c r="C48">
-        <v>55</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (162, 40, 55, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="2"/>
-        <v>163</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ref="B49" si="29">B47</f>
-        <v>40</v>
-      </c>
-      <c r="C49">
-        <v>54</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (163, 40, 54, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="2"/>
-        <v>164</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ref="B50" si="30">B47</f>
-        <v>40</v>
-      </c>
-      <c r="C50">
-        <v>54</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (164, 40, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51" si="31">B47+1</f>
-        <v>41</v>
-      </c>
-      <c r="C51">
-        <v>54</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>2</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (165, 41, 54, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="2"/>
-        <v>166</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ref="B52" si="32">B51</f>
-        <v>41</v>
-      </c>
-      <c r="C52">
-        <v>54</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (166, 41, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="2"/>
-        <v>167</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ref="B53" si="33">B51</f>
-        <v>41</v>
-      </c>
-      <c r="C53">
-        <v>595</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (167, 41, 595, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ref="B54" si="34">B51</f>
-        <v>41</v>
-      </c>
-      <c r="C54">
-        <v>595</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (168, 41, 595, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="2"/>
-        <v>169</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ref="B55" si="35">B51+1</f>
-        <v>42</v>
-      </c>
-      <c r="C55">
-        <v>55</v>
-      </c>
-      <c r="D55">
-        <v>3</v>
-      </c>
-      <c r="E55">
-        <v>2</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (169, 42, 55, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="2"/>
-        <v>170</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56" si="36">B55</f>
-        <v>42</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (170, 42, 55, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="2"/>
-        <v>171</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ref="B57" si="37">B55</f>
-        <v>42</v>
-      </c>
-      <c r="C57">
-        <v>595</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (171, 42, 595, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="2"/>
-        <v>172</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ref="B58" si="38">B55</f>
-        <v>42</v>
-      </c>
-      <c r="C58">
-        <v>595</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (172, 42, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 48, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="1921" sheetId="6" r:id="rId5"/>
     <sheet name="1922" sheetId="7" r:id="rId6"/>
     <sheet name="1923" sheetId="8" r:id="rId7"/>
+    <sheet name="1924" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -5887,6 +5888,787 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1923-10-29"</f>
+        <v>1923-10-29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (43, '1923-10-29', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1923-11-04"</f>
+        <v>1923-11-04</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (44, '1923-11-04', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1923-11-11"</f>
+        <v>1923-11-11</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (45, '1923-11-11', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>46</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1923-11-18"</f>
+        <v>1923-11-18</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (46, '1923-11-18', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1923-11-25"</f>
+        <v>1923-11-25</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (47, '1923-11-25', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1923-12-02"</f>
+        <v>1923-12-02</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (48, '1923-12-02', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>173</v>
+      </c>
+      <c r="B10">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 43, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>174</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 43, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>175</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>595</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 43, 595, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>176</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>595</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 43, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>177</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>598</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 44, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>178</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <v>598</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 44, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>595</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 44, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>595</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 44, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>181</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>595</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 45, 595, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>182</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>595</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 45, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>183</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 45, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 45, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 46, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 46, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>187</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 46, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>188</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>46</v>
+      </c>
+      <c r="C25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 46, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>189</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>47</v>
+      </c>
+      <c r="C26">
+        <v>598</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 47, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>47</v>
+      </c>
+      <c r="C27">
+        <v>598</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 47, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>191</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>55</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 47, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>47</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 47, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>193</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>598</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 48, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>194</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>48</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 48, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>195</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>48</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 48, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 48, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5917,98 +6699,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1923-10-29"</f>
-        <v>1923-10-29</v>
+        <f>"1924-10-12"</f>
+        <v>1924-10-12</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (43, '1923-10-29', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (49, '1924-10-12', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1923-11-04"</f>
-        <v>1923-11-04</v>
+        <f>"1924-10-19"</f>
+        <v>1924-10-19</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (44, '1923-11-04', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (50, '1924-10-19', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1923-11-11"</f>
-        <v>1923-11-11</v>
+        <f>"1924-10-25"</f>
+        <v>1924-10-25</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (45, '1923-11-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (51, '1924-10-25', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1923-11-18"</f>
-        <v>1923-11-18</v>
+        <f>"1924-10-26"</f>
+        <v>1924-10-26</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (46, '1923-11-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (52, '1924-10-26', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1923-11-25"</f>
-        <v>1923-11-25</v>
+        <f>"1924-11-01"</f>
+        <v>1924-11-01</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (47, '1923-11-25', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (53, '1924-11-01', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1923-12-02"</f>
-        <v>1923-12-02</v>
+        <f>"1924-11-02"</f>
+        <v>1924-11-02</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (48, '1923-12-02', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (54, '1924-11-02', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6037,42 +6819,42 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="B10">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>54</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (173, 43, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (197, 49, 54, 0, 1, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B11">
         <f>B10</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C11">
         <v>54</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -6082,49 +6864,49 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (174, 43, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (198, 49, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A33" si="2">A11+1</f>
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B12">
         <f>B10</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>595</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (175, 43, 595, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (199, 49, 595, 0, 1, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="B13">
         <f>B10</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C13">
         <v>595</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -6134,23 +6916,23 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (176, 43, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (200, 49, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B14">
         <f>B10+1</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>598</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -6160,17 +6942,17 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (177, 44, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (201, 50, 598, 5, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="B15">
         <f>B14</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>598</v>
@@ -6186,20 +6968,20 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (178, 44, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (202, 50, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B16">
         <f>B14</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -6212,20 +6994,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (179, 44, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (203, 50, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="B17">
         <f>B14</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -6238,23 +7020,23 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (180, 44, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (204, 50, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18" si="3">B14+1</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C18">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -6264,23 +7046,23 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (181, 45, 595, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (205, 51, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19" si="4">B18</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -6290,20 +7072,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (182, 45, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (206, 51, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20" si="5">B18</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -6316,20 +7098,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (183, 45, 55, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (207, 51, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21" si="6">B18</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6342,23 +7124,23 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (184, 45, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (208, 51, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22" si="7">B18+1</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -6368,23 +7150,23 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (185, 46, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (209, 52, 598, 3, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23" si="8">B22</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -6394,20 +7176,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (186, 46, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (210, 52, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24" si="9">B22</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C24">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -6420,23 +7202,23 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (187, 46, 55, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (211, 52, 595, 1, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="10">B22</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C25">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -6446,23 +7228,23 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (188, 46, 55, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (212, 52, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="11">B22+1</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -6472,23 +7254,23 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (189, 47, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (213, 53, 595, 3, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="12">B26</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C27">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -6498,20 +7280,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (190, 47, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (214, 53, 595, 2, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="13">B26</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C28">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -6524,23 +7306,23 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (191, 47, 55, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (215, 53, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="14">B26</f>
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -6550,49 +7332,49 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (192, 47, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (216, 53, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="15">B26+1</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C30">
         <v>598</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (193, 48, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (217, 54, 598, 0, 1, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="16">B30</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>598</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -6602,17 +7384,17 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (194, 48, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (218, 54, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="17">B30</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C32">
         <v>54</v>
@@ -6621,24 +7403,24 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (195, 48, 54, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (219, 54, 54, 0, 1, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="18">B30</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>54</v>
@@ -6654,7 +7436,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (196, 48, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (220, 54, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="1922" sheetId="7" r:id="rId6"/>
     <sheet name="1923" sheetId="8" r:id="rId7"/>
     <sheet name="1924" sheetId="9" r:id="rId8"/>
+    <sheet name="1925" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -6669,7 +6670,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7442,4 +7445,785 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>55</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1925-11-29"</f>
+        <v>1925-11-29</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (55, '1925-11-29', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1925-12-09"</f>
+        <v>1925-12-09</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (56, '1925-12-09', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>57</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1925-12-13"</f>
+        <v>1925-12-13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (57, '1925-12-13', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1925-12-17"</f>
+        <v>1925-12-17</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (58, '1925-12-17', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>59</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1925-12-20"</f>
+        <v>1925-12-20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (59, '1925-12-20', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>60</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1925-12-25"</f>
+        <v>1925-12-25</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (60, '1925-12-25', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>221</v>
+      </c>
+      <c r="B10">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (221, 55, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>222</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (222, 55, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>223</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>595</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (223, 55, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>595</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (224, 55, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (225, 56, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>56</v>
+      </c>
+      <c r="C15">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (226, 56, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>227</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>595</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (227, 56, 595, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>228</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>56</v>
+      </c>
+      <c r="C17">
+        <v>595</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (228, 56, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>229</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (229, 57, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (230, 57, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (231, 57, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>57</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (232, 57, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>233</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>58</v>
+      </c>
+      <c r="C22">
+        <v>595</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (233, 58, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>58</v>
+      </c>
+      <c r="C23">
+        <v>595</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 58, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>235</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>58</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (235, 58, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>58</v>
+      </c>
+      <c r="C25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 58, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>237</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>59</v>
+      </c>
+      <c r="C26">
+        <v>595</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (237, 59, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>238</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>59</v>
+      </c>
+      <c r="C27">
+        <v>595</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (238, 59, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>239</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (239, 59, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>59</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (240, 59, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>60</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (241, 60, 55, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>60</v>
+      </c>
+      <c r="C31">
+        <v>55</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (242, 60, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>243</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>60</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (243, 60, 54, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>244</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>60</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (244, 60, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="1923" sheetId="8" r:id="rId7"/>
     <sheet name="1924" sheetId="9" r:id="rId8"/>
     <sheet name="1925" sheetId="10" r:id="rId9"/>
+    <sheet name="1926" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -1164,6 +1165,1265 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1926-10-12"</f>
+        <v>1926-10-12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (61, '1926-10-12', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1926-10-16"</f>
+        <v>1926-10-16</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (62, '1926-10-16', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1926-10-17"</f>
+        <v>1926-10-17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (63, '1926-10-17', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1926-10-20"</f>
+        <v>1926-10-20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (64, '1926-10-20', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1926-10-23"</f>
+        <v>1926-10-23</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (65, '1926-10-23', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1926-10-24"</f>
+        <v>1926-10-24</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (66, '1926-10-24', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1926-10-28"</f>
+        <v>1926-10-28</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (67, '1926-10-28', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1926-10-31"</f>
+        <v>1926-10-31</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (68, '1926-10-31', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1926-11-01"</f>
+        <v>1926-11-01</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (69, '1926-11-01', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1926-11-03"</f>
+        <v>1926-11-03</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (70, '1926-11-03', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>245</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G57" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 61, 56, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>246</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 61, 56, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A57" si="2">A15+1</f>
+        <v>247</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>591</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 61, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>591</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 61, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="B18">
+        <f>B14+1</f>
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 62, 54, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 62, 54, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="B20">
+        <f>B18</f>
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>591</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 62, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="B21">
+        <f>B18</f>
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>591</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 62, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="3">B18+1</f>
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 63, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="4">B22</f>
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 63, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="5">B22</f>
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>598</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 63, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="6">B22</f>
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>598</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 63, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="7">B22+1</f>
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 64, 54, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="8">B26</f>
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 64, 54, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="9">B26</f>
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>595</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 64, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="10">B26</f>
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>595</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 64, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="11">B26+1</f>
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>595</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 595, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="12">B30</f>
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>595</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="13">B30</f>
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>591</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 65, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="14">B30</f>
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>591</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 65, 591, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="15">B30+1</f>
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="16">B34</f>
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>598</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="17">B34</f>
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 66, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="18">B34</f>
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 66, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="19">B34+1</f>
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>598</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="20">B38</f>
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>598</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 598, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="21">B38</f>
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>591</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 67, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="22">B38</f>
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>591</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 67, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="23">B38+1</f>
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="24">B42</f>
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="25">B42</f>
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 68, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="26">B42</f>
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 68, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="27">B42+1</f>
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="28">B46</f>
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>598</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="29">B46</f>
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>595</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 69, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="30">B46</f>
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>595</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 69, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="31">B46+1</f>
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="32">B50</f>
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="33">B50</f>
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>595</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 70, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="34">B50</f>
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>595</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 70, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
@@ -4508,9 +5768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7451,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="1924" sheetId="9" r:id="rId8"/>
     <sheet name="1925" sheetId="10" r:id="rId9"/>
     <sheet name="1926" sheetId="11" r:id="rId10"/>
+    <sheet name="1927" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -1169,6 +1170,1267 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1926-10-12"</f>
+        <v>1926-10-12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (61, '1926-10-12', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>62</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1926-10-16"</f>
+        <v>1926-10-16</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (62, '1926-10-16', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>63</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1926-10-17"</f>
+        <v>1926-10-17</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (63, '1926-10-17', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1926-10-20"</f>
+        <v>1926-10-20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (64, '1926-10-20', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>65</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1926-10-23"</f>
+        <v>1926-10-23</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (65, '1926-10-23', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1926-10-24"</f>
+        <v>1926-10-24</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (66, '1926-10-24', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1926-10-28"</f>
+        <v>1926-10-28</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (67, '1926-10-28', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1926-10-31"</f>
+        <v>1926-10-31</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (68, '1926-10-31', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>69</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1926-11-01"</f>
+        <v>1926-11-01</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (69, '1926-11-01', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>70</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1926-11-03"</f>
+        <v>1926-11-03</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (70, '1926-11-03', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>245</v>
+      </c>
+      <c r="B14">
+        <v>61</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G53" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 61, 56, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>246</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 61, 56, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A53" si="2">A15+1</f>
+        <v>247</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>591</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 61, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>61</v>
+      </c>
+      <c r="C17">
+        <v>591</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 61, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>249</v>
+      </c>
+      <c r="B18">
+        <f>B14+1</f>
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 62, 54, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>62</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 62, 54, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>251</v>
+      </c>
+      <c r="B20">
+        <f>B18</f>
+        <v>62</v>
+      </c>
+      <c r="C20">
+        <v>591</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 62, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>252</v>
+      </c>
+      <c r="B21">
+        <f>B18</f>
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>591</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 62, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>253</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="3">B18+1</f>
+        <v>63</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 63, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>254</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="4">B22</f>
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 63, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>255</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="5">B22</f>
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <v>598</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 63, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="6">B22</f>
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>598</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 63, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>257</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="7">B22+1</f>
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 64, 54, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="8">B26</f>
+        <v>64</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 64, 54, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="9">B26</f>
+        <v>64</v>
+      </c>
+      <c r="C28">
+        <v>595</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 64, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="10">B26</f>
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>595</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 64, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="11">B26+1</f>
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>595</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 595, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="12">B30</f>
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>595</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>263</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="13">B30</f>
+        <v>65</v>
+      </c>
+      <c r="C32">
+        <v>591</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 65, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="14">B30</f>
+        <v>65</v>
+      </c>
+      <c r="C33">
+        <v>591</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 65, 591, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>265</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="15">B30+1</f>
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>266</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="16">B34</f>
+        <v>66</v>
+      </c>
+      <c r="C35">
+        <v>598</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>267</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="17">B34</f>
+        <v>66</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 66, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>268</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="18">B34</f>
+        <v>66</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 66, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>269</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="19">B34+1</f>
+        <v>67</v>
+      </c>
+      <c r="C38">
+        <v>598</v>
+      </c>
+      <c r="D38">
+        <v>6</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="20">B38</f>
+        <v>67</v>
+      </c>
+      <c r="C39">
+        <v>598</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 598, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>271</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="21">B38</f>
+        <v>67</v>
+      </c>
+      <c r="C40">
+        <v>591</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 67, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>272</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="22">B38</f>
+        <v>67</v>
+      </c>
+      <c r="C41">
+        <v>591</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 67, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>273</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="23">B38+1</f>
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>274</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="24">B42</f>
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>275</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="25">B42</f>
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 68, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>276</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="26">B42</f>
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 68, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>277</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="27">B42+1</f>
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>278</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="28">B46</f>
+        <v>69</v>
+      </c>
+      <c r="C47">
+        <v>598</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>279</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="29">B46</f>
+        <v>69</v>
+      </c>
+      <c r="C48">
+        <v>595</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 69, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="30">B46</f>
+        <v>69</v>
+      </c>
+      <c r="C49">
+        <v>595</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 69, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>281</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="31">B46+1</f>
+        <v>70</v>
+      </c>
+      <c r="C50">
+        <v>56</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>282</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="32">B50</f>
+        <v>70</v>
+      </c>
+      <c r="C51">
+        <v>56</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>283</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="33">B50</f>
+        <v>70</v>
+      </c>
+      <c r="C52">
+        <v>595</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 70, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>284</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="34">B50</f>
+        <v>70</v>
+      </c>
+      <c r="C53">
+        <v>595</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 70, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,206 +2455,246 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1926-10-12"</f>
-        <v>1926-10-12</v>
+        <f>"1927-10-30"</f>
+        <v>1927-10-30</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (61, '1926-10-12', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (71, '1927-10-30', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1926-10-16"</f>
-        <v>1926-10-16</v>
+        <f>"1927-11-01"</f>
+        <v>1927-11-01</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (62, '1926-10-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (72, '1927-11-01', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1926-10-17"</f>
-        <v>1926-10-17</v>
+        <f>"1927-11-06"</f>
+        <v>1927-11-06</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (63, '1926-10-17', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (73, '1927-11-06', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1926-10-20"</f>
-        <v>1926-10-20</v>
+        <f>"1927-11-13"</f>
+        <v>1927-11-13</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (64, '1926-10-20', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (74, '1927-11-13', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1926-10-23"</f>
-        <v>1926-10-23</v>
+        <f>"1927-11-20"</f>
+        <v>1927-11-20</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (65, '1926-10-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (75, '1927-11-20', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1926-10-24"</f>
-        <v>1926-10-24</v>
+        <f>"1927-11-27"</f>
+        <v>1927-11-27</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (66, '1926-10-24', 2);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>67</v>
-      </c>
-      <c r="B8" s="2" t="str">
-        <f>"1926-10-28"</f>
-        <v>1926-10-28</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (67, '1926-10-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (76, '1927-11-27', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>68</v>
-      </c>
-      <c r="B9" s="2" t="str">
-        <f>"1926-10-31"</f>
-        <v>1926-10-31</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (68, '1926-10-31', 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>69</v>
-      </c>
-      <c r="B10" s="2" t="str">
-        <f>"1926-11-01"</f>
-        <v>1926-11-01</v>
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
       </c>
       <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (69, '1926-11-01', 2);</v>
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 54, 7, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>70</v>
-      </c>
-      <c r="B11" s="2" t="str">
-        <f>"1926-11-03"</f>
-        <v>1926-11-03</v>
+        <f>A10+1</f>
+        <v>286</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>71</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (70, '1926-11-03', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 54, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>287</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>591</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 71, 591, 1, 0, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>591</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 71, 591, 1, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>245</v>
+        <f t="shared" si="2"/>
+        <v>289</v>
       </c>
       <c r="B14">
-        <v>61</v>
+        <f>B10+1</f>
+        <v>72</v>
       </c>
       <c r="C14">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1401,24 +2703,24 @@
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G57" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (245, 61, 56, 7, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+1</f>
-        <v>246</v>
+        <f t="shared" si="2"/>
+        <v>290</v>
       </c>
       <c r="B15">
         <f>B14</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1428,23 +2730,23 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (246, 61, 56, 4, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ref="A16:A57" si="2">A15+1</f>
-        <v>247</v>
+        <f t="shared" si="2"/>
+        <v>291</v>
       </c>
       <c r="B16">
         <f>B14</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C16">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1454,20 +2756,20 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (247, 61, 591, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 72, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="B17">
         <f>B14</f>
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C17">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1480,23 +2782,23 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (248, 61, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 72, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="B18">
-        <f>B14+1</f>
-        <v>62</v>
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>73</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1506,23 +2808,23 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (249, 62, 54, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 598, 9, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="B19">
-        <f>B18</f>
-        <v>62</v>
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>73</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1532,17 +2834,17 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (250, 62, 54, 4, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="B20">
-        <f>B18</f>
-        <v>62</v>
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>73</v>
       </c>
       <c r="C20">
         <v>591</v>
@@ -1558,17 +2860,17 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (251, 62, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 73, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="B21">
-        <f>B18</f>
-        <v>62</v>
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>591</v>
@@ -1584,49 +2886,49 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (252, 62, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 73, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="3">B18+1</f>
-        <v>63</v>
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>74</v>
       </c>
       <c r="C22">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (253, 63, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 51, 3, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="4">B22</f>
-        <v>63</v>
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>74</v>
       </c>
       <c r="C23">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1636,46 +2938,46 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (254, 63, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 51, 3, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="5">B22</f>
-        <v>63</v>
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>74</v>
       </c>
       <c r="C24">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (255, 63, 598, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 74, 591, 2, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="6">B22</f>
-        <v>63</v>
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>74</v>
       </c>
       <c r="C25">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1688,23 +2990,23 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (256, 63, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 74, 591, 2, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="7">B22+1</f>
-        <v>64</v>
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>75</v>
       </c>
       <c r="C26">
         <v>54</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1714,23 +3016,23 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (257, 64, 54, 8, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="8">B26</f>
-        <v>64</v>
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>75</v>
       </c>
       <c r="C27">
         <v>54</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1740,23 +3042,23 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (258, 64, 54, 5, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="9">B26</f>
-        <v>64</v>
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>75</v>
       </c>
       <c r="C28">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1766,23 +3068,23 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (259, 64, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 75, 598, 2, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="10">B26</f>
-        <v>64</v>
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>75</v>
       </c>
       <c r="C29">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1792,23 +3094,23 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (260, 64, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 75, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="11">B26+1</f>
-        <v>65</v>
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>76</v>
       </c>
       <c r="C30">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1818,23 +3120,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (261, 65, 595, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 54, 5, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="12">B30</f>
-        <v>65</v>
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>76</v>
       </c>
       <c r="C31">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1844,20 +3146,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (262, 65, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 54, 5, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="13">B30</f>
-        <v>65</v>
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>76</v>
       </c>
       <c r="C32">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1870,20 +3172,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (263, 65, 591, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 76, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="14">B30</f>
-        <v>65</v>
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>76</v>
       </c>
       <c r="C33">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1896,527 +3198,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (264, 65, 591, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="2"/>
-        <v>265</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34" si="15">B30+1</f>
-        <v>66</v>
-      </c>
-      <c r="C34">
-        <v>598</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="F34">
-        <v>2</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (265, 66, 598, 2, 2, 2);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <f t="shared" si="2"/>
-        <v>266</v>
-      </c>
-      <c r="B35">
-        <f t="shared" ref="B35" si="16">B34</f>
-        <v>66</v>
-      </c>
-      <c r="C35">
-        <v>598</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (266, 66, 598, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <f t="shared" si="2"/>
-        <v>267</v>
-      </c>
-      <c r="B36">
-        <f t="shared" ref="B36" si="17">B34</f>
-        <v>66</v>
-      </c>
-      <c r="C36">
-        <v>54</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>2</v>
-      </c>
-      <c r="G36" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (267, 66, 54, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <f t="shared" si="2"/>
-        <v>268</v>
-      </c>
-      <c r="B37">
-        <f t="shared" ref="B37" si="18">B34</f>
-        <v>66</v>
-      </c>
-      <c r="C37">
-        <v>54</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (268, 66, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <f t="shared" si="2"/>
-        <v>269</v>
-      </c>
-      <c r="B38">
-        <f t="shared" ref="B38" si="19">B34+1</f>
-        <v>67</v>
-      </c>
-      <c r="C38">
-        <v>598</v>
-      </c>
-      <c r="D38">
-        <v>6</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (269, 67, 598, 6, 2, 2);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="B39">
-        <f t="shared" ref="B39" si="20">B38</f>
-        <v>67</v>
-      </c>
-      <c r="C39">
-        <v>598</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (270, 67, 598, 4, 0, 1);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <f t="shared" si="2"/>
-        <v>271</v>
-      </c>
-      <c r="B40">
-        <f t="shared" ref="B40" si="21">B38</f>
-        <v>67</v>
-      </c>
-      <c r="C40">
-        <v>591</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>2</v>
-      </c>
-      <c r="G40" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (271, 67, 591, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <f t="shared" si="2"/>
-        <v>272</v>
-      </c>
-      <c r="B41">
-        <f t="shared" ref="B41" si="22">B38</f>
-        <v>67</v>
-      </c>
-      <c r="C41">
-        <v>591</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (272, 67, 591, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <f t="shared" si="2"/>
-        <v>273</v>
-      </c>
-      <c r="B42">
-        <f t="shared" ref="B42" si="23">B38+1</f>
-        <v>68</v>
-      </c>
-      <c r="C42">
-        <v>56</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (273, 68, 56, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <f t="shared" si="2"/>
-        <v>274</v>
-      </c>
-      <c r="B43">
-        <f t="shared" ref="B43" si="24">B42</f>
-        <v>68</v>
-      </c>
-      <c r="C43">
-        <v>56</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (274, 68, 56, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <f t="shared" si="2"/>
-        <v>275</v>
-      </c>
-      <c r="B44">
-        <f t="shared" ref="B44" si="25">B42</f>
-        <v>68</v>
-      </c>
-      <c r="C44">
-        <v>54</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (275, 68, 54, 1, 1, 2);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <f t="shared" si="2"/>
-        <v>276</v>
-      </c>
-      <c r="B45">
-        <f t="shared" ref="B45" si="26">B42</f>
-        <v>68</v>
-      </c>
-      <c r="C45">
-        <v>54</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (276, 68, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <f t="shared" si="2"/>
-        <v>277</v>
-      </c>
-      <c r="B46">
-        <f t="shared" ref="B46" si="27">B42+1</f>
-        <v>69</v>
-      </c>
-      <c r="C46">
-        <v>598</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (277, 69, 598, 6, 2, 2);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <f t="shared" si="2"/>
-        <v>278</v>
-      </c>
-      <c r="B47">
-        <f t="shared" ref="B47" si="28">B46</f>
-        <v>69</v>
-      </c>
-      <c r="C47">
-        <v>598</v>
-      </c>
-      <c r="D47">
-        <v>3</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (278, 69, 598, 3, 0, 1);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <f t="shared" si="2"/>
-        <v>279</v>
-      </c>
-      <c r="B48">
-        <f t="shared" ref="B48" si="29">B46</f>
-        <v>69</v>
-      </c>
-      <c r="C48">
-        <v>595</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-      <c r="G48" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (279, 69, 595, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="B49">
-        <f t="shared" ref="B49" si="30">B46</f>
-        <v>69</v>
-      </c>
-      <c r="C49">
-        <v>595</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (280, 69, 595, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <f t="shared" si="2"/>
-        <v>281</v>
-      </c>
-      <c r="B50">
-        <f t="shared" ref="B50" si="31">B46+1</f>
-        <v>70</v>
-      </c>
-      <c r="C50">
-        <v>56</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
-        <v>2</v>
-      </c>
-      <c r="F50">
-        <v>2</v>
-      </c>
-      <c r="G50" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (281, 70, 56, 5, 2, 2);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <f t="shared" si="2"/>
-        <v>282</v>
-      </c>
-      <c r="B51">
-        <f t="shared" ref="B51" si="32">B50</f>
-        <v>70</v>
-      </c>
-      <c r="C51">
-        <v>56</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (282, 70, 56, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <f t="shared" si="2"/>
-        <v>283</v>
-      </c>
-      <c r="B52">
-        <f t="shared" ref="B52" si="33">B50</f>
-        <v>70</v>
-      </c>
-      <c r="C52">
-        <v>595</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2</v>
-      </c>
-      <c r="G52" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (283, 70, 595, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <f t="shared" si="2"/>
-        <v>284</v>
-      </c>
-      <c r="B53">
-        <f t="shared" ref="B53" si="34">B50</f>
-        <v>70</v>
-      </c>
-      <c r="C53">
-        <v>595</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (284, 70, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 76, 51, 1, 0, 1);</v>
       </c>
     </row>
   </sheetData>
@@ -8709,9 +9491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="1925" sheetId="10" r:id="rId9"/>
     <sheet name="1926" sheetId="11" r:id="rId10"/>
     <sheet name="1927" sheetId="12" r:id="rId11"/>
+    <sheet name="1929" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -2431,6 +2432,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1927-10-30"</f>
+        <v>1927-10-30</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (71, '1927-10-30', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1927-11-01"</f>
+        <v>1927-11-01</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (72, '1927-11-01', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1927-11-06"</f>
+        <v>1927-11-06</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (73, '1927-11-06', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>74</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1927-11-13"</f>
+        <v>1927-11-13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (74, '1927-11-13', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>75</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1927-11-20"</f>
+        <v>1927-11-20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (75, '1927-11-20', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>76</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1927-11-27"</f>
+        <v>1927-11-27</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (76, '1927-11-27', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>285</v>
+      </c>
+      <c r="B10">
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 54, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>286</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 54, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>287</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>591</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 71, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>591</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 71, 591, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>72</v>
+      </c>
+      <c r="C14">
+        <v>598</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 598, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>290</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <v>598</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>291</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>72</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 72, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>72</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 72, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>293</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>73</v>
+      </c>
+      <c r="C18">
+        <v>598</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 598, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>294</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>73</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>73</v>
+      </c>
+      <c r="C20">
+        <v>591</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 73, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>296</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>591</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 73, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>297</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>74</v>
+      </c>
+      <c r="C22">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 51, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>74</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 51, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>299</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>74</v>
+      </c>
+      <c r="C24">
+        <v>591</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 74, 591, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>74</v>
+      </c>
+      <c r="C25">
+        <v>591</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 74, 591, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>75</v>
+      </c>
+      <c r="C28">
+        <v>598</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 75, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>598</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 75, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>76</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 54, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>76</v>
+      </c>
+      <c r="C31">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 54, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>76</v>
+      </c>
+      <c r="C32">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 76, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>308</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>76</v>
+      </c>
+      <c r="C33">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 76, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2461,98 +3241,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1927-10-30"</f>
-        <v>1927-10-30</v>
+        <f>"1929-11-01"</f>
+        <v>1929-11-01</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (71, '1927-10-30', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (77, '1929-11-01', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1927-11-01"</f>
-        <v>1927-11-01</v>
+        <f>"1929-11-03"</f>
+        <v>1929-11-03</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (72, '1927-11-01', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (78, '1929-11-03', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1927-11-06"</f>
-        <v>1927-11-06</v>
+        <f>"1929-11-10"</f>
+        <v>1929-11-10</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (73, '1927-11-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (79, '1929-11-10', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1927-11-13"</f>
-        <v>1927-11-13</v>
+        <f>"1929-11-11"</f>
+        <v>1929-11-11</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (74, '1927-11-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (80, '1929-11-11', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1927-11-20"</f>
-        <v>1927-11-20</v>
+        <f>"1929-11-16"</f>
+        <v>1929-11-16</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (75, '1927-11-20', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (81, '1929-11-16', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1927-11-27"</f>
-        <v>1927-11-27</v>
+        <f>"1929-11-17"</f>
+        <v>1929-11-17</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (76, '1927-11-27', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (82, '1929-11-17', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2581,42 +3361,42 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C10">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (285, 71, 54, 7, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B11">
         <f>B10</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C11">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -2626,46 +3406,46 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (286, 71, 54, 5, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A33" si="2">A11+1</f>
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="B12">
         <f>B10</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C12">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (287, 71, 591, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 77, 595, 3, 2, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="B13">
         <f>B10</f>
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C13">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2678,23 +3458,23 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (288, 71, 591, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 77, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="B14">
         <f>B10+1</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C14">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -2704,23 +3484,23 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (289, 72, 598, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="B15">
         <f>B14</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C15">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2730,17 +3510,17 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (290, 72, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="B16">
         <f>B14</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>51</v>
@@ -2756,17 +3536,17 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (291, 72, 51, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 78, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="B17">
         <f>B14</f>
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>51</v>
@@ -2782,23 +3562,23 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (292, 72, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 78, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18" si="3">B14+1</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C18">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -2808,23 +3588,23 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (293, 73, 598, 9, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19" si="4">B18</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C19">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2834,23 +3614,23 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (294, 73, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20" si="5">B18</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C20">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2860,20 +3640,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (295, 73, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 79, 595, 1, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21" si="6">B18</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C21">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2886,49 +3666,49 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (296, 73, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 79, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22" si="7">B18+1</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C22">
         <v>51</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (297, 74, 51, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23" si="8">B22</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C23">
         <v>51</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2938,49 +3718,49 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (298, 74, 51, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24" si="9">B22</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (299, 74, 591, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 80, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="10">B22</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C25">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2990,23 +3770,23 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (300, 74, 591, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 80, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="11">B22+1</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3016,23 +3796,23 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (301, 75, 54, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 595, 5, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="12">B26</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3042,23 +3822,23 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (302, 75, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="13">B26</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C28">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -3068,23 +3848,23 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (303, 75, 598, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 81, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="14">B26</f>
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C29">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -3094,23 +3874,23 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (304, 75, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 81, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="15">B26+1</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>54</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -3120,23 +3900,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (305, 76, 54, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="16">B30</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>54</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3146,23 +3926,23 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (306, 76, 54, 5, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="17">B30</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -3172,23 +3952,23 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (307, 76, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 82, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="18">B30</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -3198,7 +3978,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (308, 76, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 82, 598, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>
@@ -9491,7 +10271,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9988,7 +10770,7 @@
         <v>595</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -9998,7 +10780,7 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 58, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (234, 58, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10040,7 +10822,7 @@
         <v>55</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -10050,7 +10832,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 58, 55, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (236, 58, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="1926" sheetId="11" r:id="rId10"/>
     <sheet name="1927" sheetId="12" r:id="rId11"/>
     <sheet name="1929" sheetId="13" r:id="rId12"/>
+    <sheet name="1935" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -3211,6 +3212,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1929-11-01"</f>
+        <v>1929-11-01</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (77, '1929-11-01', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>78</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1929-11-03"</f>
+        <v>1929-11-03</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (78, '1929-11-03', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1929-11-10"</f>
+        <v>1929-11-10</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (79, '1929-11-10', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>80</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1929-11-11"</f>
+        <v>1929-11-11</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (80, '1929-11-11', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>81</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1929-11-16"</f>
+        <v>1929-11-16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (81, '1929-11-16', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1929-11-17"</f>
+        <v>1929-11-17</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (82, '1929-11-17', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>309</v>
+      </c>
+      <c r="B10">
+        <v>77</v>
+      </c>
+      <c r="C10">
+        <v>598</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>310</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>598</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>311</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>77</v>
+      </c>
+      <c r="C12">
+        <v>595</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 77, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>595</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 77, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>314</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>78</v>
+      </c>
+      <c r="C15">
+        <v>54</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>78</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 78, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>316</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 78, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>54</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>318</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>319</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <v>595</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 79, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>79</v>
+      </c>
+      <c r="C21">
+        <v>595</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 79, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>80</v>
+      </c>
+      <c r="C22">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>80</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>598</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 80, 598, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>80</v>
+      </c>
+      <c r="C25">
+        <v>598</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 80, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>325</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>81</v>
+      </c>
+      <c r="C26">
+        <v>595</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 595, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>81</v>
+      </c>
+      <c r="C27">
+        <v>595</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>327</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>81</v>
+      </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 81, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>328</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>81</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 81, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>329</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>82</v>
+      </c>
+      <c r="C31">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>331</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>82</v>
+      </c>
+      <c r="C32">
+        <v>598</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 82, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>332</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>82</v>
+      </c>
+      <c r="C33">
+        <v>598</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 82, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3241,98 +4021,98 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1929-11-01"</f>
-        <v>1929-11-01</v>
+        <f>"1935-01-06"</f>
+        <v>1935-01-06</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (77, '1929-11-01', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (83, '1935-01-06', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1929-11-03"</f>
-        <v>1929-11-03</v>
+        <f>"1935-01-13"</f>
+        <v>1935-01-13</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (78, '1929-11-03', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (84, '1935-01-13', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1929-11-10"</f>
-        <v>1929-11-10</v>
+        <f>"1935-01-18"</f>
+        <v>1935-01-18</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (79, '1929-11-10', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (85, '1935-01-18', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1929-11-11"</f>
-        <v>1929-11-11</v>
+        <f>"1935-01-20"</f>
+        <v>1935-01-20</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (80, '1929-11-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (86, '1935-01-20', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1929-11-16"</f>
-        <v>1929-11-16</v>
+        <f>"1935-01-26"</f>
+        <v>1935-01-26</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (81, '1929-11-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (87, '1935-01-26', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1929-11-17"</f>
-        <v>1929-11-17</v>
+        <f>"1935-01-27"</f>
+        <v>1935-01-27</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (82, '1929-11-17', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (88, '1935-01-27', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,42 +4141,42 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C10">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (309, 77, 598, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>A10+1</f>
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B11">
         <f>B10</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C11">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3406,49 +4186,49 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (310, 77, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ref="A12:A33" si="2">A11+1</f>
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B12">
         <f>B10</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C12">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (311, 77, 595, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 83, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>336</v>
       </c>
       <c r="B13">
         <f>B10</f>
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C13">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -3458,23 +4238,23 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (312, 77, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 83, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B14">
         <f>B10+1</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -3484,23 +4264,23 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (313, 78, 54, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 598, 1, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="B15">
         <f>B14</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -3510,17 +4290,17 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (314, 78, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="B16">
         <f>B14</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C16">
         <v>51</v>
@@ -3536,17 +4316,17 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (315, 78, 51, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 84, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="B17">
         <f>B14</f>
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C17">
         <v>51</v>
@@ -3562,23 +4342,23 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (316, 78, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 84, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>341</v>
       </c>
       <c r="B18">
         <f t="shared" ref="B18" si="3">B14+1</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -3588,23 +4368,23 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (317, 79, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>318</v>
+        <v>342</v>
       </c>
       <c r="B19">
         <f t="shared" ref="B19" si="4">B18</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3614,20 +4394,20 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (318, 79, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="B20">
         <f t="shared" ref="B20" si="5">B18</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C20">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -3640,20 +4420,20 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (319, 79, 595, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 85, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B21">
         <f t="shared" ref="B21" si="6">B18</f>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C21">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -3666,49 +4446,49 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (320, 79, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 85, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>321</v>
+        <v>345</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22" si="7">B18+1</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (321, 80, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23" si="8">B22</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3718,49 +4498,49 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (322, 80, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>323</v>
+        <v>347</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24" si="9">B22</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C24">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (323, 80, 598, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 86, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="10">B22</f>
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C25">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -3770,23 +4550,23 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (324, 80, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 86, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="11">B22+1</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C26">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -3796,20 +4576,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (325, 81, 595, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 51, 1, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="12">B26</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C27">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3822,20 +4602,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (326, 81, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>327</v>
+        <v>351</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="13">B26</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3848,20 +4628,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (327, 81, 51, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 87, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="14">B26</f>
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3874,23 +4654,23 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (328, 81, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 87, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="15">B26+1</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -3900,23 +4680,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (329, 82, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 598, 3, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="16">B30</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -3926,20 +4706,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (330, 82, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="17">B30</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C32">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3952,20 +4732,20 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (331, 82, 598, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 88, 54, 0, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="18">B30</f>
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C33">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3978,7 +4758,7 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (332, 82, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 88, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="1927" sheetId="12" r:id="rId11"/>
     <sheet name="1929" sheetId="13" r:id="rId12"/>
     <sheet name="1935" sheetId="14" r:id="rId13"/>
+    <sheet name="1937" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -1172,9 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3991,6 +3990,785 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1935-01-06"</f>
+        <v>1935-01-06</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (83, '1935-01-06', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>84</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1935-01-13"</f>
+        <v>1935-01-13</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (84, '1935-01-13', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1935-01-18"</f>
+        <v>1935-01-18</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (85, '1935-01-18', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1935-01-20"</f>
+        <v>1935-01-20</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (86, '1935-01-20', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>87</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1935-01-26"</f>
+        <v>1935-01-26</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (87, '1935-01-26', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1935-01-27"</f>
+        <v>1935-01-27</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (88, '1935-01-27', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>333</v>
+      </c>
+      <c r="B10">
+        <v>83</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>A10+1</f>
+        <v>334</v>
+      </c>
+      <c r="B11">
+        <f>B10</f>
+        <v>83</v>
+      </c>
+      <c r="C11">
+        <v>54</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" ref="A12:A33" si="2">A11+1</f>
+        <v>335</v>
+      </c>
+      <c r="B12">
+        <f>B10</f>
+        <v>83</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 83, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+      <c r="B13">
+        <f>B10</f>
+        <v>83</v>
+      </c>
+      <c r="C13">
+        <v>56</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 83, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>337</v>
+      </c>
+      <c r="B14">
+        <f>B10+1</f>
+        <v>84</v>
+      </c>
+      <c r="C14">
+        <v>598</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>598</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>339</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>84</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 84, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>84</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 84, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18" si="3">B14+1</f>
+        <v>85</v>
+      </c>
+      <c r="C18">
+        <v>598</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19" si="4">B18</f>
+        <v>85</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ref="B20" si="5">B18</f>
+        <v>85</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 85, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ref="B21" si="6">B18</f>
+        <v>85</v>
+      </c>
+      <c r="C21">
+        <v>56</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 85, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="7">B18+1</f>
+        <v>86</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>346</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="8">B22</f>
+        <v>86</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>347</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="9">B22</f>
+        <v>86</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 86, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>348</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="10">B22</f>
+        <v>86</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 86, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>349</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="11">B22+1</f>
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 51, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>350</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="12">B26</f>
+        <v>87</v>
+      </c>
+      <c r="C27">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="13">B26</f>
+        <v>87</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 87, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>352</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="14">B26</f>
+        <v>87</v>
+      </c>
+      <c r="C29">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 87, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>353</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="15">B26+1</f>
+        <v>88</v>
+      </c>
+      <c r="C30">
+        <v>598</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>354</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="16">B30</f>
+        <v>88</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>355</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="17">B30</f>
+        <v>88</v>
+      </c>
+      <c r="C32">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 88, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="18">B30</f>
+        <v>88</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 88, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G87"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4015,428 +4793,328 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G7" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G17" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1935-01-06"</f>
-        <v>1935-01-06</v>
+        <f>"1936-12-27"</f>
+        <v>1936-12-27</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (83, '1935-01-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (89, '1936-12-27', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1935-01-13"</f>
-        <v>1935-01-13</v>
+        <f>"1936-12-30"</f>
+        <v>1936-12-30</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (84, '1935-01-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (90, '1936-12-30', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1935-01-18"</f>
-        <v>1935-01-18</v>
+        <f>"1937-01-02"</f>
+        <v>1937-01-02</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (85, '1935-01-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (91, '1937-01-02', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1935-01-20"</f>
-        <v>1935-01-20</v>
+        <f>"1937-01-03"</f>
+        <v>1937-01-03</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (86, '1935-01-20', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (92, '1937-01-03', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1935-01-26"</f>
-        <v>1935-01-26</v>
+        <f>"1937-01-06"</f>
+        <v>1937-01-06</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (87, '1935-01-26', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (93, '1937-01-06', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1935-01-27"</f>
-        <v>1935-01-27</v>
+        <f>"1937-01-09"</f>
+        <v>1937-01-09</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (88, '1935-01-27', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (94, '1937-01-09', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1937-01-10"</f>
+        <v>1937-01-10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (95, '1937-01-10', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
+      <c r="A9">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1937-01-13"</f>
+        <v>1937-01-13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
       </c>
       <c r="G9" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A9 &amp; ", " &amp; B9 &amp; ", " &amp; C9 &amp; ", " &amp; D9 &amp; ", " &amp; E9 &amp; ", " &amp; F9 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (96, '1937-01-13', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>333</v>
-      </c>
-      <c r="B10">
-        <v>83</v>
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1937-01-16"</f>
+        <v>1937-01-16</v>
       </c>
       <c r="C10">
-        <v>54</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ref="G10:G33" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A10 &amp; ", " &amp; B10 &amp; ", " &amp; C10 &amp; ", " &amp; D10 &amp; ", " &amp; E10 &amp; ", " &amp; F10 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (333, 83, 54, 4, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (97, '1937-01-16', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10+1</f>
-        <v>334</v>
-      </c>
-      <c r="B11">
-        <f>B10</f>
-        <v>83</v>
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1937-01-17"</f>
+        <v>1937-01-17</v>
       </c>
       <c r="C11">
-        <v>54</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (334, 83, 54, 1, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (98, '1937-01-17', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ref="A12:A33" si="2">A11+1</f>
-        <v>335</v>
-      </c>
-      <c r="B12">
-        <f>B10</f>
-        <v>83</v>
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1937-01-19"</f>
+        <v>1937-01-19</v>
       </c>
       <c r="C12">
-        <v>56</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (335, 83, 56, 1, 0, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (99, '1937-01-19', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
-      <c r="B13">
-        <f>B10</f>
-        <v>83</v>
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1937-01-21"</f>
+        <v>1937-01-21</v>
       </c>
       <c r="C13">
-        <v>56</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (336, 83, 56, 0, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (100, '1937-01-21', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="2"/>
-        <v>337</v>
-      </c>
-      <c r="B14">
-        <f>B10+1</f>
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1937-01-24"</f>
+        <v>1937-01-24</v>
       </c>
       <c r="C14">
-        <v>598</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (337, 84, 598, 1, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (101, '1937-01-24', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="2"/>
-        <v>338</v>
-      </c>
-      <c r="B15">
-        <f>B14</f>
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1937-01-24"</f>
+        <v>1937-01-24</v>
       </c>
       <c r="C15">
-        <v>598</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (338, 84, 598, 0, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (102, '1937-01-24', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="2"/>
-        <v>339</v>
-      </c>
-      <c r="B16">
-        <f>B14</f>
-        <v>84</v>
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1937-01-30"</f>
+        <v>1937-01-30</v>
       </c>
       <c r="C16">
-        <v>51</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (339, 84, 51, 0, 0, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (103, '1937-01-30', 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>340</v>
-      </c>
-      <c r="B17">
-        <f>B14</f>
-        <v>84</v>
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1937-02-01"</f>
+        <v>1937-02-01</v>
       </c>
       <c r="C17">
-        <v>51</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (340, 84, 51, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="2"/>
-        <v>341</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18" si="3">B14+1</f>
-        <v>85</v>
-      </c>
-      <c r="C18">
-        <v>598</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (341, 85, 598, 2, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (104, '1937-02-01', 7);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="2"/>
-        <v>342</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ref="B19" si="4">B18</f>
-        <v>85</v>
-      </c>
-      <c r="C19">
-        <v>598</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (342, 85, 598, 1, 0, 1);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="B20">
-        <f t="shared" ref="B20" si="5">B18</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (343, 85, 56, 1, 0, 2);</v>
+        <f t="shared" ref="G20:G87" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A20 &amp; ", " &amp; B20 &amp; ", " &amp; C20 &amp; ", " &amp; D20 &amp; ", " &amp; E20 &amp; ", " &amp; F20 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 89, 55, 3, 2, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
-        <v>344</v>
+        <f>A20+1</f>
+        <v>358</v>
       </c>
       <c r="B21">
-        <f t="shared" ref="B21" si="6">B18</f>
-        <v>85</v>
+        <f>B20</f>
+        <v>89</v>
       </c>
       <c r="C21">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -4446,49 +5124,49 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (344, 85, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 89, 55, 2, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
-        <v>345</v>
+        <f t="shared" ref="A22:A87" si="2">A21+1</f>
+        <v>359</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22" si="7">B18+1</f>
-        <v>86</v>
+        <f>B20</f>
+        <v>89</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (345, 86, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 89, 51, 2, 0, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23" si="8">B22</f>
-        <v>86</v>
+        <f>B20</f>
+        <v>89</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -4498,49 +5176,49 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (346, 86, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 89, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24" si="9">B22</f>
-        <v>86</v>
+        <f>B20+1</f>
+        <v>90</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (347, 86, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 90, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="10">B22</f>
-        <v>86</v>
+        <f>B24</f>
+        <v>90</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -4550,49 +5228,49 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (348, 86, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 90, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="11">B22+1</f>
-        <v>87</v>
+        <f>B24</f>
+        <v>90</v>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (349, 87, 51, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 90, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="12">B26</f>
-        <v>87</v>
+        <f>B24</f>
+        <v>90</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -4602,49 +5280,49 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (350, 87, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 90, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="13">B26</f>
-        <v>87</v>
+        <f t="shared" ref="B28" si="3">B24+1</f>
+        <v>91</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (351, 87, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 91, 595, 4, 2, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="14">B26</f>
-        <v>87</v>
+        <f t="shared" ref="B29:B60" si="4">B28</f>
+        <v>91</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4654,49 +5332,49 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (352, 87, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 91, 595, 3, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="15">B26+1</f>
-        <v>88</v>
+        <f t="shared" ref="B30" si="5">B28</f>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>598</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (353, 88, 598, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 91, 598, 2, 0, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="16">B30</f>
-        <v>88</v>
+        <f t="shared" ref="B31" si="6">B28</f>
+        <v>91</v>
       </c>
       <c r="C31">
         <v>598</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4706,59 +5384,1463 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (354, 88, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 91, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="17">B30</f>
-        <v>88</v>
+        <f t="shared" ref="B32" si="7">B28+1</f>
+        <v>92</v>
       </c>
       <c r="C32">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (355, 88, 54, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 92, 55, 6, 2, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="18">B30</f>
-        <v>88</v>
+        <f t="shared" ref="B33:B64" si="8">B32</f>
+        <v>92</v>
       </c>
       <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 92, 55, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="9">B32</f>
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 92, 56, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="10">B32</f>
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 92, 56, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="11">B32+1</f>
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>598</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 93, 598, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:B83" si="12">B36</f>
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>598</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 93, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="13">B36</f>
+        <v>93</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 93, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>376</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="14">B36</f>
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 93, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="15">B36+1</f>
+        <v>94</v>
+      </c>
+      <c r="C40">
         <v>54</v>
       </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (356, 88, 54, 0, 0, 1);</v>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 94, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41:B83" si="16">B40</f>
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 94, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="17">B40</f>
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>595</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 94, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="18">B40</f>
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <v>595</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 94, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>381</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="19">B40+1</f>
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>598</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 95, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>382</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45:B83" si="20">B44</f>
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 95, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="21">B44</f>
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 95, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="22">B44</f>
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 95, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="23">B44+1</f>
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49:B83" si="24">B48</f>
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 96, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>387</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="25">B48</f>
+        <v>96</v>
+      </c>
+      <c r="C50">
+        <v>595</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 96, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="26">B48</f>
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>595</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 96, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>389</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="27">B48+1</f>
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 97, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53:B83" si="28">B52</f>
+        <v>97</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 97, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="29">B52</f>
+        <v>97</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 97, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="30">B52</f>
+        <v>97</v>
+      </c>
+      <c r="C55">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 97, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="31">B52+1</f>
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <v>595</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 98, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57:B83" si="32">B56</f>
+        <v>98</v>
+      </c>
+      <c r="C57">
+        <v>595</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 98, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="33">B56</f>
+        <v>98</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 98, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="34">B56</f>
+        <v>98</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 98, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>397</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="35">B56+1</f>
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 99, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>398</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B83" si="36">B60</f>
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 99, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="37">B60</f>
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>598</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 99, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="38">B60</f>
+        <v>99</v>
+      </c>
+      <c r="C63">
+        <v>598</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 99, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>401</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="39">B60+1</f>
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>51</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 100, 51, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>402</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B83" si="40">B64</f>
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 100, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="41">B64</f>
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 100, 56, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>404</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67" si="42">B64</f>
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>56</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 100, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68" si="43">B64+1</f>
+        <v>101</v>
+      </c>
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 101, 54, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B83" si="44">B68</f>
+        <v>101</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 101, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70" si="45">B68</f>
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>598</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 101, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71" si="46">B68</f>
+        <v>101</v>
+      </c>
+      <c r="C71">
+        <v>598</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 101, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>409</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72" si="47">B68+1</f>
+        <v>102</v>
+      </c>
+      <c r="C72">
+        <v>595</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 102, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73:B83" si="48">B72</f>
+        <v>102</v>
+      </c>
+      <c r="C73">
+        <v>595</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 102, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74" si="49">B72</f>
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 102, 51, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>412</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75" si="50">B72</f>
+        <v>102</v>
+      </c>
+      <c r="C75">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 102, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>413</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76" si="51">B72+1</f>
+        <v>103</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 103, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77:B83" si="52">B76</f>
+        <v>103</v>
+      </c>
+      <c r="C77">
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 103, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ref="B78" si="53">B76</f>
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>55</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 103, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79" si="54">B76</f>
+        <v>103</v>
+      </c>
+      <c r="C79">
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 103, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80" si="55">B76+1</f>
+        <v>104</v>
+      </c>
+      <c r="C80">
+        <v>54</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 104, 54, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81:B83" si="56">B80</f>
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 104, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>419</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ref="B82" si="57">B80</f>
+        <v>104</v>
+      </c>
+      <c r="C82">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 104, 55, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:B87" si="58">B80</f>
+        <v>104</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 104, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C84">
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 104, 54, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>422</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C85">
+        <v>54</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 104, 54, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C86">
+        <v>55</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 104, 55, 0, 0, 4);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C87">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 104, 55, 0, 0, 3);</v>
       </c>
     </row>
   </sheetData>
@@ -8307,11 +10389,11 @@
         <v>1922-10-22</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (42, '1922-10-22', 6);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (42, '1922-10-22', 7);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -9489,9 +11571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10270,9 +12350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11051,9 +13129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="1929" sheetId="13" r:id="rId12"/>
     <sheet name="1935" sheetId="14" r:id="rId13"/>
     <sheet name="1937" sheetId="15" r:id="rId14"/>
+    <sheet name="1939" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -4769,6 +4770,2089 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G87"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G17" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1936-12-27"</f>
+        <v>1936-12-27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (89, '1936-12-27', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1936-12-30"</f>
+        <v>1936-12-30</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (90, '1936-12-30', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1937-01-02"</f>
+        <v>1937-01-02</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (91, '1937-01-02', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1937-01-03"</f>
+        <v>1937-01-03</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (92, '1937-01-03', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>93</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1937-01-06"</f>
+        <v>1937-01-06</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (93, '1937-01-06', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>94</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1937-01-09"</f>
+        <v>1937-01-09</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (94, '1937-01-09', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>95</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1937-01-10"</f>
+        <v>1937-01-10</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (95, '1937-01-10', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>96</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1937-01-13"</f>
+        <v>1937-01-13</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (96, '1937-01-13', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1937-01-16"</f>
+        <v>1937-01-16</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (97, '1937-01-16', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>98</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1937-01-17"</f>
+        <v>1937-01-17</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (98, '1937-01-17', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1937-01-19"</f>
+        <v>1937-01-19</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (99, '1937-01-19', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1937-01-21"</f>
+        <v>1937-01-21</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (100, '1937-01-21', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>101</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1937-01-24"</f>
+        <v>1937-01-24</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (101, '1937-01-24', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>102</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1937-01-24"</f>
+        <v>1937-01-24</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (102, '1937-01-24', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>103</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1937-01-30"</f>
+        <v>1937-01-30</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (103, '1937-01-30', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>104</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1937-02-01"</f>
+        <v>1937-02-01</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (104, '1937-02-01', 7);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>357</v>
+      </c>
+      <c r="B20">
+        <v>89</v>
+      </c>
+      <c r="C20">
+        <v>55</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" ref="G20:G87" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A20 &amp; ", " &amp; B20 &amp; ", " &amp; C20 &amp; ", " &amp; D20 &amp; ", " &amp; E20 &amp; ", " &amp; F20 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 89, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>A20+1</f>
+        <v>358</v>
+      </c>
+      <c r="B21">
+        <f>B20</f>
+        <v>89</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 89, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" ref="A22:A87" si="2">A21+1</f>
+        <v>359</v>
+      </c>
+      <c r="B22">
+        <f>B20</f>
+        <v>89</v>
+      </c>
+      <c r="C22">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 89, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="B23">
+        <f>B20</f>
+        <v>89</v>
+      </c>
+      <c r="C23">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 89, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="B24">
+        <f>B20+1</f>
+        <v>90</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 90, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>362</v>
+      </c>
+      <c r="B25">
+        <f>B24</f>
+        <v>90</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 90, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+      <c r="B26">
+        <f>B24</f>
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 90, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="B27">
+        <f>B24</f>
+        <v>90</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 90, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>365</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="3">B24+1</f>
+        <v>91</v>
+      </c>
+      <c r="C28">
+        <v>595</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 91, 595, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>366</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="4">B28</f>
+        <v>91</v>
+      </c>
+      <c r="C29">
+        <v>595</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 91, 595, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>367</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="5">B28</f>
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>598</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 91, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>368</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="6">B28</f>
+        <v>91</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 91, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>369</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="7">B28+1</f>
+        <v>92</v>
+      </c>
+      <c r="C32">
+        <v>55</v>
+      </c>
+      <c r="D32">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 92, 55, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="8">B32</f>
+        <v>92</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 92, 55, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>371</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="9">B32</f>
+        <v>92</v>
+      </c>
+      <c r="C34">
+        <v>56</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 92, 56, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>372</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="10">B32</f>
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 92, 56, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>373</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="11">B32+1</f>
+        <v>93</v>
+      </c>
+      <c r="C36">
+        <v>598</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 93, 598, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>374</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="12">B36</f>
+        <v>93</v>
+      </c>
+      <c r="C37">
+        <v>598</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 93, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="13">B36</f>
+        <v>93</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 93, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>376</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="14">B36</f>
+        <v>93</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 93, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="15">B36+1</f>
+        <v>94</v>
+      </c>
+      <c r="C40">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 94, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="16">B40</f>
+        <v>94</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 94, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>379</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="17">B40</f>
+        <v>94</v>
+      </c>
+      <c r="C42">
+        <v>595</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 94, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="18">B40</f>
+        <v>94</v>
+      </c>
+      <c r="C43">
+        <v>595</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 94, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>381</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="19">B40+1</f>
+        <v>95</v>
+      </c>
+      <c r="C44">
+        <v>598</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 95, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>382</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="20">B44</f>
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 95, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>383</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="21">B44</f>
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 95, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="22">B44</f>
+        <v>95</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 95, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>385</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="23">B44+1</f>
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>55</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>386</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="24">B48</f>
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 96, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>387</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="25">B48</f>
+        <v>96</v>
+      </c>
+      <c r="C50">
+        <v>595</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 96, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="26">B48</f>
+        <v>96</v>
+      </c>
+      <c r="C51">
+        <v>595</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 96, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>389</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="27">B48+1</f>
+        <v>97</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 97, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="28">B52</f>
+        <v>97</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 97, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>391</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="29">B52</f>
+        <v>97</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 97, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>392</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="30">B52</f>
+        <v>97</v>
+      </c>
+      <c r="C55">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 97, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>393</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="31">B52+1</f>
+        <v>98</v>
+      </c>
+      <c r="C56">
+        <v>595</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 98, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>394</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="32">B56</f>
+        <v>98</v>
+      </c>
+      <c r="C57">
+        <v>595</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 98, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>395</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="33">B56</f>
+        <v>98</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 98, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>396</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="34">B56</f>
+        <v>98</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 98, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>397</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="35">B56+1</f>
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>55</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 99, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>398</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="36">B60</f>
+        <v>99</v>
+      </c>
+      <c r="C61">
+        <v>55</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 99, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>399</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="37">B60</f>
+        <v>99</v>
+      </c>
+      <c r="C62">
+        <v>598</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 99, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="38">B60</f>
+        <v>99</v>
+      </c>
+      <c r="C63">
+        <v>598</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 99, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>401</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="39">B60+1</f>
+        <v>100</v>
+      </c>
+      <c r="C64">
+        <v>51</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 100, 51, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>402</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65" si="40">B64</f>
+        <v>100</v>
+      </c>
+      <c r="C65">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 100, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>403</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="41">B64</f>
+        <v>100</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 100, 56, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>404</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67" si="42">B64</f>
+        <v>100</v>
+      </c>
+      <c r="C67">
+        <v>56</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 100, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68" si="43">B64+1</f>
+        <v>101</v>
+      </c>
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 101, 54, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>406</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69" si="44">B68</f>
+        <v>101</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 101, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>407</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70" si="45">B68</f>
+        <v>101</v>
+      </c>
+      <c r="C70">
+        <v>598</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 101, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>408</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71" si="46">B68</f>
+        <v>101</v>
+      </c>
+      <c r="C71">
+        <v>598</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 101, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>409</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72" si="47">B68+1</f>
+        <v>102</v>
+      </c>
+      <c r="C72">
+        <v>595</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 102, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>410</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73" si="48">B72</f>
+        <v>102</v>
+      </c>
+      <c r="C73">
+        <v>595</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 102, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74" si="49">B72</f>
+        <v>102</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 102, 51, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>412</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75" si="50">B72</f>
+        <v>102</v>
+      </c>
+      <c r="C75">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 102, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>413</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76" si="51">B72+1</f>
+        <v>103</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 103, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>414</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ref="B77" si="52">B76</f>
+        <v>103</v>
+      </c>
+      <c r="C77">
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 103, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>415</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ref="B78" si="53">B76</f>
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>55</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 103, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ref="B79" si="54">B76</f>
+        <v>103</v>
+      </c>
+      <c r="C79">
+        <v>55</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 103, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ref="B80" si="55">B76+1</f>
+        <v>104</v>
+      </c>
+      <c r="C80">
+        <v>54</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 104, 54, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>418</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ref="B81" si="56">B80</f>
+        <v>104</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 104, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>419</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ref="B82" si="57">B80</f>
+        <v>104</v>
+      </c>
+      <c r="C82">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 104, 55, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>420</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ref="B83:B87" si="58">B80</f>
+        <v>104</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 104, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>421</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C84">
+        <v>54</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>4</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 104, 54, 2, 2, 4);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>422</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C85">
+        <v>54</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>3</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 104, 54, 0, 0, 3);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C86">
+        <v>55</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 104, 55, 0, 0, 4);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>424</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="58"/>
+        <v>104</v>
+      </c>
+      <c r="C87">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>3</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 104, 55, 0, 0, 3);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,328 +6877,388 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G17" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1936-12-27"</f>
-        <v>1936-12-27</v>
+        <f>"1939-01-15"</f>
+        <v>1939-01-15</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (89, '1936-12-27', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (105, '1939-01-15', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1936-12-30"</f>
-        <v>1936-12-30</v>
+        <f>"1939-01-15"</f>
+        <v>1939-01-15</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (90, '1936-12-30', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (106, '1939-01-15', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1937-01-02"</f>
-        <v>1937-01-02</v>
+        <f>"1939-01-22"</f>
+        <v>1939-01-22</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (91, '1937-01-02', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (107, '1939-01-22', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1937-01-03"</f>
-        <v>1937-01-03</v>
+        <f>"1939-01-22"</f>
+        <v>1939-01-22</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (92, '1937-01-03', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (108, '1939-01-22', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1937-01-06"</f>
-        <v>1937-01-06</v>
+        <f>"1939-01-29"</f>
+        <v>1939-01-29</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (93, '1937-01-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (109, '1939-01-29', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1937-01-09"</f>
-        <v>1937-01-09</v>
+        <f>"1939-01-29"</f>
+        <v>1939-01-29</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (94, '1937-01-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (110, '1939-01-29', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1937-01-10"</f>
-        <v>1937-01-10</v>
+        <f>"1939-02-05"</f>
+        <v>1939-02-05</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (95, '1937-01-10', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (111, '1939-02-05', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1937-01-13"</f>
-        <v>1937-01-13</v>
+        <f>"1939-02-05"</f>
+        <v>1939-02-05</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (96, '1937-01-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (112, '1939-02-05', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1937-01-16"</f>
-        <v>1937-01-16</v>
+        <f>"1939-02-12"</f>
+        <v>1939-02-12</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (97, '1937-01-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (113, '1939-02-12', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1937-01-17"</f>
-        <v>1937-01-17</v>
+        <f>"1939-02-12"</f>
+        <v>1939-02-12</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (98, '1937-01-17', 2);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>99</v>
-      </c>
-      <c r="B12" s="2" t="str">
-        <f>"1937-01-19"</f>
-        <v>1937-01-19</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (99, '1937-01-19', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (114, '1939-02-12', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>100</v>
-      </c>
-      <c r="B13" s="2" t="str">
-        <f>"1937-01-21"</f>
-        <v>1937-01-21</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (100, '1937-01-21', 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>101</v>
-      </c>
-      <c r="B14" s="2" t="str">
-        <f>"1937-01-24"</f>
-        <v>1937-01-24</v>
+        <v>425</v>
+      </c>
+      <c r="B14">
+        <v>105</v>
       </c>
       <c r="C14">
+        <v>595</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (101, '1937-01-24', 2);</v>
+        <f t="shared" ref="G14:G81" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 105, 595, 5, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>102</v>
-      </c>
-      <c r="B15" s="2" t="str">
-        <f>"1937-01-24"</f>
-        <v>1937-01-24</v>
+        <f>A14+1</f>
+        <v>426</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>105</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>595</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (102, '1937-01-24', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 105, 595, 3, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>103</v>
-      </c>
-      <c r="B16" s="2" t="str">
-        <f>"1937-01-30"</f>
-        <v>1937-01-30</v>
+        <f t="shared" ref="A16:A79" si="2">A15+1</f>
+        <v>427</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>105</v>
       </c>
       <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (103, '1937-01-30', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 105, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>104</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>"1937-02-01"</f>
-        <v>1937-02-01</v>
+        <f t="shared" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>105</v>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (104, '1937-02-01', 7);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 105, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="B18">
+        <f>B14+1</f>
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 106, 51, 5, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
       <c r="G19" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 106, 51, 3, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>357</v>
+        <f t="shared" si="2"/>
+        <v>431</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <f>B18</f>
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>55</v>
+        <v>593</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ref="G20:G87" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A20 &amp; ", " &amp; B20 &amp; ", " &amp; C20 &amp; ", " &amp; D20 &amp; ", " &amp; E20 &amp; ", " &amp; F20 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (357, 89, 55, 3, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 106, 593, 2, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>A20+1</f>
-        <v>358</v>
+        <f t="shared" si="2"/>
+        <v>432</v>
       </c>
       <c r="B21">
-        <f>B20</f>
-        <v>89</v>
+        <f>B18</f>
+        <v>106</v>
       </c>
       <c r="C21">
-        <v>55</v>
+        <v>593</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -5124,49 +7268,49 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (358, 89, 55, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 106, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ref="A22:A87" si="2">A21+1</f>
-        <v>359</v>
+        <f t="shared" si="2"/>
+        <v>433</v>
       </c>
       <c r="B22">
-        <f>B20</f>
-        <v>89</v>
+        <f t="shared" ref="B22" si="3">B18+1</f>
+        <v>107</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (359, 89, 51, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 107, 598, 6, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="B23">
-        <f>B20</f>
-        <v>89</v>
+        <f t="shared" ref="B23" si="4">B22</f>
+        <v>107</v>
       </c>
       <c r="C23">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -5176,49 +7320,49 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (360, 89, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 107, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>435</v>
       </c>
       <c r="B24">
-        <f>B20+1</f>
-        <v>90</v>
+        <f t="shared" ref="B24" si="5">B22</f>
+        <v>107</v>
       </c>
       <c r="C24">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (361, 90, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 107, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="B25">
-        <f>B24</f>
-        <v>90</v>
+        <f t="shared" ref="B25" si="6">B22</f>
+        <v>107</v>
       </c>
       <c r="C25">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5228,49 +7372,49 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (362, 90, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 107, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>363</v>
+        <v>437</v>
       </c>
       <c r="B26">
-        <f>B24</f>
-        <v>90</v>
+        <f t="shared" ref="B26" si="7">B22+1</f>
+        <v>108</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (363, 90, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 108, 51, 3, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="B27">
-        <f>B24</f>
-        <v>90</v>
+        <f t="shared" ref="B27" si="8">B26</f>
+        <v>108</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -5280,49 +7424,49 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (364, 90, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 108, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>439</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="3">B24+1</f>
-        <v>91</v>
+        <f t="shared" ref="B28" si="9">B26</f>
+        <v>108</v>
       </c>
       <c r="C28">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>2</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (365, 91, 595, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 108, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:B60" si="4">B28</f>
-        <v>91</v>
+        <f t="shared" ref="B29" si="10">B26</f>
+        <v>108</v>
       </c>
       <c r="C29">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -5332,43 +7476,43 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (366, 91, 595, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 108, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>367</v>
+        <v>441</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="5">B28</f>
-        <v>91</v>
+        <f t="shared" ref="B30" si="11">B26+1</f>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>598</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (367, 91, 598, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 109, 598, 3, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="6">B28</f>
-        <v>91</v>
+        <f t="shared" ref="B31" si="12">B30</f>
+        <v>109</v>
       </c>
       <c r="C31">
         <v>598</v>
@@ -5384,49 +7528,49 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (368, 91, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 109, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>369</v>
+        <v>443</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="7">B28+1</f>
-        <v>92</v>
+        <f t="shared" ref="B32" si="13">B30</f>
+        <v>109</v>
       </c>
       <c r="C32">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (369, 92, 55, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 109, 56, 2, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33:B64" si="8">B32</f>
-        <v>92</v>
+        <f t="shared" ref="B33" si="14">B30</f>
+        <v>109</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -5436,49 +7580,49 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (370, 92, 55, 5, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 109, 56, 2, 0, 1);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>371</v>
+        <v>445</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34" si="9">B32</f>
-        <v>92</v>
+        <f t="shared" ref="B34" si="15">B30+1</f>
+        <v>110</v>
       </c>
       <c r="C34">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>2</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (371, 92, 56, 4, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 110, 51, 3, 2, 2);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35" si="10">B32</f>
-        <v>92</v>
+        <f t="shared" ref="B35" si="16">B34</f>
+        <v>110</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -5488,49 +7632,49 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (372, 92, 56, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 110, 51, 2, 0, 1);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>373</v>
+        <v>447</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36" si="11">B32+1</f>
-        <v>93</v>
+        <f t="shared" ref="B36" si="17">B34</f>
+        <v>110</v>
       </c>
       <c r="C36">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>2</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (373, 93, 598, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 110, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37:B83" si="12">B36</f>
-        <v>93</v>
+        <f t="shared" ref="B37" si="18">B34</f>
+        <v>110</v>
       </c>
       <c r="C37">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5540,49 +7684,49 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (374, 93, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 110, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>375</v>
+        <v>449</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38" si="13">B36</f>
-        <v>93</v>
+        <f t="shared" ref="B38" si="19">B34+1</f>
+        <v>111</v>
       </c>
       <c r="C38">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>2</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (375, 93, 51, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 111, 56, 4, 2, 2);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39" si="14">B36</f>
-        <v>93</v>
+        <f t="shared" ref="B39" si="20">B38</f>
+        <v>111</v>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -5592,49 +7736,49 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (376, 93, 51, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 111, 56, 3, 0, 1);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>377</v>
+        <v>451</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40" si="15">B36+1</f>
-        <v>94</v>
+        <f t="shared" ref="B40" si="21">B38</f>
+        <v>111</v>
       </c>
       <c r="C40">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (377, 94, 54, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 111, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B83" si="16">B40</f>
-        <v>94</v>
+        <f t="shared" ref="B41" si="22">B38</f>
+        <v>111</v>
       </c>
       <c r="C41">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -5644,49 +7788,49 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (378, 94, 54, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 111, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>379</v>
+        <v>453</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="17">B40</f>
-        <v>94</v>
+        <f t="shared" ref="B42" si="23">B38+1</f>
+        <v>112</v>
       </c>
       <c r="C42">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F42">
         <v>2</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (379, 94, 595, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 112, 598, 3, 2, 2);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43" si="18">B40</f>
-        <v>94</v>
+        <f t="shared" ref="B43" si="24">B42</f>
+        <v>112</v>
       </c>
       <c r="C43">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -5696,23 +7840,23 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (380, 94, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 112, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>381</v>
+        <v>455</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44" si="19">B40+1</f>
-        <v>95</v>
+        <f t="shared" ref="B44" si="25">B42</f>
+        <v>112</v>
       </c>
       <c r="C44">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -5722,20 +7866,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (381, 95, 598, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 112, 595, 1, 0, 2);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45:B83" si="20">B44</f>
-        <v>95</v>
+        <f t="shared" ref="B45" si="26">B42</f>
+        <v>112</v>
       </c>
       <c r="C45">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -5748,20 +7892,20 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (382, 95, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 112, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>383</v>
+        <v>457</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="21">B44</f>
-        <v>95</v>
+        <f t="shared" ref="B46" si="27">B42+1</f>
+        <v>113</v>
       </c>
       <c r="C46">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -5774,23 +7918,23 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (383, 95, 56, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 113, 595, 3, 2, 2);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="22">B44</f>
-        <v>95</v>
+        <f t="shared" ref="B47" si="28">B46</f>
+        <v>113</v>
       </c>
       <c r="C47">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -5800,49 +7944,49 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (384, 95, 56, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 113, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>385</v>
+        <v>459</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48" si="23">B44+1</f>
-        <v>96</v>
+        <f t="shared" ref="B48" si="29">B46</f>
+        <v>113</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>593</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (385, 96, 55, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 113, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B83" si="24">B48</f>
-        <v>96</v>
+        <f t="shared" ref="B49" si="30">B46</f>
+        <v>113</v>
       </c>
       <c r="C49">
-        <v>55</v>
+        <v>593</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -5852,49 +7996,49 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (386, 96, 55, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 113, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50" si="25">B48</f>
-        <v>96</v>
+        <f t="shared" ref="B50" si="31">B46+1</f>
+        <v>114</v>
       </c>
       <c r="C50">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>2</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (387, 96, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 114, 51, 2, 2, 2);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="26">B48</f>
-        <v>96</v>
+        <f t="shared" ref="B51" si="32">B50</f>
+        <v>114</v>
       </c>
       <c r="C51">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -5904,49 +8048,49 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (388, 96, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 114, 51, 2, 0, 1);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>389</v>
+        <v>463</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="27">B48+1</f>
-        <v>97</v>
+        <f t="shared" ref="B52" si="33">B50</f>
+        <v>114</v>
       </c>
       <c r="C52">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D52">
         <v>1</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <v>2</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (389, 97, 54, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 114, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53:B83" si="28">B52</f>
-        <v>97</v>
+        <f t="shared" ref="B53" si="34">B50</f>
+        <v>114</v>
       </c>
       <c r="C53">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -5956,891 +8100,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (390, 97, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <f t="shared" si="2"/>
-        <v>391</v>
-      </c>
-      <c r="B54">
-        <f t="shared" ref="B54" si="29">B52</f>
-        <v>97</v>
-      </c>
-      <c r="C54">
-        <v>51</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>2</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (391, 97, 51, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <f t="shared" si="2"/>
-        <v>392</v>
-      </c>
-      <c r="B55">
-        <f t="shared" ref="B55" si="30">B52</f>
-        <v>97</v>
-      </c>
-      <c r="C55">
-        <v>51</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (392, 97, 51, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <f t="shared" si="2"/>
-        <v>393</v>
-      </c>
-      <c r="B56">
-        <f t="shared" ref="B56" si="31">B52+1</f>
-        <v>98</v>
-      </c>
-      <c r="C56">
-        <v>595</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (393, 98, 595, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <f t="shared" si="2"/>
-        <v>394</v>
-      </c>
-      <c r="B57">
-        <f t="shared" ref="B57:B83" si="32">B56</f>
-        <v>98</v>
-      </c>
-      <c r="C57">
-        <v>595</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (394, 98, 595, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <f t="shared" si="2"/>
-        <v>395</v>
-      </c>
-      <c r="B58">
-        <f t="shared" ref="B58" si="33">B56</f>
-        <v>98</v>
-      </c>
-      <c r="C58">
-        <v>56</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (395, 98, 56, 2, 0, 2);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <f t="shared" si="2"/>
-        <v>396</v>
-      </c>
-      <c r="B59">
-        <f t="shared" ref="B59" si="34">B56</f>
-        <v>98</v>
-      </c>
-      <c r="C59">
-        <v>56</v>
-      </c>
-      <c r="D59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (396, 98, 56, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <f t="shared" si="2"/>
-        <v>397</v>
-      </c>
-      <c r="B60">
-        <f t="shared" ref="B60" si="35">B56+1</f>
-        <v>99</v>
-      </c>
-      <c r="C60">
-        <v>55</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60">
-        <v>2</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-      <c r="G60" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (397, 99, 55, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <f t="shared" si="2"/>
-        <v>398</v>
-      </c>
-      <c r="B61">
-        <f t="shared" ref="B61:B83" si="36">B60</f>
-        <v>99</v>
-      </c>
-      <c r="C61">
-        <v>55</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (398, 99, 55, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <f t="shared" si="2"/>
-        <v>399</v>
-      </c>
-      <c r="B62">
-        <f t="shared" ref="B62" si="37">B60</f>
-        <v>99</v>
-      </c>
-      <c r="C62">
-        <v>598</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-      <c r="G62" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (399, 99, 598, 2, 0, 2);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="B63">
-        <f t="shared" ref="B63" si="38">B60</f>
-        <v>99</v>
-      </c>
-      <c r="C63">
-        <v>598</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (400, 99, 598, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <f t="shared" si="2"/>
-        <v>401</v>
-      </c>
-      <c r="B64">
-        <f t="shared" ref="B64" si="39">B60+1</f>
-        <v>100</v>
-      </c>
-      <c r="C64">
-        <v>51</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-      <c r="G64" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (401, 100, 51, 2, 1, 2);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <f t="shared" si="2"/>
-        <v>402</v>
-      </c>
-      <c r="B65">
-        <f t="shared" ref="B65:B83" si="40">B64</f>
-        <v>100</v>
-      </c>
-      <c r="C65">
-        <v>51</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (402, 100, 51, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <f t="shared" si="2"/>
-        <v>403</v>
-      </c>
-      <c r="B66">
-        <f t="shared" ref="B66" si="41">B64</f>
-        <v>100</v>
-      </c>
-      <c r="C66">
-        <v>56</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>2</v>
-      </c>
-      <c r="G66" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (403, 100, 56, 2, 1, 2);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <f t="shared" si="2"/>
-        <v>404</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67" si="42">B64</f>
-        <v>100</v>
-      </c>
-      <c r="C67">
-        <v>56</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (404, 100, 56, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <f t="shared" si="2"/>
-        <v>405</v>
-      </c>
-      <c r="B68">
-        <f t="shared" ref="B68" si="43">B64+1</f>
-        <v>101</v>
-      </c>
-      <c r="C68">
-        <v>54</v>
-      </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>2</v>
-      </c>
-      <c r="G68" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (405, 101, 54, 2, 0, 2);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <f t="shared" si="2"/>
-        <v>406</v>
-      </c>
-      <c r="B69">
-        <f t="shared" ref="B69:B83" si="44">B68</f>
-        <v>101</v>
-      </c>
-      <c r="C69">
-        <v>54</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (406, 101, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <f t="shared" si="2"/>
-        <v>407</v>
-      </c>
-      <c r="B70">
-        <f t="shared" ref="B70" si="45">B68</f>
-        <v>101</v>
-      </c>
-      <c r="C70">
-        <v>598</v>
-      </c>
-      <c r="D70">
-        <v>3</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (407, 101, 598, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <f t="shared" si="2"/>
-        <v>408</v>
-      </c>
-      <c r="B71">
-        <f t="shared" ref="B71" si="46">B68</f>
-        <v>101</v>
-      </c>
-      <c r="C71">
-        <v>598</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (408, 101, 598, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <f t="shared" si="2"/>
-        <v>409</v>
-      </c>
-      <c r="B72">
-        <f t="shared" ref="B72" si="47">B68+1</f>
-        <v>102</v>
-      </c>
-      <c r="C72">
-        <v>595</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>2</v>
-      </c>
-      <c r="G72" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (409, 102, 595, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <f t="shared" si="2"/>
-        <v>410</v>
-      </c>
-      <c r="B73">
-        <f t="shared" ref="B73:B83" si="48">B72</f>
-        <v>102</v>
-      </c>
-      <c r="C73">
-        <v>595</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (410, 102, 595, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <f t="shared" si="2"/>
-        <v>411</v>
-      </c>
-      <c r="B74">
-        <f t="shared" ref="B74" si="49">B72</f>
-        <v>102</v>
-      </c>
-      <c r="C74">
-        <v>51</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>2</v>
-      </c>
-      <c r="F74">
-        <v>2</v>
-      </c>
-      <c r="G74" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (411, 102, 51, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <f t="shared" si="2"/>
-        <v>412</v>
-      </c>
-      <c r="B75">
-        <f t="shared" ref="B75" si="50">B72</f>
-        <v>102</v>
-      </c>
-      <c r="C75">
-        <v>51</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (412, 102, 51, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <f t="shared" si="2"/>
-        <v>413</v>
-      </c>
-      <c r="B76">
-        <f t="shared" ref="B76" si="51">B72+1</f>
-        <v>103</v>
-      </c>
-      <c r="C76">
-        <v>54</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (413, 103, 54, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <f t="shared" si="2"/>
-        <v>414</v>
-      </c>
-      <c r="B77">
-        <f t="shared" ref="B77:B83" si="52">B76</f>
-        <v>103</v>
-      </c>
-      <c r="C77">
-        <v>54</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (414, 103, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <f t="shared" si="2"/>
-        <v>415</v>
-      </c>
-      <c r="B78">
-        <f t="shared" ref="B78" si="53">B76</f>
-        <v>103</v>
-      </c>
-      <c r="C78">
-        <v>55</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>2</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (415, 103, 55, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="2"/>
-        <v>416</v>
-      </c>
-      <c r="B79">
-        <f t="shared" ref="B79" si="54">B76</f>
-        <v>103</v>
-      </c>
-      <c r="C79">
-        <v>55</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>1</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (416, 103, 55, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="2"/>
-        <v>417</v>
-      </c>
-      <c r="B80">
-        <f t="shared" ref="B80" si="55">B76+1</f>
-        <v>104</v>
-      </c>
-      <c r="C80">
-        <v>54</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>2</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (417, 104, 54, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="2"/>
-        <v>418</v>
-      </c>
-      <c r="B81">
-        <f t="shared" ref="B81:B83" si="56">B80</f>
-        <v>104</v>
-      </c>
-      <c r="C81">
-        <v>54</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (418, 104, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="2"/>
-        <v>419</v>
-      </c>
-      <c r="B82">
-        <f t="shared" ref="B82" si="57">B80</f>
-        <v>104</v>
-      </c>
-      <c r="C82">
-        <v>55</v>
-      </c>
-      <c r="D82">
-        <v>0</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>2</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (419, 104, 55, 0, 1, 2);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="2"/>
-        <v>420</v>
-      </c>
-      <c r="B83">
-        <f t="shared" ref="B83:B87" si="58">B80</f>
-        <v>104</v>
-      </c>
-      <c r="C83">
-        <v>55</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (420, 104, 55, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="2"/>
-        <v>421</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="58"/>
-        <v>104</v>
-      </c>
-      <c r="C84">
-        <v>54</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>4</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (421, 104, 54, 2, 2, 4);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="2"/>
-        <v>422</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="58"/>
-        <v>104</v>
-      </c>
-      <c r="C85">
-        <v>54</v>
-      </c>
-      <c r="D85">
-        <v>0</v>
-      </c>
-      <c r="E85">
-        <v>0</v>
-      </c>
-      <c r="F85">
-        <v>3</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (422, 104, 54, 0, 0, 3);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="2"/>
-        <v>423</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="58"/>
-        <v>104</v>
-      </c>
-      <c r="C86">
-        <v>55</v>
-      </c>
-      <c r="D86">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>4</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (423, 104, 55, 0, 0, 4);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="2"/>
-        <v>424</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="58"/>
-        <v>104</v>
-      </c>
-      <c r="C87">
-        <v>55</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>3</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (424, 104, 55, 0, 0, 3);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 114, 598, 1, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="1935" sheetId="14" r:id="rId13"/>
     <sheet name="1937" sheetId="15" r:id="rId14"/>
     <sheet name="1939" sheetId="16" r:id="rId15"/>
+    <sheet name="1941" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -6853,6 +6854,1265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>105</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1939-01-15"</f>
+        <v>1939-01-15</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (105, '1939-01-15', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>106</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1939-01-15"</f>
+        <v>1939-01-15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (106, '1939-01-15', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>107</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1939-01-22"</f>
+        <v>1939-01-22</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (107, '1939-01-22', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>108</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1939-01-22"</f>
+        <v>1939-01-22</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (108, '1939-01-22', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>109</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1939-01-29"</f>
+        <v>1939-01-29</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (109, '1939-01-29', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>110</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1939-01-29"</f>
+        <v>1939-01-29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (110, '1939-01-29', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>111</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1939-02-05"</f>
+        <v>1939-02-05</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (111, '1939-02-05', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1939-02-05"</f>
+        <v>1939-02-05</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (112, '1939-02-05', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>113</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1939-02-12"</f>
+        <v>1939-02-12</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (113, '1939-02-12', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>114</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1939-02-12"</f>
+        <v>1939-02-12</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (114, '1939-02-12', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>425</v>
+      </c>
+      <c r="B14">
+        <v>105</v>
+      </c>
+      <c r="C14">
+        <v>595</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G53" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 105, 595, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>426</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>105</v>
+      </c>
+      <c r="C15">
+        <v>595</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 105, 595, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A53" si="2">A15+1</f>
+        <v>427</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>105</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 105, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>428</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 105, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>429</v>
+      </c>
+      <c r="B18">
+        <f>B14+1</f>
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 106, 51, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>106</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 106, 51, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>431</v>
+      </c>
+      <c r="B20">
+        <f>B18</f>
+        <v>106</v>
+      </c>
+      <c r="C20">
+        <v>593</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 106, 593, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="B21">
+        <f>B18</f>
+        <v>106</v>
+      </c>
+      <c r="C21">
+        <v>593</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 106, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>433</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="3">B18+1</f>
+        <v>107</v>
+      </c>
+      <c r="C22">
+        <v>598</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 107, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>434</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="4">B22</f>
+        <v>107</v>
+      </c>
+      <c r="C23">
+        <v>598</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 107, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="5">B22</f>
+        <v>107</v>
+      </c>
+      <c r="C24">
+        <v>593</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 107, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>436</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="6">B22</f>
+        <v>107</v>
+      </c>
+      <c r="C25">
+        <v>593</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 107, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>437</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="7">B22+1</f>
+        <v>108</v>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 108, 51, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>438</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="8">B26</f>
+        <v>108</v>
+      </c>
+      <c r="C27">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 108, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>439</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="9">B26</f>
+        <v>108</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 108, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="10">B26</f>
+        <v>108</v>
+      </c>
+      <c r="C29">
+        <v>56</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 108, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>441</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="11">B26+1</f>
+        <v>109</v>
+      </c>
+      <c r="C30">
+        <v>598</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 109, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>442</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="12">B30</f>
+        <v>109</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 109, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>443</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="13">B30</f>
+        <v>109</v>
+      </c>
+      <c r="C32">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 109, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>444</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="14">B30</f>
+        <v>109</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 109, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>445</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="15">B30+1</f>
+        <v>110</v>
+      </c>
+      <c r="C34">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 110, 51, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>446</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="16">B34</f>
+        <v>110</v>
+      </c>
+      <c r="C35">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 110, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>447</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="17">B34</f>
+        <v>110</v>
+      </c>
+      <c r="C36">
+        <v>595</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 110, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>448</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="18">B34</f>
+        <v>110</v>
+      </c>
+      <c r="C37">
+        <v>595</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 110, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>449</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="19">B34+1</f>
+        <v>111</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 111, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>450</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="20">B38</f>
+        <v>111</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 111, 56, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>451</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="21">B38</f>
+        <v>111</v>
+      </c>
+      <c r="C40">
+        <v>593</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 111, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>452</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="22">B38</f>
+        <v>111</v>
+      </c>
+      <c r="C41">
+        <v>593</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 111, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="23">B38+1</f>
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>598</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 112, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>454</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="24">B42</f>
+        <v>112</v>
+      </c>
+      <c r="C43">
+        <v>598</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 112, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="25">B42</f>
+        <v>112</v>
+      </c>
+      <c r="C44">
+        <v>595</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 112, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>456</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="26">B42</f>
+        <v>112</v>
+      </c>
+      <c r="C45">
+        <v>595</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 112, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>457</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="27">B42+1</f>
+        <v>113</v>
+      </c>
+      <c r="C46">
+        <v>595</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 113, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>458</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="28">B46</f>
+        <v>113</v>
+      </c>
+      <c r="C47">
+        <v>595</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 113, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>459</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="29">B46</f>
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>593</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 113, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>460</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="30">B46</f>
+        <v>113</v>
+      </c>
+      <c r="C49">
+        <v>593</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 113, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>461</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="31">B46+1</f>
+        <v>114</v>
+      </c>
+      <c r="C50">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 114, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>462</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="32">B50</f>
+        <v>114</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 114, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>463</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="33">B50</f>
+        <v>114</v>
+      </c>
+      <c r="C52">
+        <v>598</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 114, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>464</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="34">B50</f>
+        <v>114</v>
+      </c>
+      <c r="C53">
+        <v>598</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 114, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6883,162 +8143,162 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1939-01-15"</f>
-        <v>1939-01-15</v>
+        <f>"1941-02-02"</f>
+        <v>1941-02-02</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (105, '1939-01-15', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (115, '1941-02-02', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1939-01-15"</f>
-        <v>1939-01-15</v>
+        <f>"1941-02-09"</f>
+        <v>1941-02-09</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (106, '1939-01-15', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (116, '1941-02-09', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1939-01-22"</f>
-        <v>1939-01-22</v>
+        <f>"1941-02-09"</f>
+        <v>1941-02-09</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (107, '1939-01-22', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (117, '1941-02-09', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1939-01-22"</f>
-        <v>1939-01-22</v>
+        <f>"1941-02-12"</f>
+        <v>1941-02-12</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (108, '1939-01-22', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (118, '1941-02-12', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1939-01-29"</f>
-        <v>1939-01-29</v>
+        <f>"1941-02-16"</f>
+        <v>1941-02-16</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (109, '1939-01-29', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (119, '1941-02-16', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1939-01-29"</f>
-        <v>1939-01-29</v>
+        <f>"1941-02-16"</f>
+        <v>1941-02-16</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (110, '1939-01-29', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (120, '1941-02-16', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1939-02-05"</f>
-        <v>1939-02-05</v>
+        <f>"1941-02-23"</f>
+        <v>1941-02-23</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (111, '1939-02-05', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (121, '1941-02-23', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1939-02-05"</f>
-        <v>1939-02-05</v>
+        <f>"1941-02-23"</f>
+        <v>1941-02-23</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (112, '1939-02-05', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (122, '1941-02-23', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1939-02-12"</f>
-        <v>1939-02-12</v>
+        <f>"1941-02-26"</f>
+        <v>1941-02-26</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (113, '1939-02-12', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (123, '1941-02-26', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1939-02-12"</f>
-        <v>1939-02-12</v>
+        <f>"1941-03-04"</f>
+        <v>1941-03-04</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (114, '1939-02-12', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (124, '1941-03-04', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -7067,13 +8327,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>425</v>
+        <v>465</v>
       </c>
       <c r="B14">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C14">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D14">
         <v>5</v>
@@ -7085,24 +8345,24 @@
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G81" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (425, 105, 595, 5, 2, 2);</v>
+        <f t="shared" ref="G14:G53" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 115, 56, 5, 2, 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>A14+1</f>
-        <v>426</v>
+        <v>466</v>
       </c>
       <c r="B15">
         <f>B14</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C15">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -7112,23 +8372,23 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (426, 105, 595, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 115, 56, 4, 0, 1);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ref="A16:A79" si="2">A15+1</f>
-        <v>427</v>
+        <f t="shared" ref="A16:A53" si="2">A15+1</f>
+        <v>467</v>
       </c>
       <c r="B16">
         <f>B14</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -7138,23 +8398,23 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (427, 105, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 115, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="2"/>
-        <v>428</v>
+        <v>468</v>
       </c>
       <c r="B17">
         <f>B14</f>
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C17">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -7164,23 +8424,23 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (428, 105, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 115, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="2"/>
-        <v>429</v>
+        <v>469</v>
       </c>
       <c r="B18">
         <f>B14+1</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C18">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -7190,23 +8450,23 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (429, 106, 51, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 116, 598, 6, 2, 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="2"/>
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="B19">
         <f>B18</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C19">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -7216,23 +8476,23 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (430, 106, 51, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 116, 598, 4, 0, 1);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="2"/>
-        <v>431</v>
+        <v>471</v>
       </c>
       <c r="B20">
         <f>B18</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C20">
         <v>593</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -7242,17 +8502,17 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (431, 106, 593, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 116, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="2"/>
-        <v>432</v>
+        <v>472</v>
       </c>
       <c r="B21">
         <f>B18</f>
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C21">
         <v>593</v>
@@ -7268,23 +8528,23 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (432, 106, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 116, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="2"/>
-        <v>433</v>
+        <v>473</v>
       </c>
       <c r="B22">
         <f t="shared" ref="B22" si="3">B18+1</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C22">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -7294,20 +8554,20 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (433, 107, 598, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 117, 56, 1, 2, 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="2"/>
-        <v>434</v>
+        <v>474</v>
       </c>
       <c r="B23">
         <f t="shared" ref="B23" si="4">B22</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C23">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -7320,20 +8580,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (434, 107, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 117, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="2"/>
-        <v>435</v>
+        <v>475</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24" si="5">B22</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C24">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -7346,20 +8606,20 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (435, 107, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 117, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="2"/>
-        <v>436</v>
+        <v>476</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="6">B22</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C25">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -7372,23 +8632,23 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (436, 107, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 117, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="B26">
         <f t="shared" ref="B26" si="7">B22+1</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -7398,20 +8658,20 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (437, 108, 51, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 118, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="2"/>
-        <v>438</v>
+        <v>478</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="8">B26</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C27">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -7424,20 +8684,20 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (438, 108, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 118, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>439</v>
+        <v>479</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="9">B26</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -7450,20 +8710,20 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (439, 108, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 118, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="10">B26</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -7476,23 +8736,23 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (440, 108, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 118, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="11">B26+1</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C30">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -7502,23 +8762,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (441, 109, 598, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 119, 54, 6, 2, 2);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>442</v>
+        <v>482</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="12">B30</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C31">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -7528,23 +8788,23 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (442, 109, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 119, 54, 5, 0, 1);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="13">B30</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C32">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -7554,23 +8814,23 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (443, 109, 56, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 119, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>444</v>
+        <v>484</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="14">B30</f>
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C33">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -7580,23 +8840,23 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (444, 109, 56, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 119, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>445</v>
+        <v>485</v>
       </c>
       <c r="B34">
         <f t="shared" ref="B34" si="15">B30+1</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -7606,23 +8866,23 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (445, 110, 51, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 120, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>446</v>
+        <v>486</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35" si="16">B34</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C35">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -7632,20 +8892,20 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (446, 110, 51, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 120, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="B36">
         <f t="shared" ref="B36" si="17">B34</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C36">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -7658,20 +8918,20 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (447, 110, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 120, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>448</v>
+        <v>488</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37" si="18">B34</f>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C37">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -7684,20 +8944,20 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (448, 110, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 120, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>449</v>
+        <v>489</v>
       </c>
       <c r="B38">
         <f t="shared" ref="B38" si="19">B34+1</f>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -7710,20 +8970,20 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (449, 111, 56, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 121, 51, 4, 2, 2);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>450</v>
+        <v>490</v>
       </c>
       <c r="B39">
         <f t="shared" ref="B39" si="20">B38</f>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C39">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -7736,23 +8996,23 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (450, 111, 56, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 121, 51, 3, 0, 1);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>451</v>
+        <v>491</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40" si="21">B38</f>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C40">
         <v>593</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -7762,23 +9022,23 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (451, 111, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 121, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>452</v>
+        <v>492</v>
       </c>
       <c r="B41">
         <f t="shared" ref="B41" si="22">B38</f>
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C41">
         <v>593</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7788,23 +9048,23 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (452, 111, 593, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 121, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>453</v>
+        <v>493</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42" si="23">B38+1</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C42">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -7814,23 +9074,23 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (453, 112, 598, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 122, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="B43">
         <f t="shared" ref="B43" si="24">B42</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C43">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -7840,23 +9100,23 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (454, 112, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 122, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>455</v>
+        <v>495</v>
       </c>
       <c r="B44">
         <f t="shared" ref="B44" si="25">B42</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C44">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -7866,20 +9126,20 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (455, 112, 595, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 122, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>456</v>
+        <v>496</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45" si="26">B42</f>
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C45">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -7892,23 +9152,23 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (456, 112, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 122, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>457</v>
+        <v>497</v>
       </c>
       <c r="B46">
         <f t="shared" ref="B46" si="27">B42+1</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C46">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -7918,20 +9178,20 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (457, 113, 595, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 123, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="B47">
         <f t="shared" ref="B47" si="28">B46</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C47">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -7944,23 +9204,23 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (458, 113, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 123, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="B48">
         <f t="shared" ref="B48" si="29">B46</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C48">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -7970,20 +9230,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (459, 113, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 123, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="B49">
         <f t="shared" ref="B49" si="30">B46</f>
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C49">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -7996,23 +9256,23 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (460, 113, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 123, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50" si="31">B46+1</f>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C50">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -8022,23 +9282,23 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (461, 114, 51, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 124, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="B51">
         <f t="shared" ref="B51" si="32">B50</f>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -8048,23 +9308,23 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (462, 114, 51, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 124, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B52">
         <f t="shared" ref="B52" si="33">B50</f>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C52">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -8074,23 +9334,23 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (463, 114, 598, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 124, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>464</v>
+        <v>504</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53" si="34">B50</f>
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C53">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -8100,7 +9360,7 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (464, 114, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 124, 56, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,14 @@
     <sheet name="1937" sheetId="15" r:id="rId14"/>
     <sheet name="1939" sheetId="16" r:id="rId15"/>
     <sheet name="1941" sheetId="17" r:id="rId16"/>
+    <sheet name="1942" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -8113,6 +8114,1265 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>115</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1941-02-02"</f>
+        <v>1941-02-02</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (115, '1941-02-02', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>116</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1941-02-09"</f>
+        <v>1941-02-09</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (116, '1941-02-09', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>117</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1941-02-09"</f>
+        <v>1941-02-09</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (117, '1941-02-09', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>118</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1941-02-12"</f>
+        <v>1941-02-12</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (118, '1941-02-12', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>119</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1941-02-16"</f>
+        <v>1941-02-16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (119, '1941-02-16', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>120</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1941-02-16"</f>
+        <v>1941-02-16</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (120, '1941-02-16', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>121</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1941-02-23"</f>
+        <v>1941-02-23</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (121, '1941-02-23', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>122</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1941-02-23"</f>
+        <v>1941-02-23</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (122, '1941-02-23', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>123</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1941-02-26"</f>
+        <v>1941-02-26</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (123, '1941-02-26', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>124</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1941-03-04"</f>
+        <v>1941-03-04</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (124, '1941-03-04', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>465</v>
+      </c>
+      <c r="B14">
+        <v>115</v>
+      </c>
+      <c r="C14">
+        <v>56</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" ref="G14:G53" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 115, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>A14+1</f>
+        <v>466</v>
+      </c>
+      <c r="B15">
+        <f>B14</f>
+        <v>115</v>
+      </c>
+      <c r="C15">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 115, 56, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" ref="A16:A53" si="2">A15+1</f>
+        <v>467</v>
+      </c>
+      <c r="B16">
+        <f>B14</f>
+        <v>115</v>
+      </c>
+      <c r="C16">
+        <v>593</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 115, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="B17">
+        <f>B14</f>
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>593</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 115, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="B18">
+        <f>B14+1</f>
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>598</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 116, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="2"/>
+        <v>470</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>116</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 116, 598, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="2"/>
+        <v>471</v>
+      </c>
+      <c r="B20">
+        <f>B18</f>
+        <v>116</v>
+      </c>
+      <c r="C20">
+        <v>593</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 116, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="2"/>
+        <v>472</v>
+      </c>
+      <c r="B21">
+        <f>B18</f>
+        <v>116</v>
+      </c>
+      <c r="C21">
+        <v>593</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 116, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="2"/>
+        <v>473</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22" si="3">B18+1</f>
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 117, 56, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>474</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23" si="4">B22</f>
+        <v>117</v>
+      </c>
+      <c r="C23">
+        <v>56</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 117, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>475</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24" si="5">B22</f>
+        <v>117</v>
+      </c>
+      <c r="C24">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 117, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="2"/>
+        <v>476</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25" si="6">B22</f>
+        <v>117</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 117, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="2"/>
+        <v>477</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26" si="7">B22+1</f>
+        <v>118</v>
+      </c>
+      <c r="C26">
+        <v>54</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 118, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="2"/>
+        <v>478</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="8">B26</f>
+        <v>118</v>
+      </c>
+      <c r="C27">
+        <v>54</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 118, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>479</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="9">B26</f>
+        <v>118</v>
+      </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 118, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>480</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="10">B26</f>
+        <v>118</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 118, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>481</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="11">B26+1</f>
+        <v>119</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 119, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>482</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="12">B30</f>
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>54</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 119, 54, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>483</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="13">B30</f>
+        <v>119</v>
+      </c>
+      <c r="C32">
+        <v>593</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 119, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>484</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="14">B30</f>
+        <v>119</v>
+      </c>
+      <c r="C33">
+        <v>593</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 119, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>485</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="15">B30+1</f>
+        <v>120</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 120, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>486</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="16">B34</f>
+        <v>120</v>
+      </c>
+      <c r="C35">
+        <v>598</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 120, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>487</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="17">B34</f>
+        <v>120</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 120, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>488</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="18">B34</f>
+        <v>120</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 120, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>489</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="19">B34+1</f>
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 121, 51, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="20">B38</f>
+        <v>121</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 121, 51, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>491</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="21">B38</f>
+        <v>121</v>
+      </c>
+      <c r="C40">
+        <v>593</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 121, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="22">B38</f>
+        <v>121</v>
+      </c>
+      <c r="C41">
+        <v>593</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 121, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>493</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="23">B38+1</f>
+        <v>122</v>
+      </c>
+      <c r="C42">
+        <v>54</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 122, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="24">B42</f>
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>54</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 122, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>495</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="25">B42</f>
+        <v>122</v>
+      </c>
+      <c r="C44">
+        <v>598</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 122, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>496</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="26">B42</f>
+        <v>122</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 122, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>497</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="27">B42+1</f>
+        <v>123</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 123, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="28">B46</f>
+        <v>123</v>
+      </c>
+      <c r="C47">
+        <v>598</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 123, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>499</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="29">B46</f>
+        <v>123</v>
+      </c>
+      <c r="C48">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 123, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="30">B46</f>
+        <v>123</v>
+      </c>
+      <c r="C49">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 123, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>501</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="31">B46+1</f>
+        <v>124</v>
+      </c>
+      <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 124, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>502</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="32">B50</f>
+        <v>124</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 124, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>503</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="33">B50</f>
+        <v>124</v>
+      </c>
+      <c r="C52">
+        <v>56</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 124, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>504</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="34">B50</f>
+        <v>124</v>
+      </c>
+      <c r="C53">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 124, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G108"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8137,541 +9397,431 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G11" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G22" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1941-02-02"</f>
-        <v>1941-02-02</v>
+        <f>"1942-01-10"</f>
+        <v>1942-01-10</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (115, '1941-02-02', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (125, '1942-01-10', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1941-02-09"</f>
-        <v>1941-02-09</v>
+        <f>"1942-01-11"</f>
+        <v>1942-01-11</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (116, '1941-02-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (126, '1942-01-11', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1941-02-09"</f>
-        <v>1941-02-09</v>
+        <f>"1942-01-14"</f>
+        <v>1942-01-14</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (117, '1941-02-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (127, '1942-01-14', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1941-02-12"</f>
-        <v>1941-02-12</v>
+        <f>"1942-01-17"</f>
+        <v>1942-01-17</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (118, '1941-02-12', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (128, '1942-01-17', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1941-02-16"</f>
-        <v>1941-02-16</v>
+        <f>"1942-01-18"</f>
+        <v>1942-01-18</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (119, '1941-02-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (129, '1942-01-18', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1941-02-16"</f>
-        <v>1941-02-16</v>
+        <f>"1942-01-18"</f>
+        <v>1942-01-18</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (120, '1941-02-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (130, '1942-01-18', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1941-02-23"</f>
-        <v>1941-02-23</v>
+        <f>"1942-01-21"</f>
+        <v>1942-01-21</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (121, '1941-02-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (131, '1942-01-21', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1941-02-23"</f>
-        <v>1941-02-23</v>
+        <f>"1942-01-22"</f>
+        <v>1942-01-22</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (122, '1941-02-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (132, '1942-01-22', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1941-02-26"</f>
-        <v>1941-02-26</v>
+        <f>"1942-01-22"</f>
+        <v>1942-01-22</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (123, '1941-02-26', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (133, '1942-01-22', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1941-03-04"</f>
-        <v>1941-03-04</v>
+        <f>"1942-01-24"</f>
+        <v>1942-01-24</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (124, '1941-03-04', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (134, '1942-01-24', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>135</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1942-01-25"</f>
+        <v>1942-01-25</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (135, '1942-01-25', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
+      <c r="A13">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1942-01-25"</f>
+        <v>1942-01-25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
       </c>
       <c r="G13" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A13 &amp; ", " &amp; B13 &amp; ", " &amp; C13 &amp; ", " &amp; D13 &amp; ", " &amp; E13 &amp; ", " &amp; F13 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (136, '1942-01-25', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>465</v>
-      </c>
-      <c r="B14">
-        <v>115</v>
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1942-01-28"</f>
+        <v>1942-01-28</v>
       </c>
       <c r="C14">
-        <v>56</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ref="G14:G53" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A14 &amp; ", " &amp; B14 &amp; ", " &amp; C14 &amp; ", " &amp; D14 &amp; ", " &amp; E14 &amp; ", " &amp; F14 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (465, 115, 56, 5, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (137, '1942-01-28', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14+1</f>
-        <v>466</v>
-      </c>
-      <c r="B15">
-        <f>B14</f>
-        <v>115</v>
+        <v>138</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1942-01-28"</f>
+        <v>1942-01-28</v>
       </c>
       <c r="C15">
-        <v>56</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (466, 115, 56, 4, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (138, '1942-01-28', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ref="A16:A53" si="2">A15+1</f>
-        <v>467</v>
-      </c>
-      <c r="B16">
-        <f>B14</f>
-        <v>115</v>
+        <v>139</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1942-01-31"</f>
+        <v>1942-01-31</v>
       </c>
       <c r="C16">
-        <v>593</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (467, 115, 593, 0, 0, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (139, '1942-01-31', 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="2"/>
-        <v>468</v>
-      </c>
-      <c r="B17">
-        <f>B14</f>
-        <v>115</v>
+        <v>140</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1942-01-31"</f>
+        <v>1942-01-31</v>
       </c>
       <c r="C17">
-        <v>593</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (468, 115, 593, 0, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (140, '1942-01-31', 2);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="2"/>
-        <v>469</v>
-      </c>
-      <c r="B18">
-        <f>B14+1</f>
-        <v>116</v>
+        <v>141</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1942-02-01"</f>
+        <v>1942-02-01</v>
       </c>
       <c r="C18">
-        <v>598</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
         <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (469, 116, 598, 6, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (141, '1942-02-01', 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="2"/>
-        <v>470</v>
-      </c>
-      <c r="B19">
-        <f>B18</f>
-        <v>116</v>
+        <v>142</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1942-02-05"</f>
+        <v>1942-02-05</v>
       </c>
       <c r="C19">
-        <v>598</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (470, 116, 598, 4, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (142, '1942-02-05', 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="2"/>
-        <v>471</v>
-      </c>
-      <c r="B20">
-        <f>B18</f>
-        <v>116</v>
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1942-02-05"</f>
+        <v>1942-02-05</v>
       </c>
       <c r="C20">
-        <v>593</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (471, 116, 593, 0, 0, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (143, '1942-02-05', 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="2"/>
-        <v>472</v>
-      </c>
-      <c r="B21">
-        <f>B18</f>
-        <v>116</v>
+        <v>144</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1942-02-07"</f>
+        <v>1942-02-07</v>
       </c>
       <c r="C21">
-        <v>593</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (472, 116, 593, 0, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (144, '1942-02-07', 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="2"/>
-        <v>473</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22" si="3">B18+1</f>
-        <v>117</v>
+        <v>145</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1942-02-07"</f>
+        <v>1942-02-07</v>
       </c>
       <c r="C22">
-        <v>56</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (473, 117, 56, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="2"/>
-        <v>474</v>
-      </c>
-      <c r="B23">
-        <f t="shared" ref="B23" si="4">B22</f>
-        <v>117</v>
-      </c>
-      <c r="C23">
-        <v>56</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (474, 117, 56, 1, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (145, '1942-02-07', 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="2"/>
-        <v>475</v>
-      </c>
-      <c r="B24">
-        <f t="shared" ref="B24" si="5">B22</f>
-        <v>117</v>
-      </c>
-      <c r="C24">
-        <v>51</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (475, 117, 51, 0, 0, 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="2"/>
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25" si="6">B22</f>
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (476, 117, 51, 0, 0, 1);</v>
+        <f t="shared" ref="G25:G64" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 125, 598, 6, 2, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="2"/>
-        <v>477</v>
+        <f>A25+1</f>
+        <v>506</v>
       </c>
       <c r="B26">
-        <f t="shared" ref="B26" si="7">B22+1</f>
-        <v>118</v>
+        <f>B25</f>
+        <v>125</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (477, 118, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 125, 598, 4, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="2"/>
-        <v>478</v>
+        <f t="shared" ref="A27:A90" si="2">A26+1</f>
+        <v>507</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="8">B26</f>
-        <v>118</v>
+        <f>B25</f>
+        <v>125</v>
       </c>
       <c r="C27">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -8680,24 +9830,24 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (478, 118, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 125, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="9">B26</f>
-        <v>118</v>
+        <f>B25</f>
+        <v>125</v>
       </c>
       <c r="C28">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -8706,180 +9856,180 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (479, 118, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 125, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="10">B26</f>
-        <v>118</v>
+        <f>B25+1</f>
+        <v>126</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (480, 118, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 126, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="11">B26+1</f>
-        <v>119</v>
+        <f>B29</f>
+        <v>126</v>
       </c>
       <c r="C30">
         <v>54</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (481, 119, 54, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 126, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="12">B30</f>
-        <v>119</v>
+        <f>B29</f>
+        <v>126</v>
       </c>
       <c r="C31">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (482, 119, 54, 5, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 126, 595, 3, 0, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="13">B30</f>
-        <v>119</v>
+        <f>B29</f>
+        <v>126</v>
       </c>
       <c r="C32">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (483, 119, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 126, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="14">B30</f>
-        <v>119</v>
+        <f t="shared" ref="B33" si="3">B29+1</f>
+        <v>127</v>
       </c>
       <c r="C33">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (484, 119, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 127, 55, 6, 2, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34" si="15">B30+1</f>
-        <v>120</v>
+        <f t="shared" ref="B34" si="4">B33</f>
+        <v>127</v>
       </c>
       <c r="C34">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (485, 120, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 127, 55, 2, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35" si="16">B34</f>
-        <v>120</v>
+        <f t="shared" ref="B35" si="5">B33</f>
+        <v>127</v>
       </c>
       <c r="C35">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -8888,206 +10038,206 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (486, 120, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 127, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36" si="17">B34</f>
-        <v>120</v>
+        <f t="shared" ref="B36" si="6">B33</f>
+        <v>127</v>
       </c>
       <c r="C36">
         <v>56</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (487, 120, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 127, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37" si="18">B34</f>
-        <v>120</v>
+        <f t="shared" ref="B37" si="7">B33+1</f>
+        <v>128</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (488, 120, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 128, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38" si="19">B34+1</f>
-        <v>121</v>
+        <f t="shared" ref="B38" si="8">B37</f>
+        <v>128</v>
       </c>
       <c r="C38">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (489, 121, 51, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 128, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39" si="20">B38</f>
-        <v>121</v>
+        <f t="shared" ref="B39" si="9">B37</f>
+        <v>128</v>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (490, 121, 51, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 128, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40" si="21">B38</f>
-        <v>121</v>
+        <f t="shared" ref="B40" si="10">B37</f>
+        <v>128</v>
       </c>
       <c r="C40">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (491, 121, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 128, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>492</v>
+        <v>521</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41" si="22">B38</f>
-        <v>121</v>
+        <f t="shared" ref="B41" si="11">B37+1</f>
+        <v>129</v>
       </c>
       <c r="C41">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (492, 121, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 129, 598, 7, 2, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="23">B38+1</f>
-        <v>122</v>
+        <f t="shared" ref="B42" si="12">B41</f>
+        <v>129</v>
       </c>
       <c r="C42">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (493, 122, 54, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 129, 598, 7, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43" si="24">B42</f>
-        <v>122</v>
+        <f t="shared" ref="B43" si="13">B41</f>
+        <v>129</v>
       </c>
       <c r="C43">
-        <v>54</v>
+        <v>593</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -9096,24 +10246,24 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (494, 122, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 129, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44" si="25">B42</f>
-        <v>122</v>
+        <f t="shared" ref="B44" si="14">B41</f>
+        <v>129</v>
       </c>
       <c r="C44">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -9122,206 +10272,206 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (495, 122, 598, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 129, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45" si="26">B42</f>
-        <v>122</v>
+        <f t="shared" ref="B45" si="15">B41+1</f>
+        <v>130</v>
       </c>
       <c r="C45">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (496, 122, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 130, 595, 1, 1, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="27">B42+1</f>
-        <v>123</v>
+        <f t="shared" ref="B46" si="16">B45</f>
+        <v>130</v>
       </c>
       <c r="C46">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (497, 123, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 130, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="28">B46</f>
-        <v>123</v>
+        <f t="shared" ref="B47" si="17">B45</f>
+        <v>130</v>
       </c>
       <c r="C47">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D47">
         <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (498, 123, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 130, 51, 1, 1, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48" si="29">B46</f>
-        <v>123</v>
+        <f t="shared" ref="B48" si="18">B45</f>
+        <v>130</v>
       </c>
       <c r="C48">
         <v>51</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (499, 123, 51, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 130, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>529</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49" si="30">B46</f>
-        <v>123</v>
+        <f t="shared" ref="B49" si="19">B45+1</f>
+        <v>131</v>
       </c>
       <c r="C49">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (500, 123, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 131, 55, 2, 2, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50" si="31">B46+1</f>
-        <v>124</v>
+        <f t="shared" ref="B50" si="20">B49</f>
+        <v>131</v>
       </c>
       <c r="C50">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D50">
         <v>1</v>
       </c>
       <c r="E50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (501, 124, 54, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 131, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>502</v>
+        <v>531</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="32">B50</f>
-        <v>124</v>
+        <f t="shared" ref="B51" si="21">B49</f>
+        <v>131</v>
       </c>
       <c r="C51">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (502, 124, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 131, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="33">B50</f>
-        <v>124</v>
+        <f t="shared" ref="B52" si="22">B49</f>
+        <v>131</v>
       </c>
       <c r="C52">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -9330,37 +10480,1467 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (503, 124, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 131, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53" si="34">B50</f>
-        <v>124</v>
+        <f t="shared" ref="B53" si="23">B49+1</f>
+        <v>132</v>
       </c>
       <c r="C53">
+        <v>595</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 132, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>534</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="24">B53</f>
+        <v>132</v>
+      </c>
+      <c r="C54">
+        <v>595</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 132, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="25">B53</f>
+        <v>132</v>
+      </c>
+      <c r="C55">
         <v>56</v>
       </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (504, 124, 56, 0, 0, 1);</v>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 132, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="26">B53</f>
+        <v>132</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 132, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="27">B53+1</f>
+        <v>133</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 133, 54, 12, 2, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="28">B57</f>
+        <v>133</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 133, 54, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="29">B57</f>
+        <v>133</v>
+      </c>
+      <c r="C59">
+        <v>593</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 133, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="30">B57</f>
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>593</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 133, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>541</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="31">B57+1</f>
+        <v>134</v>
+      </c>
+      <c r="C61">
+        <v>598</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 134, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="32">B61</f>
+        <v>134</v>
+      </c>
+      <c r="C62">
+        <v>598</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 134, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="33">B61</f>
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 134, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="34">B61</f>
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 134, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>545</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B105" si="35">B61+1</f>
+        <v>135</v>
+      </c>
+      <c r="C65">
+        <v>595</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ref="G65:G108" si="36">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A65 &amp; ", " &amp; B65 &amp; ", " &amp; C65 &amp; ", " &amp; D65 &amp; ", " &amp; E65 &amp; ", " &amp; F65 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 135, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>546</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B106" si="37">B65</f>
+        <v>135</v>
+      </c>
+      <c r="C66">
+        <v>595</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 135, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B107" si="38">B65</f>
+        <v>135</v>
+      </c>
+      <c r="C67">
+        <v>593</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 135, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B108" si="39">B65</f>
+        <v>135</v>
+      </c>
+      <c r="C68">
+        <v>593</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 135, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>549</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="35"/>
+        <v>136</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 136, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="37"/>
+        <v>136</v>
+      </c>
+      <c r="C70">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 136, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>551</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="38"/>
+        <v>136</v>
+      </c>
+      <c r="C71">
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 136, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="39"/>
+        <v>136</v>
+      </c>
+      <c r="C72">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 136, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>553</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="35"/>
+        <v>137</v>
+      </c>
+      <c r="C73">
+        <v>51</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 137, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="37"/>
+        <v>137</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 137, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>555</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="38"/>
+        <v>137</v>
+      </c>
+      <c r="C75">
+        <v>593</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 137, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>556</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="39"/>
+        <v>137</v>
+      </c>
+      <c r="C76">
+        <v>593</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 137, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>557</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="35"/>
+        <v>138</v>
+      </c>
+      <c r="C77">
+        <v>598</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 138, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="37"/>
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>598</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 138, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>138</v>
+      </c>
+      <c r="C79">
+        <v>595</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 138, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="39"/>
+        <v>138</v>
+      </c>
+      <c r="C80">
+        <v>595</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 138, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>561</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="35"/>
+        <v>139</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 139, 54, 0, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>562</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="37"/>
+        <v>139</v>
+      </c>
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 139, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>563</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="38"/>
+        <v>139</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 139, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="39"/>
+        <v>139</v>
+      </c>
+      <c r="C84">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 139, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>565</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="35"/>
+        <v>140</v>
+      </c>
+      <c r="C85">
+        <v>55</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 140, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>566</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="37"/>
+        <v>140</v>
+      </c>
+      <c r="C86">
+        <v>55</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 140, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>567</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="38"/>
+        <v>140</v>
+      </c>
+      <c r="C87">
+        <v>593</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 140, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>568</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="39"/>
+        <v>140</v>
+      </c>
+      <c r="C88">
+        <v>593</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 140, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="35"/>
+        <v>141</v>
+      </c>
+      <c r="C89">
+        <v>598</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 141, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="37"/>
+        <v>141</v>
+      </c>
+      <c r="C90">
+        <v>598</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 141, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ref="A91:A108" si="40">A90+1</f>
+        <v>571</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="38"/>
+        <v>141</v>
+      </c>
+      <c r="C91">
+        <v>51</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 141, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="40"/>
+        <v>572</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="39"/>
+        <v>141</v>
+      </c>
+      <c r="C92">
+        <v>51</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 141, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="40"/>
+        <v>573</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="35"/>
+        <v>142</v>
+      </c>
+      <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 142, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="40"/>
+        <v>574</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="37"/>
+        <v>142</v>
+      </c>
+      <c r="C94">
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 142, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="40"/>
+        <v>575</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="38"/>
+        <v>142</v>
+      </c>
+      <c r="C95">
+        <v>593</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 142, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="40"/>
+        <v>576</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="39"/>
+        <v>142</v>
+      </c>
+      <c r="C96">
+        <v>593</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 142, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="40"/>
+        <v>577</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="35"/>
+        <v>143</v>
+      </c>
+      <c r="C97">
+        <v>55</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 143, 55, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="40"/>
+        <v>578</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="37"/>
+        <v>143</v>
+      </c>
+      <c r="C98">
+        <v>55</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 143, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="40"/>
+        <v>579</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="38"/>
+        <v>143</v>
+      </c>
+      <c r="C99">
+        <v>595</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 143, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="40"/>
+        <v>580</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="39"/>
+        <v>143</v>
+      </c>
+      <c r="C100">
+        <v>595</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 143, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="40"/>
+        <v>581</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="35"/>
+        <v>144</v>
+      </c>
+      <c r="C101">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 144, 51, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="40"/>
+        <v>582</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="37"/>
+        <v>144</v>
+      </c>
+      <c r="C102">
+        <v>51</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 144, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="40"/>
+        <v>583</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="38"/>
+        <v>144</v>
+      </c>
+      <c r="C103">
+        <v>56</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 144, 56, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="40"/>
+        <v>584</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="39"/>
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>56</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 144, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="40"/>
+        <v>585</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="35"/>
+        <v>145</v>
+      </c>
+      <c r="C105">
+        <v>598</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 145, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="40"/>
+        <v>586</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="37"/>
+        <v>145</v>
+      </c>
+      <c r="C106">
+        <v>598</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 145, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="40"/>
+        <v>587</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="38"/>
+        <v>145</v>
+      </c>
+      <c r="C107">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 145, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="40"/>
+        <v>588</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="39"/>
+        <v>145</v>
+      </c>
+      <c r="C108">
+        <v>54</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 145, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="1939" sheetId="16" r:id="rId15"/>
     <sheet name="1941" sheetId="17" r:id="rId16"/>
     <sheet name="1942" sheetId="18" r:id="rId17"/>
+    <sheet name="1945" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -9373,6 +9374,2585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G22" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>125</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1942-01-10"</f>
+        <v>1942-01-10</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (125, '1942-01-10', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>126</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1942-01-11"</f>
+        <v>1942-01-11</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (126, '1942-01-11', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1942-01-14"</f>
+        <v>1942-01-14</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (127, '1942-01-14', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>128</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1942-01-17"</f>
+        <v>1942-01-17</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (128, '1942-01-17', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>129</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1942-01-18"</f>
+        <v>1942-01-18</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (129, '1942-01-18', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>130</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1942-01-18"</f>
+        <v>1942-01-18</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (130, '1942-01-18', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>131</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1942-01-21"</f>
+        <v>1942-01-21</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (131, '1942-01-21', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>132</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1942-01-22"</f>
+        <v>1942-01-22</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (132, '1942-01-22', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>133</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1942-01-22"</f>
+        <v>1942-01-22</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (133, '1942-01-22', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>134</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1942-01-24"</f>
+        <v>1942-01-24</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (134, '1942-01-24', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>135</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1942-01-25"</f>
+        <v>1942-01-25</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (135, '1942-01-25', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>136</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1942-01-25"</f>
+        <v>1942-01-25</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (136, '1942-01-25', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>137</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1942-01-28"</f>
+        <v>1942-01-28</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (137, '1942-01-28', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>138</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1942-01-28"</f>
+        <v>1942-01-28</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (138, '1942-01-28', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>139</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1942-01-31"</f>
+        <v>1942-01-31</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (139, '1942-01-31', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1942-01-31"</f>
+        <v>1942-01-31</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (140, '1942-01-31', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>141</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1942-02-01"</f>
+        <v>1942-02-01</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (141, '1942-02-01', 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>142</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1942-02-05"</f>
+        <v>1942-02-05</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (142, '1942-02-05', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1942-02-05"</f>
+        <v>1942-02-05</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (143, '1942-02-05', 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>144</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1942-02-07"</f>
+        <v>1942-02-07</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (144, '1942-02-07', 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>145</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1942-02-07"</f>
+        <v>1942-02-07</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (145, '1942-02-07', 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>505</v>
+      </c>
+      <c r="B25">
+        <v>125</v>
+      </c>
+      <c r="C25">
+        <v>598</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:G64" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 125, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>506</v>
+      </c>
+      <c r="B26">
+        <f>B25</f>
+        <v>125</v>
+      </c>
+      <c r="C26">
+        <v>598</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 125, 598, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A90" si="2">A26+1</f>
+        <v>507</v>
+      </c>
+      <c r="B27">
+        <f>B25</f>
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 125, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>508</v>
+      </c>
+      <c r="B28">
+        <f>B25</f>
+        <v>125</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 125, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>509</v>
+      </c>
+      <c r="B29">
+        <f>B25+1</f>
+        <v>126</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 126, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>510</v>
+      </c>
+      <c r="B30">
+        <f>B29</f>
+        <v>126</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 126, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>511</v>
+      </c>
+      <c r="B31">
+        <f>B29</f>
+        <v>126</v>
+      </c>
+      <c r="C31">
+        <v>595</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 126, 595, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>512</v>
+      </c>
+      <c r="B32">
+        <f>B29</f>
+        <v>126</v>
+      </c>
+      <c r="C32">
+        <v>595</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 126, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>513</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="3">B29+1</f>
+        <v>127</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 127, 55, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>514</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="4">B33</f>
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 127, 55, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="5">B33</f>
+        <v>127</v>
+      </c>
+      <c r="C35">
+        <v>56</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 127, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>516</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="6">B33</f>
+        <v>127</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 127, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>517</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="7">B33+1</f>
+        <v>128</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 128, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>518</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="8">B37</f>
+        <v>128</v>
+      </c>
+      <c r="C38">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 128, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>519</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="9">B37</f>
+        <v>128</v>
+      </c>
+      <c r="C39">
+        <v>55</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 128, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>520</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="10">B37</f>
+        <v>128</v>
+      </c>
+      <c r="C40">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 128, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>521</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="11">B37+1</f>
+        <v>129</v>
+      </c>
+      <c r="C41">
+        <v>598</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 129, 598, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>522</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="12">B41</f>
+        <v>129</v>
+      </c>
+      <c r="C42">
+        <v>598</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 129, 598, 7, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>523</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="13">B41</f>
+        <v>129</v>
+      </c>
+      <c r="C43">
+        <v>593</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 129, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>524</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="14">B41</f>
+        <v>129</v>
+      </c>
+      <c r="C44">
+        <v>593</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 129, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>525</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="15">B41+1</f>
+        <v>130</v>
+      </c>
+      <c r="C45">
+        <v>595</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 130, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>526</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="16">B45</f>
+        <v>130</v>
+      </c>
+      <c r="C46">
+        <v>595</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 130, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>527</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="17">B45</f>
+        <v>130</v>
+      </c>
+      <c r="C47">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 130, 51, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="18">B45</f>
+        <v>130</v>
+      </c>
+      <c r="C48">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 130, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>529</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="19">B45+1</f>
+        <v>131</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 131, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="20">B49</f>
+        <v>131</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 131, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>531</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="21">B49</f>
+        <v>131</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 131, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="22">B49</f>
+        <v>131</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 131, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>533</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="23">B49+1</f>
+        <v>132</v>
+      </c>
+      <c r="C53">
+        <v>595</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 132, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>534</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="24">B53</f>
+        <v>132</v>
+      </c>
+      <c r="C54">
+        <v>595</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 132, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="25">B53</f>
+        <v>132</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 132, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>536</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="26">B53</f>
+        <v>132</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 132, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>537</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="27">B53+1</f>
+        <v>133</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>12</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 133, 54, 12, 2, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>538</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="28">B57</f>
+        <v>133</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 133, 54, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>539</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="29">B57</f>
+        <v>133</v>
+      </c>
+      <c r="C59">
+        <v>593</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 133, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>540</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="30">B57</f>
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>593</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 133, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>541</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="31">B57+1</f>
+        <v>134</v>
+      </c>
+      <c r="C61">
+        <v>598</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 134, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>542</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="32">B61</f>
+        <v>134</v>
+      </c>
+      <c r="C62">
+        <v>598</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 134, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="33">B61</f>
+        <v>134</v>
+      </c>
+      <c r="C63">
+        <v>55</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 134, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>544</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="34">B61</f>
+        <v>134</v>
+      </c>
+      <c r="C64">
+        <v>55</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 134, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>545</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B105" si="35">B61+1</f>
+        <v>135</v>
+      </c>
+      <c r="C65">
+        <v>595</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" ref="G65:G108" si="36">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A65 &amp; ", " &amp; B65 &amp; ", " &amp; C65 &amp; ", " &amp; D65 &amp; ", " &amp; E65 &amp; ", " &amp; F65 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 135, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>546</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B106" si="37">B65</f>
+        <v>135</v>
+      </c>
+      <c r="C66">
+        <v>595</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 135, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>547</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B107" si="38">B65</f>
+        <v>135</v>
+      </c>
+      <c r="C67">
+        <v>593</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 135, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B108" si="39">B65</f>
+        <v>135</v>
+      </c>
+      <c r="C68">
+        <v>593</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 135, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>549</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="35"/>
+        <v>136</v>
+      </c>
+      <c r="C69">
+        <v>54</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 136, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>550</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="37"/>
+        <v>136</v>
+      </c>
+      <c r="C70">
+        <v>54</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 136, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>551</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="38"/>
+        <v>136</v>
+      </c>
+      <c r="C71">
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 136, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>552</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="39"/>
+        <v>136</v>
+      </c>
+      <c r="C72">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 136, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>553</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="35"/>
+        <v>137</v>
+      </c>
+      <c r="C73">
+        <v>51</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 137, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>554</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="37"/>
+        <v>137</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 137, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>555</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="38"/>
+        <v>137</v>
+      </c>
+      <c r="C75">
+        <v>593</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 137, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>556</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="39"/>
+        <v>137</v>
+      </c>
+      <c r="C76">
+        <v>593</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 137, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>557</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="35"/>
+        <v>138</v>
+      </c>
+      <c r="C77">
+        <v>598</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 138, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>558</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="37"/>
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>598</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 138, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>559</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>138</v>
+      </c>
+      <c r="C79">
+        <v>595</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 138, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="39"/>
+        <v>138</v>
+      </c>
+      <c r="C80">
+        <v>595</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 138, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>561</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="35"/>
+        <v>139</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 139, 54, 0, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>562</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="37"/>
+        <v>139</v>
+      </c>
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 139, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>563</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="38"/>
+        <v>139</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 139, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>564</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="39"/>
+        <v>139</v>
+      </c>
+      <c r="C84">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 139, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>565</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="35"/>
+        <v>140</v>
+      </c>
+      <c r="C85">
+        <v>55</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 140, 55, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>566</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="37"/>
+        <v>140</v>
+      </c>
+      <c r="C86">
+        <v>55</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 140, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>567</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="38"/>
+        <v>140</v>
+      </c>
+      <c r="C87">
+        <v>593</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 140, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>568</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="39"/>
+        <v>140</v>
+      </c>
+      <c r="C88">
+        <v>593</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 140, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>569</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="35"/>
+        <v>141</v>
+      </c>
+      <c r="C89">
+        <v>598</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 141, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="37"/>
+        <v>141</v>
+      </c>
+      <c r="C90">
+        <v>598</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 141, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ref="A91:A108" si="40">A90+1</f>
+        <v>571</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="38"/>
+        <v>141</v>
+      </c>
+      <c r="C91">
+        <v>51</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 141, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="40"/>
+        <v>572</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="39"/>
+        <v>141</v>
+      </c>
+      <c r="C92">
+        <v>51</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 141, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="40"/>
+        <v>573</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="35"/>
+        <v>142</v>
+      </c>
+      <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 142, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="40"/>
+        <v>574</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="37"/>
+        <v>142</v>
+      </c>
+      <c r="C94">
+        <v>56</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 142, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="40"/>
+        <v>575</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="38"/>
+        <v>142</v>
+      </c>
+      <c r="C95">
+        <v>593</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 142, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="40"/>
+        <v>576</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="39"/>
+        <v>142</v>
+      </c>
+      <c r="C96">
+        <v>593</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 142, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="40"/>
+        <v>577</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="35"/>
+        <v>143</v>
+      </c>
+      <c r="C97">
+        <v>55</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 143, 55, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="40"/>
+        <v>578</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="37"/>
+        <v>143</v>
+      </c>
+      <c r="C98">
+        <v>55</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 143, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="40"/>
+        <v>579</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="38"/>
+        <v>143</v>
+      </c>
+      <c r="C99">
+        <v>595</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 143, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="40"/>
+        <v>580</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="39"/>
+        <v>143</v>
+      </c>
+      <c r="C100">
+        <v>595</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 143, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="40"/>
+        <v>581</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="35"/>
+        <v>144</v>
+      </c>
+      <c r="C101">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 144, 51, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="40"/>
+        <v>582</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="37"/>
+        <v>144</v>
+      </c>
+      <c r="C102">
+        <v>51</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 144, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="40"/>
+        <v>583</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="38"/>
+        <v>144</v>
+      </c>
+      <c r="C103">
+        <v>56</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 144, 56, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="40"/>
+        <v>584</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="39"/>
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>56</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 144, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="40"/>
+        <v>585</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="35"/>
+        <v>145</v>
+      </c>
+      <c r="C105">
+        <v>598</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 145, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="40"/>
+        <v>586</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="37"/>
+        <v>145</v>
+      </c>
+      <c r="C106">
+        <v>598</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 145, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="40"/>
+        <v>587</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="38"/>
+        <v>145</v>
+      </c>
+      <c r="C107">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 145, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="40"/>
+        <v>588</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="39"/>
+        <v>145</v>
+      </c>
+      <c r="C108">
+        <v>54</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="36"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 145, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G108"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9403,338 +11983,338 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1942-01-10"</f>
-        <v>1942-01-10</v>
+        <f>"1945-01-14"</f>
+        <v>1945-01-14</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (125, '1942-01-10', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (146, '1945-01-14', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1942-01-11"</f>
-        <v>1942-01-11</v>
+        <f>"1945-01-18"</f>
+        <v>1945-01-18</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (126, '1942-01-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (147, '1945-01-18', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1942-01-14"</f>
-        <v>1942-01-14</v>
+        <f>"1945-01-18"</f>
+        <v>1945-01-18</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (127, '1942-01-14', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (148, '1945-01-18', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1942-01-17"</f>
-        <v>1942-01-17</v>
+        <f>"1945-01-21"</f>
+        <v>1945-01-21</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (128, '1942-01-17', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (149, '1945-01-21', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1942-01-18"</f>
-        <v>1942-01-18</v>
+        <f>"1945-01-24"</f>
+        <v>1945-01-24</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (129, '1942-01-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (150, '1945-01-24', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1942-01-18"</f>
-        <v>1942-01-18</v>
+        <f>"1945-01-28"</f>
+        <v>1945-01-28</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (130, '1942-01-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (151, '1945-01-28', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1942-01-21"</f>
-        <v>1942-01-21</v>
+        <f>"1945-01-28"</f>
+        <v>1945-01-28</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (131, '1942-01-21', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (152, '1945-01-28', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1942-01-22"</f>
-        <v>1942-01-22</v>
+        <f>"1945-01-31"</f>
+        <v>1945-01-31</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (132, '1942-01-22', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (153, '1945-01-31', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1942-01-22"</f>
-        <v>1942-01-22</v>
+        <f>"1945-01-31"</f>
+        <v>1945-01-31</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (133, '1942-01-22', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (154, '1945-01-31', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1942-01-24"</f>
-        <v>1942-01-24</v>
+        <f>"1945-02-07"</f>
+        <v>1945-02-07</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (134, '1942-01-24', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (155, '1945-02-07', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1942-01-25"</f>
-        <v>1942-01-25</v>
+        <f>"1945-02-07"</f>
+        <v>1945-02-07</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (135, '1942-01-25', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (156, '1945-02-07', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1942-01-25"</f>
-        <v>1942-01-25</v>
+        <f>"1945-02-11"</f>
+        <v>1945-02-11</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (136, '1942-01-25', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (157, '1945-02-11', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1942-01-28"</f>
-        <v>1942-01-28</v>
+        <f>"1945-02-11"</f>
+        <v>1945-02-11</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (137, '1942-01-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (158, '1945-02-11', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1942-01-28"</f>
-        <v>1942-01-28</v>
+        <f>"1945-02-15"</f>
+        <v>1945-02-15</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (138, '1942-01-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (159, '1945-02-15', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1942-01-31"</f>
-        <v>1942-01-31</v>
+        <f>"1945-02-15"</f>
+        <v>1945-02-15</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (139, '1942-01-31', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (160, '1945-02-15', 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>"1942-01-31"</f>
-        <v>1942-01-31</v>
+        <f>"1945-02-18"</f>
+        <v>1945-02-18</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (140, '1942-01-31', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (161, '1945-02-18', 2);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>"1942-02-01"</f>
-        <v>1942-02-01</v>
+        <f>"1945-02-18"</f>
+        <v>1945-02-18</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (141, '1942-02-01', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (162, '1945-02-18', 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>"1942-02-05"</f>
-        <v>1942-02-05</v>
+        <f>"1945-02-21"</f>
+        <v>1945-02-21</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (142, '1942-02-05', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (163, '1945-02-21', 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>"1942-02-05"</f>
-        <v>1942-02-05</v>
+        <f>"1945-02-21"</f>
+        <v>1945-02-21</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (143, '1942-02-05', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (164, '1945-02-21', 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>"1942-02-07"</f>
-        <v>1942-02-07</v>
+        <f>"1945-02-25"</f>
+        <v>1945-02-25</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (144, '1942-02-07', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (165, '1945-02-25', 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>"1942-02-07"</f>
-        <v>1942-02-07</v>
+        <f>"1945-02-28"</f>
+        <v>1945-02-28</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (145, '1942-02-07', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (166, '1945-02-28', 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -9763,13 +12343,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>505</v>
+        <v>589</v>
       </c>
       <c r="B25">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C25">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -9781,24 +12361,24 @@
         <v>2</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ref="G25:G64" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (505, 125, 598, 6, 2, 2);</v>
+        <f t="shared" ref="G25:G88" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 146, 56, 6, 2, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>A25+1</f>
-        <v>506</v>
+        <v>590</v>
       </c>
       <c r="B26">
         <f>B25</f>
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C26">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -9808,23 +12388,23 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (506, 125, 598, 4, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 146, 56, 3, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ref="A27:A90" si="2">A26+1</f>
-        <v>507</v>
+        <v>591</v>
       </c>
       <c r="B27">
         <f>B25</f>
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -9834,23 +12414,23 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (507, 125, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 146, 593, 3, 0, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>508</v>
+        <v>592</v>
       </c>
       <c r="B28">
         <f>B25</f>
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -9860,17 +12440,17 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (508, 125, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 146, 593, 2, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>509</v>
+        <v>593</v>
       </c>
       <c r="B29">
         <f>B25+1</f>
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C29">
         <v>54</v>
@@ -9886,17 +12466,17 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (509, 126, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 147, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>510</v>
+        <v>594</v>
       </c>
       <c r="B30">
         <f>B29</f>
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C30">
         <v>54</v>
@@ -9912,23 +12492,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (510, 126, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 147, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>511</v>
+        <v>595</v>
       </c>
       <c r="B31">
         <f>B29</f>
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C31">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -9938,20 +12518,20 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (511, 126, 595, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (595, 147, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>512</v>
+        <v>596</v>
       </c>
       <c r="B32">
         <f>B29</f>
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C32">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -9964,23 +12544,23 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (512, 126, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (596, 147, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>513</v>
+        <v>597</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="3">B29+1</f>
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C33">
         <v>55</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -9990,23 +12570,23 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (513, 127, 55, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (597, 148, 55, 3, 2, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>514</v>
+        <v>598</v>
       </c>
       <c r="B34">
         <f t="shared" ref="B34" si="4">B33</f>
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C34">
         <v>55</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -10016,23 +12596,23 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (514, 127, 55, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (598, 148, 55, 3, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>515</v>
+        <v>599</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35" si="5">B33</f>
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -10042,23 +12622,23 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (515, 127, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (599, 148, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>516</v>
+        <v>600</v>
       </c>
       <c r="B36">
         <f t="shared" ref="B36" si="6">B33</f>
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="C36">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -10068,23 +12648,23 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (516, 127, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (600, 148, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>517</v>
+        <v>601</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37" si="7">B33+1</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C37">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -10094,23 +12674,23 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (517, 128, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (601, 149, 56, 5, 2, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="B38">
         <f t="shared" ref="B38" si="8">B37</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C38">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -10120,23 +12700,23 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (518, 128, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (602, 149, 56, 3, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>519</v>
+        <v>603</v>
       </c>
       <c r="B39">
         <f t="shared" ref="B39" si="9">B37</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C39">
-        <v>55</v>
+        <v>591</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -10146,23 +12726,23 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (519, 128, 55, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 149, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>520</v>
+        <v>604</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40" si="10">B37</f>
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="C40">
-        <v>55</v>
+        <v>591</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -10172,23 +12752,23 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (520, 128, 55, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 149, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>521</v>
+        <v>605</v>
       </c>
       <c r="B41">
         <f t="shared" ref="B41" si="11">B37+1</f>
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C41">
         <v>598</v>
       </c>
       <c r="D41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -10198,23 +12778,23 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (521, 129, 598, 7, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 150, 598, 5, 2, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>522</v>
+        <v>606</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42" si="12">B41</f>
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C42">
         <v>598</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -10224,23 +12804,23 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (522, 129, 598, 7, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 150, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>523</v>
+        <v>607</v>
       </c>
       <c r="B43">
         <f t="shared" ref="B43" si="13">B41</f>
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C43">
         <v>593</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -10250,23 +12830,23 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (523, 129, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (607, 150, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>524</v>
+        <v>608</v>
       </c>
       <c r="B44">
         <f t="shared" ref="B44" si="14">B41</f>
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C44">
         <v>593</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -10276,49 +12856,49 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (524, 129, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (608, 150, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>525</v>
+        <v>609</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45" si="15">B41+1</f>
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C45">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (525, 130, 595, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (609, 151, 598, 7, 2, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>526</v>
+        <v>610</v>
       </c>
       <c r="B46">
         <f t="shared" ref="B46" si="16">B45</f>
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C46">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -10328,49 +12908,49 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (526, 130, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (610, 151, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>527</v>
+        <v>611</v>
       </c>
       <c r="B47">
         <f t="shared" ref="B47" si="17">B45</f>
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C47">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (527, 130, 51, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (611, 151, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>528</v>
+        <v>612</v>
       </c>
       <c r="B48">
         <f t="shared" ref="B48" si="18">B45</f>
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C48">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -10380,17 +12960,17 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (528, 130, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (612, 151, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>529</v>
+        <v>613</v>
       </c>
       <c r="B49">
         <f t="shared" ref="B49" si="19">B45+1</f>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C49">
         <v>55</v>
@@ -10406,23 +12986,23 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (529, 131, 55, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (613, 152, 55, 2, 2, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>530</v>
+        <v>614</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50" si="20">B49</f>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C50">
         <v>55</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -10432,23 +13012,23 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (530, 131, 55, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (614, 152, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="B51">
         <f t="shared" ref="B51" si="21">B49</f>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>591</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -10458,20 +13038,20 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (531, 131, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (615, 152, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="B52">
         <f t="shared" ref="B52" si="22">B49</f>
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>591</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -10484,20 +13064,20 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (532, 131, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (616, 152, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53" si="23">B49+1</f>
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C53">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -10510,20 +13090,20 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (533, 132, 595, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (617, 153, 56, 2, 2, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="B54">
         <f t="shared" ref="B54" si="24">B53</f>
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C54">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -10536,20 +13116,20 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (534, 132, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (618, 153, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55" si="25">B53</f>
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -10562,20 +13142,20 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (535, 132, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (619, 153, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>536</v>
+        <v>620</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56" si="26">B53</f>
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -10588,23 +13168,23 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (536, 132, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (620, 153, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>537</v>
+        <v>621</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57" si="27">B53+1</f>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C57">
         <v>54</v>
       </c>
       <c r="D57">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -10614,23 +13194,23 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (537, 133, 54, 12, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (621, 154, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>538</v>
+        <v>622</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58" si="28">B57</f>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C58">
         <v>54</v>
       </c>
       <c r="D58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -10640,23 +13220,23 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (538, 133, 54, 6, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (622, 154, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="B59">
         <f t="shared" ref="B59" si="29">B57</f>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C59">
         <v>593</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -10666,17 +13246,17 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (539, 133, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (623, 154, 593, 2, 0, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>540</v>
+        <v>624</v>
       </c>
       <c r="B60">
         <f t="shared" ref="B60" si="30">B57</f>
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C60">
         <v>593</v>
@@ -10692,23 +13272,23 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (540, 133, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (624, 154, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>541</v>
+        <v>625</v>
       </c>
       <c r="B61">
         <f t="shared" ref="B61" si="31">B57+1</f>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C61">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -10718,23 +13298,23 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (541, 134, 598, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (625, 155, 54, 9, 2, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>542</v>
+        <v>626</v>
       </c>
       <c r="B62">
         <f t="shared" ref="B62" si="32">B61</f>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C62">
-        <v>598</v>
+        <v>54</v>
       </c>
       <c r="D62">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -10744,23 +13324,23 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (542, 134, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (626, 155, 54, 6, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>543</v>
+        <v>627</v>
       </c>
       <c r="B63">
         <f t="shared" ref="B63" si="33">B61</f>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C63">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -10770,20 +13350,20 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (543, 134, 55, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (627, 155, 57, 1, 0, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>544</v>
+        <v>628</v>
       </c>
       <c r="B64">
         <f t="shared" ref="B64" si="34">B61</f>
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C64">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -10796,20 +13376,20 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (544, 134, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (628, 155, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>545</v>
+        <v>629</v>
       </c>
       <c r="B65">
         <f t="shared" ref="B65:B105" si="35">B61+1</f>
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="C65">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -10821,24 +13401,24 @@
         <v>2</v>
       </c>
       <c r="G65" t="str">
-        <f t="shared" ref="G65:G108" si="36">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A65 &amp; ", " &amp; B65 &amp; ", " &amp; C65 &amp; ", " &amp; D65 &amp; ", " &amp; E65 &amp; ", " &amp; F65 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (545, 135, 595, 3, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (629, 156, 55, 3, 2, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B106" si="37">B65</f>
-        <v>135</v>
+        <f t="shared" ref="B66:B106" si="36">B65</f>
+        <v>156</v>
       </c>
       <c r="C66">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -10847,24 +13427,24 @@
         <v>1</v>
       </c>
       <c r="G66" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (546, 135, 595, 1, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (630, 156, 55, 3, 0, 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B107" si="38">B65</f>
-        <v>135</v>
+        <f t="shared" ref="B67:B107" si="37">B65</f>
+        <v>156</v>
       </c>
       <c r="C67">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -10873,21 +13453,21 @@
         <v>2</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (547, 135, 593, 1, 0, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (631, 156, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>548</v>
+        <v>632</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B108" si="39">B65</f>
-        <v>135</v>
+        <f t="shared" ref="B68:B108" si="38">B65</f>
+        <v>156</v>
       </c>
       <c r="C68">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -10899,50 +13479,50 @@
         <v>1</v>
       </c>
       <c r="G68" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (548, 135, 593, 0, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (632, 156, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>549</v>
+        <v>633</v>
       </c>
       <c r="B69">
         <f t="shared" si="35"/>
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C69">
-        <v>54</v>
+        <v>591</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (549, 136, 54, 3, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (633, 157, 591, 0, 1, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>634</v>
       </c>
       <c r="B70">
-        <f t="shared" si="37"/>
-        <v>136</v>
+        <f t="shared" si="36"/>
+        <v>157</v>
       </c>
       <c r="C70">
-        <v>54</v>
+        <v>591</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -10951,50 +13531,50 @@
         <v>1</v>
       </c>
       <c r="G70" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (550, 136, 54, 1, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (634, 157, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
-        <v>551</v>
+        <v>635</v>
       </c>
       <c r="B71">
-        <f t="shared" si="38"/>
-        <v>136</v>
+        <f t="shared" si="37"/>
+        <v>157</v>
       </c>
       <c r="C71">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (551, 136, 51, 1, 0, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (635, 157, 593, 0, 1, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>636</v>
       </c>
       <c r="B72">
-        <f t="shared" si="39"/>
-        <v>136</v>
+        <f t="shared" si="38"/>
+        <v>157</v>
       </c>
       <c r="C72">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -11003,47 +13583,47 @@
         <v>1</v>
       </c>
       <c r="G72" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (552, 136, 51, 1, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (636, 157, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="B73">
         <f t="shared" si="35"/>
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C73">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (553, 137, 51, 2, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (637, 158, 56, 1, 1, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
-        <v>554</v>
+        <v>638</v>
       </c>
       <c r="B74">
-        <f t="shared" si="37"/>
-        <v>137</v>
+        <f t="shared" si="36"/>
+        <v>158</v>
       </c>
       <c r="C74">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -11055,47 +13635,47 @@
         <v>1</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (554, 137, 51, 1, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (638, 158, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
-        <v>555</v>
+        <v>639</v>
       </c>
       <c r="B75">
-        <f t="shared" si="38"/>
-        <v>137</v>
+        <f t="shared" si="37"/>
+        <v>158</v>
       </c>
       <c r="C75">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (555, 137, 593, 1, 0, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (639, 158, 54, 1, 1, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="B76">
-        <f t="shared" si="39"/>
-        <v>137</v>
+        <f t="shared" si="38"/>
+        <v>158</v>
       </c>
       <c r="C76">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -11107,24 +13687,24 @@
         <v>1</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (556, 137, 593, 0, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (640, 158, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="B77">
         <f t="shared" si="35"/>
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C77">
         <v>598</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -11133,24 +13713,24 @@
         <v>2</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (557, 138, 598, 3, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (641, 159, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="B78">
-        <f t="shared" si="37"/>
-        <v>138</v>
+        <f t="shared" si="36"/>
+        <v>159</v>
       </c>
       <c r="C78">
         <v>598</v>
       </c>
       <c r="D78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -11159,24 +13739,24 @@
         <v>1</v>
       </c>
       <c r="G78" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (558, 138, 598, 2, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (642, 159, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="2"/>
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="B79">
-        <f t="shared" si="38"/>
-        <v>138</v>
+        <f t="shared" si="37"/>
+        <v>159</v>
       </c>
       <c r="C79">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -11185,21 +13765,21 @@
         <v>2</v>
       </c>
       <c r="G79" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (559, 138, 595, 1, 0, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (643, 159, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="2"/>
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="B80">
-        <f t="shared" si="39"/>
-        <v>138</v>
+        <f t="shared" si="38"/>
+        <v>159</v>
       </c>
       <c r="C80">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D80">
         <v>0</v>
@@ -11211,24 +13791,24 @@
         <v>1</v>
       </c>
       <c r="G80" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (560, 138, 595, 0, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (644, 159, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="2"/>
-        <v>561</v>
+        <v>645</v>
       </c>
       <c r="B81">
         <f t="shared" si="35"/>
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="C81">
         <v>54</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -11237,24 +13817,24 @@
         <v>2</v>
       </c>
       <c r="G81" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (561, 139, 54, 0, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (645, 160, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="2"/>
-        <v>562</v>
+        <v>646</v>
       </c>
       <c r="B82">
-        <f t="shared" si="37"/>
-        <v>139</v>
+        <f t="shared" si="36"/>
+        <v>160</v>
       </c>
       <c r="C82">
         <v>54</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -11263,24 +13843,24 @@
         <v>1</v>
       </c>
       <c r="G82" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (562, 139, 54, 0, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (646, 160, 54, 3, 0, 1);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="2"/>
-        <v>563</v>
+        <v>647</v>
       </c>
       <c r="B83">
-        <f t="shared" si="38"/>
-        <v>139</v>
+        <f t="shared" si="37"/>
+        <v>160</v>
       </c>
       <c r="C83">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -11289,24 +13869,24 @@
         <v>2</v>
       </c>
       <c r="G83" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (563, 139, 56, 0, 0, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (647, 160, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="2"/>
-        <v>564</v>
+        <v>648</v>
       </c>
       <c r="B84">
-        <f t="shared" si="39"/>
-        <v>139</v>
+        <f t="shared" si="38"/>
+        <v>160</v>
       </c>
       <c r="C84">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -11315,24 +13895,24 @@
         <v>1</v>
       </c>
       <c r="G84" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (564, 139, 56, 0, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (648, 160, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="2"/>
-        <v>565</v>
+        <v>649</v>
       </c>
       <c r="B85">
         <f t="shared" si="35"/>
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C85">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -11341,24 +13921,24 @@
         <v>2</v>
       </c>
       <c r="G85" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (565, 140, 55, 5, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (649, 161, 57, 3, 2, 2);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="2"/>
-        <v>566</v>
+        <v>650</v>
       </c>
       <c r="B86">
-        <f t="shared" si="37"/>
-        <v>140</v>
+        <f t="shared" si="36"/>
+        <v>161</v>
       </c>
       <c r="C86">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -11367,18 +13947,18 @@
         <v>1</v>
       </c>
       <c r="G86" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (566, 140, 55, 3, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (650, 161, 57, 1, 0, 1);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="2"/>
-        <v>567</v>
+        <v>651</v>
       </c>
       <c r="B87">
-        <f t="shared" si="38"/>
-        <v>140</v>
+        <f t="shared" si="37"/>
+        <v>161</v>
       </c>
       <c r="C87">
         <v>593</v>
@@ -11393,18 +13973,18 @@
         <v>2</v>
       </c>
       <c r="G87" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (567, 140, 593, 1, 0, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (651, 161, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="2"/>
-        <v>568</v>
+        <v>652</v>
       </c>
       <c r="B88">
-        <f t="shared" si="39"/>
-        <v>140</v>
+        <f t="shared" si="38"/>
+        <v>161</v>
       </c>
       <c r="C88">
         <v>593</v>
@@ -11419,24 +13999,24 @@
         <v>1</v>
       </c>
       <c r="G88" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (568, 140, 593, 1, 0, 1);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 161, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="2"/>
-        <v>569</v>
+        <v>653</v>
       </c>
       <c r="B89">
         <f t="shared" si="35"/>
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="C89">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -11445,24 +14025,24 @@
         <v>2</v>
       </c>
       <c r="G89" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (569, 141, 598, 3, 2, 2);</v>
+        <f t="shared" ref="G89:G132" si="39">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A89 &amp; ", " &amp; B89 &amp; ", " &amp; C89 &amp; ", " &amp; D89 &amp; ", " &amp; E89 &amp; ", " &amp; F89 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 162, 56, 1, 2, 2);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="2"/>
-        <v>570</v>
+        <v>654</v>
       </c>
       <c r="B90">
-        <f t="shared" si="37"/>
-        <v>141</v>
+        <f t="shared" si="36"/>
+        <v>162</v>
       </c>
       <c r="C90">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -11471,21 +14051,21 @@
         <v>1</v>
       </c>
       <c r="G90" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (570, 141, 598, 0, 0, 1);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 162, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" ref="A91:A108" si="40">A90+1</f>
-        <v>571</v>
+        <v>655</v>
       </c>
       <c r="B91">
-        <f t="shared" si="38"/>
-        <v>141</v>
+        <f t="shared" si="37"/>
+        <v>162</v>
       </c>
       <c r="C91">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -11497,76 +14077,76 @@
         <v>2</v>
       </c>
       <c r="G91" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (571, 141, 51, 0, 0, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 162, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="40"/>
-        <v>572</v>
+        <v>656</v>
       </c>
       <c r="B92">
+        <f t="shared" si="38"/>
+        <v>162</v>
+      </c>
+      <c r="C92">
+        <v>598</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
         <f t="shared" si="39"/>
-        <v>141</v>
-      </c>
-      <c r="C92">
-        <v>51</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (572, 141, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 162, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="40"/>
-        <v>573</v>
+        <v>657</v>
       </c>
       <c r="B93">
         <f t="shared" si="35"/>
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C93">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (573, 142, 56, 2, 2, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 163, 591, 3, 1, 2);</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="40"/>
-        <v>574</v>
+        <v>658</v>
       </c>
       <c r="B94">
-        <f t="shared" si="37"/>
-        <v>142</v>
+        <f t="shared" si="36"/>
+        <v>163</v>
       </c>
       <c r="C94">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -11575,102 +14155,102 @@
         <v>1</v>
       </c>
       <c r="G94" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (574, 142, 56, 2, 0, 1);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 163, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="40"/>
-        <v>575</v>
+        <v>659</v>
       </c>
       <c r="B95">
-        <f t="shared" si="38"/>
-        <v>142</v>
+        <f t="shared" si="37"/>
+        <v>163</v>
       </c>
       <c r="C95">
-        <v>593</v>
+        <v>57</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
         <v>2</v>
       </c>
       <c r="G95" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (575, 142, 593, 1, 0, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 163, 57, 3, 1, 2);</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="40"/>
-        <v>576</v>
+        <v>660</v>
       </c>
       <c r="B96">
+        <f t="shared" si="38"/>
+        <v>163</v>
+      </c>
+      <c r="C96">
+        <v>57</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
         <f t="shared" si="39"/>
-        <v>142</v>
-      </c>
-      <c r="C96">
-        <v>593</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (576, 142, 593, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 163, 57, 2, 0, 1);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="40"/>
-        <v>577</v>
+        <v>661</v>
       </c>
       <c r="B97">
         <f t="shared" si="35"/>
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="C97">
         <v>55</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F97">
         <v>2</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (577, 143, 55, 1, 1, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 164, 55, 9, 2, 2);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="40"/>
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="B98">
-        <f t="shared" si="37"/>
-        <v>143</v>
+        <f t="shared" si="36"/>
+        <v>164</v>
       </c>
       <c r="C98">
         <v>55</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -11679,99 +14259,99 @@
         <v>1</v>
       </c>
       <c r="G98" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (578, 143, 55, 1, 0, 1);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 164, 55, 5, 0, 1);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="40"/>
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="B99">
-        <f t="shared" si="38"/>
-        <v>143</v>
+        <f t="shared" si="37"/>
+        <v>164</v>
       </c>
       <c r="C99">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
         <v>2</v>
       </c>
       <c r="G99" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (579, 143, 595, 1, 1, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 164, 593, 2, 0, 2);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="40"/>
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="B100">
+        <f t="shared" si="38"/>
+        <v>164</v>
+      </c>
+      <c r="C100">
+        <v>593</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
         <f t="shared" si="39"/>
-        <v>143</v>
-      </c>
-      <c r="C100">
-        <v>595</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (580, 143, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 164, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="40"/>
-        <v>581</v>
+        <v>665</v>
       </c>
       <c r="B101">
         <f t="shared" si="35"/>
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C101">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101">
         <v>2</v>
       </c>
       <c r="G101" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (581, 144, 51, 0, 1, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (665, 165, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="40"/>
-        <v>582</v>
+        <v>666</v>
       </c>
       <c r="B102">
-        <f t="shared" si="37"/>
-        <v>144</v>
+        <f t="shared" si="36"/>
+        <v>165</v>
       </c>
       <c r="C102">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -11783,73 +14363,73 @@
         <v>1</v>
       </c>
       <c r="G102" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (582, 144, 51, 0, 0, 1);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (666, 165, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="40"/>
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="B103">
-        <f t="shared" si="38"/>
-        <v>144</v>
+        <f t="shared" si="37"/>
+        <v>165</v>
       </c>
       <c r="C103">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
         <v>2</v>
       </c>
       <c r="G103" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (583, 144, 56, 0, 1, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (667, 165, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="40"/>
-        <v>584</v>
+        <v>668</v>
       </c>
       <c r="B104">
+        <f t="shared" si="38"/>
+        <v>165</v>
+      </c>
+      <c r="C104">
+        <v>598</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
         <f t="shared" si="39"/>
-        <v>144</v>
-      </c>
-      <c r="C104">
-        <v>56</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (584, 144, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (668, 165, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="40"/>
-        <v>585</v>
+        <v>669</v>
       </c>
       <c r="B105">
         <f t="shared" si="35"/>
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="C105">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -11861,24 +14441,24 @@
         <v>2</v>
       </c>
       <c r="G105" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (585, 145, 598, 1, 2, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 166, 55, 1, 2, 2);</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="40"/>
-        <v>586</v>
+        <v>670</v>
       </c>
       <c r="B106">
-        <f t="shared" si="37"/>
-        <v>145</v>
+        <f t="shared" si="36"/>
+        <v>166</v>
       </c>
       <c r="C106">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -11887,21 +14467,21 @@
         <v>1</v>
       </c>
       <c r="G106" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (586, 145, 598, 0, 0, 1);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 166, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="40"/>
-        <v>587</v>
+        <v>671</v>
       </c>
       <c r="B107">
-        <f t="shared" si="38"/>
-        <v>145</v>
+        <f t="shared" si="37"/>
+        <v>166</v>
       </c>
       <c r="C107">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -11913,34 +14493,34 @@
         <v>2</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (587, 145, 54, 0, 0, 2);</v>
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 166, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="40"/>
-        <v>588</v>
+        <v>672</v>
       </c>
       <c r="B108">
+        <f t="shared" si="38"/>
+        <v>166</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
         <f t="shared" si="39"/>
-        <v>145</v>
-      </c>
-      <c r="C108">
-        <v>54</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="36"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (588, 145, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 166, 56, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="1941" sheetId="17" r:id="rId16"/>
     <sheet name="1942" sheetId="18" r:id="rId17"/>
     <sheet name="1945" sheetId="19" r:id="rId18"/>
+    <sheet name="1946" sheetId="20" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -11953,6 +11954,2585 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G22" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>146</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1945-01-14"</f>
+        <v>1945-01-14</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (146, '1945-01-14', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>147</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1945-01-18"</f>
+        <v>1945-01-18</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (147, '1945-01-18', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>148</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1945-01-18"</f>
+        <v>1945-01-18</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (148, '1945-01-18', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>149</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1945-01-21"</f>
+        <v>1945-01-21</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (149, '1945-01-21', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1945-01-24"</f>
+        <v>1945-01-24</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (150, '1945-01-24', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>151</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1945-01-28"</f>
+        <v>1945-01-28</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (151, '1945-01-28', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>152</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1945-01-28"</f>
+        <v>1945-01-28</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (152, '1945-01-28', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>153</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1945-01-31"</f>
+        <v>1945-01-31</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (153, '1945-01-31', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>154</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1945-01-31"</f>
+        <v>1945-01-31</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (154, '1945-01-31', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>155</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1945-02-07"</f>
+        <v>1945-02-07</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (155, '1945-02-07', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>156</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1945-02-07"</f>
+        <v>1945-02-07</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (156, '1945-02-07', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>157</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1945-02-11"</f>
+        <v>1945-02-11</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (157, '1945-02-11', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>158</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1945-02-11"</f>
+        <v>1945-02-11</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (158, '1945-02-11', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>159</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1945-02-15"</f>
+        <v>1945-02-15</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (159, '1945-02-15', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1945-02-15"</f>
+        <v>1945-02-15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (160, '1945-02-15', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>161</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1945-02-18"</f>
+        <v>1945-02-18</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (161, '1945-02-18', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>162</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1945-02-18"</f>
+        <v>1945-02-18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (162, '1945-02-18', 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>163</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1945-02-21"</f>
+        <v>1945-02-21</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (163, '1945-02-21', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>164</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1945-02-21"</f>
+        <v>1945-02-21</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (164, '1945-02-21', 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>165</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1945-02-25"</f>
+        <v>1945-02-25</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (165, '1945-02-25', 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>166</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1945-02-28"</f>
+        <v>1945-02-28</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (166, '1945-02-28', 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>589</v>
+      </c>
+      <c r="B25">
+        <v>146</v>
+      </c>
+      <c r="C25">
+        <v>56</v>
+      </c>
+      <c r="D25">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:G88" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 146, 56, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>590</v>
+      </c>
+      <c r="B26">
+        <f>B25</f>
+        <v>146</v>
+      </c>
+      <c r="C26">
+        <v>56</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 146, 56, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A90" si="2">A26+1</f>
+        <v>591</v>
+      </c>
+      <c r="B27">
+        <f>B25</f>
+        <v>146</v>
+      </c>
+      <c r="C27">
+        <v>593</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 146, 593, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="2"/>
+        <v>592</v>
+      </c>
+      <c r="B28">
+        <f>B25</f>
+        <v>146</v>
+      </c>
+      <c r="C28">
+        <v>593</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 146, 593, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="2"/>
+        <v>593</v>
+      </c>
+      <c r="B29">
+        <f>B25+1</f>
+        <v>147</v>
+      </c>
+      <c r="C29">
+        <v>54</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 147, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="2"/>
+        <v>594</v>
+      </c>
+      <c r="B30">
+        <f>B29</f>
+        <v>147</v>
+      </c>
+      <c r="C30">
+        <v>54</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 147, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="2"/>
+        <v>595</v>
+      </c>
+      <c r="B31">
+        <f>B29</f>
+        <v>147</v>
+      </c>
+      <c r="C31">
+        <v>591</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (595, 147, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="2"/>
+        <v>596</v>
+      </c>
+      <c r="B32">
+        <f>B29</f>
+        <v>147</v>
+      </c>
+      <c r="C32">
+        <v>591</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (596, 147, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="2"/>
+        <v>597</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="3">B29+1</f>
+        <v>148</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (597, 148, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="2"/>
+        <v>598</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="4">B33</f>
+        <v>148</v>
+      </c>
+      <c r="C34">
+        <v>55</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (598, 148, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>599</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="5">B33</f>
+        <v>148</v>
+      </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (599, 148, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="6">B33</f>
+        <v>148</v>
+      </c>
+      <c r="C36">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (600, 148, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>601</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="7">B33+1</f>
+        <v>149</v>
+      </c>
+      <c r="C37">
+        <v>56</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (601, 149, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>602</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="8">B37</f>
+        <v>149</v>
+      </c>
+      <c r="C38">
+        <v>56</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (602, 149, 56, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>603</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="9">B37</f>
+        <v>149</v>
+      </c>
+      <c r="C39">
+        <v>591</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 149, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>604</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="10">B37</f>
+        <v>149</v>
+      </c>
+      <c r="C40">
+        <v>591</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 149, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>605</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="11">B37+1</f>
+        <v>150</v>
+      </c>
+      <c r="C41">
+        <v>598</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 150, 598, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>606</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="12">B41</f>
+        <v>150</v>
+      </c>
+      <c r="C42">
+        <v>598</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 150, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>607</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="13">B41</f>
+        <v>150</v>
+      </c>
+      <c r="C43">
+        <v>593</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (607, 150, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>608</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="14">B41</f>
+        <v>150</v>
+      </c>
+      <c r="C44">
+        <v>593</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (608, 150, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>609</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="15">B41+1</f>
+        <v>151</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>7</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (609, 151, 598, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>610</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="16">B45</f>
+        <v>151</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (610, 151, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>611</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="17">B45</f>
+        <v>151</v>
+      </c>
+      <c r="C47">
+        <v>57</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (611, 151, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>612</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="18">B45</f>
+        <v>151</v>
+      </c>
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (612, 151, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>613</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="19">B45+1</f>
+        <v>152</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (613, 152, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>614</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="20">B49</f>
+        <v>152</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (614, 152, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>615</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="21">B49</f>
+        <v>152</v>
+      </c>
+      <c r="C51">
+        <v>591</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (615, 152, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>616</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="22">B49</f>
+        <v>152</v>
+      </c>
+      <c r="C52">
+        <v>591</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (616, 152, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>617</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="23">B49+1</f>
+        <v>153</v>
+      </c>
+      <c r="C53">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (617, 153, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>618</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="24">B53</f>
+        <v>153</v>
+      </c>
+      <c r="C54">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (618, 153, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>619</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="25">B53</f>
+        <v>153</v>
+      </c>
+      <c r="C55">
+        <v>57</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (619, 153, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>620</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="26">B53</f>
+        <v>153</v>
+      </c>
+      <c r="C56">
+        <v>57</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (620, 153, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>621</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="27">B53+1</f>
+        <v>154</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (621, 154, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>622</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="28">B57</f>
+        <v>154</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (622, 154, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>623</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="29">B57</f>
+        <v>154</v>
+      </c>
+      <c r="C59">
+        <v>593</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (623, 154, 593, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>624</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="30">B57</f>
+        <v>154</v>
+      </c>
+      <c r="C60">
+        <v>593</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (624, 154, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>625</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="31">B57+1</f>
+        <v>155</v>
+      </c>
+      <c r="C61">
+        <v>54</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (625, 155, 54, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>626</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="32">B61</f>
+        <v>155</v>
+      </c>
+      <c r="C62">
+        <v>54</v>
+      </c>
+      <c r="D62">
+        <v>6</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (626, 155, 54, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>627</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="33">B61</f>
+        <v>155</v>
+      </c>
+      <c r="C63">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (627, 155, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>628</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="34">B61</f>
+        <v>155</v>
+      </c>
+      <c r="C64">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (628, 155, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>629</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B105" si="35">B61+1</f>
+        <v>156</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (629, 156, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>630</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B106" si="36">B65</f>
+        <v>156</v>
+      </c>
+      <c r="C66">
+        <v>55</v>
+      </c>
+      <c r="D66">
+        <v>3</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (630, 156, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>631</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B107" si="37">B65</f>
+        <v>156</v>
+      </c>
+      <c r="C67">
+        <v>598</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (631, 156, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>632</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B108" si="38">B65</f>
+        <v>156</v>
+      </c>
+      <c r="C68">
+        <v>598</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (632, 156, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>633</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="35"/>
+        <v>157</v>
+      </c>
+      <c r="C69">
+        <v>591</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (633, 157, 591, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>634</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="36"/>
+        <v>157</v>
+      </c>
+      <c r="C70">
+        <v>591</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (634, 157, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>635</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="37"/>
+        <v>157</v>
+      </c>
+      <c r="C71">
+        <v>593</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (635, 157, 593, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>636</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="38"/>
+        <v>157</v>
+      </c>
+      <c r="C72">
+        <v>593</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (636, 157, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>637</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="35"/>
+        <v>158</v>
+      </c>
+      <c r="C73">
+        <v>56</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (637, 158, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>638</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="36"/>
+        <v>158</v>
+      </c>
+      <c r="C74">
+        <v>56</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (638, 158, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>639</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="37"/>
+        <v>158</v>
+      </c>
+      <c r="C75">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (639, 158, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>640</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="38"/>
+        <v>158</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (640, 158, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>641</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="35"/>
+        <v>159</v>
+      </c>
+      <c r="C77">
+        <v>598</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (641, 159, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>642</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="36"/>
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>598</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (642, 159, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>643</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="37"/>
+        <v>159</v>
+      </c>
+      <c r="C79">
+        <v>591</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (643, 159, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>644</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="38"/>
+        <v>159</v>
+      </c>
+      <c r="C80">
+        <v>591</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (644, 159, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>645</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="35"/>
+        <v>160</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (645, 160, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>646</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="36"/>
+        <v>160</v>
+      </c>
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (646, 160, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>647</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="37"/>
+        <v>160</v>
+      </c>
+      <c r="C83">
+        <v>55</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (647, 160, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>648</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="38"/>
+        <v>160</v>
+      </c>
+      <c r="C84">
+        <v>55</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (648, 160, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>649</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="35"/>
+        <v>161</v>
+      </c>
+      <c r="C85">
+        <v>57</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (649, 161, 57, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="36"/>
+        <v>161</v>
+      </c>
+      <c r="C86">
+        <v>57</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (650, 161, 57, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>651</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="37"/>
+        <v>161</v>
+      </c>
+      <c r="C87">
+        <v>593</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (651, 161, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>652</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="38"/>
+        <v>161</v>
+      </c>
+      <c r="C88">
+        <v>593</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 161, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>653</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="35"/>
+        <v>162</v>
+      </c>
+      <c r="C89">
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" ref="G89:G108" si="39">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A89 &amp; ", " &amp; B89 &amp; ", " &amp; C89 &amp; ", " &amp; D89 &amp; ", " &amp; E89 &amp; ", " &amp; F89 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 162, 56, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>654</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="36"/>
+        <v>162</v>
+      </c>
+      <c r="C90">
+        <v>56</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 162, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ref="A91:A108" si="40">A90+1</f>
+        <v>655</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="37"/>
+        <v>162</v>
+      </c>
+      <c r="C91">
+        <v>598</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 162, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="40"/>
+        <v>656</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="38"/>
+        <v>162</v>
+      </c>
+      <c r="C92">
+        <v>598</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 162, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="40"/>
+        <v>657</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="35"/>
+        <v>163</v>
+      </c>
+      <c r="C93">
+        <v>591</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 163, 591, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="40"/>
+        <v>658</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="36"/>
+        <v>163</v>
+      </c>
+      <c r="C94">
+        <v>591</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 163, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="40"/>
+        <v>659</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="37"/>
+        <v>163</v>
+      </c>
+      <c r="C95">
+        <v>57</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 163, 57, 3, 1, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="40"/>
+        <v>660</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="38"/>
+        <v>163</v>
+      </c>
+      <c r="C96">
+        <v>57</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 163, 57, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="40"/>
+        <v>661</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="35"/>
+        <v>164</v>
+      </c>
+      <c r="C97">
+        <v>55</v>
+      </c>
+      <c r="D97">
+        <v>9</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 164, 55, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="40"/>
+        <v>662</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="36"/>
+        <v>164</v>
+      </c>
+      <c r="C98">
+        <v>55</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 164, 55, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="40"/>
+        <v>663</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="37"/>
+        <v>164</v>
+      </c>
+      <c r="C99">
+        <v>593</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 164, 593, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="40"/>
+        <v>664</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="38"/>
+        <v>164</v>
+      </c>
+      <c r="C100">
+        <v>593</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 164, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="40"/>
+        <v>665</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="35"/>
+        <v>165</v>
+      </c>
+      <c r="C101">
+        <v>54</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (665, 165, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="40"/>
+        <v>666</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="36"/>
+        <v>165</v>
+      </c>
+      <c r="C102">
+        <v>54</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (666, 165, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="40"/>
+        <v>667</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="37"/>
+        <v>165</v>
+      </c>
+      <c r="C103">
+        <v>598</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (667, 165, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="40"/>
+        <v>668</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="38"/>
+        <v>165</v>
+      </c>
+      <c r="C104">
+        <v>598</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (668, 165, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="40"/>
+        <v>669</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="35"/>
+        <v>166</v>
+      </c>
+      <c r="C105">
+        <v>55</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 166, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="40"/>
+        <v>670</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="36"/>
+        <v>166</v>
+      </c>
+      <c r="C106">
+        <v>55</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 166, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="40"/>
+        <v>671</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="37"/>
+        <v>166</v>
+      </c>
+      <c r="C107">
+        <v>56</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 166, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="40"/>
+        <v>672</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="38"/>
+        <v>166</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="39"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 166, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11977,408 +14557,468 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G22" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G16" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1945-01-14"</f>
-        <v>1945-01-14</v>
+        <f>"1946-01-12"</f>
+        <v>1946-01-12</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (146, '1945-01-14', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (167, '1946-01-12', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1945-01-18"</f>
-        <v>1945-01-18</v>
+        <f>"1946-01-16"</f>
+        <v>1946-01-16</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (147, '1945-01-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (168, '1946-01-16', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1945-01-18"</f>
-        <v>1945-01-18</v>
+        <f>"1946-01-16"</f>
+        <v>1946-01-16</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (148, '1945-01-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (169, '1946-01-16', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1945-01-21"</f>
-        <v>1945-01-21</v>
+        <f>"1946-01-19"</f>
+        <v>1946-01-19</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (149, '1945-01-21', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (170, '1946-01-19', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1945-01-24"</f>
-        <v>1945-01-24</v>
+        <f>"1946-01-19"</f>
+        <v>1946-01-19</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (150, '1945-01-24', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (171, '1946-01-19', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1945-01-28"</f>
-        <v>1945-01-28</v>
+        <f>"1946-01-23"</f>
+        <v>1946-01-23</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (151, '1945-01-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (172, '1946-01-23', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1945-01-28"</f>
-        <v>1945-01-28</v>
+        <f>"1946-01-26"</f>
+        <v>1946-01-26</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (152, '1945-01-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (173, '1946-01-26', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1945-01-31"</f>
-        <v>1945-01-31</v>
+        <f>"1946-01-26"</f>
+        <v>1946-01-26</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (153, '1945-01-31', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (174, '1946-01-26', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1945-01-31"</f>
-        <v>1945-01-31</v>
+        <f>"1946-01-29"</f>
+        <v>1946-01-29</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (154, '1945-01-31', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (175, '1946-01-29', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1945-02-07"</f>
-        <v>1945-02-07</v>
+        <f>"1946-01-29"</f>
+        <v>1946-01-29</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (155, '1945-02-07', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (176, '1946-01-29', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1945-02-07"</f>
-        <v>1945-02-07</v>
+        <f>"1946-02-02"</f>
+        <v>1946-02-02</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (156, '1945-02-07', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (177, '1946-02-02', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1945-02-11"</f>
-        <v>1945-02-11</v>
+        <f>"1946-02-02"</f>
+        <v>1946-02-02</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (157, '1945-02-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (178, '1946-02-02', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1945-02-11"</f>
-        <v>1945-02-11</v>
+        <f>"1946-02-08"</f>
+        <v>1946-02-08</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (158, '1945-02-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (179, '1946-02-08', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1945-02-15"</f>
-        <v>1945-02-15</v>
+        <f>"1946-02-08"</f>
+        <v>1946-02-08</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (159, '1945-02-15', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (180, '1946-02-08', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1945-02-15"</f>
-        <v>1945-02-15</v>
+        <f>"1946-02-10"</f>
+        <v>1946-02-10</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (160, '1945-02-15', 2);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>161</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f>"1945-02-18"</f>
-        <v>1945-02-18</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (161, '1945-02-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (181, '1946-02-10', 2);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>162</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>"1945-02-18"</f>
-        <v>1945-02-18</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (162, '1945-02-18', 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>163</v>
-      </c>
-      <c r="B19" s="2" t="str">
-        <f>"1945-02-21"</f>
-        <v>1945-02-21</v>
+        <v>673</v>
+      </c>
+      <c r="B19">
+        <v>167</v>
       </c>
       <c r="C19">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (163, '1945-02-21', 2);</v>
+        <f t="shared" ref="G19:G82" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (673, 167, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>164</v>
-      </c>
-      <c r="B20" s="2" t="str">
-        <f>"1945-02-21"</f>
-        <v>1945-02-21</v>
+        <f>A19+1</f>
+        <v>674</v>
+      </c>
+      <c r="B20">
+        <f>B19</f>
+        <v>167</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (164, '1945-02-21', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (674, 167, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>165</v>
-      </c>
-      <c r="B21" s="2" t="str">
-        <f>"1945-02-25"</f>
-        <v>1945-02-25</v>
+        <f t="shared" ref="A21:A84" si="2">A20+1</f>
+        <v>675</v>
+      </c>
+      <c r="B21">
+        <f>B19</f>
+        <v>167</v>
       </c>
       <c r="C21">
+        <v>595</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (165, '1945-02-25', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (675, 167, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>166</v>
-      </c>
-      <c r="B22" s="2" t="str">
-        <f>"1945-02-28"</f>
-        <v>1945-02-28</v>
+        <f t="shared" si="2"/>
+        <v>676</v>
+      </c>
+      <c r="B22">
+        <f>B19</f>
+        <v>167</v>
       </c>
       <c r="C22">
-        <v>2</v>
+        <v>595</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (166, '1945-02-28', 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (676, 167, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="2"/>
+        <v>677</v>
+      </c>
+      <c r="B23">
+        <f>B19+1</f>
+        <v>168</v>
+      </c>
+      <c r="C23">
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (677, 168, 55, 3, 2, 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
+      <c r="A24">
+        <f t="shared" si="2"/>
+        <v>678</v>
+      </c>
+      <c r="B24">
+        <f>B23</f>
+        <v>168</v>
+      </c>
+      <c r="C24">
+        <v>55</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
       </c>
       <c r="G24" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (678, 168, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>589</v>
+        <f t="shared" si="2"/>
+        <v>679</v>
       </c>
       <c r="B25">
-        <v>146</v>
+        <f>B23</f>
+        <v>168</v>
       </c>
       <c r="C25">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D25">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ref="G25:G88" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (589, 146, 56, 6, 2, 2);</v>
+        <f t="shared" si="1"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (679, 168, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>A25+1</f>
-        <v>590</v>
+        <f t="shared" si="2"/>
+        <v>680</v>
       </c>
       <c r="B26">
-        <f>B25</f>
-        <v>146</v>
+        <f>B23</f>
+        <v>168</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -12388,49 +15028,49 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (590, 146, 56, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (680, 168, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ref="A27:A90" si="2">A26+1</f>
-        <v>591</v>
+        <f t="shared" si="2"/>
+        <v>681</v>
       </c>
       <c r="B27">
-        <f>B25</f>
-        <v>146</v>
+        <f t="shared" ref="B27" si="3">B23+1</f>
+        <v>169</v>
       </c>
       <c r="C27">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (591, 146, 593, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (681, 169, 598, 1, 2, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="2"/>
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="B28">
-        <f>B25</f>
-        <v>146</v>
+        <f t="shared" ref="B28" si="4">B27</f>
+        <v>169</v>
       </c>
       <c r="C28">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -12440,49 +15080,49 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (592, 146, 593, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (682, 169, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="2"/>
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="B29">
-        <f>B25+1</f>
-        <v>147</v>
+        <f t="shared" ref="B29" si="5">B27</f>
+        <v>169</v>
       </c>
       <c r="C29">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (593, 147, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (683, 169, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="2"/>
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="B30">
-        <f>B29</f>
-        <v>147</v>
+        <f t="shared" ref="B30" si="6">B27</f>
+        <v>169</v>
       </c>
       <c r="C30">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -12492,49 +15132,49 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (594, 147, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (684, 169, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="2"/>
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="B31">
-        <f>B29</f>
-        <v>147</v>
+        <f t="shared" ref="B31" si="7">B27+1</f>
+        <v>170</v>
       </c>
       <c r="C31">
-        <v>591</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (595, 147, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (685, 170, 56, 2, 2, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="2"/>
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="B32">
-        <f>B29</f>
-        <v>147</v>
+        <f t="shared" ref="B32" si="8">B31</f>
+        <v>170</v>
       </c>
       <c r="C32">
-        <v>591</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -12544,49 +15184,49 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (596, 147, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (686, 170, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="2"/>
-        <v>597</v>
+        <v>687</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="3">B29+1</f>
-        <v>148</v>
+        <f t="shared" ref="B33" si="9">B31</f>
+        <v>170</v>
       </c>
       <c r="C33">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="D33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (597, 148, 55, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (687, 170, 595, 1, 0, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="2"/>
-        <v>598</v>
+        <v>688</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34" si="4">B33</f>
-        <v>148</v>
+        <f t="shared" ref="B34" si="10">B31</f>
+        <v>170</v>
       </c>
       <c r="C34">
-        <v>55</v>
+        <v>595</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -12596,49 +15236,49 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (598, 148, 55, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (688, 170, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="2"/>
-        <v>599</v>
+        <v>689</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35" si="5">B33</f>
-        <v>148</v>
+        <f t="shared" ref="B35" si="11">B31+1</f>
+        <v>171</v>
       </c>
       <c r="C35">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (599, 148, 57, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (689, 171, 54, 7, 2, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>690</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36" si="6">B33</f>
-        <v>148</v>
+        <f t="shared" ref="B36" si="12">B35</f>
+        <v>171</v>
       </c>
       <c r="C36">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -12648,49 +15288,49 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (600, 148, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (690, 171, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="2"/>
-        <v>601</v>
+        <v>691</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37" si="7">B33+1</f>
-        <v>149</v>
+        <f t="shared" ref="B37" si="13">B35</f>
+        <v>171</v>
       </c>
       <c r="C37">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (601, 149, 56, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (691, 171, 591, 1, 0, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="2"/>
-        <v>602</v>
+        <v>692</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38" si="8">B37</f>
-        <v>149</v>
+        <f t="shared" ref="B38" si="14">B35</f>
+        <v>171</v>
       </c>
       <c r="C38">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -12700,49 +15340,49 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (602, 149, 56, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (692, 171, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="2"/>
-        <v>603</v>
+        <v>693</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39" si="9">B37</f>
-        <v>149</v>
+        <f t="shared" ref="B39" si="15">B35+1</f>
+        <v>172</v>
       </c>
       <c r="C39">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (603, 149, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (693, 172, 55, 4, 2, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="2"/>
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40" si="10">B37</f>
-        <v>149</v>
+        <f t="shared" ref="B40" si="16">B39</f>
+        <v>172</v>
       </c>
       <c r="C40">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -12752,43 +15392,43 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (604, 149, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (694, 172, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="2"/>
-        <v>605</v>
+        <v>695</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41" si="11">B37+1</f>
-        <v>150</v>
+        <f t="shared" ref="B41" si="17">B39</f>
+        <v>172</v>
       </c>
       <c r="C41">
         <v>598</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (605, 150, 598, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (695, 172, 598, 3, 0, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="2"/>
-        <v>606</v>
+        <v>696</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="12">B41</f>
-        <v>150</v>
+        <f t="shared" ref="B42" si="18">B39</f>
+        <v>172</v>
       </c>
       <c r="C42">
         <v>598</v>
@@ -12804,49 +15444,49 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (606, 150, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (696, 172, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="2"/>
-        <v>607</v>
+        <v>697</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43" si="13">B41</f>
-        <v>150</v>
+        <f t="shared" ref="B43" si="19">B39+1</f>
+        <v>173</v>
       </c>
       <c r="C43">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (607, 150, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (697, 173, 595, 4, 2, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="2"/>
-        <v>608</v>
+        <v>698</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44" si="14">B41</f>
-        <v>150</v>
+        <f t="shared" ref="B44" si="20">B43</f>
+        <v>173</v>
       </c>
       <c r="C44">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -12856,49 +15496,49 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (608, 150, 593, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (698, 173, 595, 2, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="2"/>
-        <v>609</v>
+        <v>699</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45" si="15">B41+1</f>
-        <v>151</v>
+        <f t="shared" ref="B45" si="21">B43</f>
+        <v>173</v>
       </c>
       <c r="C45">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (609, 151, 598, 7, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (699, 173, 591, 2, 0, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="2"/>
-        <v>610</v>
+        <v>700</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="16">B45</f>
-        <v>151</v>
+        <f t="shared" ref="B46" si="22">B43</f>
+        <v>173</v>
       </c>
       <c r="C46">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -12908,49 +15548,49 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (610, 151, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (700, 173, 591, 2, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="2"/>
-        <v>611</v>
+        <v>701</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="17">B45</f>
-        <v>151</v>
+        <f t="shared" ref="B47" si="23">B43+1</f>
+        <v>174</v>
       </c>
       <c r="C47">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (611, 151, 57, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (701, 174, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="2"/>
-        <v>612</v>
+        <v>702</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48" si="18">B45</f>
-        <v>151</v>
+        <f t="shared" ref="B48" si="24">B47</f>
+        <v>174</v>
       </c>
       <c r="C48">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -12960,46 +15600,46 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (612, 151, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (702, 174, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="2"/>
-        <v>613</v>
+        <v>703</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49" si="19">B45+1</f>
-        <v>152</v>
+        <f t="shared" ref="B49" si="25">B47</f>
+        <v>174</v>
       </c>
       <c r="C49">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (613, 152, 55, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (703, 174, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="2"/>
-        <v>614</v>
+        <v>704</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50" si="20">B49</f>
-        <v>152</v>
+        <f t="shared" ref="B50" si="26">B47</f>
+        <v>174</v>
       </c>
       <c r="C50">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -13012,49 +15652,49 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (614, 152, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (704, 174, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="2"/>
-        <v>615</v>
+        <v>705</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="21">B49</f>
-        <v>152</v>
+        <f t="shared" ref="B51" si="27">B47+1</f>
+        <v>175</v>
       </c>
       <c r="C51">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (615, 152, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (705, 175, 598, 5, 2, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="2"/>
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="22">B49</f>
-        <v>152</v>
+        <f t="shared" ref="B52" si="28">B51</f>
+        <v>175</v>
       </c>
       <c r="C52">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -13064,49 +15704,49 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (616, 152, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (706, 175, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="2"/>
-        <v>617</v>
+        <v>707</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53" si="23">B49+1</f>
-        <v>153</v>
+        <f t="shared" ref="B53" si="29">B51</f>
+        <v>175</v>
       </c>
       <c r="C53">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (617, 153, 56, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (707, 175, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="2"/>
-        <v>618</v>
+        <v>708</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54" si="24">B53</f>
-        <v>153</v>
+        <f t="shared" ref="B54" si="30">B51</f>
+        <v>175</v>
       </c>
       <c r="C54">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -13116,46 +15756,46 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (618, 153, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (708, 175, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="2"/>
-        <v>619</v>
+        <v>709</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55" si="25">B53</f>
-        <v>153</v>
+        <f t="shared" ref="B55" si="31">B51+1</f>
+        <v>176</v>
       </c>
       <c r="C55">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (619, 153, 57, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (709, 176, 55, 1, 1, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>710</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56" si="26">B53</f>
-        <v>153</v>
+        <f t="shared" ref="B56" si="32">B55</f>
+        <v>176</v>
       </c>
       <c r="C56">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -13168,46 +15808,46 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (620, 153, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (710, 176, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="2"/>
-        <v>621</v>
+        <v>711</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57" si="27">B53+1</f>
-        <v>154</v>
+        <f t="shared" ref="B57" si="33">B55</f>
+        <v>176</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (621, 154, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (711, 176, 595, 1, 1, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="2"/>
-        <v>622</v>
+        <v>712</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58" si="28">B57</f>
-        <v>154</v>
+        <f t="shared" ref="B58" si="34">B55</f>
+        <v>176</v>
       </c>
       <c r="C58">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -13220,49 +15860,49 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (622, 154, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (712, 176, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="2"/>
-        <v>623</v>
+        <v>713</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59" si="29">B57</f>
-        <v>154</v>
+        <f t="shared" ref="B59:B99" si="35">B55+1</f>
+        <v>177</v>
       </c>
       <c r="C59">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (623, 154, 593, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (713, 177, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="2"/>
-        <v>624</v>
+        <v>714</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60" si="30">B57</f>
-        <v>154</v>
+        <f t="shared" ref="B60:B100" si="36">B59</f>
+        <v>177</v>
       </c>
       <c r="C60">
-        <v>593</v>
+        <v>54</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -13272,49 +15912,49 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (624, 154, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (714, 177, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="2"/>
-        <v>625</v>
+        <v>715</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61" si="31">B57+1</f>
-        <v>155</v>
+        <f t="shared" ref="B61:B101" si="37">B59</f>
+        <v>177</v>
       </c>
       <c r="C61">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (625, 155, 54, 9, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (715, 177, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="2"/>
-        <v>626</v>
+        <v>716</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62" si="32">B61</f>
-        <v>155</v>
+        <f t="shared" ref="B62:B102" si="38">B59</f>
+        <v>177</v>
       </c>
       <c r="C62">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D62">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -13324,49 +15964,49 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (626, 155, 54, 6, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (716, 177, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="2"/>
-        <v>627</v>
+        <v>717</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63" si="33">B61</f>
-        <v>155</v>
+        <f t="shared" si="35"/>
+        <v>178</v>
       </c>
       <c r="C63">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (627, 155, 57, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (717, 178, 55, 5, 2, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="2"/>
-        <v>628</v>
+        <v>718</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64" si="34">B61</f>
-        <v>155</v>
+        <f t="shared" si="36"/>
+        <v>178</v>
       </c>
       <c r="C64">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -13376,49 +16016,49 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (628, 155, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (718, 178, 55, 3, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="2"/>
-        <v>629</v>
+        <v>719</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65:B105" si="35">B61+1</f>
-        <v>156</v>
+        <f t="shared" si="37"/>
+        <v>178</v>
       </c>
       <c r="C65">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (629, 156, 55, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (719, 178, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="2"/>
-        <v>630</v>
+        <v>720</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B106" si="36">B65</f>
-        <v>156</v>
+        <f t="shared" si="38"/>
+        <v>178</v>
       </c>
       <c r="C66">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -13428,49 +16068,49 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (630, 156, 55, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (720, 178, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="2"/>
-        <v>631</v>
+        <v>721</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B107" si="37">B65</f>
-        <v>156</v>
+        <f t="shared" si="35"/>
+        <v>179</v>
       </c>
       <c r="C67">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (631, 156, 598, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (721, 179, 56, 4, 2, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="2"/>
-        <v>632</v>
+        <v>722</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B108" si="38">B65</f>
-        <v>156</v>
+        <f t="shared" si="36"/>
+        <v>179</v>
       </c>
       <c r="C68">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -13480,43 +16120,43 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (632, 156, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (722, 179, 56, 2, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="2"/>
-        <v>633</v>
+        <v>723</v>
       </c>
       <c r="B69">
-        <f t="shared" si="35"/>
-        <v>157</v>
+        <f t="shared" si="37"/>
+        <v>179</v>
       </c>
       <c r="C69">
         <v>591</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (633, 157, 591, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (723, 179, 591, 1, 0, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="2"/>
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="B70">
-        <f t="shared" si="36"/>
-        <v>157</v>
+        <f t="shared" si="38"/>
+        <v>179</v>
       </c>
       <c r="C70">
         <v>591</v>
@@ -13532,49 +16172,49 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (634, 157, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (724, 179, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="2"/>
-        <v>635</v>
+        <v>725</v>
       </c>
       <c r="B71">
-        <f t="shared" si="37"/>
-        <v>157</v>
+        <f t="shared" si="35"/>
+        <v>180</v>
       </c>
       <c r="C71">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (635, 157, 593, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (725, 180, 595, 2, 2, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="2"/>
-        <v>636</v>
+        <v>726</v>
       </c>
       <c r="B72">
-        <f t="shared" si="38"/>
-        <v>157</v>
+        <f t="shared" si="36"/>
+        <v>180</v>
       </c>
       <c r="C72">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -13584,49 +16224,49 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (636, 157, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (726, 180, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="2"/>
-        <v>637</v>
+        <v>727</v>
       </c>
       <c r="B73">
-        <f t="shared" si="35"/>
-        <v>158</v>
+        <f t="shared" si="37"/>
+        <v>180</v>
       </c>
       <c r="C73">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (637, 158, 56, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (727, 180, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="2"/>
-        <v>638</v>
+        <v>728</v>
       </c>
       <c r="B74">
-        <f t="shared" si="36"/>
-        <v>158</v>
+        <f t="shared" si="38"/>
+        <v>180</v>
       </c>
       <c r="C74">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -13636,49 +16276,49 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (638, 158, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (728, 180, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="2"/>
-        <v>639</v>
+        <v>729</v>
       </c>
       <c r="B75">
-        <f t="shared" si="37"/>
-        <v>158</v>
+        <f t="shared" si="35"/>
+        <v>181</v>
       </c>
       <c r="C75">
         <v>54</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (639, 158, 54, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (729, 181, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="2"/>
-        <v>640</v>
+        <v>730</v>
       </c>
       <c r="B76">
-        <f t="shared" si="38"/>
-        <v>158</v>
+        <f t="shared" si="36"/>
+        <v>181</v>
       </c>
       <c r="C76">
         <v>54</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -13688,49 +16328,49 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (640, 158, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (730, 181, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="2"/>
-        <v>641</v>
+        <v>731</v>
       </c>
       <c r="B77">
-        <f t="shared" si="35"/>
-        <v>159</v>
+        <f t="shared" si="37"/>
+        <v>181</v>
       </c>
       <c r="C77">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (641, 159, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (731, 181, 55, 0, 0, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="2"/>
-        <v>642</v>
+        <v>732</v>
       </c>
       <c r="B78">
-        <f t="shared" si="36"/>
-        <v>159</v>
+        <f t="shared" si="38"/>
+        <v>181</v>
       </c>
       <c r="C78">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -13740,787 +16380,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (642, 159, 598, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <f t="shared" si="2"/>
-        <v>643</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="37"/>
-        <v>159</v>
-      </c>
-      <c r="C79">
-        <v>591</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-      <c r="G79" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (643, 159, 591, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <f t="shared" si="2"/>
-        <v>644</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="38"/>
-        <v>159</v>
-      </c>
-      <c r="C80">
-        <v>591</v>
-      </c>
-      <c r="D80">
-        <v>0</v>
-      </c>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (644, 159, 591, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <f t="shared" si="2"/>
-        <v>645</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="35"/>
-        <v>160</v>
-      </c>
-      <c r="C81">
-        <v>54</v>
-      </c>
-      <c r="D81">
-        <v>3</v>
-      </c>
-      <c r="E81">
-        <v>2</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-      <c r="G81" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (645, 160, 54, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <f t="shared" si="2"/>
-        <v>646</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="36"/>
-        <v>160</v>
-      </c>
-      <c r="C82">
-        <v>54</v>
-      </c>
-      <c r="D82">
-        <v>3</v>
-      </c>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (646, 160, 54, 3, 0, 1);</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <f t="shared" si="2"/>
-        <v>647</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="37"/>
-        <v>160</v>
-      </c>
-      <c r="C83">
-        <v>55</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>2</v>
-      </c>
-      <c r="G83" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (647, 160, 55, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <f t="shared" si="2"/>
-        <v>648</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="38"/>
-        <v>160</v>
-      </c>
-      <c r="C84">
-        <v>55</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (648, 160, 55, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <f t="shared" si="2"/>
-        <v>649</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="35"/>
-        <v>161</v>
-      </c>
-      <c r="C85">
-        <v>57</v>
-      </c>
-      <c r="D85">
-        <v>3</v>
-      </c>
-      <c r="E85">
-        <v>2</v>
-      </c>
-      <c r="F85">
-        <v>2</v>
-      </c>
-      <c r="G85" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (649, 161, 57, 3, 2, 2);</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <f t="shared" si="2"/>
-        <v>650</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="36"/>
-        <v>161</v>
-      </c>
-      <c r="C86">
-        <v>57</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="E86">
-        <v>0</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (650, 161, 57, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <f t="shared" si="2"/>
-        <v>651</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="37"/>
-        <v>161</v>
-      </c>
-      <c r="C87">
-        <v>593</v>
-      </c>
-      <c r="D87">
-        <v>1</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>2</v>
-      </c>
-      <c r="G87" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (651, 161, 593, 1, 0, 2);</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <f t="shared" si="2"/>
-        <v>652</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="38"/>
-        <v>161</v>
-      </c>
-      <c r="C88">
-        <v>593</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (652, 161, 593, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <f t="shared" si="2"/>
-        <v>653</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="35"/>
-        <v>162</v>
-      </c>
-      <c r="C89">
-        <v>56</v>
-      </c>
-      <c r="D89">
-        <v>1</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>2</v>
-      </c>
-      <c r="G89" t="str">
-        <f t="shared" ref="G89:G132" si="39">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A89 &amp; ", " &amp; B89 &amp; ", " &amp; C89 &amp; ", " &amp; D89 &amp; ", " &amp; E89 &amp; ", " &amp; F89 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (653, 162, 56, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <f t="shared" si="2"/>
-        <v>654</v>
-      </c>
-      <c r="B90">
-        <f t="shared" si="36"/>
-        <v>162</v>
-      </c>
-      <c r="C90">
-        <v>56</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (654, 162, 56, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <f t="shared" ref="A91:A108" si="40">A90+1</f>
-        <v>655</v>
-      </c>
-      <c r="B91">
-        <f t="shared" si="37"/>
-        <v>162</v>
-      </c>
-      <c r="C91">
-        <v>598</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-      <c r="G91" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (655, 162, 598, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <f t="shared" si="40"/>
-        <v>656</v>
-      </c>
-      <c r="B92">
-        <f t="shared" si="38"/>
-        <v>162</v>
-      </c>
-      <c r="C92">
-        <v>598</v>
-      </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
-        <v>0</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (656, 162, 598, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <f t="shared" si="40"/>
-        <v>657</v>
-      </c>
-      <c r="B93">
-        <f t="shared" si="35"/>
-        <v>163</v>
-      </c>
-      <c r="C93">
-        <v>591</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-      <c r="G93" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (657, 163, 591, 3, 1, 2);</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <f t="shared" si="40"/>
-        <v>658</v>
-      </c>
-      <c r="B94">
-        <f t="shared" si="36"/>
-        <v>163</v>
-      </c>
-      <c r="C94">
-        <v>591</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (658, 163, 591, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <f t="shared" si="40"/>
-        <v>659</v>
-      </c>
-      <c r="B95">
-        <f t="shared" si="37"/>
-        <v>163</v>
-      </c>
-      <c r="C95">
-        <v>57</v>
-      </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-      <c r="G95" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (659, 163, 57, 3, 1, 2);</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <f t="shared" si="40"/>
-        <v>660</v>
-      </c>
-      <c r="B96">
-        <f t="shared" si="38"/>
-        <v>163</v>
-      </c>
-      <c r="C96">
-        <v>57</v>
-      </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-      <c r="E96">
-        <v>0</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (660, 163, 57, 2, 0, 1);</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <f t="shared" si="40"/>
-        <v>661</v>
-      </c>
-      <c r="B97">
-        <f t="shared" si="35"/>
-        <v>164</v>
-      </c>
-      <c r="C97">
-        <v>55</v>
-      </c>
-      <c r="D97">
-        <v>9</v>
-      </c>
-      <c r="E97">
-        <v>2</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-      <c r="G97" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (661, 164, 55, 9, 2, 2);</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <f t="shared" si="40"/>
-        <v>662</v>
-      </c>
-      <c r="B98">
-        <f t="shared" si="36"/>
-        <v>164</v>
-      </c>
-      <c r="C98">
-        <v>55</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (662, 164, 55, 5, 0, 1);</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <f t="shared" si="40"/>
-        <v>663</v>
-      </c>
-      <c r="B99">
-        <f t="shared" si="37"/>
-        <v>164</v>
-      </c>
-      <c r="C99">
-        <v>593</v>
-      </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>2</v>
-      </c>
-      <c r="G99" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (663, 164, 593, 2, 0, 2);</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <f t="shared" si="40"/>
-        <v>664</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="38"/>
-        <v>164</v>
-      </c>
-      <c r="C100">
-        <v>593</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>0</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (664, 164, 593, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <f t="shared" si="40"/>
-        <v>665</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="35"/>
-        <v>165</v>
-      </c>
-      <c r="C101">
-        <v>54</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>2</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (665, 165, 54, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <f t="shared" si="40"/>
-        <v>666</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="36"/>
-        <v>165</v>
-      </c>
-      <c r="C102">
-        <v>54</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102">
-        <v>0</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (666, 165, 54, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <f t="shared" si="40"/>
-        <v>667</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="37"/>
-        <v>165</v>
-      </c>
-      <c r="C103">
-        <v>598</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103">
-        <v>0</v>
-      </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (667, 165, 598, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <f t="shared" si="40"/>
-        <v>668</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="38"/>
-        <v>165</v>
-      </c>
-      <c r="C104">
-        <v>598</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104">
-        <v>0</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (668, 165, 598, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <f t="shared" si="40"/>
-        <v>669</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="35"/>
-        <v>166</v>
-      </c>
-      <c r="C105">
-        <v>55</v>
-      </c>
-      <c r="D105">
-        <v>1</v>
-      </c>
-      <c r="E105">
-        <v>2</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (669, 166, 55, 1, 2, 2);</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <f t="shared" si="40"/>
-        <v>670</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="36"/>
-        <v>166</v>
-      </c>
-      <c r="C106">
-        <v>55</v>
-      </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (670, 166, 55, 1, 0, 1);</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <f t="shared" si="40"/>
-        <v>671</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="37"/>
-        <v>166</v>
-      </c>
-      <c r="C107">
-        <v>56</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>2</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (671, 166, 56, 0, 0, 2);</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <f t="shared" si="40"/>
-        <v>672</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="38"/>
-        <v>166</v>
-      </c>
-      <c r="C108">
-        <v>56</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108">
-        <v>0</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="39"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (672, 166, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 181, 55, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,14 @@
     <sheet name="1942" sheetId="18" r:id="rId17"/>
     <sheet name="1945" sheetId="19" r:id="rId18"/>
     <sheet name="1946" sheetId="20" r:id="rId19"/>
+    <sheet name="1947" sheetId="21" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -14533,7 +14534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14845,7 +14846,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G82" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <f t="shared" ref="G19:G78" si="1">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (673, 167, 54, 2, 2, 2);</v>
       </c>
     </row>
@@ -14877,7 +14878,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ref="A21:A84" si="2">A20+1</f>
+        <f t="shared" ref="A21:A78" si="2">A20+1</f>
         <v>675</v>
       </c>
       <c r="B21">
@@ -15869,7 +15870,7 @@
         <v>713</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:B99" si="35">B55+1</f>
+        <f t="shared" ref="B59:B75" si="35">B55+1</f>
         <v>177</v>
       </c>
       <c r="C59">
@@ -15895,7 +15896,7 @@
         <v>714</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:B100" si="36">B59</f>
+        <f t="shared" ref="B60:B76" si="36">B59</f>
         <v>177</v>
       </c>
       <c r="C60">
@@ -15921,7 +15922,7 @@
         <v>715</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B101" si="37">B59</f>
+        <f t="shared" ref="B61:B77" si="37">B59</f>
         <v>177</v>
       </c>
       <c r="C61">
@@ -15947,7 +15948,7 @@
         <v>716</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B102" si="38">B59</f>
+        <f t="shared" ref="B62:B78" si="38">B59</f>
         <v>177</v>
       </c>
       <c r="C62">
@@ -17167,6 +17168,3452 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G143"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G29" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1947-11-30"</f>
+        <v>1947-11-30</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (182, '1947-11-30', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1947-12-02"</f>
+        <v>1947-12-02</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (183, '1947-12-02', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A29" si="1">A3+1</f>
+        <v>184</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1947-12-02"</f>
+        <v>1947-12-02</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (184, '1947-12-02', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1947-12-04"</f>
+        <v>1947-12-04</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (185, '1947-12-04', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1947-12-04"</f>
+        <v>1947-12-04</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (186, '1947-12-04', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1947-12-06"</f>
+        <v>1947-12-06</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (187, '1947-12-06', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1947-12-06"</f>
+        <v>1947-12-06</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (188, '1947-12-06', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1947-12-09"</f>
+        <v>1947-12-09</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (189, '1947-12-09', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1947-12-09"</f>
+        <v>1947-12-09</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (190, '1947-12-09', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1947-12-11"</f>
+        <v>1947-12-11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (191, '1947-12-11', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1947-12-11"</f>
+        <v>1947-12-11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (192, '1947-12-11', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1947-12-13"</f>
+        <v>1947-12-13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (193, '1947-12-13', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1947-12-13"</f>
+        <v>1947-12-13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (194, '1947-12-13', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1947-12-16"</f>
+        <v>1947-12-16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (195, '1947-12-16', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1947-12-16"</f>
+        <v>1947-12-16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (196, '1947-12-16', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1947-12-18"</f>
+        <v>1947-12-18</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (197, '1947-12-18', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1947-12-18"</f>
+        <v>1947-12-18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (198, '1947-12-18', 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1947-12-20"</f>
+        <v>1947-12-20</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (199, '1947-12-20', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1947-12-20"</f>
+        <v>1947-12-20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (200, '1947-12-20', 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1947-12-23"</f>
+        <v>1947-12-23</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (201, '1947-12-23', 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1947-12-23"</f>
+        <v>1947-12-23</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (202, '1947-12-23', 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1947-12-25"</f>
+        <v>1947-12-25</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (203, '1947-12-25', 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1947-12-26"</f>
+        <v>1947-12-26</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (204, '1947-12-26', 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1947-12-27"</f>
+        <v>1947-12-27</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (205, '1947-12-27', 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1947-12-28"</f>
+        <v>1947-12-28</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (206, '1947-12-28', 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"1947-12-29"</f>
+        <v>1947-12-29</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (207, '1947-12-29', 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>"1947-12-30"</f>
+        <v>1947-12-30</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (208, '1947-12-30', 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>"1947-12-31"</f>
+        <v>1947-12-31</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (209, '1947-12-31', 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A31 &amp; ", " &amp; B31 &amp; ", " &amp; C31 &amp; ", " &amp; D31 &amp; ", " &amp; E31 &amp; ", " &amp; F31 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>732</v>
+      </c>
+      <c r="B32">
+        <v>182</v>
+      </c>
+      <c r="C32">
+        <v>593</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32:G95" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 182, 593, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+1</f>
+        <v>733</v>
+      </c>
+      <c r="B33">
+        <f>B32</f>
+        <v>182</v>
+      </c>
+      <c r="C33">
+        <v>593</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 182, 593, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A97" si="3">A33+1</f>
+        <v>734</v>
+      </c>
+      <c r="B34">
+        <f>B32</f>
+        <v>182</v>
+      </c>
+      <c r="C34">
+        <v>591</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 182, 591, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>735</v>
+      </c>
+      <c r="B35">
+        <f>B32</f>
+        <v>182</v>
+      </c>
+      <c r="C35">
+        <v>591</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 182, 591, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>736</v>
+      </c>
+      <c r="B36">
+        <f>B32+1</f>
+        <v>183</v>
+      </c>
+      <c r="C36">
+        <v>598</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 183, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>183</v>
+      </c>
+      <c r="C37">
+        <v>598</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 183, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>738</v>
+      </c>
+      <c r="B38">
+        <f>B36</f>
+        <v>183</v>
+      </c>
+      <c r="C38">
+        <v>57</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 183, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>739</v>
+      </c>
+      <c r="B39">
+        <f>B36</f>
+        <v>183</v>
+      </c>
+      <c r="C39">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 183, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>740</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="4">B36+1</f>
+        <v>184</v>
+      </c>
+      <c r="C40">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 184, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="5">B40</f>
+        <v>184</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 184, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>742</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="6">B40</f>
+        <v>184</v>
+      </c>
+      <c r="C42">
+        <v>595</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 184, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>743</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="7">B40</f>
+        <v>184</v>
+      </c>
+      <c r="C43">
+        <v>595</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 184, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>744</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="8">B40+1</f>
+        <v>185</v>
+      </c>
+      <c r="C44">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 185, 54, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>745</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="9">B44</f>
+        <v>185</v>
+      </c>
+      <c r="C45">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 185, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>746</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="10">B44</f>
+        <v>185</v>
+      </c>
+      <c r="C46">
+        <v>591</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 185, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>747</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="11">B44</f>
+        <v>185</v>
+      </c>
+      <c r="C47">
+        <v>591</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 185, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="12">B44+1</f>
+        <v>186</v>
+      </c>
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 186, 57, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>749</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="13">B48</f>
+        <v>186</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (749, 186, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="14">B48</f>
+        <v>186</v>
+      </c>
+      <c r="C50">
+        <v>593</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (750, 186, 593, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>751</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="15">B48</f>
+        <v>186</v>
+      </c>
+      <c r="C51">
+        <v>593</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (751, 186, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>752</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="16">B48+1</f>
+        <v>187</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (752, 187, 51, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>753</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="17">B52</f>
+        <v>187</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (753, 187, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>754</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="18">B52</f>
+        <v>187</v>
+      </c>
+      <c r="C54">
+        <v>595</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (754, 187, 595, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>755</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="19">B52</f>
+        <v>187</v>
+      </c>
+      <c r="C55">
+        <v>595</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (755, 187, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="20">B52+1</f>
+        <v>188</v>
+      </c>
+      <c r="C56">
+        <v>598</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (756, 188, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="21">B56</f>
+        <v>188</v>
+      </c>
+      <c r="C57">
+        <v>598</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (757, 188, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>758</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="22">B56</f>
+        <v>188</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (758, 188, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>759</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="23">B56</f>
+        <v>188</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (759, 188, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>760</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="24">B56+1</f>
+        <v>189</v>
+      </c>
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (760, 189, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>761</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="25">B60</f>
+        <v>189</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (761, 189, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>762</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="26">B60</f>
+        <v>189</v>
+      </c>
+      <c r="C62">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (762, 189, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>763</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="27">B60</f>
+        <v>189</v>
+      </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (763, 189, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>764</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="28">B60+1</f>
+        <v>190</v>
+      </c>
+      <c r="C64">
+        <v>598</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (764, 190, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65" si="29">B64</f>
+        <v>190</v>
+      </c>
+      <c r="C65">
+        <v>598</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (765, 190, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>766</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="30">B64</f>
+        <v>190</v>
+      </c>
+      <c r="C66">
+        <v>591</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (766, 190, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>767</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67" si="31">B64</f>
+        <v>190</v>
+      </c>
+      <c r="C67">
+        <v>591</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (767, 190, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68" si="32">B64+1</f>
+        <v>191</v>
+      </c>
+      <c r="C68">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (768, 191, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>769</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69" si="33">B68</f>
+        <v>191</v>
+      </c>
+      <c r="C69">
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (769, 191, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70" si="34">B68</f>
+        <v>191</v>
+      </c>
+      <c r="C70">
+        <v>593</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (770, 191, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>771</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71" si="35">B68</f>
+        <v>191</v>
+      </c>
+      <c r="C71">
+        <v>593</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (771, 191, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>772</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B88" si="36">B68+1</f>
+        <v>192</v>
+      </c>
+      <c r="C72">
+        <v>54</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (772, 192, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>773</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73:B89" si="37">B72</f>
+        <v>192</v>
+      </c>
+      <c r="C73">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (773, 192, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>774</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:B90" si="38">B72</f>
+        <v>192</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (774, 192, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>775</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B91" si="39">B72</f>
+        <v>192</v>
+      </c>
+      <c r="C75">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (775, 192, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>776</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="36"/>
+        <v>193</v>
+      </c>
+      <c r="C76">
+        <v>57</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (776, 193, 57, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>777</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="37"/>
+        <v>193</v>
+      </c>
+      <c r="C77">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (777, 193, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>778</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="38"/>
+        <v>193</v>
+      </c>
+      <c r="C78">
+        <v>591</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (778, 193, 591, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>779</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="39"/>
+        <v>193</v>
+      </c>
+      <c r="C79">
+        <v>591</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (779, 193, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="36"/>
+        <v>194</v>
+      </c>
+      <c r="C80">
+        <v>595</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (780, 194, 595, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>781</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="37"/>
+        <v>194</v>
+      </c>
+      <c r="C81">
+        <v>595</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (781, 194, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>782</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="38"/>
+        <v>194</v>
+      </c>
+      <c r="C82">
+        <v>598</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (782, 194, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>783</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="39"/>
+        <v>194</v>
+      </c>
+      <c r="C83">
+        <v>598</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (783, 194, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>784</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="36"/>
+        <v>195</v>
+      </c>
+      <c r="C84">
+        <v>598</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (784, 195, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>785</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="37"/>
+        <v>195</v>
+      </c>
+      <c r="C85">
+        <v>598</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (785, 195, 598, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>786</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="38"/>
+        <v>195</v>
+      </c>
+      <c r="C86">
+        <v>593</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (786, 195, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>787</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="39"/>
+        <v>195</v>
+      </c>
+      <c r="C87">
+        <v>593</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (787, 195, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>788</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="36"/>
+        <v>196</v>
+      </c>
+      <c r="C88">
+        <v>54</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (788, 196, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>789</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="37"/>
+        <v>196</v>
+      </c>
+      <c r="C89">
+        <v>54</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (789, 196, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>790</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="38"/>
+        <v>196</v>
+      </c>
+      <c r="C90">
+        <v>56</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (790, 196, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>791</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="39"/>
+        <v>196</v>
+      </c>
+      <c r="C91">
+        <v>56</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (791, 196, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>792</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="40">B88+1</f>
+        <v>197</v>
+      </c>
+      <c r="C92">
+        <v>595</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (792, 197, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>793</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="41">B92</f>
+        <v>197</v>
+      </c>
+      <c r="C93">
+        <v>595</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (793, 197, 595, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>794</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94" si="42">B92</f>
+        <v>197</v>
+      </c>
+      <c r="C94">
+        <v>591</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (794, 197, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>795</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="43">B92</f>
+        <v>197</v>
+      </c>
+      <c r="C95">
+        <v>591</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 197, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>796</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96" si="44">B92+1</f>
+        <v>198</v>
+      </c>
+      <c r="C96">
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" ref="G96:G143" si="45">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A96 &amp; ", " &amp; B96 &amp; ", " &amp; C96 &amp; ", " &amp; D96 &amp; ", " &amp; E96 &amp; ", " &amp; F96 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 198, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>797</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97" si="46">B96</f>
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <v>54</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 198, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ref="A98:A143" si="47">A97+1</f>
+        <v>798</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98" si="48">B96</f>
+        <v>198</v>
+      </c>
+      <c r="C98">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 198, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="47"/>
+        <v>799</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="49">B96</f>
+        <v>198</v>
+      </c>
+      <c r="C99">
+        <v>57</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (799, 198, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="47"/>
+        <v>800</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100" si="50">B96+1</f>
+        <v>199</v>
+      </c>
+      <c r="C100">
+        <v>51</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (800, 199, 51, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="47"/>
+        <v>801</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101" si="51">B100</f>
+        <v>199</v>
+      </c>
+      <c r="C101">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (801, 199, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="47"/>
+        <v>802</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102" si="52">B100</f>
+        <v>199</v>
+      </c>
+      <c r="C102">
+        <v>593</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (802, 199, 593, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="47"/>
+        <v>803</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103" si="53">B100</f>
+        <v>199</v>
+      </c>
+      <c r="C103">
+        <v>593</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (803, 199, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="47"/>
+        <v>804</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104" si="54">B100+1</f>
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>595</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (804, 200, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="47"/>
+        <v>805</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105" si="55">B104</f>
+        <v>200</v>
+      </c>
+      <c r="C105">
+        <v>595</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (805, 200, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="47"/>
+        <v>806</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106" si="56">B104</f>
+        <v>200</v>
+      </c>
+      <c r="C106">
+        <v>57</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (806, 200, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="47"/>
+        <v>807</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107" si="57">B104</f>
+        <v>200</v>
+      </c>
+      <c r="C107">
+        <v>57</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (807, 200, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="47"/>
+        <v>808</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108" si="58">B104+1</f>
+        <v>201</v>
+      </c>
+      <c r="C108">
+        <v>51</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (808, 201, 51, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="47"/>
+        <v>809</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ref="B109" si="59">B108</f>
+        <v>201</v>
+      </c>
+      <c r="C109">
+        <v>51</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (809, 201, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="47"/>
+        <v>810</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ref="B110" si="60">B108</f>
+        <v>201</v>
+      </c>
+      <c r="C110">
+        <v>57</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (810, 201, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="47"/>
+        <v>811</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ref="B111" si="61">B108</f>
+        <v>201</v>
+      </c>
+      <c r="C111">
+        <v>57</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (811, 201, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="47"/>
+        <v>812</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ref="B112" si="62">B108+1</f>
+        <v>202</v>
+      </c>
+      <c r="C112">
+        <v>595</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (812, 202, 595, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="47"/>
+        <v>813</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ref="B113" si="63">B112</f>
+        <v>202</v>
+      </c>
+      <c r="C113">
+        <v>595</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (813, 202, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="47"/>
+        <v>814</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ref="B114" si="64">B112</f>
+        <v>202</v>
+      </c>
+      <c r="C114">
+        <v>56</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (814, 202, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="47"/>
+        <v>815</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ref="B115" si="65">B112</f>
+        <v>202</v>
+      </c>
+      <c r="C115">
+        <v>56</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (815, 202, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="47"/>
+        <v>816</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ref="B116" si="66">B112+1</f>
+        <v>203</v>
+      </c>
+      <c r="C116">
+        <v>54</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (816, 203, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="47"/>
+        <v>817</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ref="B117" si="67">B116</f>
+        <v>203</v>
+      </c>
+      <c r="C117">
+        <v>54</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (817, 203, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="47"/>
+        <v>818</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ref="B118" si="68">B116</f>
+        <v>203</v>
+      </c>
+      <c r="C118">
+        <v>593</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (818, 203, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="47"/>
+        <v>819</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ref="B119" si="69">B116</f>
+        <v>203</v>
+      </c>
+      <c r="C119">
+        <v>593</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (819, 203, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="47"/>
+        <v>820</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120" si="70">B116+1</f>
+        <v>204</v>
+      </c>
+      <c r="C120">
+        <v>598</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (820, 204, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="47"/>
+        <v>821</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ref="B121" si="71">B120</f>
+        <v>204</v>
+      </c>
+      <c r="C121">
+        <v>598</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (821, 204, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="47"/>
+        <v>822</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ref="B122" si="72">B120</f>
+        <v>204</v>
+      </c>
+      <c r="C122">
+        <v>51</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (822, 204, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="47"/>
+        <v>823</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ref="B123" si="73">B120</f>
+        <v>204</v>
+      </c>
+      <c r="C123">
+        <v>51</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (823, 204, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="47"/>
+        <v>824</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124" si="74">B120+1</f>
+        <v>205</v>
+      </c>
+      <c r="C124">
+        <v>591</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (824, 205, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="47"/>
+        <v>825</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ref="B125" si="75">B124</f>
+        <v>205</v>
+      </c>
+      <c r="C125">
+        <v>591</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (825, 205, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="47"/>
+        <v>826</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ref="B126" si="76">B124</f>
+        <v>205</v>
+      </c>
+      <c r="C126">
+        <v>51</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (826, 205, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="47"/>
+        <v>827</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ref="B127" si="77">B124</f>
+        <v>205</v>
+      </c>
+      <c r="C127">
+        <v>51</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (827, 205, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="47"/>
+        <v>828</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ref="B128" si="78">B124+1</f>
+        <v>206</v>
+      </c>
+      <c r="C128">
+        <v>54</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (828, 206, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="47"/>
+        <v>829</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ref="B129" si="79">B128</f>
+        <v>206</v>
+      </c>
+      <c r="C129">
+        <v>54</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (829, 206, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="47"/>
+        <v>830</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130" si="80">B128</f>
+        <v>206</v>
+      </c>
+      <c r="C130">
+        <v>598</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (830, 206, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="47"/>
+        <v>831</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131" si="81">B128</f>
+        <v>206</v>
+      </c>
+      <c r="C131">
+        <v>598</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (831, 206, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="47"/>
+        <v>832</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132" si="82">B128+1</f>
+        <v>207</v>
+      </c>
+      <c r="C132">
+        <v>595</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (832, 207, 595, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="47"/>
+        <v>833</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ref="B133" si="83">B132</f>
+        <v>207</v>
+      </c>
+      <c r="C133">
+        <v>595</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (833, 207, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="47"/>
+        <v>834</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134" si="84">B132</f>
+        <v>207</v>
+      </c>
+      <c r="C134">
+        <v>593</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (834, 207, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="47"/>
+        <v>835</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ref="B135" si="85">B132</f>
+        <v>207</v>
+      </c>
+      <c r="C135">
+        <v>593</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (835, 207, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="47"/>
+        <v>836</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ref="B136" si="86">B132+1</f>
+        <v>208</v>
+      </c>
+      <c r="C136">
+        <v>56</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (836, 208, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="47"/>
+        <v>837</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137" si="87">B136</f>
+        <v>208</v>
+      </c>
+      <c r="C137">
+        <v>56</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (837, 208, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="47"/>
+        <v>838</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ref="B138" si="88">B136</f>
+        <v>208</v>
+      </c>
+      <c r="C138">
+        <v>57</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (838, 208, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="47"/>
+        <v>839</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ref="B139" si="89">B136</f>
+        <v>208</v>
+      </c>
+      <c r="C139">
+        <v>57</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (839, 208, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="47"/>
+        <v>840</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ref="B140" si="90">B136+1</f>
+        <v>209</v>
+      </c>
+      <c r="C140">
+        <v>56</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (840, 209, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="47"/>
+        <v>841</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ref="B141" si="91">B140</f>
+        <v>209</v>
+      </c>
+      <c r="C141">
+        <v>56</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (841, 209, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="47"/>
+        <v>842</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ref="B142" si="92">B140</f>
+        <v>209</v>
+      </c>
+      <c r="C142">
+        <v>591</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (842, 209, 591, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="47"/>
+        <v>843</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ref="B143" si="93">B140</f>
+        <v>209</v>
+      </c>
+      <c r="C143">
+        <v>591</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (843, 209, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G42"/>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="19"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="1945" sheetId="19" r:id="rId18"/>
     <sheet name="1946" sheetId="20" r:id="rId19"/>
     <sheet name="1947" sheetId="21" r:id="rId20"/>
+    <sheet name="1949" sheetId="22" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -17172,6 +17173,3452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G143"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G29" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1947-11-30"</f>
+        <v>1947-11-30</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (182, '1947-11-30', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>183</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1947-12-02"</f>
+        <v>1947-12-02</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (183, '1947-12-02', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A29" si="1">A3+1</f>
+        <v>184</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1947-12-02"</f>
+        <v>1947-12-02</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (184, '1947-12-02', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1947-12-04"</f>
+        <v>1947-12-04</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (185, '1947-12-04', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1947-12-04"</f>
+        <v>1947-12-04</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (186, '1947-12-04', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1947-12-06"</f>
+        <v>1947-12-06</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (187, '1947-12-06', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>188</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1947-12-06"</f>
+        <v>1947-12-06</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (188, '1947-12-06', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>189</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1947-12-09"</f>
+        <v>1947-12-09</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (189, '1947-12-09', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>190</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1947-12-09"</f>
+        <v>1947-12-09</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (190, '1947-12-09', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1947-12-11"</f>
+        <v>1947-12-11</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (191, '1947-12-11', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1947-12-11"</f>
+        <v>1947-12-11</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (192, '1947-12-11', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1947-12-13"</f>
+        <v>1947-12-13</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (193, '1947-12-13', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1947-12-13"</f>
+        <v>1947-12-13</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (194, '1947-12-13', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1947-12-16"</f>
+        <v>1947-12-16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (195, '1947-12-16', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1947-12-16"</f>
+        <v>1947-12-16</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (196, '1947-12-16', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1947-12-18"</f>
+        <v>1947-12-18</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (197, '1947-12-18', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1947-12-18"</f>
+        <v>1947-12-18</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (198, '1947-12-18', 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>199</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1947-12-20"</f>
+        <v>1947-12-20</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (199, '1947-12-20', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1947-12-20"</f>
+        <v>1947-12-20</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (200, '1947-12-20', 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1947-12-23"</f>
+        <v>1947-12-23</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (201, '1947-12-23', 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1947-12-23"</f>
+        <v>1947-12-23</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (202, '1947-12-23', 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1947-12-25"</f>
+        <v>1947-12-25</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (203, '1947-12-25', 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>"1947-12-26"</f>
+        <v>1947-12-26</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (204, '1947-12-26', 2);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>"1947-12-27"</f>
+        <v>1947-12-27</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (205, '1947-12-27', 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f>"1947-12-28"</f>
+        <v>1947-12-28</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (206, '1947-12-28', 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f>"1947-12-29"</f>
+        <v>1947-12-29</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (207, '1947-12-29', 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="1"/>
+        <v>208</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f>"1947-12-30"</f>
+        <v>1947-12-30</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (208, '1947-12-30', 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="1"/>
+        <v>209</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f>"1947-12-31"</f>
+        <v>1947-12-31</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (209, '1947-12-31', 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A31 &amp; ", " &amp; B31 &amp; ", " &amp; C31 &amp; ", " &amp; D31 &amp; ", " &amp; E31 &amp; ", " &amp; F31 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>732</v>
+      </c>
+      <c r="B32">
+        <v>182</v>
+      </c>
+      <c r="C32">
+        <v>593</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ref="G32:G95" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 182, 593, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>A32+1</f>
+        <v>733</v>
+      </c>
+      <c r="B33">
+        <f>B32</f>
+        <v>182</v>
+      </c>
+      <c r="C33">
+        <v>593</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 182, 593, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A97" si="3">A33+1</f>
+        <v>734</v>
+      </c>
+      <c r="B34">
+        <f>B32</f>
+        <v>182</v>
+      </c>
+      <c r="C34">
+        <v>591</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 182, 591, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>735</v>
+      </c>
+      <c r="B35">
+        <f>B32</f>
+        <v>182</v>
+      </c>
+      <c r="C35">
+        <v>591</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 182, 591, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>736</v>
+      </c>
+      <c r="B36">
+        <f>B32+1</f>
+        <v>183</v>
+      </c>
+      <c r="C36">
+        <v>598</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 183, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>737</v>
+      </c>
+      <c r="B37">
+        <f>B36</f>
+        <v>183</v>
+      </c>
+      <c r="C37">
+        <v>598</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 183, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>738</v>
+      </c>
+      <c r="B38">
+        <f>B36</f>
+        <v>183</v>
+      </c>
+      <c r="C38">
+        <v>57</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 183, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>739</v>
+      </c>
+      <c r="B39">
+        <f>B36</f>
+        <v>183</v>
+      </c>
+      <c r="C39">
+        <v>57</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 183, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>740</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="4">B36+1</f>
+        <v>184</v>
+      </c>
+      <c r="C40">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>6</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 184, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>741</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="5">B40</f>
+        <v>184</v>
+      </c>
+      <c r="C41">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 184, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>742</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="6">B40</f>
+        <v>184</v>
+      </c>
+      <c r="C42">
+        <v>595</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 184, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>743</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="7">B40</f>
+        <v>184</v>
+      </c>
+      <c r="C43">
+        <v>595</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 184, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>744</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="8">B40+1</f>
+        <v>185</v>
+      </c>
+      <c r="C44">
+        <v>54</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 185, 54, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>745</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="9">B44</f>
+        <v>185</v>
+      </c>
+      <c r="C45">
+        <v>54</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 185, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>746</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="10">B44</f>
+        <v>185</v>
+      </c>
+      <c r="C46">
+        <v>591</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 185, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>747</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="11">B44</f>
+        <v>185</v>
+      </c>
+      <c r="C47">
+        <v>591</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 185, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>748</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="12">B44+1</f>
+        <v>186</v>
+      </c>
+      <c r="C48">
+        <v>57</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 186, 57, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>749</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="13">B48</f>
+        <v>186</v>
+      </c>
+      <c r="C49">
+        <v>57</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (749, 186, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>750</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="14">B48</f>
+        <v>186</v>
+      </c>
+      <c r="C50">
+        <v>593</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (750, 186, 593, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>751</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="15">B48</f>
+        <v>186</v>
+      </c>
+      <c r="C51">
+        <v>593</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (751, 186, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>752</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="16">B48+1</f>
+        <v>187</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (752, 187, 51, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>753</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="17">B52</f>
+        <v>187</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (753, 187, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>754</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="18">B52</f>
+        <v>187</v>
+      </c>
+      <c r="C54">
+        <v>595</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (754, 187, 595, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>755</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="19">B52</f>
+        <v>187</v>
+      </c>
+      <c r="C55">
+        <v>595</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (755, 187, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="20">B52+1</f>
+        <v>188</v>
+      </c>
+      <c r="C56">
+        <v>598</v>
+      </c>
+      <c r="D56">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (756, 188, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>757</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="21">B56</f>
+        <v>188</v>
+      </c>
+      <c r="C57">
+        <v>598</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (757, 188, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>758</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="22">B56</f>
+        <v>188</v>
+      </c>
+      <c r="C58">
+        <v>56</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (758, 188, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>759</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="23">B56</f>
+        <v>188</v>
+      </c>
+      <c r="C59">
+        <v>56</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (759, 188, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>760</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="24">B56+1</f>
+        <v>189</v>
+      </c>
+      <c r="C60">
+        <v>56</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (760, 189, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>761</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="25">B60</f>
+        <v>189</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (761, 189, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>762</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="26">B60</f>
+        <v>189</v>
+      </c>
+      <c r="C62">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (762, 189, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>763</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="27">B60</f>
+        <v>189</v>
+      </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (763, 189, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>764</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="28">B60+1</f>
+        <v>190</v>
+      </c>
+      <c r="C64">
+        <v>598</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (764, 190, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>765</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65" si="29">B64</f>
+        <v>190</v>
+      </c>
+      <c r="C65">
+        <v>598</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (765, 190, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>766</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66" si="30">B64</f>
+        <v>190</v>
+      </c>
+      <c r="C66">
+        <v>591</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (766, 190, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>767</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67" si="31">B64</f>
+        <v>190</v>
+      </c>
+      <c r="C67">
+        <v>591</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (767, 190, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68" si="32">B64+1</f>
+        <v>191</v>
+      </c>
+      <c r="C68">
+        <v>56</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (768, 191, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>769</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69" si="33">B68</f>
+        <v>191</v>
+      </c>
+      <c r="C69">
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (769, 191, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>770</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ref="B70" si="34">B68</f>
+        <v>191</v>
+      </c>
+      <c r="C70">
+        <v>593</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (770, 191, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>771</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ref="B71" si="35">B68</f>
+        <v>191</v>
+      </c>
+      <c r="C71">
+        <v>593</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (771, 191, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>772</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B88" si="36">B68+1</f>
+        <v>192</v>
+      </c>
+      <c r="C72">
+        <v>54</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (772, 192, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>773</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ref="B73:B89" si="37">B72</f>
+        <v>192</v>
+      </c>
+      <c r="C73">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (773, 192, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>774</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ref="B74:B90" si="38">B72</f>
+        <v>192</v>
+      </c>
+      <c r="C74">
+        <v>51</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (774, 192, 51, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>775</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ref="B75:B91" si="39">B72</f>
+        <v>192</v>
+      </c>
+      <c r="C75">
+        <v>51</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (775, 192, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>776</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="36"/>
+        <v>193</v>
+      </c>
+      <c r="C76">
+        <v>57</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (776, 193, 57, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>777</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="37"/>
+        <v>193</v>
+      </c>
+      <c r="C77">
+        <v>57</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (777, 193, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>778</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="38"/>
+        <v>193</v>
+      </c>
+      <c r="C78">
+        <v>591</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (778, 193, 591, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>779</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="39"/>
+        <v>193</v>
+      </c>
+      <c r="C79">
+        <v>591</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (779, 193, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>780</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="36"/>
+        <v>194</v>
+      </c>
+      <c r="C80">
+        <v>595</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (780, 194, 595, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>781</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="37"/>
+        <v>194</v>
+      </c>
+      <c r="C81">
+        <v>595</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (781, 194, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>782</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="38"/>
+        <v>194</v>
+      </c>
+      <c r="C82">
+        <v>598</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (782, 194, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>783</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="39"/>
+        <v>194</v>
+      </c>
+      <c r="C83">
+        <v>598</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (783, 194, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>784</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="36"/>
+        <v>195</v>
+      </c>
+      <c r="C84">
+        <v>598</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (784, 195, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>785</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="37"/>
+        <v>195</v>
+      </c>
+      <c r="C85">
+        <v>598</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (785, 195, 598, 5, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>786</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="38"/>
+        <v>195</v>
+      </c>
+      <c r="C86">
+        <v>593</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (786, 195, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>787</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="39"/>
+        <v>195</v>
+      </c>
+      <c r="C87">
+        <v>593</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (787, 195, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>788</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="36"/>
+        <v>196</v>
+      </c>
+      <c r="C88">
+        <v>54</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (788, 196, 54, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>789</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="37"/>
+        <v>196</v>
+      </c>
+      <c r="C89">
+        <v>54</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (789, 196, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>790</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="38"/>
+        <v>196</v>
+      </c>
+      <c r="C90">
+        <v>56</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (790, 196, 56, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>791</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="39"/>
+        <v>196</v>
+      </c>
+      <c r="C91">
+        <v>56</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (791, 196, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>792</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="40">B88+1</f>
+        <v>197</v>
+      </c>
+      <c r="C92">
+        <v>595</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (792, 197, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>793</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="41">B92</f>
+        <v>197</v>
+      </c>
+      <c r="C93">
+        <v>595</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (793, 197, 595, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="3"/>
+        <v>794</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94" si="42">B92</f>
+        <v>197</v>
+      </c>
+      <c r="C94">
+        <v>591</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (794, 197, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="3"/>
+        <v>795</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="43">B92</f>
+        <v>197</v>
+      </c>
+      <c r="C95">
+        <v>591</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 197, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="3"/>
+        <v>796</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96" si="44">B92+1</f>
+        <v>198</v>
+      </c>
+      <c r="C96">
+        <v>54</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" ref="G96:G143" si="45">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A96 &amp; ", " &amp; B96 &amp; ", " &amp; C96 &amp; ", " &amp; D96 &amp; ", " &amp; E96 &amp; ", " &amp; F96 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 198, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="3"/>
+        <v>797</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97" si="46">B96</f>
+        <v>198</v>
+      </c>
+      <c r="C97">
+        <v>54</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 198, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ref="A98:A143" si="47">A97+1</f>
+        <v>798</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98" si="48">B96</f>
+        <v>198</v>
+      </c>
+      <c r="C98">
+        <v>57</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 198, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="47"/>
+        <v>799</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="49">B96</f>
+        <v>198</v>
+      </c>
+      <c r="C99">
+        <v>57</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (799, 198, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="47"/>
+        <v>800</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100" si="50">B96+1</f>
+        <v>199</v>
+      </c>
+      <c r="C100">
+        <v>51</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (800, 199, 51, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="47"/>
+        <v>801</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101" si="51">B100</f>
+        <v>199</v>
+      </c>
+      <c r="C101">
+        <v>51</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (801, 199, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="47"/>
+        <v>802</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102" si="52">B100</f>
+        <v>199</v>
+      </c>
+      <c r="C102">
+        <v>593</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (802, 199, 593, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="47"/>
+        <v>803</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103" si="53">B100</f>
+        <v>199</v>
+      </c>
+      <c r="C103">
+        <v>593</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (803, 199, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="47"/>
+        <v>804</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104" si="54">B100+1</f>
+        <v>200</v>
+      </c>
+      <c r="C104">
+        <v>595</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (804, 200, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="47"/>
+        <v>805</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105" si="55">B104</f>
+        <v>200</v>
+      </c>
+      <c r="C105">
+        <v>595</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (805, 200, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="47"/>
+        <v>806</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106" si="56">B104</f>
+        <v>200</v>
+      </c>
+      <c r="C106">
+        <v>57</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (806, 200, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="47"/>
+        <v>807</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107" si="57">B104</f>
+        <v>200</v>
+      </c>
+      <c r="C107">
+        <v>57</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (807, 200, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="47"/>
+        <v>808</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108" si="58">B104+1</f>
+        <v>201</v>
+      </c>
+      <c r="C108">
+        <v>51</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (808, 201, 51, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="47"/>
+        <v>809</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ref="B109" si="59">B108</f>
+        <v>201</v>
+      </c>
+      <c r="C109">
+        <v>51</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (809, 201, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="47"/>
+        <v>810</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ref="B110" si="60">B108</f>
+        <v>201</v>
+      </c>
+      <c r="C110">
+        <v>57</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (810, 201, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="47"/>
+        <v>811</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ref="B111" si="61">B108</f>
+        <v>201</v>
+      </c>
+      <c r="C111">
+        <v>57</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (811, 201, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="47"/>
+        <v>812</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ref="B112" si="62">B108+1</f>
+        <v>202</v>
+      </c>
+      <c r="C112">
+        <v>595</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (812, 202, 595, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="47"/>
+        <v>813</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ref="B113" si="63">B112</f>
+        <v>202</v>
+      </c>
+      <c r="C113">
+        <v>595</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (813, 202, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <f t="shared" si="47"/>
+        <v>814</v>
+      </c>
+      <c r="B114">
+        <f t="shared" ref="B114" si="64">B112</f>
+        <v>202</v>
+      </c>
+      <c r="C114">
+        <v>56</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (814, 202, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <f t="shared" si="47"/>
+        <v>815</v>
+      </c>
+      <c r="B115">
+        <f t="shared" ref="B115" si="65">B112</f>
+        <v>202</v>
+      </c>
+      <c r="C115">
+        <v>56</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (815, 202, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <f t="shared" si="47"/>
+        <v>816</v>
+      </c>
+      <c r="B116">
+        <f t="shared" ref="B116" si="66">B112+1</f>
+        <v>203</v>
+      </c>
+      <c r="C116">
+        <v>54</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="E116">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (816, 203, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <f t="shared" si="47"/>
+        <v>817</v>
+      </c>
+      <c r="B117">
+        <f t="shared" ref="B117" si="67">B116</f>
+        <v>203</v>
+      </c>
+      <c r="C117">
+        <v>54</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (817, 203, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <f t="shared" si="47"/>
+        <v>818</v>
+      </c>
+      <c r="B118">
+        <f t="shared" ref="B118" si="68">B116</f>
+        <v>203</v>
+      </c>
+      <c r="C118">
+        <v>593</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (818, 203, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <f t="shared" si="47"/>
+        <v>819</v>
+      </c>
+      <c r="B119">
+        <f t="shared" ref="B119" si="69">B116</f>
+        <v>203</v>
+      </c>
+      <c r="C119">
+        <v>593</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (819, 203, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <f t="shared" si="47"/>
+        <v>820</v>
+      </c>
+      <c r="B120">
+        <f t="shared" ref="B120" si="70">B116+1</f>
+        <v>204</v>
+      </c>
+      <c r="C120">
+        <v>598</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (820, 204, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <f t="shared" si="47"/>
+        <v>821</v>
+      </c>
+      <c r="B121">
+        <f t="shared" ref="B121" si="71">B120</f>
+        <v>204</v>
+      </c>
+      <c r="C121">
+        <v>598</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (821, 204, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <f t="shared" si="47"/>
+        <v>822</v>
+      </c>
+      <c r="B122">
+        <f t="shared" ref="B122" si="72">B120</f>
+        <v>204</v>
+      </c>
+      <c r="C122">
+        <v>51</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (822, 204, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <f t="shared" si="47"/>
+        <v>823</v>
+      </c>
+      <c r="B123">
+        <f t="shared" ref="B123" si="73">B120</f>
+        <v>204</v>
+      </c>
+      <c r="C123">
+        <v>51</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (823, 204, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <f t="shared" si="47"/>
+        <v>824</v>
+      </c>
+      <c r="B124">
+        <f t="shared" ref="B124" si="74">B120+1</f>
+        <v>205</v>
+      </c>
+      <c r="C124">
+        <v>591</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (824, 205, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <f t="shared" si="47"/>
+        <v>825</v>
+      </c>
+      <c r="B125">
+        <f t="shared" ref="B125" si="75">B124</f>
+        <v>205</v>
+      </c>
+      <c r="C125">
+        <v>591</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (825, 205, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <f t="shared" si="47"/>
+        <v>826</v>
+      </c>
+      <c r="B126">
+        <f t="shared" ref="B126" si="76">B124</f>
+        <v>205</v>
+      </c>
+      <c r="C126">
+        <v>51</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (826, 205, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <f t="shared" si="47"/>
+        <v>827</v>
+      </c>
+      <c r="B127">
+        <f t="shared" ref="B127" si="77">B124</f>
+        <v>205</v>
+      </c>
+      <c r="C127">
+        <v>51</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (827, 205, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f t="shared" si="47"/>
+        <v>828</v>
+      </c>
+      <c r="B128">
+        <f t="shared" ref="B128" si="78">B124+1</f>
+        <v>206</v>
+      </c>
+      <c r="C128">
+        <v>54</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (828, 206, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <f t="shared" si="47"/>
+        <v>829</v>
+      </c>
+      <c r="B129">
+        <f t="shared" ref="B129" si="79">B128</f>
+        <v>206</v>
+      </c>
+      <c r="C129">
+        <v>54</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (829, 206, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <f t="shared" si="47"/>
+        <v>830</v>
+      </c>
+      <c r="B130">
+        <f t="shared" ref="B130" si="80">B128</f>
+        <v>206</v>
+      </c>
+      <c r="C130">
+        <v>598</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (830, 206, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <f t="shared" si="47"/>
+        <v>831</v>
+      </c>
+      <c r="B131">
+        <f t="shared" ref="B131" si="81">B128</f>
+        <v>206</v>
+      </c>
+      <c r="C131">
+        <v>598</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (831, 206, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f t="shared" si="47"/>
+        <v>832</v>
+      </c>
+      <c r="B132">
+        <f t="shared" ref="B132" si="82">B128+1</f>
+        <v>207</v>
+      </c>
+      <c r="C132">
+        <v>595</v>
+      </c>
+      <c r="D132">
+        <v>4</v>
+      </c>
+      <c r="E132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (832, 207, 595, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f t="shared" si="47"/>
+        <v>833</v>
+      </c>
+      <c r="B133">
+        <f t="shared" ref="B133" si="83">B132</f>
+        <v>207</v>
+      </c>
+      <c r="C133">
+        <v>595</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (833, 207, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f t="shared" si="47"/>
+        <v>834</v>
+      </c>
+      <c r="B134">
+        <f t="shared" ref="B134" si="84">B132</f>
+        <v>207</v>
+      </c>
+      <c r="C134">
+        <v>593</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (834, 207, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f t="shared" si="47"/>
+        <v>835</v>
+      </c>
+      <c r="B135">
+        <f t="shared" ref="B135" si="85">B132</f>
+        <v>207</v>
+      </c>
+      <c r="C135">
+        <v>593</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (835, 207, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f t="shared" si="47"/>
+        <v>836</v>
+      </c>
+      <c r="B136">
+        <f t="shared" ref="B136" si="86">B132+1</f>
+        <v>208</v>
+      </c>
+      <c r="C136">
+        <v>56</v>
+      </c>
+      <c r="D136">
+        <v>4</v>
+      </c>
+      <c r="E136">
+        <v>2</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (836, 208, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f t="shared" si="47"/>
+        <v>837</v>
+      </c>
+      <c r="B137">
+        <f t="shared" ref="B137" si="87">B136</f>
+        <v>208</v>
+      </c>
+      <c r="C137">
+        <v>56</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (837, 208, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f t="shared" si="47"/>
+        <v>838</v>
+      </c>
+      <c r="B138">
+        <f t="shared" ref="B138" si="88">B136</f>
+        <v>208</v>
+      </c>
+      <c r="C138">
+        <v>57</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (838, 208, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f t="shared" si="47"/>
+        <v>839</v>
+      </c>
+      <c r="B139">
+        <f t="shared" ref="B139" si="89">B136</f>
+        <v>208</v>
+      </c>
+      <c r="C139">
+        <v>57</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (839, 208, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f t="shared" si="47"/>
+        <v>840</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ref="B140" si="90">B136+1</f>
+        <v>209</v>
+      </c>
+      <c r="C140">
+        <v>56</v>
+      </c>
+      <c r="D140">
+        <v>4</v>
+      </c>
+      <c r="E140">
+        <v>2</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (840, 209, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f t="shared" si="47"/>
+        <v>841</v>
+      </c>
+      <c r="B141">
+        <f t="shared" ref="B141" si="91">B140</f>
+        <v>209</v>
+      </c>
+      <c r="C141">
+        <v>56</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (841, 209, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f t="shared" si="47"/>
+        <v>842</v>
+      </c>
+      <c r="B142">
+        <f t="shared" ref="B142" si="92">B140</f>
+        <v>209</v>
+      </c>
+      <c r="C142">
+        <v>591</v>
+      </c>
+      <c r="D142">
+        <v>3</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (842, 209, 591, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f t="shared" si="47"/>
+        <v>843</v>
+      </c>
+      <c r="B143">
+        <f t="shared" ref="B143" si="93">B140</f>
+        <v>209</v>
+      </c>
+      <c r="C143">
+        <v>591</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (843, 209, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G148"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17196,674 +20643,665 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G29" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G30" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1947-11-30"</f>
-        <v>1947-11-30</v>
+        <f>"1949-04-03"</f>
+        <v>1949-04-03</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (182, '1947-11-30', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (210, '1949-04-03', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1947-12-02"</f>
-        <v>1947-12-02</v>
+        <f>"1949-04-06"</f>
+        <v>1949-04-06</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (183, '1947-12-02', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (211, '1949-04-06', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A29" si="1">A3+1</f>
-        <v>184</v>
+        <f t="shared" ref="A4:A30" si="1">A3+1</f>
+        <v>212</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1947-12-02"</f>
-        <v>1947-12-02</v>
+        <f>"1949-04-06"</f>
+        <v>1949-04-06</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (184, '1947-12-02', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (212, '1949-04-06', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>185</v>
+        <v>213</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1947-12-04"</f>
-        <v>1947-12-04</v>
+        <f>"1949-04-10"</f>
+        <v>1949-04-10</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (185, '1947-12-04', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (213, '1949-04-10', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1947-12-04"</f>
-        <v>1947-12-04</v>
+        <f>"1949-04-10"</f>
+        <v>1949-04-10</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (186, '1947-12-04', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (214, '1949-04-10', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1947-12-06"</f>
-        <v>1947-12-06</v>
+        <f>"1949-04-10"</f>
+        <v>1949-04-10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (187, '1947-12-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (215, '1949-04-10', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1947-12-06"</f>
-        <v>1947-12-06</v>
+        <f>"1949-04-13"</f>
+        <v>1949-04-13</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (188, '1947-12-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (216, '1949-04-13', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1947-12-09"</f>
-        <v>1947-12-09</v>
+        <f>"1949-04-13"</f>
+        <v>1949-04-13</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (189, '1947-12-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (217, '1949-04-13', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1947-12-09"</f>
-        <v>1947-12-09</v>
+        <f>"1949-04-13"</f>
+        <v>1949-04-13</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (190, '1947-12-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (218, '1949-04-13', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1947-12-11"</f>
-        <v>1947-12-11</v>
+        <f>"1949-04-17"</f>
+        <v>1949-04-17</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (191, '1947-12-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (219, '1949-04-17', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1947-12-11"</f>
-        <v>1947-12-11</v>
+        <f>"1949-04-17"</f>
+        <v>1949-04-17</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (192, '1947-12-11', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (220, '1949-04-17', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1947-12-13"</f>
-        <v>1947-12-13</v>
+        <f>"1949-04-17"</f>
+        <v>1949-04-17</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (193, '1947-12-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (221, '1949-04-17', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>194</v>
+        <v>222</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1947-12-13"</f>
-        <v>1947-12-13</v>
+        <f>"1949-04-20"</f>
+        <v>1949-04-20</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (194, '1947-12-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (222, '1949-04-20', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1947-12-16"</f>
-        <v>1947-12-16</v>
+        <f>"1949-04-20"</f>
+        <v>1949-04-20</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (195, '1947-12-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (223, '1949-04-20', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1947-12-16"</f>
-        <v>1947-12-16</v>
+        <f>"1949-04-20"</f>
+        <v>1949-04-20</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (196, '1947-12-16', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (224, '1949-04-20', 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="B17" s="2" t="str">
-        <f>"1947-12-18"</f>
-        <v>1947-12-18</v>
+        <f>"1949-04-24"</f>
+        <v>1949-04-24</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (197, '1947-12-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (225, '1949-04-24', 2);</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B18" s="2" t="str">
-        <f>"1947-12-18"</f>
-        <v>1947-12-18</v>
+        <f>"1949-04-25"</f>
+        <v>1949-04-25</v>
       </c>
       <c r="C18">
         <v>2</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (198, '1947-12-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (226, '1949-04-25', 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f>"1947-12-20"</f>
-        <v>1947-12-20</v>
+        <f>"1949-04-25"</f>
+        <v>1949-04-25</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (199, '1947-12-20', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (227, '1949-04-25', 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="B20" s="2" t="str">
-        <f>"1947-12-20"</f>
-        <v>1947-12-20</v>
+        <f>"1949-04-27"</f>
+        <v>1949-04-27</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (200, '1947-12-20', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (228, '1949-04-27', 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>"1947-12-23"</f>
-        <v>1947-12-23</v>
+        <f>"1949-04-27"</f>
+        <v>1949-04-27</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (201, '1947-12-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (229, '1949-04-27', 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="B22" s="2" t="str">
-        <f>"1947-12-23"</f>
-        <v>1947-12-23</v>
+        <f>"1949-04-30"</f>
+        <v>1949-04-30</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (202, '1947-12-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (230, '1949-04-30', 2);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="1"/>
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>"1947-12-25"</f>
-        <v>1947-12-25</v>
+        <f>"1949-04-30"</f>
+        <v>1949-04-30</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (203, '1947-12-25', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (231, '1949-04-30', 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="1"/>
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2" t="str">
-        <f>"1947-12-26"</f>
-        <v>1947-12-26</v>
+        <f>"1949-04-30"</f>
+        <v>1949-04-30</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (204, '1947-12-26', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (232, '1949-04-30', 2);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="1"/>
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>"1947-12-27"</f>
-        <v>1947-12-27</v>
+        <f>"1949-05-03"</f>
+        <v>1949-05-03</v>
       </c>
       <c r="C25">
         <v>2</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (205, '1947-12-27', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (233, '1949-05-03', 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="1"/>
-        <v>206</v>
+        <v>234</v>
       </c>
       <c r="B26" s="2" t="str">
-        <f>"1947-12-28"</f>
-        <v>1947-12-28</v>
+        <f>"1949-05-04"</f>
+        <v>1949-05-04</v>
       </c>
       <c r="C26">
         <v>2</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (206, '1947-12-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (234, '1949-05-04', 2);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="1"/>
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B27" s="2" t="str">
-        <f>"1947-12-29"</f>
-        <v>1947-12-29</v>
+        <f>"1949-05-06"</f>
+        <v>1949-05-06</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (207, '1947-12-29', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (235, '1949-05-06', 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="1"/>
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B28" s="2" t="str">
-        <f>"1947-12-30"</f>
-        <v>1947-12-30</v>
+        <f>"1949-05-08"</f>
+        <v>1949-05-08</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (208, '1947-12-30', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (236, '1949-05-08', 2);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="1"/>
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B29" s="2" t="str">
-        <f>"1947-12-31"</f>
-        <v>1947-12-31</v>
+        <f>"1949-05-08"</f>
+        <v>1949-05-08</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (209, '1947-12-31', 2);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>insert into game (matchid, matchdate, game_type) values (237, '1949-05-08', 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="1"/>
+        <v>238</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f>"1949-05-11"</f>
+        <v>1949-05-11</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (238, '1949-05-11', 7);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A31 &amp; ", " &amp; B31 &amp; ", " &amp; C31 &amp; ", " &amp; D31 &amp; ", " &amp; E31 &amp; ", " &amp; F31 &amp; ");"</f>
+      <c r="G32" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>732</v>
-      </c>
-      <c r="B32">
-        <v>182</v>
-      </c>
-      <c r="C32">
-        <v>593</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" ref="G32:G95" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A32 &amp; ", " &amp; B32 &amp; ", " &amp; C32 &amp; ", " &amp; D32 &amp; ", " &amp; E32 &amp; ", " &amp; F32 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (732, 182, 593, 2, 1, 2);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>A32+1</f>
-        <v>733</v>
+        <v>844</v>
       </c>
       <c r="B33">
-        <f>B32</f>
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="C33">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (733, 182, 593, 2, 0, 1);</v>
+        <f t="shared" ref="G33:G96" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A33 &amp; ", " &amp; B33 &amp; ", " &amp; C33 &amp; ", " &amp; D33 &amp; ", " &amp; E33 &amp; ", " &amp; F33 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (844, 210, 55, 9, 2, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ref="A34:A97" si="3">A33+1</f>
-        <v>734</v>
+        <f>A33+1</f>
+        <v>845</v>
       </c>
       <c r="B34">
-        <f>B32</f>
-        <v>182</v>
+        <f>B33</f>
+        <v>210</v>
       </c>
       <c r="C34">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (734, 182, 591, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (845, 210, 55, 7, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="3"/>
-        <v>735</v>
+        <f t="shared" ref="A35:A98" si="3">A34+1</f>
+        <v>846</v>
       </c>
       <c r="B35">
-        <f>B32</f>
-        <v>182</v>
+        <f>B33</f>
+        <v>210</v>
       </c>
       <c r="C35">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (735, 182, 591, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (846, 210, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>736</v>
+        <v>847</v>
       </c>
       <c r="B36">
-        <f>B32+1</f>
-        <v>183</v>
+        <f>B33</f>
+        <v>210</v>
       </c>
       <c r="C36">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (736, 183, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (847, 210, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>737</v>
+        <v>848</v>
       </c>
       <c r="B37">
-        <f>B36</f>
-        <v>183</v>
+        <f>B33+1</f>
+        <v>211</v>
       </c>
       <c r="C37">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (737, 183, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (848, 211, 591, 3, 2, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>738</v>
+        <v>849</v>
       </c>
       <c r="B38">
-        <f>B36</f>
-        <v>183</v>
+        <f>B37</f>
+        <v>211</v>
       </c>
       <c r="C38">
-        <v>57</v>
+        <v>591</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -17872,128 +21310,128 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (738, 183, 57, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (849, 211, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>739</v>
+        <v>850</v>
       </c>
       <c r="B39">
-        <f>B36</f>
-        <v>183</v>
+        <f>B37</f>
+        <v>211</v>
       </c>
       <c r="C39">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (739, 183, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (850, 211, 56, 2, 0, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>740</v>
+        <v>851</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40" si="4">B36+1</f>
-        <v>184</v>
+        <f>B37</f>
+        <v>211</v>
       </c>
       <c r="C40">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (740, 184, 54, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (851, 211, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>741</v>
+        <v>852</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41" si="5">B40</f>
-        <v>184</v>
+        <f t="shared" ref="B41" si="4">B37+1</f>
+        <v>212</v>
       </c>
       <c r="C41">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (741, 184, 54, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (852, 212, 595, 3, 2, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>742</v>
+        <v>853</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="6">B40</f>
-        <v>184</v>
+        <f t="shared" ref="B42" si="5">B41</f>
+        <v>212</v>
       </c>
       <c r="C42">
         <v>595</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (742, 184, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (853, 212, 595, 2, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>743</v>
+        <v>854</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43" si="7">B40</f>
-        <v>184</v>
+        <f t="shared" ref="B43" si="6">B41</f>
+        <v>212</v>
       </c>
       <c r="C43">
-        <v>595</v>
+        <v>57</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -18002,102 +21440,102 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (743, 184, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (854, 212, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="3"/>
-        <v>744</v>
+        <v>855</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44" si="8">B40+1</f>
-        <v>185</v>
+        <f t="shared" ref="B44" si="7">B41</f>
+        <v>212</v>
       </c>
       <c r="C44">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (744, 185, 54, 7, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (855, 212, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="3"/>
-        <v>745</v>
+        <v>856</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45" si="9">B44</f>
-        <v>185</v>
+        <f t="shared" ref="B45" si="8">B41+1</f>
+        <v>213</v>
       </c>
       <c r="C45">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (745, 185, 54, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (856, 213, 51, 4, 2, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
-        <v>746</v>
+        <v>857</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="10">B44</f>
-        <v>185</v>
+        <f t="shared" ref="B46" si="9">B45</f>
+        <v>213</v>
       </c>
       <c r="C46">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (746, 185, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (857, 213, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
-        <v>747</v>
+        <v>858</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="11">B44</f>
-        <v>185</v>
+        <f t="shared" ref="B47" si="10">B45</f>
+        <v>213</v>
       </c>
       <c r="C47">
-        <v>591</v>
+        <v>57</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -18106,21 +21544,21 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (747, 185, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (858, 213, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
-        <v>748</v>
+        <v>859</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48" si="12">B44+1</f>
-        <v>186</v>
+        <f t="shared" ref="B48" si="11">B45</f>
+        <v>213</v>
       </c>
       <c r="C48">
         <v>57</v>
@@ -18129,76 +21567,76 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (748, 186, 57, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (859, 213, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
-        <v>749</v>
+        <v>860</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49" si="13">B48</f>
-        <v>186</v>
+        <f t="shared" ref="B49" si="12">B45+1</f>
+        <v>214</v>
       </c>
       <c r="C49">
-        <v>57</v>
+        <v>595</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (749, 186, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (860, 214, 595, 1, 2, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>750</v>
+        <v>861</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50" si="14">B48</f>
-        <v>186</v>
+        <f t="shared" ref="B50" si="13">B49</f>
+        <v>214</v>
       </c>
       <c r="C50">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (750, 186, 593, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (861, 214, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>751</v>
+        <v>862</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="15">B48</f>
-        <v>186</v>
+        <f t="shared" ref="B51" si="14">B49</f>
+        <v>214</v>
       </c>
       <c r="C51">
         <v>593</v>
@@ -18210,102 +21648,102 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (751, 186, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (862, 214, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>752</v>
+        <v>863</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="16">B48+1</f>
-        <v>187</v>
+        <f t="shared" ref="B52" si="15">B49</f>
+        <v>214</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (752, 187, 51, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (863, 214, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>753</v>
+        <v>864</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53" si="17">B52</f>
-        <v>187</v>
+        <f t="shared" ref="B53" si="16">B49+1</f>
+        <v>215</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (753, 187, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (864, 215, 55, 10, 2, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>754</v>
+        <v>865</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54" si="18">B52</f>
-        <v>187</v>
+        <f t="shared" ref="B54" si="17">B53</f>
+        <v>215</v>
       </c>
       <c r="C54">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (754, 187, 595, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (865, 215, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>755</v>
+        <v>866</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55" si="19">B52</f>
-        <v>187</v>
+        <f t="shared" ref="B55" si="18">B53</f>
+        <v>215</v>
       </c>
       <c r="C55">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -18314,180 +21752,180 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (755, 187, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (866, 215, 591, 1, 0, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>756</v>
+        <v>867</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56" si="20">B52+1</f>
-        <v>188</v>
+        <f t="shared" ref="B56" si="19">B53</f>
+        <v>215</v>
       </c>
       <c r="C56">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (756, 188, 598, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (867, 215, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>757</v>
+        <v>868</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57" si="21">B56</f>
-        <v>188</v>
+        <f t="shared" ref="B57" si="20">B53+1</f>
+        <v>216</v>
       </c>
       <c r="C57">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (757, 188, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (868, 216, 55, 2, 2, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>758</v>
+        <v>869</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58" si="22">B56</f>
-        <v>188</v>
+        <f t="shared" ref="B58" si="21">B57</f>
+        <v>216</v>
       </c>
       <c r="C58">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (758, 188, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (869, 216, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>759</v>
+        <v>870</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59" si="23">B56</f>
-        <v>188</v>
+        <f t="shared" ref="B59" si="22">B57</f>
+        <v>216</v>
       </c>
       <c r="C59">
         <v>56</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (759, 188, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (870, 216, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>760</v>
+        <v>871</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60" si="24">B56+1</f>
-        <v>189</v>
+        <f t="shared" ref="B60" si="23">B57</f>
+        <v>216</v>
       </c>
       <c r="C60">
         <v>56</v>
       </c>
       <c r="D60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (760, 189, 56, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (871, 216, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
-        <v>761</v>
+        <v>872</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61" si="25">B60</f>
-        <v>189</v>
+        <f t="shared" ref="B61" si="24">B57+1</f>
+        <v>217</v>
       </c>
       <c r="C61">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (761, 189, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (872, 217, 598, 3, 2, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
-        <v>762</v>
+        <v>873</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62" si="26">B60</f>
-        <v>189</v>
+        <f t="shared" ref="B62" si="25">B61</f>
+        <v>217</v>
       </c>
       <c r="C62">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -18496,232 +21934,232 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (762, 189, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (873, 217, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="3"/>
-        <v>763</v>
+        <v>874</v>
       </c>
       <c r="B63">
-        <f t="shared" ref="B63" si="27">B60</f>
-        <v>189</v>
+        <f t="shared" ref="B63" si="26">B61</f>
+        <v>217</v>
       </c>
       <c r="C63">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (763, 189, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (874, 217, 593, 2, 0, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
-        <v>764</v>
+        <v>875</v>
       </c>
       <c r="B64">
-        <f t="shared" ref="B64" si="28">B60+1</f>
-        <v>190</v>
+        <f t="shared" ref="B64" si="27">B61</f>
+        <v>217</v>
       </c>
       <c r="C64">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (764, 190, 598, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (875, 217, 593, 2, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="3"/>
-        <v>765</v>
+        <v>876</v>
       </c>
       <c r="B65">
-        <f t="shared" ref="B65" si="29">B64</f>
-        <v>190</v>
+        <f t="shared" ref="B65" si="28">B61+1</f>
+        <v>218</v>
       </c>
       <c r="C65">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (765, 190, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (876, 218, 595, 3, 2, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="3"/>
-        <v>766</v>
+        <v>877</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66" si="30">B64</f>
-        <v>190</v>
+        <f t="shared" ref="B66" si="29">B65</f>
+        <v>218</v>
       </c>
       <c r="C66">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (766, 190, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (877, 218, 595, 1, 0, 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="3"/>
-        <v>767</v>
+        <v>878</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67" si="31">B64</f>
-        <v>190</v>
+        <f t="shared" ref="B67" si="30">B65</f>
+        <v>218</v>
       </c>
       <c r="C67">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (767, 190, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (878, 218, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="3"/>
-        <v>768</v>
+        <v>879</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68" si="32">B64+1</f>
-        <v>191</v>
+        <f t="shared" ref="B68" si="31">B65</f>
+        <v>218</v>
       </c>
       <c r="C68">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (768, 191, 56, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (879, 218, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="3"/>
-        <v>769</v>
+        <v>880</v>
       </c>
       <c r="B69">
-        <f t="shared" ref="B69" si="33">B68</f>
-        <v>191</v>
+        <f t="shared" ref="B69" si="32">B65+1</f>
+        <v>219</v>
       </c>
       <c r="C69">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (769, 191, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (880, 219, 55, 5, 2, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="3"/>
-        <v>770</v>
+        <v>881</v>
       </c>
       <c r="B70">
-        <f t="shared" ref="B70" si="34">B68</f>
-        <v>191</v>
+        <f t="shared" ref="B70" si="33">B69</f>
+        <v>219</v>
       </c>
       <c r="C70">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (770, 191, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (881, 219, 55, 3, 0, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="3"/>
-        <v>771</v>
+        <v>882</v>
       </c>
       <c r="B71">
-        <f t="shared" ref="B71" si="35">B68</f>
-        <v>191</v>
+        <f t="shared" ref="B71" si="34">B69</f>
+        <v>219</v>
       </c>
       <c r="C71">
-        <v>593</v>
+        <v>57</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -18730,284 +22168,284 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (771, 191, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (882, 219, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="3"/>
-        <v>772</v>
+        <v>883</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B88" si="36">B68+1</f>
-        <v>192</v>
+        <f t="shared" ref="B72" si="35">B69</f>
+        <v>219</v>
       </c>
       <c r="C72">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (772, 192, 54, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (883, 219, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="3"/>
-        <v>773</v>
+        <v>884</v>
       </c>
       <c r="B73">
-        <f t="shared" ref="B73:B89" si="37">B72</f>
-        <v>192</v>
+        <f t="shared" ref="B73:B89" si="36">B69+1</f>
+        <v>220</v>
       </c>
       <c r="C73">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (773, 192, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (884, 220, 56, 1, 2, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="3"/>
-        <v>774</v>
+        <v>885</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B90" si="38">B72</f>
-        <v>192</v>
+        <f t="shared" ref="B74:B90" si="37">B73</f>
+        <v>220</v>
       </c>
       <c r="C74">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74">
         <v>0</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (774, 192, 51, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (885, 220, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="3"/>
-        <v>775</v>
+        <v>886</v>
       </c>
       <c r="B75">
-        <f t="shared" ref="B75:B91" si="39">B72</f>
-        <v>192</v>
+        <f t="shared" ref="B75:B91" si="38">B73</f>
+        <v>220</v>
       </c>
       <c r="C75">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (775, 192, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (886, 220, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="3"/>
-        <v>776</v>
+        <v>887</v>
       </c>
       <c r="B76">
-        <f t="shared" si="36"/>
-        <v>193</v>
+        <f t="shared" ref="B76:B92" si="39">B73</f>
+        <v>220</v>
       </c>
       <c r="C76">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (776, 193, 57, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (887, 220, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="3"/>
-        <v>777</v>
+        <v>888</v>
       </c>
       <c r="B77">
-        <f t="shared" si="37"/>
-        <v>193</v>
+        <f t="shared" si="36"/>
+        <v>221</v>
       </c>
       <c r="C77">
-        <v>57</v>
+        <v>591</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (777, 193, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (888, 221, 591, 3, 2, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
-        <v>778</v>
+        <v>889</v>
       </c>
       <c r="B78">
-        <f t="shared" si="38"/>
-        <v>193</v>
+        <f t="shared" si="37"/>
+        <v>221</v>
       </c>
       <c r="C78">
         <v>591</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (778, 193, 591, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (889, 221, 591, 3, 0, 1);</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="3"/>
-        <v>779</v>
+        <v>890</v>
       </c>
       <c r="B79">
-        <f t="shared" si="39"/>
-        <v>193</v>
+        <f t="shared" si="38"/>
+        <v>221</v>
       </c>
       <c r="C79">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (779, 193, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (890, 221, 598, 2, 0, 2);</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="3"/>
-        <v>780</v>
+        <v>891</v>
       </c>
       <c r="B80">
-        <f t="shared" si="36"/>
-        <v>194</v>
+        <f t="shared" si="39"/>
+        <v>221</v>
       </c>
       <c r="C80">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (780, 194, 595, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (891, 221, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="3"/>
-        <v>781</v>
+        <v>892</v>
       </c>
       <c r="B81">
-        <f t="shared" si="37"/>
-        <v>194</v>
+        <f t="shared" si="36"/>
+        <v>222</v>
       </c>
       <c r="C81">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (781, 194, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (892, 222, 51, 4, 2, 2);</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="3"/>
-        <v>782</v>
+        <v>893</v>
       </c>
       <c r="B82">
-        <f t="shared" si="38"/>
-        <v>194</v>
+        <f t="shared" si="37"/>
+        <v>222</v>
       </c>
       <c r="C82">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -19016,102 +22454,102 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (782, 194, 598, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (893, 222, 51, 2, 0, 1);</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="3"/>
-        <v>783</v>
+        <v>894</v>
       </c>
       <c r="B83">
-        <f t="shared" si="39"/>
-        <v>194</v>
+        <f t="shared" si="38"/>
+        <v>222</v>
       </c>
       <c r="C83">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E83">
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (783, 194, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (894, 222, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="3"/>
-        <v>784</v>
+        <v>895</v>
       </c>
       <c r="B84">
-        <f t="shared" si="36"/>
-        <v>195</v>
+        <f t="shared" si="39"/>
+        <v>222</v>
       </c>
       <c r="C84">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G84" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (784, 195, 598, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (895, 222, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="3"/>
-        <v>785</v>
+        <v>896</v>
       </c>
       <c r="B85">
-        <f t="shared" si="37"/>
-        <v>195</v>
+        <f t="shared" si="36"/>
+        <v>223</v>
       </c>
       <c r="C85">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (785, 195, 598, 5, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (896, 223, 56, 1, 1, 2);</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="3"/>
-        <v>786</v>
+        <v>897</v>
       </c>
       <c r="B86">
-        <f t="shared" si="38"/>
-        <v>195</v>
+        <f t="shared" si="37"/>
+        <v>223</v>
       </c>
       <c r="C86">
-        <v>593</v>
+        <v>56</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -19120,128 +22558,128 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (786, 195, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (897, 223, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="3"/>
-        <v>787</v>
+        <v>898</v>
       </c>
       <c r="B87">
-        <f t="shared" si="39"/>
-        <v>195</v>
+        <f t="shared" si="38"/>
+        <v>223</v>
       </c>
       <c r="C87">
-        <v>593</v>
+        <v>57</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (787, 195, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (898, 223, 57, 1, 1, 2);</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="3"/>
-        <v>788</v>
+        <v>899</v>
       </c>
       <c r="B88">
-        <f t="shared" si="36"/>
-        <v>196</v>
+        <f t="shared" si="39"/>
+        <v>223</v>
       </c>
       <c r="C88">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (788, 196, 54, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (899, 223, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="3"/>
-        <v>789</v>
+        <v>900</v>
       </c>
       <c r="B89">
-        <f t="shared" si="37"/>
-        <v>196</v>
+        <f t="shared" si="36"/>
+        <v>224</v>
       </c>
       <c r="C89">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G89" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (789, 196, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (900, 224, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="3"/>
-        <v>790</v>
+        <v>901</v>
       </c>
       <c r="B90">
-        <f t="shared" si="38"/>
-        <v>196</v>
+        <f t="shared" si="37"/>
+        <v>224</v>
       </c>
       <c r="C90">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G90" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (790, 196, 56, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (901, 224, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="3"/>
-        <v>791</v>
+        <v>902</v>
       </c>
       <c r="B91">
-        <f t="shared" si="39"/>
-        <v>196</v>
+        <f t="shared" si="38"/>
+        <v>224</v>
       </c>
       <c r="C91">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -19250,206 +22688,206 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (791, 196, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (902, 224, 595, 1, 0, 2);</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="3"/>
-        <v>792</v>
+        <v>903</v>
       </c>
       <c r="B92">
-        <f t="shared" ref="B92" si="40">B88+1</f>
-        <v>197</v>
+        <f t="shared" si="39"/>
+        <v>224</v>
       </c>
       <c r="C92">
         <v>595</v>
       </c>
       <c r="D92">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (792, 197, 595, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (903, 224, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="3"/>
-        <v>793</v>
+        <v>904</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93" si="41">B92</f>
-        <v>197</v>
+        <f t="shared" ref="B93" si="40">B89+1</f>
+        <v>225</v>
       </c>
       <c r="C93">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (793, 197, 595, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (904, 225, 55, 7, 2, 2);</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="3"/>
-        <v>794</v>
+        <v>905</v>
       </c>
       <c r="B94">
-        <f t="shared" ref="B94" si="42">B92</f>
-        <v>197</v>
+        <f t="shared" ref="B94" si="41">B93</f>
+        <v>225</v>
       </c>
       <c r="C94">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G94" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (794, 197, 591, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (905, 225, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="3"/>
-        <v>795</v>
+        <v>906</v>
       </c>
       <c r="B95">
-        <f t="shared" ref="B95" si="43">B92</f>
-        <v>197</v>
+        <f t="shared" ref="B95" si="42">B93</f>
+        <v>225</v>
       </c>
       <c r="C95">
-        <v>591</v>
+        <v>51</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (795, 197, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (906, 225, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="3"/>
-        <v>796</v>
+        <v>907</v>
       </c>
       <c r="B96">
-        <f t="shared" ref="B96" si="44">B92+1</f>
-        <v>198</v>
+        <f t="shared" ref="B96" si="43">B93</f>
+        <v>225</v>
       </c>
       <c r="C96">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G96" t="str">
-        <f t="shared" ref="G96:G143" si="45">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A96 &amp; ", " &amp; B96 &amp; ", " &amp; C96 &amp; ", " &amp; D96 &amp; ", " &amp; E96 &amp; ", " &amp; F96 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (796, 198, 54, 6, 2, 2);</v>
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (907, 225, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="3"/>
-        <v>797</v>
+        <v>908</v>
       </c>
       <c r="B97">
-        <f t="shared" ref="B97" si="46">B96</f>
-        <v>198</v>
+        <f t="shared" ref="B97" si="44">B93+1</f>
+        <v>226</v>
       </c>
       <c r="C97">
-        <v>54</v>
+        <v>591</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" t="str">
-        <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (797, 198, 54, 3, 0, 1);</v>
+        <f t="shared" ref="G97:G144" si="45">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A97 &amp; ", " &amp; B97 &amp; ", " &amp; C97 &amp; ", " &amp; D97 &amp; ", " &amp; E97 &amp; ", " &amp; F97 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (908, 226, 591, 2, 2, 2);</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f t="shared" ref="A98:A143" si="47">A97+1</f>
-        <v>798</v>
+        <f t="shared" si="3"/>
+        <v>909</v>
       </c>
       <c r="B98">
-        <f t="shared" ref="B98" si="48">B96</f>
-        <v>198</v>
+        <f t="shared" ref="B98" si="46">B97</f>
+        <v>226</v>
       </c>
       <c r="C98">
-        <v>57</v>
+        <v>591</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>0</v>
       </c>
       <c r="F98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (798, 198, 57, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (909, 226, 591, 2, 0, 1);</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" si="47"/>
-        <v>799</v>
+        <f t="shared" ref="A99:A148" si="47">A98+1</f>
+        <v>910</v>
       </c>
       <c r="B99">
-        <f t="shared" ref="B99" si="49">B96</f>
-        <v>198</v>
+        <f t="shared" ref="B99" si="48">B97</f>
+        <v>226</v>
       </c>
       <c r="C99">
-        <v>57</v>
+        <v>593</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -19458,206 +22896,206 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G99" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (799, 198, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (910, 226, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="47"/>
-        <v>800</v>
+        <v>911</v>
       </c>
       <c r="B100">
-        <f t="shared" ref="B100" si="50">B96+1</f>
-        <v>199</v>
+        <f t="shared" ref="B100" si="49">B97</f>
+        <v>226</v>
       </c>
       <c r="C100">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D100">
         <v>0</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (800, 199, 51, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (911, 226, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="47"/>
-        <v>801</v>
+        <v>912</v>
       </c>
       <c r="B101">
-        <f t="shared" ref="B101" si="51">B100</f>
-        <v>199</v>
+        <f t="shared" ref="B101" si="50">B97+1</f>
+        <v>227</v>
       </c>
       <c r="C101">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G101" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (801, 199, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (912, 227, 598, 2, 1, 2);</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="47"/>
-        <v>802</v>
+        <v>913</v>
       </c>
       <c r="B102">
-        <f t="shared" ref="B102" si="52">B100</f>
-        <v>199</v>
+        <f t="shared" ref="B102" si="51">B101</f>
+        <v>227</v>
       </c>
       <c r="C102">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D102">
         <v>0</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (802, 199, 593, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (913, 227, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="47"/>
-        <v>803</v>
+        <v>914</v>
       </c>
       <c r="B103">
-        <f t="shared" ref="B103" si="53">B100</f>
-        <v>199</v>
+        <f t="shared" ref="B103" si="52">B101</f>
+        <v>227</v>
       </c>
       <c r="C103">
-        <v>593</v>
+        <v>57</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G103" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (803, 199, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (914, 227, 57, 2, 1, 2);</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="47"/>
-        <v>804</v>
+        <v>915</v>
       </c>
       <c r="B104">
-        <f t="shared" ref="B104" si="54">B100+1</f>
-        <v>200</v>
+        <f t="shared" ref="B104" si="53">B101</f>
+        <v>227</v>
       </c>
       <c r="C104">
-        <v>595</v>
+        <v>57</v>
       </c>
       <c r="D104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (804, 200, 595, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (915, 227, 57, 1, 0, 1);</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="47"/>
-        <v>805</v>
+        <v>916</v>
       </c>
       <c r="B105">
-        <f t="shared" ref="B105" si="55">B104</f>
-        <v>200</v>
+        <f t="shared" ref="B105" si="54">B101+1</f>
+        <v>228</v>
       </c>
       <c r="C105">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G105" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (805, 200, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (916, 228, 51, 3, 2, 2);</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="47"/>
-        <v>806</v>
+        <v>917</v>
       </c>
       <c r="B106">
-        <f t="shared" ref="B106" si="56">B104</f>
-        <v>200</v>
+        <f t="shared" ref="B106" si="55">B105</f>
+        <v>228</v>
       </c>
       <c r="C106">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106">
         <v>0</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G106" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (806, 200, 57, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (917, 228, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="47"/>
-        <v>807</v>
+        <v>918</v>
       </c>
       <c r="B107">
-        <f t="shared" ref="B107" si="57">B104</f>
-        <v>200</v>
+        <f t="shared" ref="B107" si="56">B105</f>
+        <v>228</v>
       </c>
       <c r="C107">
-        <v>57</v>
+        <v>591</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -19666,206 +23104,206 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (807, 200, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (918, 228, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="47"/>
-        <v>808</v>
+        <v>919</v>
       </c>
       <c r="B108">
-        <f t="shared" ref="B108" si="58">B104+1</f>
-        <v>201</v>
+        <f t="shared" ref="B108" si="57">B105</f>
+        <v>228</v>
       </c>
       <c r="C108">
-        <v>51</v>
+        <v>591</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (808, 201, 51, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (919, 228, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="47"/>
-        <v>809</v>
+        <v>920</v>
       </c>
       <c r="B109">
-        <f t="shared" ref="B109" si="59">B108</f>
-        <v>201</v>
+        <f t="shared" ref="B109" si="58">B105+1</f>
+        <v>229</v>
       </c>
       <c r="C109">
-        <v>51</v>
+        <v>595</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (809, 201, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (920, 229, 595, 4, 2, 2);</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="47"/>
-        <v>810</v>
+        <v>921</v>
       </c>
       <c r="B110">
-        <f t="shared" ref="B110" si="60">B108</f>
-        <v>201</v>
+        <f t="shared" ref="B110" si="59">B109</f>
+        <v>229</v>
       </c>
       <c r="C110">
-        <v>57</v>
+        <v>595</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E110">
         <v>0</v>
       </c>
       <c r="F110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G110" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (810, 201, 57, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (921, 229, 595, 3, 0, 1);</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="47"/>
-        <v>811</v>
+        <v>922</v>
       </c>
       <c r="B111">
-        <f t="shared" ref="B111" si="61">B108</f>
-        <v>201</v>
+        <f t="shared" ref="B111" si="60">B109</f>
+        <v>229</v>
       </c>
       <c r="C111">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G111" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (811, 201, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (922, 229, 56, 2, 0, 2);</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="47"/>
-        <v>812</v>
+        <v>923</v>
       </c>
       <c r="B112">
-        <f t="shared" ref="B112" si="62">B108+1</f>
-        <v>202</v>
+        <f t="shared" ref="B112" si="61">B109</f>
+        <v>229</v>
       </c>
       <c r="C112">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D112">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G112" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (812, 202, 595, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (923, 229, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="47"/>
-        <v>813</v>
+        <v>924</v>
       </c>
       <c r="B113">
-        <f t="shared" ref="B113" si="63">B112</f>
-        <v>202</v>
+        <f t="shared" ref="B113" si="62">B109+1</f>
+        <v>230</v>
       </c>
       <c r="C113">
         <v>595</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G113" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (813, 202, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (924, 230, 595, 7, 2, 2);</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="47"/>
-        <v>814</v>
+        <v>925</v>
       </c>
       <c r="B114">
-        <f t="shared" ref="B114" si="64">B112</f>
-        <v>202</v>
+        <f t="shared" ref="B114" si="63">B113</f>
+        <v>230</v>
       </c>
       <c r="C114">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E114">
         <v>0</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (814, 202, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (925, 230, 595, 4, 0, 1);</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="47"/>
-        <v>815</v>
+        <v>926</v>
       </c>
       <c r="B115">
-        <f t="shared" ref="B115" si="65">B112</f>
-        <v>202</v>
+        <f t="shared" ref="B115" si="64">B113</f>
+        <v>230</v>
       </c>
       <c r="C115">
-        <v>56</v>
+        <v>591</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -19874,125 +23312,125 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G115" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (815, 202, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (926, 230, 591, 0, 0, 2);</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="47"/>
-        <v>816</v>
+        <v>927</v>
       </c>
       <c r="B116">
-        <f t="shared" ref="B116" si="66">B112+1</f>
-        <v>203</v>
+        <f t="shared" ref="B116" si="65">B113</f>
+        <v>230</v>
       </c>
       <c r="C116">
-        <v>54</v>
+        <v>591</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (816, 203, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (927, 230, 591, 0, 0, 1);</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="47"/>
-        <v>817</v>
+        <v>928</v>
       </c>
       <c r="B117">
-        <f t="shared" ref="B117" si="67">B116</f>
-        <v>203</v>
+        <f t="shared" ref="B117" si="66">B113+1</f>
+        <v>231</v>
       </c>
       <c r="C117">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (817, 203, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (928, 231, 55, 5, 2, 2);</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="47"/>
-        <v>818</v>
+        <v>929</v>
       </c>
       <c r="B118">
-        <f t="shared" ref="B118" si="68">B116</f>
-        <v>203</v>
+        <f t="shared" ref="B118" si="67">B117</f>
+        <v>231</v>
       </c>
       <c r="C118">
-        <v>593</v>
+        <v>55</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0</v>
       </c>
       <c r="F118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G118" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (818, 203, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (929, 231, 55, 2, 0, 1);</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="47"/>
-        <v>819</v>
+        <v>930</v>
       </c>
       <c r="B119">
-        <f t="shared" ref="B119" si="69">B116</f>
-        <v>203</v>
+        <f t="shared" ref="B119" si="68">B117</f>
+        <v>231</v>
       </c>
       <c r="C119">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="D119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E119">
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (819, 203, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (930, 231, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="47"/>
-        <v>820</v>
+        <v>931</v>
       </c>
       <c r="B120">
-        <f t="shared" ref="B120" si="70">B116+1</f>
-        <v>204</v>
+        <f t="shared" ref="B120" si="69">B117</f>
+        <v>231</v>
       </c>
       <c r="C120">
         <v>598</v>
@@ -20001,79 +23439,79 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G120" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (820, 204, 598, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (931, 231, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="47"/>
-        <v>821</v>
+        <v>932</v>
       </c>
       <c r="B121">
-        <f t="shared" ref="B121" si="71">B120</f>
-        <v>204</v>
+        <f t="shared" ref="B121" si="70">B117+1</f>
+        <v>232</v>
       </c>
       <c r="C121">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (821, 204, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (932, 232, 51, 3, 2, 2);</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="47"/>
-        <v>822</v>
+        <v>933</v>
       </c>
       <c r="B122">
-        <f t="shared" ref="B122" si="72">B120</f>
-        <v>204</v>
+        <f t="shared" ref="B122" si="71">B121</f>
+        <v>232</v>
       </c>
       <c r="C122">
         <v>51</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (822, 204, 51, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (933, 232, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="47"/>
-        <v>823</v>
+        <v>934</v>
       </c>
       <c r="B123">
-        <f t="shared" ref="B123" si="73">B120</f>
-        <v>204</v>
+        <f t="shared" ref="B123" si="72">B121</f>
+        <v>232</v>
       </c>
       <c r="C123">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -20082,24 +23520,24 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (823, 204, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (934, 232, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="47"/>
-        <v>824</v>
+        <v>935</v>
       </c>
       <c r="B124">
-        <f t="shared" ref="B124" si="74">B120+1</f>
-        <v>205</v>
+        <f t="shared" ref="B124" si="73">B121</f>
+        <v>232</v>
       </c>
       <c r="C124">
-        <v>591</v>
+        <v>56</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -20108,284 +23546,284 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (824, 205, 591, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (935, 232, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="47"/>
-        <v>825</v>
+        <v>936</v>
       </c>
       <c r="B125">
-        <f t="shared" ref="B125" si="75">B124</f>
-        <v>205</v>
+        <f t="shared" ref="B125" si="74">B121+1</f>
+        <v>233</v>
       </c>
       <c r="C125">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (825, 205, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (936, 233, 593, 4, 2, 2);</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="47"/>
-        <v>826</v>
+        <v>937</v>
       </c>
       <c r="B126">
-        <f t="shared" ref="B126" si="76">B124</f>
-        <v>205</v>
+        <f t="shared" ref="B126" si="75">B125</f>
+        <v>233</v>
       </c>
       <c r="C126">
-        <v>51</v>
+        <v>593</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
       <c r="E126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G126" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (826, 205, 51, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (937, 233, 593, 2, 0, 1);</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="47"/>
-        <v>827</v>
+        <v>938</v>
       </c>
       <c r="B127">
-        <f t="shared" ref="B127" si="77">B124</f>
-        <v>205</v>
+        <f t="shared" ref="B127" si="76">B125</f>
+        <v>233</v>
       </c>
       <c r="C127">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G127" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (827, 205, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (938, 233, 57, 1, 0, 2);</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="47"/>
-        <v>828</v>
+        <v>939</v>
       </c>
       <c r="B128">
-        <f t="shared" ref="B128" si="78">B124+1</f>
-        <v>206</v>
+        <f t="shared" ref="B128" si="77">B125</f>
+        <v>233</v>
       </c>
       <c r="C128">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D128">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G128" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (828, 206, 54, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (939, 233, 57, 1, 0, 1);</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="47"/>
-        <v>829</v>
+        <v>940</v>
       </c>
       <c r="B129">
-        <f t="shared" ref="B129" si="79">B128</f>
-        <v>206</v>
+        <f t="shared" ref="B129" si="78">B125+1</f>
+        <v>234</v>
       </c>
       <c r="C129">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G129" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (829, 206, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (940, 234, 51, 4, 2, 2);</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="47"/>
-        <v>830</v>
+        <v>941</v>
       </c>
       <c r="B130">
-        <f t="shared" ref="B130" si="80">B128</f>
-        <v>206</v>
+        <f t="shared" ref="B130" si="79">B129</f>
+        <v>234</v>
       </c>
       <c r="C130">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>0</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (830, 206, 598, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (941, 234, 51, 2, 0, 1);</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="47"/>
-        <v>831</v>
+        <v>942</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131" si="81">B128</f>
-        <v>206</v>
+        <f t="shared" ref="B131" si="80">B129</f>
+        <v>234</v>
       </c>
       <c r="C131">
         <v>598</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G131" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (831, 206, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (942, 234, 598, 3, 0, 2);</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="47"/>
-        <v>832</v>
+        <v>943</v>
       </c>
       <c r="B132">
-        <f t="shared" ref="B132" si="82">B128+1</f>
-        <v>207</v>
+        <f t="shared" ref="B132" si="81">B129</f>
+        <v>234</v>
       </c>
       <c r="C132">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="D132">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G132" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (832, 207, 595, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (943, 234, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="47"/>
-        <v>833</v>
+        <v>944</v>
       </c>
       <c r="B133">
-        <f t="shared" ref="B133" si="83">B132</f>
-        <v>207</v>
+        <f t="shared" ref="B133" si="82">B129+1</f>
+        <v>235</v>
       </c>
       <c r="C133">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G133" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (833, 207, 595, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (944, 235, 591, 4, 2, 2);</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="47"/>
-        <v>834</v>
+        <v>945</v>
       </c>
       <c r="B134">
-        <f t="shared" ref="B134" si="84">B132</f>
-        <v>207</v>
+        <f t="shared" ref="B134" si="83">B133</f>
+        <v>235</v>
       </c>
       <c r="C134">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
       </c>
       <c r="F134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G134" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (834, 207, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (945, 235, 591, 1, 0, 1);</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="47"/>
-        <v>835</v>
+        <v>946</v>
       </c>
       <c r="B135">
-        <f t="shared" ref="B135" si="85">B132</f>
-        <v>207</v>
+        <f t="shared" ref="B135" si="84">B133</f>
+        <v>235</v>
       </c>
       <c r="C135">
-        <v>593</v>
+        <v>57</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -20394,219 +23832,349 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (835, 207, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (946, 235, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="47"/>
-        <v>836</v>
+        <v>947</v>
       </c>
       <c r="B136">
-        <f t="shared" ref="B136" si="86">B132+1</f>
-        <v>208</v>
+        <f t="shared" ref="B136" si="85">B133</f>
+        <v>235</v>
       </c>
       <c r="C136">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G136" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (836, 208, 56, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (947, 235, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="47"/>
-        <v>837</v>
+        <v>948</v>
       </c>
       <c r="B137">
-        <f t="shared" ref="B137" si="87">B136</f>
-        <v>208</v>
+        <f t="shared" ref="B137" si="86">B133+1</f>
+        <v>236</v>
       </c>
       <c r="C137">
         <v>56</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G137" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (837, 208, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (948, 236, 56, 3, 2, 2);</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="47"/>
-        <v>838</v>
+        <v>949</v>
       </c>
       <c r="B138">
-        <f t="shared" ref="B138" si="88">B136</f>
-        <v>208</v>
+        <f t="shared" ref="B138" si="87">B137</f>
+        <v>236</v>
       </c>
       <c r="C138">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>0</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (838, 208, 57, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (949, 236, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="47"/>
-        <v>839</v>
+        <v>950</v>
       </c>
       <c r="B139">
-        <f t="shared" ref="B139" si="89">B136</f>
-        <v>208</v>
+        <f t="shared" ref="B139" si="88">B137</f>
+        <v>236</v>
       </c>
       <c r="C139">
-        <v>57</v>
+        <v>598</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E139">
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G139" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (839, 208, 57, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (950, 236, 598, 1, 0, 2);</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="47"/>
-        <v>840</v>
+        <v>951</v>
       </c>
       <c r="B140">
-        <f t="shared" ref="B140" si="90">B136+1</f>
-        <v>209</v>
+        <f t="shared" ref="B140" si="89">B137</f>
+        <v>236</v>
       </c>
       <c r="C140">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G140" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (840, 209, 56, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (951, 236, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="47"/>
-        <v>841</v>
+        <v>952</v>
       </c>
       <c r="B141">
-        <f t="shared" ref="B141" si="91">B140</f>
-        <v>209</v>
+        <f t="shared" ref="B141" si="90">B137+1</f>
+        <v>237</v>
       </c>
       <c r="C141">
-        <v>56</v>
+        <v>595</v>
       </c>
       <c r="D141">
         <v>2</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (841, 209, 56, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (952, 237, 595, 2, 2, 2);</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="47"/>
-        <v>842</v>
+        <v>953</v>
       </c>
       <c r="B142">
-        <f t="shared" ref="B142" si="92">B140</f>
-        <v>209</v>
+        <f t="shared" ref="B142" si="91">B141</f>
+        <v>237</v>
       </c>
       <c r="C142">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="D142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G142" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (842, 209, 591, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (953, 237, 595, 2, 0, 1);</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="47"/>
-        <v>843</v>
+        <v>954</v>
       </c>
       <c r="B143">
-        <f t="shared" ref="B143" si="93">B140</f>
-        <v>209</v>
+        <f t="shared" ref="B143" si="92">B141</f>
+        <v>237</v>
       </c>
       <c r="C143">
-        <v>591</v>
+        <v>55</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E143">
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G143" t="str">
         <f t="shared" si="45"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (843, 209, 591, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (954, 237, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f t="shared" si="47"/>
+        <v>955</v>
+      </c>
+      <c r="B144">
+        <f t="shared" ref="B144" si="93">B141</f>
+        <v>237</v>
+      </c>
+      <c r="C144">
+        <v>55</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (955, 237, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f t="shared" si="47"/>
+        <v>956</v>
+      </c>
+      <c r="B145">
+        <f t="shared" ref="B145" si="94">B141+1</f>
+        <v>238</v>
+      </c>
+      <c r="C145">
+        <v>55</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="str">
+        <f t="shared" ref="G145:G148" si="95">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A145 &amp; ", " &amp; B145 &amp; ", " &amp; C145 &amp; ", " &amp; D145 &amp; ", " &amp; E145 &amp; ", " &amp; F145 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (956, 238, 55, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f t="shared" si="47"/>
+        <v>957</v>
+      </c>
+      <c r="B146">
+        <f t="shared" ref="B146" si="96">B145</f>
+        <v>238</v>
+      </c>
+      <c r="C146">
+        <v>55</v>
+      </c>
+      <c r="D146">
+        <v>3</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" t="str">
+        <f t="shared" si="95"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (957, 238, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f t="shared" si="47"/>
+        <v>958</v>
+      </c>
+      <c r="B147">
+        <f t="shared" ref="B147" si="97">B145</f>
+        <v>238</v>
+      </c>
+      <c r="C147">
+        <v>595</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147" t="str">
+        <f t="shared" si="95"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (958, 238, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f t="shared" si="47"/>
+        <v>959</v>
+      </c>
+      <c r="B148">
+        <f t="shared" ref="B148" si="98">B145</f>
+        <v>238</v>
+      </c>
+      <c r="C148">
+        <v>595</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="str">
+        <f t="shared" si="95"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (959, 238, 595, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="1946" sheetId="20" r:id="rId19"/>
     <sheet name="1947" sheetId="21" r:id="rId20"/>
     <sheet name="1949" sheetId="22" r:id="rId21"/>
+    <sheet name="1953" sheetId="23" r:id="rId22"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -20619,7 +20620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24175,6 +24176,2728 @@
       <c r="G148" t="str">
         <f t="shared" si="95"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (959, 238, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G23" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>239</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1953-02-22"</f>
+        <v>1953-02-22</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (239, '1953-02-22', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>240</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1953-02-25"</f>
+        <v>1953-02-25</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (240, '1953-02-25', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A23" si="1">A3+1</f>
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1953-02-25"</f>
+        <v>1953-02-25</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (241, '1953-02-25', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>242</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1953-02-28"</f>
+        <v>1953-02-28</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (242, '1953-02-28', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>243</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1953-03-01"</f>
+        <v>1953-03-01</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (243, '1953-03-01', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>244</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1953-03-01"</f>
+        <v>1953-03-01</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (244, '1953-03-01', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>245</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1953-03-04"</f>
+        <v>1953-03-04</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (245, '1953-03-04', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>246</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1953-03-04"</f>
+        <v>1953-03-04</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (246, '1953-03-04', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>247</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1953-03-08"</f>
+        <v>1953-03-08</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (247, '1953-03-08', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>248</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1953-03-08"</f>
+        <v>1953-03-08</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (248, '1953-03-08', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>249</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1953-03-12"</f>
+        <v>1953-03-12</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (249, '1953-03-12', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1953-03-12"</f>
+        <v>1953-03-12</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (250, '1953-03-12', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>251</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1953-03-15"</f>
+        <v>1953-03-15</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (251, '1953-03-15', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>252</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1953-03-16"</f>
+        <v>1953-03-16</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (252, '1953-03-16', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>253</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1953-03-19"</f>
+        <v>1953-03-19</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (253, '1953-03-19', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1953-03-19"</f>
+        <v>1953-03-19</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (254, '1953-03-19', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1953-03-23"</f>
+        <v>1953-03-23</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (255, '1953-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1953-03-23"</f>
+        <v>1953-03-23</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (256, '1953-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1953-03-27"</f>
+        <v>1953-03-27</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (257, '1953-03-27', 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1953-03-28"</f>
+        <v>1953-03-28</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (258, '1953-03-28', 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>259</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1953-03-28"</f>
+        <v>1953-03-28</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (259, '1953-03-28', 2);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="1"/>
+        <v>260</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>"1953-04-01"</f>
+        <v>1953-04-01</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (260, '1953-04-01', 7);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>959</v>
+      </c>
+      <c r="B26">
+        <v>239</v>
+      </c>
+      <c r="C26">
+        <v>591</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" ref="G26:G89" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A26 &amp; ", " &amp; B26 &amp; ", " &amp; C26 &amp; ", " &amp; D26 &amp; ", " &amp; E26 &amp; ", " &amp; F26 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (959, 239, 591, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>A26+1</f>
+        <v>960</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>239</v>
+      </c>
+      <c r="C27">
+        <v>591</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (960, 239, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ref="A28:A91" si="3">A27+1</f>
+        <v>961</v>
+      </c>
+      <c r="B28">
+        <f>B26</f>
+        <v>239</v>
+      </c>
+      <c r="C28">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (961, 239, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>962</v>
+      </c>
+      <c r="B29">
+        <f>B26</f>
+        <v>239</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (962, 239, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>963</v>
+      </c>
+      <c r="B30">
+        <f>B26+1</f>
+        <v>240</v>
+      </c>
+      <c r="C30">
+        <v>595</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (963, 240, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>964</v>
+      </c>
+      <c r="B31">
+        <f>B30</f>
+        <v>240</v>
+      </c>
+      <c r="C31">
+        <v>595</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (964, 240, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>965</v>
+      </c>
+      <c r="B32">
+        <f>B30</f>
+        <v>240</v>
+      </c>
+      <c r="C32">
+        <v>56</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (965, 240, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>966</v>
+      </c>
+      <c r="B33">
+        <f>B30</f>
+        <v>240</v>
+      </c>
+      <c r="C33">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (966, 240, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>967</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="4">B30+1</f>
+        <v>241</v>
+      </c>
+      <c r="C34">
+        <v>598</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (967, 241, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>968</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="5">B34</f>
+        <v>241</v>
+      </c>
+      <c r="C35">
+        <v>598</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (968, 241, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>969</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="6">B34</f>
+        <v>241</v>
+      </c>
+      <c r="C36">
+        <v>591</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (969, 241, 591, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>970</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="7">B34</f>
+        <v>241</v>
+      </c>
+      <c r="C37">
+        <v>591</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (970, 241, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>971</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="8">B34+1</f>
+        <v>242</v>
+      </c>
+      <c r="C38">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (971, 242, 51, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>972</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="9">B38</f>
+        <v>242</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (972, 242, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>973</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="10">B38</f>
+        <v>242</v>
+      </c>
+      <c r="C40">
+        <v>593</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (973, 242, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>974</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="11">B38</f>
+        <v>242</v>
+      </c>
+      <c r="C41">
+        <v>593</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (974, 242, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>975</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="12">B38+1</f>
+        <v>243</v>
+      </c>
+      <c r="C42">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (975, 243, 55, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>976</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="13">B42</f>
+        <v>243</v>
+      </c>
+      <c r="C43">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (976, 243, 55, 6, 0, 1);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>977</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="14">B42</f>
+        <v>243</v>
+      </c>
+      <c r="C44">
+        <v>591</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (977, 243, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>978</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="15">B42</f>
+        <v>243</v>
+      </c>
+      <c r="C45">
+        <v>591</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (978, 243, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>979</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="16">B42+1</f>
+        <v>244</v>
+      </c>
+      <c r="C46">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (979, 244, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>980</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="17">B46</f>
+        <v>244</v>
+      </c>
+      <c r="C47">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (980, 244, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>981</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="18">B46</f>
+        <v>244</v>
+      </c>
+      <c r="C48">
+        <v>598</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (981, 244, 598, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>982</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="19">B46</f>
+        <v>244</v>
+      </c>
+      <c r="C49">
+        <v>598</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (982, 244, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>983</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="20">B46+1</f>
+        <v>245</v>
+      </c>
+      <c r="C50">
+        <v>595</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (983, 245, 595, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>984</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="21">B50</f>
+        <v>245</v>
+      </c>
+      <c r="C51">
+        <v>595</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (984, 245, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>985</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="22">B50</f>
+        <v>245</v>
+      </c>
+      <c r="C52">
+        <v>593</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (985, 245, 593, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>986</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="23">B50</f>
+        <v>245</v>
+      </c>
+      <c r="C53">
+        <v>593</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (986, 245, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>987</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="24">B50+1</f>
+        <v>246</v>
+      </c>
+      <c r="C54">
+        <v>56</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (987, 246, 56, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>988</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="25">B54</f>
+        <v>246</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (988, 246, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>989</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="26">B54</f>
+        <v>246</v>
+      </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (989, 246, 51, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>990</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="27">B54</f>
+        <v>246</v>
+      </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (990, 246, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>991</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="28">B54+1</f>
+        <v>247</v>
+      </c>
+      <c r="C58">
+        <v>591</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (991, 247, 591, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>992</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="29">B58</f>
+        <v>247</v>
+      </c>
+      <c r="C59">
+        <v>591</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (992, 247, 591, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>993</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="30">B58</f>
+        <v>247</v>
+      </c>
+      <c r="C60">
+        <v>593</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (993, 247, 593, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>994</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="31">B58</f>
+        <v>247</v>
+      </c>
+      <c r="C61">
+        <v>593</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (994, 247, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>995</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="32">B58+1</f>
+        <v>248</v>
+      </c>
+      <c r="C62">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (995, 248, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>996</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="33">B62</f>
+        <v>248</v>
+      </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (996, 248, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>997</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="34">B62</f>
+        <v>248</v>
+      </c>
+      <c r="C64">
+        <v>595</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (997, 248, 595, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>998</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65" si="35">B62</f>
+        <v>248</v>
+      </c>
+      <c r="C65">
+        <v>595</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (998, 248, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>999</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B82" si="36">B62+1</f>
+        <v>249</v>
+      </c>
+      <c r="C66">
+        <v>595</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (999, 249, 595, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B83" si="37">B66</f>
+        <v>249</v>
+      </c>
+      <c r="C67">
+        <v>595</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1000, 249, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>1001</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B84" si="38">B66</f>
+        <v>249</v>
+      </c>
+      <c r="C68">
+        <v>598</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1001, 249, 598, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>1002</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B85" si="39">B66</f>
+        <v>249</v>
+      </c>
+      <c r="C69">
+        <v>598</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1002, 249, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>1003</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="36"/>
+        <v>250</v>
+      </c>
+      <c r="C70">
+        <v>55</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1003, 250, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>1004</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="37"/>
+        <v>250</v>
+      </c>
+      <c r="C71">
+        <v>55</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1004, 250, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>1005</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="38"/>
+        <v>250</v>
+      </c>
+      <c r="C72">
+        <v>593</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1005, 250, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>1006</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="39"/>
+        <v>250</v>
+      </c>
+      <c r="C73">
+        <v>593</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1006, 250, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>1007</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="36"/>
+        <v>251</v>
+      </c>
+      <c r="C74">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1007, 251, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1008</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="37"/>
+        <v>251</v>
+      </c>
+      <c r="C75">
+        <v>55</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1008, 251, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="38"/>
+        <v>251</v>
+      </c>
+      <c r="C76">
+        <v>598</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1009, 251, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>1010</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="39"/>
+        <v>251</v>
+      </c>
+      <c r="C77">
+        <v>598</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1010, 251, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>1011</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="36"/>
+        <v>252</v>
+      </c>
+      <c r="C78">
+        <v>595</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1011, 252, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>1012</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="37"/>
+        <v>252</v>
+      </c>
+      <c r="C79">
+        <v>595</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1012, 252, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>1013</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="38"/>
+        <v>252</v>
+      </c>
+      <c r="C80">
+        <v>591</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1013, 252, 591, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>1014</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="39"/>
+        <v>252</v>
+      </c>
+      <c r="C81">
+        <v>591</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1014, 252, 591, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>1015</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="36"/>
+        <v>253</v>
+      </c>
+      <c r="C82">
+        <v>56</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1015, 253, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>1016</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="37"/>
+        <v>253</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1016, 253, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>1017</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="38"/>
+        <v>253</v>
+      </c>
+      <c r="C84">
+        <v>593</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1017, 253, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>1018</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="39"/>
+        <v>253</v>
+      </c>
+      <c r="C85">
+        <v>593</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1018, 253, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>1019</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86" si="40">B82+1</f>
+        <v>254</v>
+      </c>
+      <c r="C86">
+        <v>51</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1019, 254, 51, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>1020</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87" si="41">B86</f>
+        <v>254</v>
+      </c>
+      <c r="C87">
+        <v>51</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1020, 254, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>1021</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ref="B88" si="42">B86</f>
+        <v>254</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1021, 254, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>1022</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ref="B89" si="43">B86</f>
+        <v>254</v>
+      </c>
+      <c r="C89">
+        <v>55</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1022, 254, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>1023</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90" si="44">B86+1</f>
+        <v>255</v>
+      </c>
+      <c r="C90">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" ref="G90:G113" si="45">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1023, 255, 55, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91" si="46">B90</f>
+        <v>255</v>
+      </c>
+      <c r="C91">
+        <v>55</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1024, 255, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" ref="A92:A113" si="47">A91+1</f>
+        <v>1025</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="48">B90</f>
+        <v>255</v>
+      </c>
+      <c r="C92">
+        <v>56</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1025, 255, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="47"/>
+        <v>1026</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="49">B90</f>
+        <v>255</v>
+      </c>
+      <c r="C93">
+        <v>56</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1026, 255, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="47"/>
+        <v>1027</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94" si="50">B90+1</f>
+        <v>256</v>
+      </c>
+      <c r="C94">
+        <v>598</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1027, 256, 598, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="47"/>
+        <v>1028</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="51">B94</f>
+        <v>256</v>
+      </c>
+      <c r="C95">
+        <v>598</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1028, 256, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="47"/>
+        <v>1029</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96" si="52">B94</f>
+        <v>256</v>
+      </c>
+      <c r="C96">
+        <v>593</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1029, 256, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="47"/>
+        <v>1030</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97" si="53">B94</f>
+        <v>256</v>
+      </c>
+      <c r="C97">
+        <v>593</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1030, 256, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="47"/>
+        <v>1031</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98" si="54">B94+1</f>
+        <v>257</v>
+      </c>
+      <c r="C98">
+        <v>595</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1031, 257, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="47"/>
+        <v>1032</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="55">B98</f>
+        <v>257</v>
+      </c>
+      <c r="C99">
+        <v>595</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1032, 257, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="47"/>
+        <v>1033</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100" si="56">B98</f>
+        <v>257</v>
+      </c>
+      <c r="C100">
+        <v>55</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1033, 257, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="47"/>
+        <v>1034</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101" si="57">B98</f>
+        <v>257</v>
+      </c>
+      <c r="C101">
+        <v>55</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1034, 257, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="47"/>
+        <v>1035</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102" si="58">B98+1</f>
+        <v>258</v>
+      </c>
+      <c r="C102">
+        <v>56</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1035, 258, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="47"/>
+        <v>1036</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103" si="59">B102</f>
+        <v>258</v>
+      </c>
+      <c r="C103">
+        <v>56</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1036, 258, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="47"/>
+        <v>1037</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104" si="60">B102</f>
+        <v>258</v>
+      </c>
+      <c r="C104">
+        <v>591</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1037, 258, 591, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="47"/>
+        <v>1038</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105" si="61">B102</f>
+        <v>258</v>
+      </c>
+      <c r="C105">
+        <v>591</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1038, 258, 591, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="47"/>
+        <v>1039</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106" si="62">B102+1</f>
+        <v>259</v>
+      </c>
+      <c r="C106">
+        <v>598</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1039, 259, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="47"/>
+        <v>1040</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107" si="63">B106</f>
+        <v>259</v>
+      </c>
+      <c r="C107">
+        <v>598</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1040, 259, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="47"/>
+        <v>1041</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108" si="64">B106</f>
+        <v>259</v>
+      </c>
+      <c r="C108">
+        <v>51</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1041, 259, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <f t="shared" si="47"/>
+        <v>1042</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ref="B109" si="65">B106</f>
+        <v>259</v>
+      </c>
+      <c r="C109">
+        <v>51</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1042, 259, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <f t="shared" si="47"/>
+        <v>1043</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ref="B110" si="66">B106+1</f>
+        <v>260</v>
+      </c>
+      <c r="C110">
+        <v>595</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1043, 260, 595, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <f t="shared" si="47"/>
+        <v>1044</v>
+      </c>
+      <c r="B111">
+        <f t="shared" ref="B111" si="67">B110</f>
+        <v>260</v>
+      </c>
+      <c r="C111">
+        <v>595</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1044, 260, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <f t="shared" si="47"/>
+        <v>1045</v>
+      </c>
+      <c r="B112">
+        <f t="shared" ref="B112" si="68">B110</f>
+        <v>260</v>
+      </c>
+      <c r="C112">
+        <v>55</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1045, 260, 55, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <f t="shared" si="47"/>
+        <v>1046</v>
+      </c>
+      <c r="B113">
+        <f t="shared" ref="B113" si="69">B110</f>
+        <v>260</v>
+      </c>
+      <c r="C113">
+        <v>55</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" t="str">
+        <f t="shared" si="45"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1046, 260, 55, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="1947" sheetId="21" r:id="rId20"/>
     <sheet name="1949" sheetId="22" r:id="rId21"/>
     <sheet name="1953" sheetId="23" r:id="rId22"/>
+    <sheet name="1955" sheetId="24" r:id="rId23"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -24187,9 +24188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26898,6 +26897,1882 @@
       <c r="G113" t="str">
         <f t="shared" si="45"/>
         <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1046, 260, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G16" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1955-02-27"</f>
+        <v>1955-02-27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (261, '1955-02-27', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>262</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1955-03-02"</f>
+        <v>1955-03-02</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (262, '1955-03-02', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="1">A3+1</f>
+        <v>263</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1955-03-06"</f>
+        <v>1955-03-06</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (263, '1955-03-06', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1955-03-09"</f>
+        <v>1955-03-09</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (264, '1955-03-09', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1955-03-09"</f>
+        <v>1955-03-09</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (265, '1955-03-09', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1955-03-13"</f>
+        <v>1955-03-13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (266, '1955-03-13', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1955-03-13"</f>
+        <v>1955-03-13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (267, '1955-03-13', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1955-03-18"</f>
+        <v>1955-03-18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (268, '1955-03-18', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1955-03-18"</f>
+        <v>1955-03-18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (269, '1955-03-18', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1955-03-20"</f>
+        <v>1955-03-20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (270, '1955-03-20', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1955-03-23"</f>
+        <v>1955-03-23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (271, '1955-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1955-03-23"</f>
+        <v>1955-03-23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (272, '1955-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1955-03-27"</f>
+        <v>1955-03-27</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (273, '1955-03-27', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1955-03-30"</f>
+        <v>1955-03-30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (274, '1955-03-30', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1955-03-30"</f>
+        <v>1955-03-30</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (275, '1955-03-30', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1047</v>
+      </c>
+      <c r="B19">
+        <v>261</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1047, 261, 56, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>1048</v>
+      </c>
+      <c r="B20">
+        <f>B19</f>
+        <v>261</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1048, 261, 56, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A78" si="3">A20+1</f>
+        <v>1049</v>
+      </c>
+      <c r="B21">
+        <f>B19</f>
+        <v>261</v>
+      </c>
+      <c r="C21">
+        <v>593</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1049, 261, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="B22">
+        <f>B19</f>
+        <v>261</v>
+      </c>
+      <c r="C22">
+        <v>593</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1050, 261, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>1051</v>
+      </c>
+      <c r="B23">
+        <f>B19+1</f>
+        <v>262</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1051, 262, 54, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>1052</v>
+      </c>
+      <c r="B24">
+        <f>B23</f>
+        <v>262</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1052, 262, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>1053</v>
+      </c>
+      <c r="B25">
+        <f>B23</f>
+        <v>262</v>
+      </c>
+      <c r="C25">
+        <v>595</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1053, 262, 595, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>1054</v>
+      </c>
+      <c r="B26">
+        <f>B23</f>
+        <v>262</v>
+      </c>
+      <c r="C26">
+        <v>595</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1054, 262, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>1055</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="4">B23+1</f>
+        <v>263</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1055, 263, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>1056</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="5">B27</f>
+        <v>263</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1056, 263, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="6">B27</f>
+        <v>263</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1057, 263, 51, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>1058</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="7">B27</f>
+        <v>263</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1058, 263, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>1059</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="8">B27+1</f>
+        <v>264</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1059, 264, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="9">B31</f>
+        <v>264</v>
+      </c>
+      <c r="C32">
+        <v>598</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1060, 264, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>1061</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="10">B31</f>
+        <v>264</v>
+      </c>
+      <c r="C33">
+        <v>595</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1061, 264, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="11">B31</f>
+        <v>264</v>
+      </c>
+      <c r="C34">
+        <v>595</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1062, 264, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>1063</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="12">B31+1</f>
+        <v>265</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1063, 265, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>1064</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="13">B35</f>
+        <v>265</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1064, 265, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>1065</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="14">B35</f>
+        <v>265</v>
+      </c>
+      <c r="C37">
+        <v>593</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1065, 265, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>1066</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="15">B35</f>
+        <v>265</v>
+      </c>
+      <c r="C38">
+        <v>593</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1066, 265, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>1067</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="16">B35+1</f>
+        <v>266</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1067, 266, 51, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>1068</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="17">B39</f>
+        <v>266</v>
+      </c>
+      <c r="C40">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1068, 266, 51, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>1069</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="18">B39</f>
+        <v>266</v>
+      </c>
+      <c r="C41">
+        <v>593</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1069, 266, 593, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>1070</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="19">B39</f>
+        <v>266</v>
+      </c>
+      <c r="C42">
+        <v>593</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1070, 266, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>1071</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="20">B39+1</f>
+        <v>267</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1071, 267, 56, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>1072</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="21">B43</f>
+        <v>267</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1072, 267, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>1073</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="22">B43</f>
+        <v>267</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1073, 267, 598, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>1074</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="23">B43</f>
+        <v>267</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1074, 267, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>1075</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="24">B43+1</f>
+        <v>268</v>
+      </c>
+      <c r="C47">
+        <v>595</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 268, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>1076</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="25">B47</f>
+        <v>268</v>
+      </c>
+      <c r="C48">
+        <v>595</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 268, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>1077</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="26">B47</f>
+        <v>268</v>
+      </c>
+      <c r="C49">
+        <v>593</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 268, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>1078</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="27">B47</f>
+        <v>268</v>
+      </c>
+      <c r="C50">
+        <v>593</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 268, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>1079</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="28">B47+1</f>
+        <v>269</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 269, 54, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="29">B51</f>
+        <v>269</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 269, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>1081</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="30">B51</f>
+        <v>269</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 269, 51, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>1082</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="31">B51</f>
+        <v>269</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 269, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>1083</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="32">B51+1</f>
+        <v>270</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 270, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>1084</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="33">B55</f>
+        <v>270</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 270, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>1085</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="34">B55</f>
+        <v>270</v>
+      </c>
+      <c r="C57">
+        <v>595</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 270, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>1086</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="35">B55</f>
+        <v>270</v>
+      </c>
+      <c r="C58">
+        <v>595</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 270, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>1087</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:B75" si="36">B55+1</f>
+        <v>271</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 271, 51, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>1088</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:B76" si="37">B59</f>
+        <v>271</v>
+      </c>
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 271, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>1089</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B77" si="38">B59</f>
+        <v>271</v>
+      </c>
+      <c r="C61">
+        <v>595</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 271, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>1090</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62:B78" si="39">B59</f>
+        <v>271</v>
+      </c>
+      <c r="C62">
+        <v>595</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 271, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>1091</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="36"/>
+        <v>272</v>
+      </c>
+      <c r="C63">
+        <v>598</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 272, 598, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>1092</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="37"/>
+        <v>272</v>
+      </c>
+      <c r="C64">
+        <v>598</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 272, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>1093</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="38"/>
+        <v>272</v>
+      </c>
+      <c r="C65">
+        <v>593</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 272, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>1094</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="39"/>
+        <v>272</v>
+      </c>
+      <c r="C66">
+        <v>593</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 272, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="36"/>
+        <v>273</v>
+      </c>
+      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 273, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>1096</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="37"/>
+        <v>273</v>
+      </c>
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 273, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>1097</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="38"/>
+        <v>273</v>
+      </c>
+      <c r="C69">
+        <v>598</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 273, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="39"/>
+        <v>273</v>
+      </c>
+      <c r="C70">
+        <v>598</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 273, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>1099</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="36"/>
+        <v>274</v>
+      </c>
+      <c r="C71">
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 274, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="37"/>
+        <v>274</v>
+      </c>
+      <c r="C72">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 274, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>1101</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="38"/>
+        <v>274</v>
+      </c>
+      <c r="C73">
+        <v>598</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 274, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>1102</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="39"/>
+        <v>274</v>
+      </c>
+      <c r="C74">
+        <v>598</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 274, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1103</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="36"/>
+        <v>275</v>
+      </c>
+      <c r="C75">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 275, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>1104</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="37"/>
+        <v>275</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 275, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>1105</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="38"/>
+        <v>275</v>
+      </c>
+      <c r="C77">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 275, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>1106</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="39"/>
+        <v>275</v>
+      </c>
+      <c r="C78">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 275, 56, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="9" activeTab="22"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -30,13 +30,14 @@
     <sheet name="1949" sheetId="22" r:id="rId21"/>
     <sheet name="1953" sheetId="23" r:id="rId22"/>
     <sheet name="1955" sheetId="24" r:id="rId23"/>
+    <sheet name="1956" sheetId="25" r:id="rId24"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -26908,6 +26909,1882 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G16" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>261</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1955-02-27"</f>
+        <v>1955-02-27</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (261, '1955-02-27', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>262</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1955-03-02"</f>
+        <v>1955-03-02</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (262, '1955-03-02', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="1">A3+1</f>
+        <v>263</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1955-03-06"</f>
+        <v>1955-03-06</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (263, '1955-03-06', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>264</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1955-03-09"</f>
+        <v>1955-03-09</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (264, '1955-03-09', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1955-03-09"</f>
+        <v>1955-03-09</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (265, '1955-03-09', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>266</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1955-03-13"</f>
+        <v>1955-03-13</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (266, '1955-03-13', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>267</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1955-03-13"</f>
+        <v>1955-03-13</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (267, '1955-03-13', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1955-03-18"</f>
+        <v>1955-03-18</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (268, '1955-03-18', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1955-03-18"</f>
+        <v>1955-03-18</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (269, '1955-03-18', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>270</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1955-03-20"</f>
+        <v>1955-03-20</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (270, '1955-03-20', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>271</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1955-03-23"</f>
+        <v>1955-03-23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (271, '1955-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1955-03-23"</f>
+        <v>1955-03-23</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (272, '1955-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>273</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1955-03-27"</f>
+        <v>1955-03-27</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (273, '1955-03-27', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>274</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1955-03-30"</f>
+        <v>1955-03-30</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (274, '1955-03-30', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>275</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1955-03-30"</f>
+        <v>1955-03-30</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (275, '1955-03-30', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1047</v>
+      </c>
+      <c r="B19">
+        <v>261</v>
+      </c>
+      <c r="C19">
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1047, 261, 56, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>1048</v>
+      </c>
+      <c r="B20">
+        <f>B19</f>
+        <v>261</v>
+      </c>
+      <c r="C20">
+        <v>56</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1048, 261, 56, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A78" si="3">A20+1</f>
+        <v>1049</v>
+      </c>
+      <c r="B21">
+        <f>B19</f>
+        <v>261</v>
+      </c>
+      <c r="C21">
+        <v>593</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1049, 261, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>1050</v>
+      </c>
+      <c r="B22">
+        <f>B19</f>
+        <v>261</v>
+      </c>
+      <c r="C22">
+        <v>593</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1050, 261, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>1051</v>
+      </c>
+      <c r="B23">
+        <f>B19+1</f>
+        <v>262</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1051, 262, 54, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>1052</v>
+      </c>
+      <c r="B24">
+        <f>B23</f>
+        <v>262</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1052, 262, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>1053</v>
+      </c>
+      <c r="B25">
+        <f>B23</f>
+        <v>262</v>
+      </c>
+      <c r="C25">
+        <v>595</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1053, 262, 595, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>1054</v>
+      </c>
+      <c r="B26">
+        <f>B23</f>
+        <v>262</v>
+      </c>
+      <c r="C26">
+        <v>595</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1054, 262, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>1055</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="4">B23+1</f>
+        <v>263</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1055, 263, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>1056</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="5">B27</f>
+        <v>263</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1056, 263, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>1057</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="6">B27</f>
+        <v>263</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1057, 263, 51, 4, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>1058</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="7">B27</f>
+        <v>263</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1058, 263, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>1059</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="8">B27+1</f>
+        <v>264</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1059, 264, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>1060</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="9">B31</f>
+        <v>264</v>
+      </c>
+      <c r="C32">
+        <v>598</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1060, 264, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>1061</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="10">B31</f>
+        <v>264</v>
+      </c>
+      <c r="C33">
+        <v>595</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1061, 264, 595, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>1062</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="11">B31</f>
+        <v>264</v>
+      </c>
+      <c r="C34">
+        <v>595</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1062, 264, 595, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>1063</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="12">B31+1</f>
+        <v>265</v>
+      </c>
+      <c r="C35">
+        <v>54</v>
+      </c>
+      <c r="D35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1063, 265, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>1064</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="13">B35</f>
+        <v>265</v>
+      </c>
+      <c r="C36">
+        <v>54</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1064, 265, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>1065</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="14">B35</f>
+        <v>265</v>
+      </c>
+      <c r="C37">
+        <v>593</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1065, 265, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>1066</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="15">B35</f>
+        <v>265</v>
+      </c>
+      <c r="C38">
+        <v>593</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1066, 265, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>1067</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="16">B35+1</f>
+        <v>266</v>
+      </c>
+      <c r="C39">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1067, 266, 51, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>1068</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="17">B39</f>
+        <v>266</v>
+      </c>
+      <c r="C40">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1068, 266, 51, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>1069</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="18">B39</f>
+        <v>266</v>
+      </c>
+      <c r="C41">
+        <v>593</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1069, 266, 593, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>1070</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="19">B39</f>
+        <v>266</v>
+      </c>
+      <c r="C42">
+        <v>593</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1070, 266, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>1071</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="20">B39+1</f>
+        <v>267</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1071, 267, 56, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>1072</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="21">B43</f>
+        <v>267</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1072, 267, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>1073</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="22">B43</f>
+        <v>267</v>
+      </c>
+      <c r="C45">
+        <v>598</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1073, 267, 598, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>1074</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="23">B43</f>
+        <v>267</v>
+      </c>
+      <c r="C46">
+        <v>598</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1074, 267, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>1075</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="24">B43+1</f>
+        <v>268</v>
+      </c>
+      <c r="C47">
+        <v>595</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 268, 595, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>1076</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="25">B47</f>
+        <v>268</v>
+      </c>
+      <c r="C48">
+        <v>595</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 268, 595, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>1077</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="26">B47</f>
+        <v>268</v>
+      </c>
+      <c r="C49">
+        <v>593</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 268, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>1078</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="27">B47</f>
+        <v>268</v>
+      </c>
+      <c r="C50">
+        <v>593</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 268, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>1079</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="28">B47+1</f>
+        <v>269</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 269, 54, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>1080</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="29">B51</f>
+        <v>269</v>
+      </c>
+      <c r="C52">
+        <v>54</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 269, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>1081</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="30">B51</f>
+        <v>269</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 269, 51, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>1082</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="31">B51</f>
+        <v>269</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 269, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>1083</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="32">B51+1</f>
+        <v>270</v>
+      </c>
+      <c r="C55">
+        <v>56</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 270, 56, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>1084</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="33">B55</f>
+        <v>270</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 270, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>1085</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="34">B55</f>
+        <v>270</v>
+      </c>
+      <c r="C57">
+        <v>595</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 270, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>1086</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="35">B55</f>
+        <v>270</v>
+      </c>
+      <c r="C58">
+        <v>595</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 270, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>1087</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:B75" si="36">B55+1</f>
+        <v>271</v>
+      </c>
+      <c r="C59">
+        <v>51</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 271, 51, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>1088</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:B76" si="37">B59</f>
+        <v>271</v>
+      </c>
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 271, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>1089</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B77" si="38">B59</f>
+        <v>271</v>
+      </c>
+      <c r="C61">
+        <v>595</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 271, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>1090</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62:B78" si="39">B59</f>
+        <v>271</v>
+      </c>
+      <c r="C62">
+        <v>595</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 271, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>1091</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="36"/>
+        <v>272</v>
+      </c>
+      <c r="C63">
+        <v>598</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 272, 598, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>1092</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="37"/>
+        <v>272</v>
+      </c>
+      <c r="C64">
+        <v>598</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 272, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>1093</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="38"/>
+        <v>272</v>
+      </c>
+      <c r="C65">
+        <v>593</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 272, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>1094</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="39"/>
+        <v>272</v>
+      </c>
+      <c r="C66">
+        <v>593</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 272, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>1095</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="36"/>
+        <v>273</v>
+      </c>
+      <c r="C67">
+        <v>54</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 273, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>1096</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="37"/>
+        <v>273</v>
+      </c>
+      <c r="C68">
+        <v>54</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 273, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>1097</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="38"/>
+        <v>273</v>
+      </c>
+      <c r="C69">
+        <v>598</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 273, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>1098</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="39"/>
+        <v>273</v>
+      </c>
+      <c r="C70">
+        <v>598</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 273, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>1099</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="36"/>
+        <v>274</v>
+      </c>
+      <c r="C71">
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 274, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="37"/>
+        <v>274</v>
+      </c>
+      <c r="C72">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 274, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>1101</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="38"/>
+        <v>274</v>
+      </c>
+      <c r="C73">
+        <v>598</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 274, 598, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>1102</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="39"/>
+        <v>274</v>
+      </c>
+      <c r="C74">
+        <v>598</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 274, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1103</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="36"/>
+        <v>275</v>
+      </c>
+      <c r="C75">
+        <v>54</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 275, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>1104</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="37"/>
+        <v>275</v>
+      </c>
+      <c r="C76">
+        <v>54</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 275, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>1105</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="38"/>
+        <v>275</v>
+      </c>
+      <c r="C77">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 275, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>1106</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="39"/>
+        <v>275</v>
+      </c>
+      <c r="C78">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 275, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26938,256 +28815,256 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1955-02-27"</f>
-        <v>1955-02-27</v>
+        <f>"1956-01-21"</f>
+        <v>1956-01-21</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (261, '1955-02-27', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (276, '1956-01-21', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1955-03-02"</f>
-        <v>1955-03-02</v>
+        <f>"1956-01-22"</f>
+        <v>1956-01-22</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (262, '1955-03-02', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (277, '1956-01-22', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ref="A4:A16" si="1">A3+1</f>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1955-03-06"</f>
-        <v>1955-03-06</v>
+        <f>"1956-01-24"</f>
+        <v>1956-01-24</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (263, '1955-03-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (278, '1956-01-24', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1955-03-09"</f>
-        <v>1955-03-09</v>
+        <f>"1956-01-28"</f>
+        <v>1956-01-28</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (264, '1955-03-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (279, '1956-01-28', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1955-03-09"</f>
-        <v>1955-03-09</v>
+        <f>"1956-01-29"</f>
+        <v>1956-01-29</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (265, '1955-03-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (280, '1956-01-29', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1955-03-13"</f>
-        <v>1955-03-13</v>
+        <f>"1956-01-29"</f>
+        <v>1956-01-29</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (266, '1955-03-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (281, '1956-01-29', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1955-03-13"</f>
-        <v>1955-03-13</v>
+        <f>"1956-02-01"</f>
+        <v>1956-02-01</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (267, '1955-03-13', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (282, '1956-02-01', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1955-03-18"</f>
-        <v>1955-03-18</v>
+        <f>"1956-02-01"</f>
+        <v>1956-02-01</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (268, '1955-03-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (283, '1956-02-01', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1955-03-18"</f>
-        <v>1955-03-18</v>
+        <f>"1956-02-05"</f>
+        <v>1956-02-05</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (269, '1955-03-18', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (284, '1956-02-05', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1955-03-20"</f>
-        <v>1955-03-20</v>
+        <f>"1956-02-05"</f>
+        <v>1956-02-05</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (270, '1955-03-20', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (285, '1956-02-05', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1955-03-23"</f>
-        <v>1955-03-23</v>
+        <f>"1956-02-06"</f>
+        <v>1956-02-06</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (271, '1955-03-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (286, '1956-02-06', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1955-03-23"</f>
-        <v>1955-03-23</v>
+        <f>"1956-02-09"</f>
+        <v>1956-02-09</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (272, '1955-03-23', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (287, '1956-02-09', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1955-03-27"</f>
-        <v>1955-03-27</v>
+        <f>"1956-02-10"</f>
+        <v>1956-02-10</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (273, '1955-03-27', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (288, '1956-02-10', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1955-03-30"</f>
-        <v>1955-03-30</v>
+        <f>"1956-02-12"</f>
+        <v>1956-02-12</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (274, '1955-03-30', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (289, '1956-02-12', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1955-03-30"</f>
-        <v>1955-03-30</v>
+        <f>"1956-02-15"</f>
+        <v>1956-02-15</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (275, '1955-03-30', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (290, '1956-02-15', 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -27219,16 +29096,16 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1047</v>
+        <v>1107</v>
       </c>
       <c r="B19">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -27238,23 +29115,23 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1047, 261, 56, 7, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 276, 598, 4, 2, 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>A19+1</f>
-        <v>1048</v>
+        <v>1108</v>
       </c>
       <c r="B20">
         <f>B19</f>
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C20">
-        <v>56</v>
+        <v>598</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -27264,23 +29141,23 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1048, 261, 56, 4, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 276, 598, 3, 0, 1);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ref="A21:A78" si="3">A20+1</f>
-        <v>1049</v>
+        <v>1109</v>
       </c>
       <c r="B21">
         <f>B19</f>
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C21">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -27290,20 +29167,20 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1049, 261, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 276, 595, 2, 0, 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="3"/>
-        <v>1050</v>
+        <v>1110</v>
       </c>
       <c r="B22">
         <f>B19</f>
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="C22">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -27316,23 +29193,23 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1050, 261, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 276, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="3"/>
-        <v>1051</v>
+        <v>1111</v>
       </c>
       <c r="B23">
         <f>B19+1</f>
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C23">
         <v>54</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -27342,23 +29219,23 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1051, 262, 54, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 277, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="3"/>
-        <v>1052</v>
+        <v>1112</v>
       </c>
       <c r="B24">
         <f>B23</f>
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C24">
         <v>54</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -27368,23 +29245,23 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1052, 262, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 277, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="3"/>
-        <v>1053</v>
+        <v>1113</v>
       </c>
       <c r="B25">
         <f>B23</f>
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C25">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -27394,23 +29271,23 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1053, 262, 595, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 277, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="3"/>
-        <v>1054</v>
+        <v>1114</v>
       </c>
       <c r="B26">
         <f>B23</f>
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C26">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -27420,23 +29297,23 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1054, 262, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 277, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="3"/>
-        <v>1055</v>
+        <v>1115</v>
       </c>
       <c r="B27">
         <f t="shared" ref="B27" si="4">B23+1</f>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C27">
         <v>56</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -27446,23 +29323,23 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1055, 263, 56, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 278, 56, 4, 2, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
-        <v>1056</v>
+        <v>1116</v>
       </c>
       <c r="B28">
         <f t="shared" ref="B28" si="5">B27</f>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C28">
         <v>56</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -27472,23 +29349,23 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1056, 263, 56, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 278, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
-        <v>1057</v>
+        <v>1117</v>
       </c>
       <c r="B29">
         <f t="shared" ref="B29" si="6">B27</f>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -27498,20 +29375,20 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1057, 263, 51, 4, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 278, 55, 1, 0, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
-        <v>1058</v>
+        <v>1118</v>
       </c>
       <c r="B30">
         <f t="shared" ref="B30" si="7">B27</f>
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="C30">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -27524,23 +29401,23 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1058, 263, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 278, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
-        <v>1059</v>
+        <v>1119</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31" si="8">B27+1</f>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C31">
         <v>598</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -27550,23 +29427,23 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1059, 264, 598, 3, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 279, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
-        <v>1060</v>
+        <v>1120</v>
       </c>
       <c r="B32">
         <f t="shared" ref="B32" si="9">B31</f>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C32">
         <v>598</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -27576,23 +29453,23 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1060, 264, 598, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 279, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="3"/>
-        <v>1061</v>
+        <v>1121</v>
       </c>
       <c r="B33">
         <f t="shared" ref="B33" si="10">B31</f>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C33">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -27602,23 +29479,23 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1061, 264, 595, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 279, 51, 0, 0, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
-        <v>1062</v>
+        <v>1122</v>
       </c>
       <c r="B34">
         <f t="shared" ref="B34" si="11">B31</f>
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="C34">
-        <v>595</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -27628,49 +29505,49 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1062, 264, 595, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 279, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="3"/>
-        <v>1063</v>
+        <v>1123</v>
       </c>
       <c r="B35">
         <f t="shared" ref="B35" si="12">B31+1</f>
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C35">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1063, 265, 54, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 280, 55, 0, 1, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>1064</v>
+        <v>1124</v>
       </c>
       <c r="B36">
         <f t="shared" ref="B36" si="13">B35</f>
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C36">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -27680,46 +29557,46 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1064, 265, 54, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 280, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>1065</v>
+        <v>1125</v>
       </c>
       <c r="B37">
         <f t="shared" ref="B37" si="14">B35</f>
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C37">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1065, 265, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 280, 595, 0, 1, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>1066</v>
+        <v>1126</v>
       </c>
       <c r="B38">
         <f t="shared" ref="B38" si="15">B35</f>
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C38">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -27732,23 +29609,23 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1066, 265, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 280, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>1067</v>
+        <v>1127</v>
       </c>
       <c r="B39">
         <f t="shared" ref="B39" si="16">B35+1</f>
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C39">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -27758,23 +29635,23 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1067, 266, 51, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 281, 54, 2, 2, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>1068</v>
+        <v>1128</v>
       </c>
       <c r="B40">
         <f t="shared" ref="B40" si="17">B39</f>
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C40">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -27784,23 +29661,23 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1068, 266, 51, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 281, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>1069</v>
+        <v>1129</v>
       </c>
       <c r="B41">
         <f t="shared" ref="B41" si="18">B39</f>
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C41">
-        <v>593</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -27810,23 +29687,23 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1069, 266, 593, 2, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 281, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>1070</v>
+        <v>1130</v>
       </c>
       <c r="B42">
         <f t="shared" ref="B42" si="19">B39</f>
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C42">
-        <v>593</v>
+        <v>56</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -27836,46 +29713,46 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1070, 266, 593, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 281, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>1071</v>
+        <v>1131</v>
       </c>
       <c r="B43">
         <f t="shared" ref="B43" si="20">B39+1</f>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C43">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1071, 267, 56, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 282, 55, 2, 2, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="3"/>
-        <v>1072</v>
+        <v>1132</v>
       </c>
       <c r="B44">
         <f t="shared" ref="B44" si="21">B43</f>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C44">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -27888,46 +29765,46 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1072, 267, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 282, 55, 1, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="3"/>
-        <v>1073</v>
+        <v>1133</v>
       </c>
       <c r="B45">
         <f t="shared" ref="B45" si="22">B43</f>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C45">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1073, 267, 598, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 282, 51, 1, 0, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
-        <v>1074</v>
+        <v>1134</v>
       </c>
       <c r="B46">
         <f t="shared" ref="B46" si="23">B43</f>
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C46">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -27940,23 +29817,23 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1074, 267, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 282, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
-        <v>1075</v>
+        <v>1135</v>
       </c>
       <c r="B47">
         <f t="shared" ref="B47" si="24">B43+1</f>
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C47">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -27966,23 +29843,23 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1075, 268, 595, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 283, 54, 1, 2, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
-        <v>1076</v>
+        <v>1136</v>
       </c>
       <c r="B48">
         <f t="shared" ref="B48" si="25">B47</f>
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C48">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -27992,20 +29869,20 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1076, 268, 595, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 283, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
-        <v>1077</v>
+        <v>1137</v>
       </c>
       <c r="B49">
         <f t="shared" ref="B49" si="26">B47</f>
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C49">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -28018,20 +29895,20 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1077, 268, 593, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 283, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>1078</v>
+        <v>1138</v>
       </c>
       <c r="B50">
         <f t="shared" ref="B50" si="27">B47</f>
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C50">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -28044,23 +29921,23 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1078, 268, 593, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 283, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>1079</v>
+        <v>1139</v>
       </c>
       <c r="B51">
         <f t="shared" ref="B51" si="28">B47+1</f>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C51">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -28070,23 +29947,23 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1079, 269, 54, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 284, 595, 1, 1, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>1080</v>
+        <v>1140</v>
       </c>
       <c r="B52">
         <f t="shared" ref="B52" si="29">B51</f>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C52">
-        <v>54</v>
+        <v>595</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -28096,23 +29973,23 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1080, 269, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 284, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>1081</v>
+        <v>1141</v>
       </c>
       <c r="B53">
         <f t="shared" ref="B53" si="30">B51</f>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C53">
         <v>51</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -28122,23 +29999,23 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1081, 269, 51, 2, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 284, 51, 1, 1, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>1082</v>
+        <v>1142</v>
       </c>
       <c r="B54">
         <f t="shared" ref="B54" si="31">B51</f>
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C54">
         <v>51</v>
       </c>
       <c r="D54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -28148,23 +30025,23 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1082, 269, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 284, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>1083</v>
+        <v>1143</v>
       </c>
       <c r="B55">
         <f t="shared" ref="B55" si="32">B51+1</f>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C55">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -28174,23 +30051,23 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1083, 270, 56, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1143, 285, 55, 1, 2, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>1084</v>
+        <v>1144</v>
       </c>
       <c r="B56">
         <f t="shared" ref="B56" si="33">B55</f>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -28200,20 +30077,20 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1084, 270, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1144, 285, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>1085</v>
+        <v>1145</v>
       </c>
       <c r="B57">
         <f t="shared" ref="B57" si="34">B55</f>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C57">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -28226,20 +30103,20 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1085, 270, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1145, 285, 54, 0, 0, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>1086</v>
+        <v>1146</v>
       </c>
       <c r="B58">
         <f t="shared" ref="B58" si="35">B55</f>
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C58">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -28252,46 +30129,46 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1086, 270, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1146, 285, 54, 0, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>1087</v>
+        <v>1147</v>
       </c>
       <c r="B59">
         <f t="shared" ref="B59:B75" si="36">B55+1</f>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C59">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1087, 271, 51, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 286, 598, 2, 2, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>1088</v>
+        <v>1148</v>
       </c>
       <c r="B60">
         <f t="shared" ref="B60:B76" si="37">B59</f>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C60">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -28304,46 +30181,46 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1088, 271, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 286, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
-        <v>1089</v>
+        <v>1149</v>
       </c>
       <c r="B61">
         <f t="shared" ref="B61:B77" si="38">B59</f>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C61">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1089, 271, 595, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 286, 56, 1, 0, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
-        <v>1090</v>
+        <v>1150</v>
       </c>
       <c r="B62">
         <f t="shared" ref="B62:B78" si="39">B59</f>
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C62">
-        <v>595</v>
+        <v>56</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -28356,23 +30233,23 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1090, 271, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 286, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="3"/>
-        <v>1091</v>
+        <v>1151</v>
       </c>
       <c r="B63">
         <f t="shared" si="36"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C63">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -28382,23 +30259,23 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1091, 272, 598, 5, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1151, 287, 56, 4, 2, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
-        <v>1092</v>
+        <v>1152</v>
       </c>
       <c r="B64">
         <f t="shared" si="37"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C64">
-        <v>598</v>
+        <v>56</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -28408,23 +30285,23 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1092, 272, 598, 3, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1152, 287, 56, 2, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="3"/>
-        <v>1093</v>
+        <v>1153</v>
       </c>
       <c r="B65">
         <f t="shared" si="38"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C65">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -28434,20 +30311,20 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1093, 272, 593, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1153, 287, 51, 3, 0, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="3"/>
-        <v>1094</v>
+        <v>1154</v>
       </c>
       <c r="B66">
         <f t="shared" si="39"/>
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C66">
-        <v>593</v>
+        <v>51</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -28460,49 +30337,49 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1094, 272, 593, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1154, 287, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="3"/>
-        <v>1095</v>
+        <v>1155</v>
       </c>
       <c r="B67">
         <f t="shared" si="36"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C67">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1095, 273, 54, 6, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 288, 598, 0, 1, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="3"/>
-        <v>1096</v>
+        <v>1156</v>
       </c>
       <c r="B68">
         <f t="shared" si="37"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C68">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -28512,49 +30389,49 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1096, 273, 54, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 288, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="3"/>
-        <v>1097</v>
+        <v>1157</v>
       </c>
       <c r="B69">
         <f t="shared" si="38"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C69">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
         <v>2</v>
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1097, 273, 598, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 288, 55, 0, 1, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="3"/>
-        <v>1098</v>
+        <v>1158</v>
       </c>
       <c r="B70">
         <f t="shared" si="39"/>
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C70">
-        <v>598</v>
+        <v>55</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -28564,20 +30441,20 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1098, 273, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 288, 55, 0, 0, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="3"/>
-        <v>1099</v>
+        <v>1159</v>
       </c>
       <c r="B71">
         <f t="shared" si="36"/>
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C71">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -28590,20 +30467,20 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1099, 274, 51, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1159, 289, 56, 2, 2, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="3"/>
-        <v>1100</v>
+        <v>1160</v>
       </c>
       <c r="B72">
         <f t="shared" si="37"/>
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C72">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -28616,23 +30493,23 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1100, 274, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1160, 289, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="3"/>
-        <v>1101</v>
+        <v>1161</v>
       </c>
       <c r="B73">
         <f t="shared" si="38"/>
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C73">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -28642,20 +30519,20 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1101, 274, 598, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1161, 289, 595, 0, 0, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="3"/>
-        <v>1102</v>
+        <v>1162</v>
       </c>
       <c r="B74">
         <f t="shared" si="39"/>
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C74">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -28668,20 +30545,20 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1102, 274, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1162, 289, 595, 0, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="3"/>
-        <v>1103</v>
+        <v>1163</v>
       </c>
       <c r="B75">
         <f t="shared" si="36"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C75">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -28694,23 +30571,23 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1103, 275, 54, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 290, 598, 1, 2, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="3"/>
-        <v>1104</v>
+        <v>1164</v>
       </c>
       <c r="B76">
         <f t="shared" si="37"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C76">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -28720,20 +30597,20 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1104, 275, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 290, 598, 1, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="3"/>
-        <v>1105</v>
+        <v>1165</v>
       </c>
       <c r="B77">
         <f t="shared" si="38"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C77">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -28746,20 +30623,20 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1105, 275, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 290, 54, 0, 0, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
-        <v>1106</v>
+        <v>1166</v>
       </c>
       <c r="B78">
         <f t="shared" si="39"/>
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="C78">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -28772,7 +30649,7 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1106, 275, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 290, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -31,13 +31,14 @@
     <sheet name="1953" sheetId="23" r:id="rId22"/>
     <sheet name="1955" sheetId="24" r:id="rId23"/>
     <sheet name="1956" sheetId="25" r:id="rId24"/>
+    <sheet name="1957" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -28785,6 +28786,1882 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G16" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1956-01-21"</f>
+        <v>1956-01-21</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (276, '1956-01-21', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>277</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1956-01-22"</f>
+        <v>1956-01-22</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (277, '1956-01-22', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A16" si="1">A3+1</f>
+        <v>278</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1956-01-24"</f>
+        <v>1956-01-24</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (278, '1956-01-24', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>279</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1956-01-28"</f>
+        <v>1956-01-28</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (279, '1956-01-28', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1956-01-29"</f>
+        <v>1956-01-29</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (280, '1956-01-29', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>281</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1956-01-29"</f>
+        <v>1956-01-29</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (281, '1956-01-29', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>282</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1956-02-01"</f>
+        <v>1956-02-01</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (282, '1956-02-01', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1956-02-01"</f>
+        <v>1956-02-01</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (283, '1956-02-01', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>284</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1956-02-05"</f>
+        <v>1956-02-05</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (284, '1956-02-05', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1956-02-05"</f>
+        <v>1956-02-05</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (285, '1956-02-05', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>286</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1956-02-06"</f>
+        <v>1956-02-06</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (286, '1956-02-06', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>287</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1956-02-09"</f>
+        <v>1956-02-09</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (287, '1956-02-09', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>288</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1956-02-10"</f>
+        <v>1956-02-10</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (288, '1956-02-10', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1956-02-12"</f>
+        <v>1956-02-12</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (289, '1956-02-12', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>290</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1956-02-15"</f>
+        <v>1956-02-15</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (290, '1956-02-15', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1107</v>
+      </c>
+      <c r="B19">
+        <v>276</v>
+      </c>
+      <c r="C19">
+        <v>598</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 276, 598, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>A19+1</f>
+        <v>1108</v>
+      </c>
+      <c r="B20">
+        <f>B19</f>
+        <v>276</v>
+      </c>
+      <c r="C20">
+        <v>598</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 276, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A78" si="3">A20+1</f>
+        <v>1109</v>
+      </c>
+      <c r="B21">
+        <f>B19</f>
+        <v>276</v>
+      </c>
+      <c r="C21">
+        <v>595</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 276, 595, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="3"/>
+        <v>1110</v>
+      </c>
+      <c r="B22">
+        <f>B19</f>
+        <v>276</v>
+      </c>
+      <c r="C22">
+        <v>595</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 276, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="3"/>
+        <v>1111</v>
+      </c>
+      <c r="B23">
+        <f>B19+1</f>
+        <v>277</v>
+      </c>
+      <c r="C23">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 277, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="3"/>
+        <v>1112</v>
+      </c>
+      <c r="B24">
+        <f>B23</f>
+        <v>277</v>
+      </c>
+      <c r="C24">
+        <v>54</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 277, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="3"/>
+        <v>1113</v>
+      </c>
+      <c r="B25">
+        <f>B23</f>
+        <v>277</v>
+      </c>
+      <c r="C25">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 277, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="3"/>
+        <v>1114</v>
+      </c>
+      <c r="B26">
+        <f>B23</f>
+        <v>277</v>
+      </c>
+      <c r="C26">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 277, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="3"/>
+        <v>1115</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27" si="4">B23+1</f>
+        <v>278</v>
+      </c>
+      <c r="C27">
+        <v>56</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 278, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>1116</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28" si="5">B27</f>
+        <v>278</v>
+      </c>
+      <c r="C28">
+        <v>56</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 278, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>1117</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29" si="6">B27</f>
+        <v>278</v>
+      </c>
+      <c r="C29">
+        <v>55</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 278, 55, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>1118</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30" si="7">B27</f>
+        <v>278</v>
+      </c>
+      <c r="C30">
+        <v>55</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 278, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>1119</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31" si="8">B27+1</f>
+        <v>279</v>
+      </c>
+      <c r="C31">
+        <v>598</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 279, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>1120</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32" si="9">B31</f>
+        <v>279</v>
+      </c>
+      <c r="C32">
+        <v>598</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 279, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>1121</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="10">B31</f>
+        <v>279</v>
+      </c>
+      <c r="C33">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 279, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>1122</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="11">B31</f>
+        <v>279</v>
+      </c>
+      <c r="C34">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 279, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>1123</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="12">B31+1</f>
+        <v>280</v>
+      </c>
+      <c r="C35">
+        <v>55</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 280, 55, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>1124</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="13">B35</f>
+        <v>280</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 280, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>1125</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="14">B35</f>
+        <v>280</v>
+      </c>
+      <c r="C37">
+        <v>595</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 280, 595, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>1126</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="15">B35</f>
+        <v>280</v>
+      </c>
+      <c r="C38">
+        <v>595</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 280, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>1127</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="16">B35+1</f>
+        <v>281</v>
+      </c>
+      <c r="C39">
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 281, 54, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>1128</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="17">B39</f>
+        <v>281</v>
+      </c>
+      <c r="C40">
+        <v>54</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 281, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>1129</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="18">B39</f>
+        <v>281</v>
+      </c>
+      <c r="C41">
+        <v>56</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 281, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>1130</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="19">B39</f>
+        <v>281</v>
+      </c>
+      <c r="C42">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 281, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>1131</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="20">B39+1</f>
+        <v>282</v>
+      </c>
+      <c r="C43">
+        <v>55</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 282, 55, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>1132</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="21">B43</f>
+        <v>282</v>
+      </c>
+      <c r="C44">
+        <v>55</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 282, 55, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>1133</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="22">B43</f>
+        <v>282</v>
+      </c>
+      <c r="C45">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 282, 51, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>1134</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="23">B43</f>
+        <v>282</v>
+      </c>
+      <c r="C46">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 282, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>1135</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="24">B43+1</f>
+        <v>283</v>
+      </c>
+      <c r="C47">
+        <v>54</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 283, 54, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>1136</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="25">B47</f>
+        <v>283</v>
+      </c>
+      <c r="C48">
+        <v>54</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 283, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>1137</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="26">B47</f>
+        <v>283</v>
+      </c>
+      <c r="C49">
+        <v>595</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 283, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>1138</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="27">B47</f>
+        <v>283</v>
+      </c>
+      <c r="C50">
+        <v>595</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 283, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>1139</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="28">B47+1</f>
+        <v>284</v>
+      </c>
+      <c r="C51">
+        <v>595</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 284, 595, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>1140</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="29">B51</f>
+        <v>284</v>
+      </c>
+      <c r="C52">
+        <v>595</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 284, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>1141</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="30">B51</f>
+        <v>284</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 284, 51, 1, 1, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>1142</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="31">B51</f>
+        <v>284</v>
+      </c>
+      <c r="C54">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 284, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>1143</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="32">B51+1</f>
+        <v>285</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1143, 285, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>1144</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="33">B55</f>
+        <v>285</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1144, 285, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>1145</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="34">B55</f>
+        <v>285</v>
+      </c>
+      <c r="C57">
+        <v>54</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1145, 285, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>1146</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="35">B55</f>
+        <v>285</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1146, 285, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>1147</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59:B75" si="36">B55+1</f>
+        <v>286</v>
+      </c>
+      <c r="C59">
+        <v>598</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 286, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>1148</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60:B76" si="37">B59</f>
+        <v>286</v>
+      </c>
+      <c r="C60">
+        <v>598</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 286, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>1149</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61:B77" si="38">B59</f>
+        <v>286</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 286, 56, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>1150</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62:B78" si="39">B59</f>
+        <v>286</v>
+      </c>
+      <c r="C62">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 286, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>1151</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="36"/>
+        <v>287</v>
+      </c>
+      <c r="C63">
+        <v>56</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1151, 287, 56, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>1152</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="37"/>
+        <v>287</v>
+      </c>
+      <c r="C64">
+        <v>56</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1152, 287, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>1153</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="38"/>
+        <v>287</v>
+      </c>
+      <c r="C65">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1153, 287, 51, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>1154</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="39"/>
+        <v>287</v>
+      </c>
+      <c r="C66">
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1154, 287, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>1155</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="36"/>
+        <v>288</v>
+      </c>
+      <c r="C67">
+        <v>598</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 288, 598, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>1156</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="37"/>
+        <v>288</v>
+      </c>
+      <c r="C68">
+        <v>598</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 288, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>1157</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="38"/>
+        <v>288</v>
+      </c>
+      <c r="C69">
+        <v>55</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 288, 55, 0, 1, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>1158</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="39"/>
+        <v>288</v>
+      </c>
+      <c r="C70">
+        <v>55</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 288, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>1159</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="36"/>
+        <v>289</v>
+      </c>
+      <c r="C71">
+        <v>56</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1159, 289, 56, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>1160</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="37"/>
+        <v>289</v>
+      </c>
+      <c r="C72">
+        <v>56</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1160, 289, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>1161</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="38"/>
+        <v>289</v>
+      </c>
+      <c r="C73">
+        <v>595</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1161, 289, 595, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>1162</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="39"/>
+        <v>289</v>
+      </c>
+      <c r="C74">
+        <v>595</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1162, 289, 595, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1163</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="36"/>
+        <v>290</v>
+      </c>
+      <c r="C75">
+        <v>598</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 290, 598, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>1164</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="37"/>
+        <v>290</v>
+      </c>
+      <c r="C76">
+        <v>598</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 290, 598, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>1165</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="38"/>
+        <v>290</v>
+      </c>
+      <c r="C77">
+        <v>54</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 290, 54, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>1166</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="39"/>
+        <v>290</v>
+      </c>
+      <c r="C78">
+        <v>54</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 290, 54, 0, 0, 1);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G108"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28809,485 +30686,428 @@
         <v>7</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ref="G1:G16" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <f t="shared" ref="G1:G22" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
         <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="str">
-        <f>"1956-01-21"</f>
-        <v>1956-01-21</v>
+        <f>"1957-03-07"</f>
+        <v>1957-03-07</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (276, '1956-01-21', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (291, '1957-03-07', 2);</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+1</f>
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f>"1956-01-22"</f>
-        <v>1956-01-22</v>
+        <f>"1957-03-10"</f>
+        <v>1957-03-10</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (277, '1956-01-22', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (292, '1957-03-10', 2);</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A16" si="1">A3+1</f>
-        <v>278</v>
+        <f t="shared" ref="A4:A22" si="1">A3+1</f>
+        <v>293</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"1956-01-24"</f>
-        <v>1956-01-24</v>
+        <f>"1957-03-13"</f>
+        <v>1957-03-13</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (278, '1956-01-24', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (293, '1957-03-13', 2);</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f>"1956-01-28"</f>
-        <v>1956-01-28</v>
+        <f>"1957-03-13"</f>
+        <v>1957-03-13</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (279, '1956-01-28', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (294, '1957-03-13', 2);</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"1956-01-29"</f>
-        <v>1956-01-29</v>
+        <f>"1957-03-16"</f>
+        <v>1957-03-16</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (280, '1956-01-29', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (295, '1957-03-16', 2);</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f>"1956-01-29"</f>
-        <v>1956-01-29</v>
+        <f>"1957-03-17"</f>
+        <v>1957-03-17</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (281, '1956-01-29', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (296, '1957-03-17', 2);</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"1956-02-01"</f>
-        <v>1956-02-01</v>
+        <f>"1957-03-17"</f>
+        <v>1957-03-17</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (282, '1956-02-01', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (297, '1957-03-17', 2);</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f>"1956-02-01"</f>
-        <v>1956-02-01</v>
+        <f>"1957-03-20"</f>
+        <v>1957-03-20</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (283, '1956-02-01', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (298, '1957-03-20', 2);</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f>"1956-02-05"</f>
-        <v>1956-02-05</v>
+        <f>"1957-03-21"</f>
+        <v>1957-03-21</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (284, '1956-02-05', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (299, '1957-03-21', 2);</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>"1956-02-05"</f>
-        <v>1956-02-05</v>
+        <f>"1957-03-21"</f>
+        <v>1957-03-21</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (285, '1956-02-05', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (300, '1957-03-21', 2);</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f>"1956-02-06"</f>
-        <v>1956-02-06</v>
+        <f>"1957-03-23"</f>
+        <v>1957-03-23</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (286, '1956-02-06', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (301, '1957-03-23', 2);</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f>"1956-02-09"</f>
-        <v>1956-02-09</v>
+        <f>"1957-03-24"</f>
+        <v>1957-03-24</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (287, '1956-02-09', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (302, '1957-03-24', 2);</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f>"1956-02-10"</f>
-        <v>1956-02-10</v>
+        <f>"1957-03-24"</f>
+        <v>1957-03-24</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (288, '1956-02-10', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (303, '1957-03-24', 2);</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f>"1956-02-12"</f>
-        <v>1956-02-12</v>
+        <f>"1957-03-27"</f>
+        <v>1957-03-27</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (289, '1956-02-12', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (304, '1957-03-27', 2);</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f>"1956-02-15"</f>
-        <v>1956-02-15</v>
+        <f>"1957-03-28"</f>
+        <v>1957-03-28</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>insert into game (matchid, matchdate, game_type) values (290, '1956-02-15', 2);</v>
+        <v>insert into game (matchid, matchdate, game_type) values (305, '1957-03-28', 2);</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1957-03-28"</f>
+        <v>1957-03-28</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (306, '1957-03-28', 2);</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1957-03-31"</f>
+        <v>1957-03-31</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
       </c>
       <c r="G18" t="str">
-        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A18 &amp; ", " &amp; B18 &amp; ", " &amp; C18 &amp; ", " &amp; D18 &amp; ", " &amp; E18 &amp; ", " &amp; F18 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (307, '1957-03-31', 2);</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>1107</v>
-      </c>
-      <c r="B19">
-        <v>276</v>
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1957-04-01"</f>
+        <v>1957-04-01</v>
       </c>
       <c r="C19">
-        <v>598</v>
-      </c>
-      <c r="D19">
-        <v>4</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
         <v>2</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ref="G19:G78" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A19 &amp; ", " &amp; B19 &amp; ", " &amp; C19 &amp; ", " &amp; D19 &amp; ", " &amp; E19 &amp; ", " &amp; F19 &amp; ");"</f>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1107, 276, 598, 4, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (308, '1957-04-01', 2);</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>A19+1</f>
-        <v>1108</v>
-      </c>
-      <c r="B20">
-        <f>B19</f>
-        <v>276</v>
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1957-04-01"</f>
+        <v>1957-04-01</v>
       </c>
       <c r="C20">
-        <v>598</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1108, 276, 598, 3, 0, 1);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (309, '1957-04-01', 2);</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ref="A21:A78" si="3">A20+1</f>
-        <v>1109</v>
-      </c>
-      <c r="B21">
-        <f>B19</f>
-        <v>276</v>
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1957-04-03"</f>
+        <v>1957-04-03</v>
       </c>
       <c r="C21">
-        <v>595</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
         <v>2</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1109, 276, 595, 2, 0, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (310, '1957-04-03', 2);</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="3"/>
-        <v>1110</v>
-      </c>
-      <c r="B22">
-        <f>B19</f>
-        <v>276</v>
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1957-04-06"</f>
+        <v>1957-04-06</v>
       </c>
       <c r="C22">
-        <v>595</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1110, 276, 595, 0, 0, 1);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="3"/>
-        <v>1111</v>
-      </c>
-      <c r="B23">
-        <f>B19+1</f>
-        <v>277</v>
-      </c>
-      <c r="C23">
-        <v>54</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1111, 277, 54, 2, 2, 2);</v>
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (311, '1957-04-06', 2);</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="3"/>
-        <v>1112</v>
-      </c>
-      <c r="B24">
-        <f>B23</f>
-        <v>277</v>
-      </c>
-      <c r="C24">
-        <v>54</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1112, 277, 54, 1, 0, 1);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="3"/>
-        <v>1113</v>
+        <v>1167</v>
       </c>
       <c r="B25">
-        <f>B23</f>
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C25">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1113, 277, 51, 1, 0, 2);</v>
+        <f t="shared" ref="G25:G72" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1167, 291, 598, 5, 2, 2);</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="3"/>
-        <v>1114</v>
+        <f>A25+1</f>
+        <v>1168</v>
       </c>
       <c r="B26">
-        <f>B23</f>
-        <v>277</v>
+        <f>B25</f>
+        <v>291</v>
       </c>
       <c r="C26">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -29297,49 +31117,49 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1114, 277, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1168, 291, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="3"/>
-        <v>1115</v>
+        <f t="shared" ref="A27:A90" si="3">A26+1</f>
+        <v>1169</v>
       </c>
       <c r="B27">
-        <f t="shared" ref="B27" si="4">B23+1</f>
-        <v>278</v>
+        <f>B25</f>
+        <v>291</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>2</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1115, 278, 56, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1169, 291, 593, 2, 0, 2);</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="3"/>
-        <v>1116</v>
+        <v>1170</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28" si="5">B27</f>
-        <v>278</v>
+        <f>B25</f>
+        <v>291</v>
       </c>
       <c r="C28">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -29349,49 +31169,49 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1116, 278, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1170, 291, 593, 2, 0, 1);</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="3"/>
-        <v>1117</v>
+        <v>1171</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29" si="6">B27</f>
-        <v>278</v>
+        <f>B25+1</f>
+        <v>292</v>
       </c>
       <c r="C29">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>2</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1117, 278, 55, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1171, 292, 51, 2, 2, 2);</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="3"/>
-        <v>1118</v>
+        <v>1172</v>
       </c>
       <c r="B30">
-        <f t="shared" ref="B30" si="7">B27</f>
-        <v>278</v>
+        <f>B29</f>
+        <v>292</v>
       </c>
       <c r="C30">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -29401,46 +31221,46 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1118, 278, 55, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1172, 292, 51, 2, 0, 1);</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="3"/>
-        <v>1119</v>
+        <v>1173</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31" si="8">B27+1</f>
-        <v>279</v>
+        <f>B29</f>
+        <v>292</v>
       </c>
       <c r="C31">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
         <v>2</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1119, 279, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1173, 292, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="3"/>
-        <v>1120</v>
+        <v>1174</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32" si="9">B31</f>
-        <v>279</v>
+        <f>B29</f>
+        <v>292</v>
       </c>
       <c r="C32">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -29453,49 +31273,49 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1120, 279, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1174, 292, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="3"/>
-        <v>1121</v>
+        <v>1175</v>
       </c>
       <c r="B33">
-        <f t="shared" ref="B33" si="10">B31</f>
-        <v>279</v>
+        <f t="shared" ref="B33" si="4">B29+1</f>
+        <v>293</v>
       </c>
       <c r="C33">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1121, 279, 51, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1175, 293, 54, 8, 2, 2);</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="3"/>
-        <v>1122</v>
+        <v>1176</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34" si="11">B31</f>
-        <v>279</v>
+        <f t="shared" ref="B34" si="5">B33</f>
+        <v>293</v>
       </c>
       <c r="C34">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -29505,49 +31325,49 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1122, 279, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1176, 293, 54, 3, 0, 1);</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="3"/>
-        <v>1123</v>
+        <v>1177</v>
       </c>
       <c r="B35">
-        <f t="shared" ref="B35" si="12">B31+1</f>
-        <v>280</v>
+        <f t="shared" ref="B35" si="6">B33</f>
+        <v>293</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>2</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1123, 280, 55, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1177, 293, 57, 2, 0, 2);</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="3"/>
-        <v>1124</v>
+        <v>1178</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36" si="13">B35</f>
-        <v>280</v>
+        <f t="shared" ref="B36" si="7">B33</f>
+        <v>293</v>
       </c>
       <c r="C36">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -29557,49 +31377,49 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1124, 280, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1178, 293, 57, 2, 0, 1);</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="3"/>
-        <v>1125</v>
+        <v>1179</v>
       </c>
       <c r="B37">
-        <f t="shared" ref="B37" si="14">B35</f>
-        <v>280</v>
+        <f t="shared" ref="B37" si="8">B33+1</f>
+        <v>294</v>
       </c>
       <c r="C37">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>2</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1125, 280, 595, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1179, 294, 55, 4, 2, 2);</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="3"/>
-        <v>1126</v>
+        <v>1180</v>
       </c>
       <c r="B38">
-        <f t="shared" ref="B38" si="15">B35</f>
-        <v>280</v>
+        <f t="shared" ref="B38" si="9">B37</f>
+        <v>294</v>
       </c>
       <c r="C38">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -29609,46 +31429,46 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1126, 280, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1180, 294, 55, 3, 0, 1);</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="3"/>
-        <v>1127</v>
+        <v>1181</v>
       </c>
       <c r="B39">
-        <f t="shared" ref="B39" si="16">B35+1</f>
-        <v>281</v>
+        <f t="shared" ref="B39" si="10">B37</f>
+        <v>294</v>
       </c>
       <c r="C39">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>2</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1127, 281, 54, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1181, 294, 56, 2, 0, 2);</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="3"/>
-        <v>1128</v>
+        <v>1182</v>
       </c>
       <c r="B40">
-        <f t="shared" ref="B40" si="17">B39</f>
-        <v>281</v>
+        <f t="shared" ref="B40" si="11">B37</f>
+        <v>294</v>
       </c>
       <c r="C40">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -29661,46 +31481,46 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1128, 281, 54, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1182, 294, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="3"/>
-        <v>1129</v>
+        <v>1183</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41" si="18">B39</f>
-        <v>281</v>
+        <f t="shared" ref="B41" si="12">B37+1</f>
+        <v>295</v>
       </c>
       <c r="C41">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1129, 281, 56, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1183, 295, 51, 1, 2, 2);</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="3"/>
-        <v>1130</v>
+        <v>1184</v>
       </c>
       <c r="B42">
-        <f t="shared" ref="B42" si="19">B39</f>
-        <v>281</v>
+        <f t="shared" ref="B42" si="13">B41</f>
+        <v>295</v>
       </c>
       <c r="C42">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -29713,49 +31533,49 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1130, 281, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1184, 295, 51, 0, 0, 1);</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="3"/>
-        <v>1131</v>
+        <v>1185</v>
       </c>
       <c r="B43">
-        <f t="shared" ref="B43" si="20">B39+1</f>
-        <v>282</v>
+        <f t="shared" ref="B43" si="14">B41</f>
+        <v>295</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>2</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1131, 282, 55, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1185, 295, 56, 0, 0, 2);</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="3"/>
-        <v>1132</v>
+        <v>1186</v>
       </c>
       <c r="B44">
-        <f t="shared" ref="B44" si="21">B43</f>
-        <v>282</v>
+        <f t="shared" ref="B44" si="15">B41</f>
+        <v>295</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -29765,46 +31585,46 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1132, 282, 55, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1186, 295, 56, 0, 0, 1);</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="3"/>
-        <v>1133</v>
+        <v>1187</v>
       </c>
       <c r="B45">
-        <f t="shared" ref="B45" si="22">B43</f>
-        <v>282</v>
+        <f t="shared" ref="B45" si="16">B41+1</f>
+        <v>296</v>
       </c>
       <c r="C45">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>2</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1133, 282, 51, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 296, 57, 1, 2, 2);</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="3"/>
-        <v>1134</v>
+        <v>1188</v>
       </c>
       <c r="B46">
-        <f t="shared" ref="B46" si="23">B43</f>
-        <v>282</v>
+        <f t="shared" ref="B46" si="17">B45</f>
+        <v>296</v>
       </c>
       <c r="C46">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -29817,46 +31637,46 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1134, 282, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1188, 296, 57, 1, 0, 1);</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="3"/>
-        <v>1135</v>
+        <v>1189</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="24">B43+1</f>
-        <v>283</v>
+        <f t="shared" ref="B47" si="18">B45</f>
+        <v>296</v>
       </c>
       <c r="C47">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47">
         <v>2</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1135, 283, 54, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1189, 296, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="3"/>
-        <v>1136</v>
+        <v>1190</v>
       </c>
       <c r="B48">
-        <f t="shared" ref="B48" si="25">B47</f>
-        <v>283</v>
+        <f t="shared" ref="B48" si="19">B45</f>
+        <v>296</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>598</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -29869,49 +31689,49 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1136, 283, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1190, 296, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="3"/>
-        <v>1137</v>
+        <v>1191</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49" si="26">B47</f>
-        <v>283</v>
+        <f t="shared" ref="B49" si="20">B45+1</f>
+        <v>297</v>
       </c>
       <c r="C49">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F49">
         <v>2</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1137, 283, 595, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1191, 297, 54, 3, 2, 2);</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="3"/>
-        <v>1138</v>
+        <v>1192</v>
       </c>
       <c r="B50">
-        <f t="shared" ref="B50" si="27">B47</f>
-        <v>283</v>
+        <f t="shared" ref="B50" si="21">B49</f>
+        <v>297</v>
       </c>
       <c r="C50">
-        <v>595</v>
+        <v>54</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -29921,46 +31741,46 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1138, 283, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1192, 297, 54, 2, 0, 1);</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="3"/>
-        <v>1139</v>
+        <v>1193</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51" si="28">B47+1</f>
-        <v>284</v>
+        <f t="shared" ref="B51" si="22">B49</f>
+        <v>297</v>
       </c>
       <c r="C51">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>2</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1139, 284, 595, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1193, 297, 593, 0, 0, 2);</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="3"/>
-        <v>1140</v>
+        <v>1194</v>
       </c>
       <c r="B52">
-        <f t="shared" ref="B52" si="29">B51</f>
-        <v>284</v>
+        <f t="shared" ref="B52" si="23">B49</f>
+        <v>297</v>
       </c>
       <c r="C52">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -29973,49 +31793,49 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1140, 284, 595, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1194, 297, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="3"/>
-        <v>1141</v>
+        <v>1195</v>
       </c>
       <c r="B53">
-        <f t="shared" ref="B53" si="30">B51</f>
-        <v>284</v>
+        <f t="shared" ref="B53" si="24">B49+1</f>
+        <v>298</v>
       </c>
       <c r="C53">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1141, 284, 51, 1, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1195, 298, 54, 4, 2, 2);</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="3"/>
-        <v>1142</v>
+        <v>1196</v>
       </c>
       <c r="B54">
-        <f t="shared" ref="B54" si="31">B51</f>
-        <v>284</v>
+        <f t="shared" ref="B54" si="25">B53</f>
+        <v>298</v>
       </c>
       <c r="C54">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -30025,46 +31845,46 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1142, 284, 51, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1196, 298, 54, 1, 0, 1);</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="3"/>
-        <v>1143</v>
+        <v>1197</v>
       </c>
       <c r="B55">
-        <f t="shared" ref="B55" si="32">B51+1</f>
-        <v>285</v>
+        <f t="shared" ref="B55" si="26">B53</f>
+        <v>298</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>598</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>2</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1143, 285, 55, 1, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1197, 298, 598, 0, 0, 2);</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="3"/>
-        <v>1144</v>
+        <v>1198</v>
       </c>
       <c r="B56">
-        <f t="shared" ref="B56" si="33">B55</f>
-        <v>285</v>
+        <f t="shared" ref="B56" si="27">B53</f>
+        <v>298</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>598</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -30077,49 +31897,49 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1144, 285, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1198, 298, 598, 0, 0, 1);</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="3"/>
-        <v>1145</v>
+        <v>1199</v>
       </c>
       <c r="B57">
-        <f t="shared" ref="B57" si="34">B55</f>
-        <v>285</v>
+        <f t="shared" ref="B57" si="28">B53+1</f>
+        <v>299</v>
       </c>
       <c r="C57">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57">
         <v>2</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1145, 285, 54, 0, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1199, 299, 55, 7, 2, 2);</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="3"/>
-        <v>1146</v>
+        <v>1200</v>
       </c>
       <c r="B58">
-        <f t="shared" ref="B58" si="35">B55</f>
-        <v>285</v>
+        <f t="shared" ref="B58" si="29">B57</f>
+        <v>299</v>
       </c>
       <c r="C58">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -30129,49 +31949,49 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1146, 285, 54, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1200, 299, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="3"/>
-        <v>1147</v>
+        <v>1201</v>
       </c>
       <c r="B59">
-        <f t="shared" ref="B59:B75" si="36">B55+1</f>
-        <v>286</v>
+        <f t="shared" ref="B59" si="30">B57</f>
+        <v>299</v>
       </c>
       <c r="C59">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>2</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1147, 286, 598, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1201, 299, 593, 1, 0, 2);</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="3"/>
-        <v>1148</v>
+        <v>1202</v>
       </c>
       <c r="B60">
-        <f t="shared" ref="B60:B76" si="37">B59</f>
-        <v>286</v>
+        <f t="shared" ref="B60" si="31">B57</f>
+        <v>299</v>
       </c>
       <c r="C60">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -30181,49 +32001,49 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1148, 286, 598, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1202, 299, 593, 0, 0, 1);</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="3"/>
-        <v>1149</v>
+        <v>1203</v>
       </c>
       <c r="B61">
-        <f t="shared" ref="B61:B77" si="38">B59</f>
-        <v>286</v>
+        <f t="shared" ref="B61" si="32">B57+1</f>
+        <v>300</v>
       </c>
       <c r="C61">
         <v>56</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1149, 286, 56, 1, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1203, 300, 56, 3, 2, 2);</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="3"/>
-        <v>1150</v>
+        <v>1204</v>
       </c>
       <c r="B62">
-        <f t="shared" ref="B62:B78" si="39">B59</f>
-        <v>286</v>
+        <f t="shared" ref="B62" si="33">B61</f>
+        <v>300</v>
       </c>
       <c r="C62">
         <v>56</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -30233,49 +32053,49 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1150, 286, 56, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1204, 300, 56, 1, 0, 1);</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="3"/>
-        <v>1151</v>
+        <v>1205</v>
       </c>
       <c r="B63">
-        <f t="shared" si="36"/>
-        <v>287</v>
+        <f t="shared" ref="B63" si="34">B61</f>
+        <v>300</v>
       </c>
       <c r="C63">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63">
         <v>2</v>
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1151, 287, 56, 4, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1205, 300, 57, 2, 0, 2);</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="3"/>
-        <v>1152</v>
+        <v>1206</v>
       </c>
       <c r="B64">
-        <f t="shared" si="37"/>
-        <v>287</v>
+        <f t="shared" ref="B64" si="35">B61</f>
+        <v>300</v>
       </c>
       <c r="C64">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -30285,49 +32105,49 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1152, 287, 56, 2, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1206, 300, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="3"/>
-        <v>1153</v>
+        <v>1207</v>
       </c>
       <c r="B65">
-        <f t="shared" si="38"/>
-        <v>287</v>
+        <f t="shared" ref="B65:B81" si="36">B61+1</f>
+        <v>301</v>
       </c>
       <c r="C65">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F65">
         <v>2</v>
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1153, 287, 51, 3, 0, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1207, 301, 598, 5, 2, 2);</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="3"/>
-        <v>1154</v>
+        <v>1208</v>
       </c>
       <c r="B66">
-        <f t="shared" si="39"/>
-        <v>287</v>
+        <f t="shared" ref="B66:B82" si="37">B65</f>
+        <v>301</v>
       </c>
       <c r="C66">
-        <v>51</v>
+        <v>598</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -30337,49 +32157,49 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1154, 287, 51, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1208, 301, 598, 2, 0, 1);</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="3"/>
-        <v>1155</v>
+        <v>1209</v>
       </c>
       <c r="B67">
-        <f t="shared" si="36"/>
-        <v>288</v>
+        <f t="shared" ref="B67:B83" si="38">B65</f>
+        <v>301</v>
       </c>
       <c r="C67">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67">
         <v>2</v>
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1155, 288, 598, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1209, 301, 51, 3, 0, 2);</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="3"/>
-        <v>1156</v>
+        <v>1210</v>
       </c>
       <c r="B68">
-        <f t="shared" si="37"/>
-        <v>288</v>
+        <f t="shared" ref="B68:B84" si="39">B65</f>
+        <v>301</v>
       </c>
       <c r="C68">
-        <v>598</v>
+        <v>51</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -30389,23 +32209,23 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1156, 288, 598, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1210, 301, 51, 1, 0, 1);</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="3"/>
-        <v>1157</v>
+        <v>1211</v>
       </c>
       <c r="B69">
-        <f t="shared" si="38"/>
-        <v>288</v>
+        <f t="shared" si="36"/>
+        <v>302</v>
       </c>
       <c r="C69">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -30415,23 +32235,23 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1157, 288, 55, 0, 1, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1211, 302, 56, 2, 1, 2);</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="3"/>
-        <v>1158</v>
+        <v>1212</v>
       </c>
       <c r="B70">
-        <f t="shared" si="39"/>
-        <v>288</v>
+        <f t="shared" si="37"/>
+        <v>302</v>
       </c>
       <c r="C70">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -30441,46 +32261,46 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1158, 288, 55, 0, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1212, 302, 56, 2, 0, 1);</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="3"/>
-        <v>1159</v>
+        <v>1213</v>
       </c>
       <c r="B71">
-        <f t="shared" si="36"/>
-        <v>289</v>
+        <f t="shared" si="38"/>
+        <v>302</v>
       </c>
       <c r="C71">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71">
         <v>2</v>
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1159, 289, 56, 2, 2, 2);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1213, 302, 593, 2, 1, 2);</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="3"/>
-        <v>1160</v>
+        <v>1214</v>
       </c>
       <c r="B72">
-        <f t="shared" si="37"/>
-        <v>289</v>
+        <f t="shared" si="39"/>
+        <v>302</v>
       </c>
       <c r="C72">
-        <v>56</v>
+        <v>593</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -30493,49 +32313,49 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1160, 289, 56, 1, 0, 1);</v>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1214, 302, 593, 1, 0, 1);</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="3"/>
-        <v>1161</v>
+        <v>1215</v>
       </c>
       <c r="B73">
-        <f t="shared" si="38"/>
-        <v>289</v>
+        <f t="shared" si="36"/>
+        <v>303</v>
       </c>
       <c r="C73">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73">
         <v>2</v>
       </c>
       <c r="G73" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1161, 289, 595, 0, 0, 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A73 &amp; ", " &amp; B73 &amp; ", " &amp; C73 &amp; ", " &amp; D73 &amp; ", " &amp; E73 &amp; ", " &amp; F73 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1215, 303, 55, 9, 2, 2);</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="3"/>
-        <v>1162</v>
+        <v>1216</v>
       </c>
       <c r="B74">
-        <f t="shared" si="39"/>
-        <v>289</v>
+        <f t="shared" si="37"/>
+        <v>303</v>
       </c>
       <c r="C74">
-        <v>595</v>
+        <v>55</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -30544,50 +32364,50 @@
         <v>1</v>
       </c>
       <c r="G74" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1162, 289, 595, 0, 0, 1);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A74 &amp; ", " &amp; B74 &amp; ", " &amp; C74 &amp; ", " &amp; D74 &amp; ", " &amp; E74 &amp; ", " &amp; F74 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1216, 303, 55, 4, 0, 1);</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="3"/>
-        <v>1163</v>
+        <v>1217</v>
       </c>
       <c r="B75">
-        <f t="shared" si="36"/>
-        <v>290</v>
+        <f t="shared" si="38"/>
+        <v>303</v>
       </c>
       <c r="C75">
-        <v>598</v>
+        <v>57</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F75">
         <v>2</v>
       </c>
       <c r="G75" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1163, 290, 598, 1, 2, 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A75 &amp; ", " &amp; B75 &amp; ", " &amp; C75 &amp; ", " &amp; D75 &amp; ", " &amp; E75 &amp; ", " &amp; F75 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1217, 303, 57, 0, 0, 2);</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="3"/>
-        <v>1164</v>
+        <v>1218</v>
       </c>
       <c r="B76">
-        <f t="shared" si="37"/>
-        <v>290</v>
+        <f t="shared" si="39"/>
+        <v>303</v>
       </c>
       <c r="C76">
-        <v>598</v>
+        <v>57</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -30596,60 +32416,840 @@
         <v>1</v>
       </c>
       <c r="G76" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1164, 290, 598, 1, 0, 1);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A76 &amp; ", " &amp; B76 &amp; ", " &amp; C76 &amp; ", " &amp; D76 &amp; ", " &amp; E76 &amp; ", " &amp; F76 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1218, 303, 57, 0, 0, 1);</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="3"/>
-        <v>1165</v>
+        <v>1219</v>
       </c>
       <c r="B77">
-        <f t="shared" si="38"/>
-        <v>290</v>
+        <f t="shared" si="36"/>
+        <v>304</v>
       </c>
       <c r="C77">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F77">
         <v>2</v>
       </c>
       <c r="G77" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1165, 290, 54, 0, 0, 2);</v>
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A77 &amp; ", " &amp; B77 &amp; ", " &amp; C77 &amp; ", " &amp; D77 &amp; ", " &amp; E77 &amp; ", " &amp; F77 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 304, 51, 4, 2, 2);</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="3"/>
-        <v>1166</v>
+        <v>1220</v>
       </c>
       <c r="B78">
+        <f t="shared" si="37"/>
+        <v>304</v>
+      </c>
+      <c r="C78">
+        <v>51</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A78 &amp; ", " &amp; B78 &amp; ", " &amp; C78 &amp; ", " &amp; D78 &amp; ", " &amp; E78 &amp; ", " &amp; F78 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 304, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>1221</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>304</v>
+      </c>
+      <c r="C79">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A79 &amp; ", " &amp; B79 &amp; ", " &amp; C79 &amp; ", " &amp; D79 &amp; ", " &amp; E79 &amp; ", " &amp; F79 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 304, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>1222</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="39"/>
-        <v>290</v>
-      </c>
-      <c r="C78">
+        <v>304</v>
+      </c>
+      <c r="C80">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A80 &amp; ", " &amp; B80 &amp; ", " &amp; C80 &amp; ", " &amp; D80 &amp; ", " &amp; E80 &amp; ", " &amp; F80 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 304, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>1223</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="36"/>
+        <v>305</v>
+      </c>
+      <c r="C81">
         <v>54</v>
       </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="str">
-        <f t="shared" si="2"/>
-        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1166, 290, 54, 0, 0, 1);</v>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A81 &amp; ", " &amp; B81 &amp; ", " &amp; C81 &amp; ", " &amp; D81 &amp; ", " &amp; E81 &amp; ", " &amp; F81 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 305, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="37"/>
+        <v>305</v>
+      </c>
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A82 &amp; ", " &amp; B82 &amp; ", " &amp; C82 &amp; ", " &amp; D82 &amp; ", " &amp; E82 &amp; ", " &amp; F82 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 305, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="38"/>
+        <v>305</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A83 &amp; ", " &amp; B83 &amp; ", " &amp; C83 &amp; ", " &amp; D83 &amp; ", " &amp; E83 &amp; ", " &amp; F83 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 305, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>1226</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="39"/>
+        <v>305</v>
+      </c>
+      <c r="C84">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A84 &amp; ", " &amp; B84 &amp; ", " &amp; C84 &amp; ", " &amp; D84 &amp; ", " &amp; E84 &amp; ", " &amp; F84 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 305, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>1227</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ref="B85" si="40">B81+1</f>
+        <v>306</v>
+      </c>
+      <c r="C85">
+        <v>598</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A85 &amp; ", " &amp; B85 &amp; ", " &amp; C85 &amp; ", " &amp; D85 &amp; ", " &amp; E85 &amp; ", " &amp; F85 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 306, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>1228</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86" si="41">B85</f>
+        <v>306</v>
+      </c>
+      <c r="C86">
+        <v>598</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A86 &amp; ", " &amp; B86 &amp; ", " &amp; C86 &amp; ", " &amp; D86 &amp; ", " &amp; E86 &amp; ", " &amp; F86 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 306, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>1229</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87" si="42">B85</f>
+        <v>306</v>
+      </c>
+      <c r="C87">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A87 &amp; ", " &amp; B87 &amp; ", " &amp; C87 &amp; ", " &amp; D87 &amp; ", " &amp; E87 &amp; ", " &amp; F87 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 306, 55, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>1230</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ref="B88" si="43">B85</f>
+        <v>306</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A88 &amp; ", " &amp; B88 &amp; ", " &amp; C88 &amp; ", " &amp; D88 &amp; ", " &amp; E88 &amp; ", " &amp; F88 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 306, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>1231</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ref="B89" si="44">B85+1</f>
+        <v>307</v>
+      </c>
+      <c r="C89">
+        <v>55</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A89 &amp; ", " &amp; B89 &amp; ", " &amp; C89 &amp; ", " &amp; D89 &amp; ", " &amp; E89 &amp; ", " &amp; F89 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 307, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>1232</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90" si="45">B89</f>
+        <v>307</v>
+      </c>
+      <c r="C90">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A90 &amp; ", " &amp; B90 &amp; ", " &amp; C90 &amp; ", " &amp; D90 &amp; ", " &amp; E90 &amp; ", " &amp; F90 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 307, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ref="A91:A112" si="46">A90+1</f>
+        <v>1233</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91" si="47">B89</f>
+        <v>307</v>
+      </c>
+      <c r="C91">
+        <v>51</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A91 &amp; ", " &amp; B91 &amp; ", " &amp; C91 &amp; ", " &amp; D91 &amp; ", " &amp; E91 &amp; ", " &amp; F91 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 307, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="46"/>
+        <v>1234</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="48">B89</f>
+        <v>307</v>
+      </c>
+      <c r="C92">
+        <v>51</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A92 &amp; ", " &amp; B92 &amp; ", " &amp; C92 &amp; ", " &amp; D92 &amp; ", " &amp; E92 &amp; ", " &amp; F92 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 307, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="46"/>
+        <v>1235</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="49">B89+1</f>
+        <v>308</v>
+      </c>
+      <c r="C93">
+        <v>57</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A93 &amp; ", " &amp; B93 &amp; ", " &amp; C93 &amp; ", " &amp; D93 &amp; ", " &amp; E93 &amp; ", " &amp; F93 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 308, 57, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="46"/>
+        <v>1236</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94" si="50">B93</f>
+        <v>308</v>
+      </c>
+      <c r="C94">
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A94 &amp; ", " &amp; B94 &amp; ", " &amp; C94 &amp; ", " &amp; D94 &amp; ", " &amp; E94 &amp; ", " &amp; F94 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 308, 57, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="46"/>
+        <v>1237</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="51">B93</f>
+        <v>308</v>
+      </c>
+      <c r="C95">
+        <v>593</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A95 &amp; ", " &amp; B95 &amp; ", " &amp; C95 &amp; ", " &amp; D95 &amp; ", " &amp; E95 &amp; ", " &amp; F95 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 308, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="46"/>
+        <v>1238</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96" si="52">B93</f>
+        <v>308</v>
+      </c>
+      <c r="C96">
+        <v>593</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A96 &amp; ", " &amp; B96 &amp; ", " &amp; C96 &amp; ", " &amp; D96 &amp; ", " &amp; E96 &amp; ", " &amp; F96 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 308, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="46"/>
+        <v>1239</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97" si="53">B93+1</f>
+        <v>309</v>
+      </c>
+      <c r="C97">
+        <v>598</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A97 &amp; ", " &amp; B97 &amp; ", " &amp; C97 &amp; ", " &amp; D97 &amp; ", " &amp; E97 &amp; ", " &amp; F97 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 309, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="46"/>
+        <v>1240</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98" si="54">B97</f>
+        <v>309</v>
+      </c>
+      <c r="C98">
+        <v>598</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A98 &amp; ", " &amp; B98 &amp; ", " &amp; C98 &amp; ", " &amp; D98 &amp; ", " &amp; E98 &amp; ", " &amp; F98 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 309, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="46"/>
+        <v>1241</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="55">B97</f>
+        <v>309</v>
+      </c>
+      <c r="C99">
+        <v>56</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A99 &amp; ", " &amp; B99 &amp; ", " &amp; C99 &amp; ", " &amp; D99 &amp; ", " &amp; E99 &amp; ", " &amp; F99 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 309, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="46"/>
+        <v>1242</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100" si="56">B97</f>
+        <v>309</v>
+      </c>
+      <c r="C100">
+        <v>56</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A100 &amp; ", " &amp; B100 &amp; ", " &amp; C100 &amp; ", " &amp; D100 &amp; ", " &amp; E100 &amp; ", " &amp; F100 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 309, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="46"/>
+        <v>1243</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101" si="57">B97+1</f>
+        <v>310</v>
+      </c>
+      <c r="C101">
+        <v>54</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A101 &amp; ", " &amp; B101 &amp; ", " &amp; C101 &amp; ", " &amp; D101 &amp; ", " &amp; E101 &amp; ", " &amp; F101 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 310, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="46"/>
+        <v>1244</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102" si="58">B101</f>
+        <v>310</v>
+      </c>
+      <c r="C102">
+        <v>54</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A102 &amp; ", " &amp; B102 &amp; ", " &amp; C102 &amp; ", " &amp; D102 &amp; ", " &amp; E102 &amp; ", " &amp; F102 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 310, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="46"/>
+        <v>1245</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103" si="59">B101</f>
+        <v>310</v>
+      </c>
+      <c r="C103">
+        <v>55</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A103 &amp; ", " &amp; B103 &amp; ", " &amp; C103 &amp; ", " &amp; D103 &amp; ", " &amp; E103 &amp; ", " &amp; F103 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 310, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="46"/>
+        <v>1246</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104" si="60">B101</f>
+        <v>310</v>
+      </c>
+      <c r="C104">
+        <v>55</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A104 &amp; ", " &amp; B104 &amp; ", " &amp; C104 &amp; ", " &amp; D104 &amp; ", " &amp; E104 &amp; ", " &amp; F104 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 310, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="46"/>
+        <v>1247</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105" si="61">B101+1</f>
+        <v>311</v>
+      </c>
+      <c r="C105">
+        <v>51</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A105 &amp; ", " &amp; B105 &amp; ", " &amp; C105 &amp; ", " &amp; D105 &amp; ", " &amp; E105 &amp; ", " &amp; F105 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1247, 311, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <f t="shared" si="46"/>
+        <v>1248</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ref="B106" si="62">B105</f>
+        <v>311</v>
+      </c>
+      <c r="C106">
+        <v>51</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A106 &amp; ", " &amp; B106 &amp; ", " &amp; C106 &amp; ", " &amp; D106 &amp; ", " &amp; E106 &amp; ", " &amp; F106 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1248, 311, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <f t="shared" si="46"/>
+        <v>1249</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ref="B107" si="63">B105</f>
+        <v>311</v>
+      </c>
+      <c r="C107">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A107 &amp; ", " &amp; B107 &amp; ", " &amp; C107 &amp; ", " &amp; D107 &amp; ", " &amp; E107 &amp; ", " &amp; F107 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1249, 311, 54, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <f t="shared" si="46"/>
+        <v>1250</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ref="B108" si="64">B105</f>
+        <v>311</v>
+      </c>
+      <c r="C108">
+        <v>54</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A108 &amp; ", " &amp; B108 &amp; ", " &amp; C108 &amp; ", " &amp; D108 &amp; ", " &amp; E108 &amp; ", " &amp; F108 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1250, 311, 54, 0, 0, 1);</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/copamerica.xlsx
+++ b/Scripts/copamerica.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="1916" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="1955" sheetId="24" r:id="rId23"/>
     <sheet name="1956" sheetId="25" r:id="rId24"/>
     <sheet name="1957" sheetId="26" r:id="rId25"/>
+    <sheet name="1959 Argentina" sheetId="27" r:id="rId26"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -30662,6 +30663,2605 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="111" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f t="shared" ref="G1:G22" si="0">"insert into game (matchid, matchdate, game_type) values (" &amp; A1 &amp; ", '" &amp; B1 &amp; "', " &amp;C1 &amp; ");"</f>
+        <v>insert into game (matchid, matchdate, game_type) values (matchid, 'matchdate', game_type);</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>291</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>"1957-03-07"</f>
+        <v>1957-03-07</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (291, '1957-03-07', 2);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>A2+1</f>
+        <v>292</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>"1957-03-10"</f>
+        <v>1957-03-10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (292, '1957-03-10', 2);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A22" si="1">A3+1</f>
+        <v>293</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>"1957-03-13"</f>
+        <v>1957-03-13</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (293, '1957-03-13', 2);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="B5" s="2" t="str">
+        <f>"1957-03-13"</f>
+        <v>1957-03-13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (294, '1957-03-13', 2);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" si="1"/>
+        <v>295</v>
+      </c>
+      <c r="B6" s="2" t="str">
+        <f>"1957-03-16"</f>
+        <v>1957-03-16</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (295, '1957-03-16', 2);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>296</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>"1957-03-17"</f>
+        <v>1957-03-17</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (296, '1957-03-17', 2);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>297</v>
+      </c>
+      <c r="B8" s="2" t="str">
+        <f>"1957-03-17"</f>
+        <v>1957-03-17</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (297, '1957-03-17', 2);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>298</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f>"1957-03-20"</f>
+        <v>1957-03-20</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (298, '1957-03-20', 2);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>299</v>
+      </c>
+      <c r="B10" s="2" t="str">
+        <f>"1957-03-21"</f>
+        <v>1957-03-21</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (299, '1957-03-21', 2);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>"1957-03-21"</f>
+        <v>1957-03-21</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (300, '1957-03-21', 2);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="B12" s="2" t="str">
+        <f>"1957-03-23"</f>
+        <v>1957-03-23</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (301, '1957-03-23', 2);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="1"/>
+        <v>302</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f>"1957-03-24"</f>
+        <v>1957-03-24</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (302, '1957-03-24', 2);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="1"/>
+        <v>303</v>
+      </c>
+      <c r="B14" s="2" t="str">
+        <f>"1957-03-24"</f>
+        <v>1957-03-24</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (303, '1957-03-24', 2);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="1"/>
+        <v>304</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f>"1957-03-27"</f>
+        <v>1957-03-27</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (304, '1957-03-27', 2);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <f>"1957-03-28"</f>
+        <v>1957-03-28</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (305, '1957-03-28', 2);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="1"/>
+        <v>306</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>"1957-03-28"</f>
+        <v>1957-03-28</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (306, '1957-03-28', 2);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="B18" s="2" t="str">
+        <f>"1957-03-31"</f>
+        <v>1957-03-31</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (307, '1957-03-31', 2);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="B19" s="2" t="str">
+        <f>"1957-04-01"</f>
+        <v>1957-04-01</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (308, '1957-04-01', 2);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="B20" s="2" t="str">
+        <f>"1957-04-01"</f>
+        <v>1957-04-01</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (309, '1957-04-01', 2);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f>"1957-04-03"</f>
+        <v>1957-04-03</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (310, '1957-04-03', 2);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="1"/>
+        <v>311</v>
+      </c>
+      <c r="B22" s="2" t="str">
+        <f>"1957-04-06"</f>
+        <v>1957-04-06</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into game (matchid, matchdate, game_type) values (311, '1957-04-06', 2);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" t="str">
+        <f>"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A24 &amp; ", " &amp; B24 &amp; ", " &amp; C24 &amp; ", " &amp; D24 &amp; ", " &amp; E24 &amp; ", " &amp; F24 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (id, matchid, squad, goals, points, time_type);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1167</v>
+      </c>
+      <c r="B25">
+        <v>291</v>
+      </c>
+      <c r="C25">
+        <v>598</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" ref="G25:G72" si="2">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A25 &amp; ", " &amp; B25 &amp; ", " &amp; C25 &amp; ", " &amp; D25 &amp; ", " &amp; E25 &amp; ", " &amp; F25 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1167, 291, 598, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>A25+1</f>
+        <v>1168</v>
+      </c>
+      <c r="B26">
+        <f>B25</f>
+        <v>291</v>
+      </c>
+      <c r="C26">
+        <v>598</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1168, 291, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ref="A27:A90" si="3">A26+1</f>
+        <v>1169</v>
+      </c>
+      <c r="B27">
+        <f>B25</f>
+        <v>291</v>
+      </c>
+      <c r="C27">
+        <v>593</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1169, 291, 593, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="3"/>
+        <v>1170</v>
+      </c>
+      <c r="B28">
+        <f>B25</f>
+        <v>291</v>
+      </c>
+      <c r="C28">
+        <v>593</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1170, 291, 593, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="3"/>
+        <v>1171</v>
+      </c>
+      <c r="B29">
+        <f>B25+1</f>
+        <v>292</v>
+      </c>
+      <c r="C29">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1171, 292, 51, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="3"/>
+        <v>1172</v>
+      </c>
+      <c r="B30">
+        <f>B29</f>
+        <v>292</v>
+      </c>
+      <c r="C30">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1172, 292, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="3"/>
+        <v>1173</v>
+      </c>
+      <c r="B31">
+        <f>B29</f>
+        <v>292</v>
+      </c>
+      <c r="C31">
+        <v>593</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1173, 292, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="3"/>
+        <v>1174</v>
+      </c>
+      <c r="B32">
+        <f>B29</f>
+        <v>292</v>
+      </c>
+      <c r="C32">
+        <v>593</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1174, 292, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="3"/>
+        <v>1175</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33" si="4">B29+1</f>
+        <v>293</v>
+      </c>
+      <c r="C33">
+        <v>54</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1175, 293, 54, 8, 2, 2);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="3"/>
+        <v>1176</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34" si="5">B33</f>
+        <v>293</v>
+      </c>
+      <c r="C34">
+        <v>54</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1176, 293, 54, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="3"/>
+        <v>1177</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35" si="6">B33</f>
+        <v>293</v>
+      </c>
+      <c r="C35">
+        <v>57</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1177, 293, 57, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="3"/>
+        <v>1178</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36" si="7">B33</f>
+        <v>293</v>
+      </c>
+      <c r="C36">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1178, 293, 57, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="3"/>
+        <v>1179</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37" si="8">B33+1</f>
+        <v>294</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1179, 294, 55, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="3"/>
+        <v>1180</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38" si="9">B37</f>
+        <v>294</v>
+      </c>
+      <c r="C38">
+        <v>55</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1180, 294, 55, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="3"/>
+        <v>1181</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ref="B39" si="10">B37</f>
+        <v>294</v>
+      </c>
+      <c r="C39">
+        <v>56</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1181, 294, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="3"/>
+        <v>1182</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ref="B40" si="11">B37</f>
+        <v>294</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1182, 294, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="3"/>
+        <v>1183</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ref="B41" si="12">B37+1</f>
+        <v>295</v>
+      </c>
+      <c r="C41">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1183, 295, 51, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="3"/>
+        <v>1184</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ref="B42" si="13">B41</f>
+        <v>295</v>
+      </c>
+      <c r="C42">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1184, 295, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="3"/>
+        <v>1185</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ref="B43" si="14">B41</f>
+        <v>295</v>
+      </c>
+      <c r="C43">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1185, 295, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="3"/>
+        <v>1186</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ref="B44" si="15">B41</f>
+        <v>295</v>
+      </c>
+      <c r="C44">
+        <v>56</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1186, 295, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="3"/>
+        <v>1187</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ref="B45" si="16">B41+1</f>
+        <v>296</v>
+      </c>
+      <c r="C45">
+        <v>57</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1187, 296, 57, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="3"/>
+        <v>1188</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46" si="17">B45</f>
+        <v>296</v>
+      </c>
+      <c r="C46">
+        <v>57</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1188, 296, 57, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="3"/>
+        <v>1189</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ref="B47" si="18">B45</f>
+        <v>296</v>
+      </c>
+      <c r="C47">
+        <v>598</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1189, 296, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="3"/>
+        <v>1190</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ref="B48" si="19">B45</f>
+        <v>296</v>
+      </c>
+      <c r="C48">
+        <v>598</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1190, 296, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="3"/>
+        <v>1191</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ref="B49" si="20">B45+1</f>
+        <v>297</v>
+      </c>
+      <c r="C49">
+        <v>54</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1191, 297, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="3"/>
+        <v>1192</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50" si="21">B49</f>
+        <v>297</v>
+      </c>
+      <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1192, 297, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="3"/>
+        <v>1193</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51" si="22">B49</f>
+        <v>297</v>
+      </c>
+      <c r="C51">
+        <v>593</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1193, 297, 593, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="3"/>
+        <v>1194</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ref="B52" si="23">B49</f>
+        <v>297</v>
+      </c>
+      <c r="C52">
+        <v>593</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1194, 297, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="3"/>
+        <v>1195</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ref="B53" si="24">B49+1</f>
+        <v>298</v>
+      </c>
+      <c r="C53">
+        <v>54</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1195, 298, 54, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="3"/>
+        <v>1196</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ref="B54" si="25">B53</f>
+        <v>298</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1196, 298, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="3"/>
+        <v>1197</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ref="B55" si="26">B53</f>
+        <v>298</v>
+      </c>
+      <c r="C55">
+        <v>598</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1197, 298, 598, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="3"/>
+        <v>1198</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ref="B56" si="27">B53</f>
+        <v>298</v>
+      </c>
+      <c r="C56">
+        <v>598</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1198, 298, 598, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="3"/>
+        <v>1199</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ref="B57" si="28">B53+1</f>
+        <v>299</v>
+      </c>
+      <c r="C57">
+        <v>55</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1199, 299, 55, 7, 2, 2);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ref="B58" si="29">B57</f>
+        <v>299</v>
+      </c>
+      <c r="C58">
+        <v>55</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1200, 299, 55, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="3"/>
+        <v>1201</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ref="B59" si="30">B57</f>
+        <v>299</v>
+      </c>
+      <c r="C59">
+        <v>593</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1201, 299, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="3"/>
+        <v>1202</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ref="B60" si="31">B57</f>
+        <v>299</v>
+      </c>
+      <c r="C60">
+        <v>593</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1202, 299, 593, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="3"/>
+        <v>1203</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ref="B61" si="32">B57+1</f>
+        <v>300</v>
+      </c>
+      <c r="C61">
+        <v>56</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1203, 300, 56, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="3"/>
+        <v>1204</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ref="B62" si="33">B61</f>
+        <v>300</v>
+      </c>
+      <c r="C62">
+        <v>56</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1204, 300, 56, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="3"/>
+        <v>1205</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ref="B63" si="34">B61</f>
+        <v>300</v>
+      </c>
+      <c r="C63">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1205, 300, 57, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="3"/>
+        <v>1206</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ref="B64" si="35">B61</f>
+        <v>300</v>
+      </c>
+      <c r="C64">
+        <v>57</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1206, 300, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="3"/>
+        <v>1207</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ref="B65:B81" si="36">B61+1</f>
+        <v>301</v>
+      </c>
+      <c r="C65">
+        <v>598</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1207, 301, 598, 5, 2, 2);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="3"/>
+        <v>1208</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:B82" si="37">B65</f>
+        <v>301</v>
+      </c>
+      <c r="C66">
+        <v>598</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1208, 301, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="3"/>
+        <v>1209</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:B83" si="38">B65</f>
+        <v>301</v>
+      </c>
+      <c r="C67">
+        <v>51</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1209, 301, 51, 3, 0, 2);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="3"/>
+        <v>1210</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:B84" si="39">B65</f>
+        <v>301</v>
+      </c>
+      <c r="C68">
+        <v>51</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1210, 301, 51, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="3"/>
+        <v>1211</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="36"/>
+        <v>302</v>
+      </c>
+      <c r="C69">
+        <v>56</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1211, 302, 56, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="3"/>
+        <v>1212</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="37"/>
+        <v>302</v>
+      </c>
+      <c r="C70">
+        <v>56</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1212, 302, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="3"/>
+        <v>1213</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="38"/>
+        <v>302</v>
+      </c>
+      <c r="C71">
+        <v>593</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1213, 302, 593, 2, 1, 2);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>1214</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="39"/>
+        <v>302</v>
+      </c>
+      <c r="C72">
+        <v>593</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="2"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1214, 302, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>1215</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="36"/>
+        <v>303</v>
+      </c>
+      <c r="C73">
+        <v>55</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" ref="G73:G108" si="40">"insert into game_score (id, matchid, squad, goals, points, time_type) values (" &amp; A73 &amp; ", " &amp; B73 &amp; ", " &amp; C73 &amp; ", " &amp; D73 &amp; ", " &amp; E73 &amp; ", " &amp; F73 &amp; ");"</f>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1215, 303, 55, 9, 2, 2);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>1216</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="37"/>
+        <v>303</v>
+      </c>
+      <c r="C74">
+        <v>55</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1216, 303, 55, 4, 0, 1);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>1217</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="38"/>
+        <v>303</v>
+      </c>
+      <c r="C75">
+        <v>57</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1217, 303, 57, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>1218</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="39"/>
+        <v>303</v>
+      </c>
+      <c r="C76">
+        <v>57</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1218, 303, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>1219</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="36"/>
+        <v>304</v>
+      </c>
+      <c r="C77">
+        <v>51</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1219, 304, 51, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>1220</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="37"/>
+        <v>304</v>
+      </c>
+      <c r="C78">
+        <v>51</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1220, 304, 51, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>1221</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>304</v>
+      </c>
+      <c r="C79">
+        <v>57</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1221, 304, 57, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>1222</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="39"/>
+        <v>304</v>
+      </c>
+      <c r="C80">
+        <v>57</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1222, 304, 57, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>1223</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="36"/>
+        <v>305</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81">
+        <v>2</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1223, 305, 54, 6, 2, 2);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>1224</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="37"/>
+        <v>305</v>
+      </c>
+      <c r="C82">
+        <v>54</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1224, 305, 54, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>1225</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="38"/>
+        <v>305</v>
+      </c>
+      <c r="C83">
+        <v>56</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1225, 305, 56, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>1226</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="39"/>
+        <v>305</v>
+      </c>
+      <c r="C84">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1226, 305, 56, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>1227</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ref="B85" si="41">B81+1</f>
+        <v>306</v>
+      </c>
+      <c r="C85">
+        <v>598</v>
+      </c>
+      <c r="D85">
+        <v>3</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1227, 306, 598, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>1228</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ref="B86" si="42">B85</f>
+        <v>306</v>
+      </c>
+      <c r="C86">
+        <v>598</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1228, 306, 598, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>1229</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ref="B87" si="43">B85</f>
+        <v>306</v>
+      </c>
+      <c r="C87">
+        <v>55</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1229, 306, 55, 2, 0, 2);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>1230</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ref="B88" si="44">B85</f>
+        <v>306</v>
+      </c>
+      <c r="C88">
+        <v>55</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1230, 306, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>1231</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ref="B89" si="45">B85+1</f>
+        <v>307</v>
+      </c>
+      <c r="C89">
+        <v>55</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1231, 307, 55, 1, 2, 2);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>1232</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90" si="46">B89</f>
+        <v>307</v>
+      </c>
+      <c r="C90">
+        <v>55</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1232, 307, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" ref="A91:A108" si="47">A90+1</f>
+        <v>1233</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ref="B91" si="48">B89</f>
+        <v>307</v>
+      </c>
+      <c r="C91">
+        <v>51</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1233, 307, 51, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="47"/>
+        <v>1234</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ref="B92" si="49">B89</f>
+        <v>307</v>
+      </c>
+      <c r="C92">
+        <v>51</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1234, 307, 51, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="47"/>
+        <v>1235</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93" si="50">B89+1</f>
+        <v>308</v>
+      </c>
+      <c r="C93">
+        <v>57</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1235, 308, 57, 4, 2, 2);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="47"/>
+        <v>1236</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ref="B94" si="51">B93</f>
+        <v>308</v>
+      </c>
+      <c r="C94">
+        <v>57</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1236, 308, 57, 3, 0, 1);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="47"/>
+        <v>1237</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ref="B95" si="52">B93</f>
+        <v>308</v>
+      </c>
+      <c r="C95">
+        <v>593</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1237, 308, 593, 1, 0, 2);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="47"/>
+        <v>1238</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ref="B96" si="53">B93</f>
+        <v>308</v>
+      </c>
+      <c r="C96">
+        <v>593</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1238, 308, 593, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="47"/>
+        <v>1239</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ref="B97" si="54">B93+1</f>
+        <v>309</v>
+      </c>
+      <c r="C97">
+        <v>598</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1239, 309, 598, 2, 2, 2);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="47"/>
+        <v>1240</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98" si="55">B97</f>
+        <v>309</v>
+      </c>
+      <c r="C98">
+        <v>598</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1240, 309, 598, 2, 0, 1);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="47"/>
+        <v>1241</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ref="B99" si="56">B97</f>
+        <v>309</v>
+      </c>
+      <c r="C99">
+        <v>56</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1241, 309, 56, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="47"/>
+        <v>1242</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ref="B100" si="57">B97</f>
+        <v>309</v>
+      </c>
+      <c r="C100">
+        <v>56</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1242, 309, 56, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f t="shared" si="47"/>
+        <v>1243</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ref="B101" si="58">B97+1</f>
+        <v>310</v>
+      </c>
+      <c r="C101">
+        <v>54</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1243, 310, 54, 3, 2, 2);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f t="shared" si="47"/>
+        <v>1244</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ref="B102" si="59">B101</f>
+        <v>310</v>
+      </c>
+      <c r="C102">
+        <v>54</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1244, 310, 54, 1, 0, 1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f t="shared" si="47"/>
+        <v>1245</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ref="B103" si="60">B101</f>
+        <v>310</v>
+      </c>
+      <c r="C103">
+        <v>55</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1245, 310, 55, 0, 0, 2);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <f t="shared" si="47"/>
+        <v>1246</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ref="B104" si="61">B101</f>
+        <v>310</v>
+      </c>
+      <c r="C104">
+        <v>55</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="40"/>
+        <v>insert into game_score (id, matchid, squad, goals, points, time_type) values (1246, 310, 55, 0, 0, 1);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <f t="shared" si="47"/>
+        <v>1247</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ref="B105" si="62">B101+1</f>
+        <v>311</v>
+      </c>
+      <c r="C105">
+        <v>5